--- a/merged.xlsx
+++ b/merged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="627">
   <si>
     <t>#</t>
   </si>
@@ -43,898 +43,937 @@
     <t>核心词周期数据</t>
   </si>
   <si>
-    <t>Christmas Banner Grinches Party Decorations Drink Up Banners Indoor, Glittery Christmas Decor Banner, Red Green Banner for Home Fireplace Decor</t>
-  </si>
-  <si>
-    <t>Pre-Strung Hello 2026 Happy New Year Banner with Balloon, No DIY Glitter Gold New Years Decorations 2026 for NYE Decorations 2026 Happy New Years Eve Party Supplies</t>
-  </si>
-  <si>
-    <t>Demon Movie Hunters Birthday Decorations,Demon Movie Hunters Happy Birthday Banner Backdrop for Kids Birthday Party Supplies 60 * 40 inches</t>
-  </si>
-  <si>
-    <t>New Year Decorations 2026, Black Gold New Years Eve Party Supplies 2026 with Happy New Year Banner Photo Booth Props Fringe Curtains 32inch 2026 Balloons for Happy New YearS Decorations 2026</t>
-  </si>
-  <si>
-    <t>Miucat Pre-Strung Happy New Year Banner 2026, New Years Eve Party Supplies 2026, Black Gold NYE Party Decorations 2026</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner, 71x44 Inch Happy New Year 2026 New Years Backdrop Reusable New Years Eve Party Supplies 2026 with Firework Pattern for n ew Year Photo Booth Background Party NYE Decoration 2026</t>
-  </si>
-  <si>
-    <t>Happy New Year 2026, Happy New Year Banner 71x44 Inch New Years Backdrop Reusable New Years Eve Party Supplies 2026 with Fireworks Pattern for New yea r Photo Booth Background Party Decorations</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner 2026-72x44 Inch Extra Large Happy New Year Backdrop, New Years Decorations 2026, NYE Decorations 2026 for Indoor Outdoor Celebration Photography Background</t>
-  </si>
-  <si>
-    <t>BINQOO 2026 New Year Eve Backdrop Black Gold Happy New Year Photo Background City Night Scene Countdown Cheer to 2026 Party Decorations Banner Booth Props (Gold, 7x5FT(82 x 59 inch))</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner Glitter Silver - Pre-Strung Happy New Years Eve Party Decorations Supplies 2026 for Happy New Year 2026, Happy New Years Decorations</t>
-  </si>
-  <si>
-    <t>Vintage Merry Christmas Banner, Christmas Backdrop, Xmas Photography Background for Xmas Party Decorations, 71x43 Inch</t>
-  </si>
-  <si>
-    <t>2026 Happy New Year Banner with String Lights, 72x12 Inch Large Front Door Porch Sign, One Pair Black and Gold Hanging Banner Decorations, New Years Eve Party Supplies for Outdoor Indoor Home Wall Decor</t>
-  </si>
-  <si>
-    <t>PARTY TONIGHT New Years Eve Party Supplies 2026, Black Gold Happy New Year Eve Decorations 2026 New Years Decorations 2026 Kit</t>
-  </si>
-  <si>
-    <t>Pre Strung Glitter Hello 2026 Happy New Year Banner Decorations Gold New Years Eve Banner Sign Party Supplies 2026 Happy New Year for Party Supplies 2026 Home Holiday Decorations NO DIY</t>
-  </si>
-  <si>
-    <t>2026 Happy New Year Neon Backdrop 2026 New Years Eve Photography Background NYE Colorful Firework Year's Eve Party Decorations Banner Booth Props (7x5FT(2.1m x 1.5m))</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner, Winter Snowman Christmas Banner Backdrop, Xmas Photography Background for Xmas Party Decorations, 71x43 Inch</t>
-  </si>
-  <si>
-    <t>Pink Christmas Backdrop for Photography Pink Christmas Tree Fireplace Background for Winter Xmas Holiday Family Party Decoration Banner Photo Studio Props Pictures (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>Party Decorations, Birthday Decorations Include 1 Pc Happy Birthday Banner and 8 Pcs Decors Hanging Swirls, Decorations for Birthday</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner Backdrop 7x5FT 2026 Black and Gold Glitter New Year Background for Photography Fireworks New Years Eve Party Decorations Supplies Photo Props</t>
-  </si>
-  <si>
-    <t>Large Merry Christmas Banner Decorations,Gingerbread House Christmas Background Decor Gingerbread House Backdrop for Winter Merry Xmas Backdrop Indoor Outdoor Winter Holiday Party Supply</t>
-  </si>
-  <si>
-    <t>Merry Christmas Decoration Backdrop Party Banner Blue Christmas Eve Be Merry Garland Xmas Background Family Photo Sign Outdoor Indoor for Home Holiday Supplies 70.8 x 43.3 Inch</t>
-  </si>
-  <si>
-    <t>Christmas Fireplace Photography Backdrop Merry Christmas Party Decorations Banner Indoor Vintage Xmas Tree Background for Winter Holiday Family Studio Decor Booth Props (82x59 inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>Blue Winter Christmas Backdrop 7x5FT North Pole Winter Forest Scene Wonderland Photography Background Xmas Snowflake Moon Night Happy New Year Party Decorations Banner</t>
-  </si>
-  <si>
-    <t>Christmas Banner Backdrop Large 71 x 43 Inch Christmas and Happy New Year Party Decorations for Indoor Outdoor Decorations</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner, 71 * 43 Inch, Christmas Party Decorations, Xmas Photography Backdrop for Indoor Outdoor Holiday Family Gatherings</t>
-  </si>
-  <si>
-    <t>Black Silver Happy New Year Backdrop 2026 New Year Eve Party Photography Background Disco Fireworks Glitter Dots Cheers to 2026 Decor Banner Photo Booth Props (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>Blue Merry Christmas Backdrop Glitter Happy New Year Photography Background Christmas Tree Snowflake Banner for Xmas New Years Eve Party Decoration Supplies</t>
-  </si>
-  <si>
-    <t>2026 New Year Decorations – Black Gold New Year’s Eve Party Supplies with Happy New Year Banner, Hanging Swirls with Cutouts, Foil Tassel Garland, Paper Fans &amp; Balloons for New Years Decorations</t>
-  </si>
-  <si>
-    <t>Winter Christmas Backdrop Winter Wonderland Christmas Photography Background Xmas Snowflake Wood Floor Holiday Party Decorations Banner Booth Props (7x5FT(82x59 inch))</t>
-  </si>
-  <si>
-    <t>Black Gold Glitter Backdrop Black and Gold Ballon Photography Background Prom New Years Wedding Birthday Party Decoration Banner Photo Supplies (Gold, 7x5FT(82 x 59 inch))</t>
-  </si>
-  <si>
-    <t>Feliz Navidad Banner Backdrop Red Feliz Navidad Christmas Photography Background for Winter Merry Christmas Holiday Party Decorations Supplies Photo Props (70x40 inch (6x4FT))</t>
-  </si>
-  <si>
-    <t>Christmas Happy Birthday Banner Backdrop 71 * 43 Inch Christmas Birthday Party Decorations</t>
-  </si>
-  <si>
-    <t>2026 New Year Backdrop Happy New Year Fireworks Photography Background City Night Scene Family New Year's Eve Party Decoration Banner Studio Props (82x59 inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>aqwtihaj Christmas Door Cover Climbing Santa Claus Door Banner Decorations Merry Xmas Front Door Cover Xmas Door Hanging Banner Santa Claus Porch Sign Backdrop for Home Winter Holiday Christmas Supply</t>
-  </si>
-  <si>
-    <t>There's Some HoHoHo's in This House Banner - Christmas Party Decorations Xmas Holiday Party Home Office Fireplace Mantel Decorations Red Green Glitter</t>
-  </si>
-  <si>
-    <t>Winter Christmas Tree Backdrop 7x5ft Xmas Pine Tree Photography Background Christmas Glitter Bokeh Party Decorations Holiday Banner Booth Props</t>
-  </si>
-  <si>
-    <t>Monster Christmas Door Cover Funny Holiday Door Banner for Front Porch, Indoor/Outdoor Xmas Party Decorations, Mischievous Creature Theme Backdrop (Red)</t>
-  </si>
-  <si>
-    <t>2026 Happy New Year Banner, New Years Eve Party Supplies 2026, Gold Black Glitter Disco Ball Banner for Happy Newyears Eve Party Decorations Supplies</t>
-  </si>
-  <si>
-    <t>North Pole Backdrop Merry Christmas Winter Xmas Tree Photography Background Cane Candy House Santa Party Decorations Holiday Banner Booth Props (7x5FT(2.1m x 1.5m))</t>
-  </si>
-  <si>
-    <t>Happy New Year 2026 Black Silver Backdrop 2026 New Year Eve Countdown Photo Background Cheer to 2026 Party Decoration Banner Photo Supplies</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner 2026 - No DIY New Years Eve Party Decorations Supplies 2026 for New Years Eve Decorations</t>
-  </si>
-  <si>
-    <t>New Year Party 2026 Banner Backdrop, Gold Black 2026 Banner New Years Eve Party Supplies for Sign Poster Photo Props Background Decoration</t>
-  </si>
-  <si>
-    <t>3 Pcs Happy New Year Party Decorations Happy New Year Pom Triangle Flag Banner Swirls Garland Hanging Bunting Black Banner With Gold Black Christmas Themed Supplies Decorations</t>
-  </si>
-  <si>
-    <t>Froova Happy New Year Banner 2026 Colorful New Years Eve Decorations Banners Backdrop with Pattern Firework Star Cheers Banners for Home Yard Indoor Outdoor Wall Door Hanger Nye Party Supplies Decor</t>
-  </si>
-  <si>
-    <t>Mario Wall Decor Backdrop for Kids Birthday Decorations, Mario Banner for Birthday Party Supplies (5x3ft)</t>
-  </si>
-  <si>
-    <t>Half Birthday Decorations Banner Kit - 20 Pcs Beige Brown 1/2 Year Birthday Hat Banner Cake Toppers Balloons Photo Props For Baby Boy 6 Months Party Table Sign Deocr Supplies</t>
-  </si>
-  <si>
-    <t>Red Cheetah Print Backdrop Birthday Party Decorations, Y2K Cherry Leopard 3 x 5Ft Polyester Fabric Background Banner for Big Mama Women Girl Night</t>
-  </si>
-  <si>
-    <t>Mindsoft Apres Ski Party Decoration Backdrop 3 x 5 ft Apres Ski Banner Decor for Winter Bachelorette Party Embellishment Atmosphere Creation</t>
-  </si>
-  <si>
-    <t>LISGICABIN Race Car Birthday Decorations – Race Car Party Supplies Kit with 71×43 Inch Tablecloth, Happy Birthday Banner &amp; Hanging Swirls for Race Car Themed Party</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner, Christmas Banner Backdrop, Xmas Photography Background for Xmas Party Decorations, 71x43 Inch</t>
-  </si>
-  <si>
-    <t>Red Plaid Christmas Banner 71x43 inch Christmas Party Decorations Backdrop for Home Party &amp; Store Holiday Decorations</t>
-  </si>
-  <si>
-    <t>Blue Christmas Backdrop 7x5FT Winter Wonderland Photography Backdrop Merry Christmas Snowflake Xmas Tree Gift Banner New Year Birthday Party Decorations Supplies</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner, Vintage Merry Christmas Backdrop for Xmas Party Decorations, 71 x 43 inch</t>
-  </si>
-  <si>
-    <t>Blue Happy New Year Backdrop Cheers to 2026 New Year Eve Party Photography Background Navy Blue Silver Glitter Fireworks Champagne Disco Decor Banner Photo Prop (Blue, 82x59 inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>AIBIIN 2026 Happy New Year Door Cover Banner Black and Sliver Photography Background New Years Eve Party Decoration Backdrop Holiday Party Hanging Poster Background Banner 35.4x70.8inch</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner 71 x 43 Inch Decoration – Large Red Christmas Photography Background Backdrop for Indoor Outdoor Xmas Party Decorations, Fireplace, Wall, and Photo Booth</t>
-  </si>
-  <si>
-    <t>Feliz Navidad Backdrop Red Merry Christmas Party Decorations Feliz Navidad Banner for Winter Xmas Holiday Festival Home Office Wall Decor Supplies Photobooth Props 6X4FT</t>
-  </si>
-  <si>
-    <t>Christmas Fireplace Backdrop White Red Christmas Tree Photography Background Winter Holiday New Year Family Party Decoration Banner Photo Booth Props (6x4FT: 72x48 inch)</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner Glitter, NO DIY | New Years Eve Party Decorations Supplies 2026, Black and Gold Happy New Year 2026 for New Years Decorations</t>
-  </si>
-  <si>
-    <t>Happy New Year Door Banner - 72x12 Inch | Large Front Door Porch Sign Hanging Banner | Happy 2026 Decorations for Outdoor Indoor Home Wall</t>
-  </si>
-  <si>
-    <t>Happy New Year 2026 Banner Decorations Backdrop Large Polyester Sign Poster Black Background with Pattern for Hello 2026 New Year Party Festival Home Decor Photo</t>
-  </si>
-  <si>
-    <t>Christmas Photography Background Vintage Christmas Fireplace Photo Backdrop Xmas Tree Red Socks Family Holiday Party Decoration Banner Supplies (82x59 inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>Winter Wonderland Scene Backdrop 7x5FT Winter Snowflake Christmas Tree Forest Scene Photography Background Snowy Xmas Party Decorations Supplies Photo Props</t>
-  </si>
-  <si>
-    <t>Comic Christmas Red House Backdrop 7x5FT Winter Snowy Night Xmas Tree Kennel Photography Background for Kids Winter Holiday Christmas Party Decorations Supplies Photo Props</t>
-  </si>
-  <si>
-    <t>Sweet Valentines Day Backdrop Pink Heart Happy Valentine's Day Photography Background Red Roses Wall Love Wedding Anniversary Birthday Party Decoration Banner Photo Supplies (7x5FT(82 x 59 inch))</t>
-  </si>
-  <si>
-    <t>New Year Decorations 2026 – Black &amp; Gold Happy New Year Banner with Honeycomb Centerpieces, Glitter NYE Party Decoration Set for Home, Office &amp; New Year’s Eve Celebrations</t>
-  </si>
-  <si>
-    <t>Christmas Photography Backdrop Christmas Tree Fireplace Decoration Background for Winter Xmas Family Party Banner Studio Props Supplies (6x4FT: 72x48 inch)</t>
-  </si>
-  <si>
-    <t>Christmas Cane Candy Backdrop 7x5FT Winter Snow Scene Merry Christmas Photography Background Winter Xmas Holiday New Year Eve Party Decorations Photo Props</t>
-  </si>
-  <si>
-    <t>Winter Forest Backdrop 7x5FT Winter Snowy Mountain Wonderland Snow Scenery Landscape Photography Backdrop for Christmas New Year Event Party Decorations Banner</t>
-  </si>
-  <si>
-    <t>Winter Snowy Forest Backdrop Winter Wonderland Christmas Tree Snow Scene Photography Background Christmas Family Holiday Party Decoration Banner Supplies (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>QIOOLEEO Half Birthday Decorations Set for 6 Months Party - Includes Baby Cone Hat, Glitter Cake Topper, Happy 1/2 Birthday Banner, Triangle Flags for Baby Boy Girl Shower Photoshoot</t>
-  </si>
-  <si>
-    <t>INRUI Happy New Year Photography Backdrop Sparklers Colorful Fireworks for Celebrate New Year Eve Ceremonies Holiday Party Decorations Banner (7x5FT)</t>
-  </si>
-  <si>
-    <t>North Pole Christmas Backdrop Winter Snowy Night Forest Landscape Photography Background Christmas Cane Candy Party Decoration Banner Xmas New Year Eve Photos Props (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>New Year’s Eve Party Supplies 2026, Tumwisk 3PCS Hello 2026&amp;Happy New Years Banner, Funny Black and Gold Selfie Background for NYE Party（Paper)</t>
-  </si>
-  <si>
-    <t>Showgirl Bday Decor - The Life of a Birthday Girl Banner, in My Showgirl Era Birthday Party Decorations Orange Glitter 2</t>
-  </si>
-  <si>
-    <t>Glitter Welcome to the Other Side Banner for Birthday Party Decorations Upside Down Banner Stranger Party Decorations for Boys Girls Spooky Theme Party Supplies Birthday Backdrop Wall Decors Photo Props</t>
-  </si>
-  <si>
-    <t>Avezano Vietnamese New Year Backdrop TET Decorations 2026 Chúc mừng năm mới Photography Background for Vietnam Lunar New Year Celebrations Party Supplies (6x3.6ft)</t>
-  </si>
-  <si>
-    <t>Christmas Wood Wall Backdrop Winter Snowflake Christmas Tree Wood Floor Photography Background Xmas New Year Vintage Family Holiday Party Decoration Banner (5x7FT: 60x84 inch)</t>
-  </si>
-  <si>
-    <t>XtraLarge, Glitter Happy New Year Banner with 20 Feet Star Garland - No DIY | Goodbye 2025 Welcome 2026 Banner | New Years Eve Party Supplies 2026 | New Years Decorations 2026 | New Year Backdrop</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner - Christmas Holiday Bunting Garlands - Festive Party Decor/Winter Mantle Home Decor/Xmas Party Decoration Supplies, Red and Green Glitter</t>
-  </si>
-  <si>
-    <t>Neon Happy New Year 2026 Backdrop 2026 NYE Prom City Fireworks Photography Background Glow Neon City Night New Years Eve Party Decoration Banner Supplies (82x59inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>Christmas Backdrops for Photography 8x6ft Xmas White Brick Wall Background Merry Christmas Wreaths Red Candy Cane Banner for Winter New Year Eve Family Party Decorations Photo Booth Props</t>
-  </si>
-  <si>
-    <t>166 Pcs Oh Twodles Birthday Party Supplies Girl, 2nd Birthday Decorations for Girl Paper Plates Napkins Cups Tablecloth Banner for Pink Gold Oh Twodles Birth day Decorations for Girls Serve 16 Guests</t>
-  </si>
-  <si>
-    <t>AIBIIN 3Pcs Red Black Buffalo Christmas Decorations, Merry Christmas Hanging Proch Sign Banner&amp;Front Door New Year Christmas Banners for Indoor Outdoor Xmas Holiday Decor</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner 2026 New Year's Eve Blue Silver Fireworks Happy New Year Party Decorations Extra Large Fabric New Year's Background Banner for 2026 New Years Eve Party Supplies 70.8 x 43.3 Inch</t>
-  </si>
-  <si>
-    <t>Yellow Glitter 25th Birthday Banner &amp; Cake Topper Kit – “What’s Funnier Than 24?” Party Decoration Set for Milestone 25th Birthday Celebrations</t>
-  </si>
-  <si>
-    <t>Mocsicka Christmas Gingerbread House Backdrop Banner Pink Merry Christmas Candyland Backdrop Winter Xmas Baby Shower Birthday Family Holiday Party Decortaions Photo Booth Props</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner Backdrop 2026, 7x5FT Black and Gold Fireworks New Years Eve Photography Background for NYE Decorations 2026 New Years Eve Party Supplies NYE Party Favor</t>
-  </si>
-  <si>
-    <t>A Baby Is Brewing Banner Coffee Bean Baby Shower Decoration Gender Reveal Clothes Line Bodysuit Garlands Brown</t>
-  </si>
-  <si>
-    <t>Merry Christmas Birthday Banner Decorations Party Backdrop Blue Christmas Xmas Tree Background Family Photo Decoration Happy Birthday Baby Shower Vacation Holiday Party Supplies 70.8 x 43.3 Inch</t>
-  </si>
-  <si>
-    <t>Merry Christmas Banner, Classic Holiday Christmas Banner Backdrop, Xmas Photography Background for Xmas Party Decorations, 71x43 Inch</t>
-  </si>
-  <si>
-    <t>Feliz Año Nuevo Banner Backdrop 7x5FT 2026 Spanish Happy New Year Background Black Gold New Years Party Decorations Supplies Photo Props</t>
-  </si>
-  <si>
-    <t>Feliz Navidad Banner, Spanish Christmas Theme Party Decorations, New Years Eve Xmas Santa Holiday Festival Party Supplies, Home Office Indoor Fireplace Photot Props</t>
-  </si>
-  <si>
-    <t>Pink Glitter Hello 2026 Happy New Year Banner, 2026 New Year's Eve Photo Background, Cherrs to the New Year 2026 Party Decorations Supplies</t>
-  </si>
-  <si>
-    <t>Happy Birthday Jesus Backdrop Red Christmas Jesus's Birthday Photography Background Winter Snowflake Xmas Party Decorations Banner Photo Props (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>Cheers to 2026 Happy New Year Backdrop Black and Gold New Years Eve Party Photography Background Firework Champagne Goodbye 2025 Hello 2026 NYE Holiday Party Decorations Banner (7x5FT: 84x60 inch)</t>
-  </si>
-  <si>
-    <t>Winter Wonderland Snowflake Scene Backdrop Winter Forest Christmas Tree Photography Background Snow Tree Landscape Christmas Holiday Party Decorations Banner Booth Props (7x5FT(82x59 inch))</t>
-  </si>
-  <si>
-    <t>Happy New Year Banner 71 x 43 Inch, Silver Glitter Decor Backdrop with White Ribbon – Sparkling Fireworks and Gift Boxes New Year Eve Party Decorations</t>
-  </si>
-  <si>
-    <t>Feliz Año Nuevo 2026 Backdrop Spanish Happy New Year Photography Background Black and Gold New Years Eve Party Decoracion Año Nuevo Banner (82x59 inch (7x5FT))</t>
-  </si>
-  <si>
-    <t>B0FQTWFX3W</t>
-  </si>
-  <si>
-    <t>B0FY2TMJWK</t>
-  </si>
-  <si>
-    <t>B0FMXT2X47</t>
-  </si>
-  <si>
-    <t>B0FXG6Z49X</t>
-  </si>
-  <si>
-    <t>B0FXGQL2GB</t>
-  </si>
-  <si>
-    <t>B0FY68LZMF</t>
-  </si>
-  <si>
-    <t>B0FY5476GW</t>
-  </si>
-  <si>
-    <t>B0FXBF3MNH</t>
-  </si>
-  <si>
-    <t>B0FQ2RMCSQ</t>
-  </si>
-  <si>
-    <t>B0FXGM9N2Q</t>
-  </si>
-  <si>
-    <t>B0FRY5MKPH</t>
-  </si>
-  <si>
-    <t>B0FT7V596K</t>
-  </si>
-  <si>
-    <t>B0FY2RT7Z3</t>
-  </si>
-  <si>
-    <t>B0FTMT88BB</t>
-  </si>
-  <si>
-    <t>B0FQBWTCFS</t>
-  </si>
-  <si>
-    <t>B0FRY1KHB4</t>
-  </si>
-  <si>
-    <t>B0FNMG4HH9</t>
-  </si>
-  <si>
-    <t>B0FV8CS59N</t>
-  </si>
-  <si>
-    <t>B0FRLJ8SSG</t>
-  </si>
-  <si>
-    <t>B0FPF184RS</t>
-  </si>
-  <si>
-    <t>B0FSLT3684</t>
-  </si>
-  <si>
-    <t>B0FMR37YKM</t>
-  </si>
-  <si>
-    <t>B0FLXLGWNV</t>
-  </si>
-  <si>
-    <t>B0FS94HDNS</t>
-  </si>
-  <si>
-    <t>B0FSC6Y29P</t>
-  </si>
-  <si>
-    <t>B0FQSV33ZS</t>
-  </si>
-  <si>
-    <t>B0FPWTT38Y</t>
-  </si>
-  <si>
-    <t>B0FV34PDNN</t>
-  </si>
-  <si>
-    <t>B0FN6Z6KND</t>
-  </si>
-  <si>
-    <t>B0FQ1PJ49L</t>
-  </si>
-  <si>
-    <t>B0FP285QBJ</t>
-  </si>
-  <si>
-    <t>B0FS7NRSJM</t>
-  </si>
-  <si>
-    <t>B0FPQKWD37</t>
-  </si>
-  <si>
-    <t>B0FSXVMS82</t>
-  </si>
-  <si>
-    <t>B0FSRRQ624</t>
-  </si>
-  <si>
-    <t>B0FLTS7CVR</t>
-  </si>
-  <si>
-    <t>B0FT787C13</t>
-  </si>
-  <si>
-    <t>B0FWCMNKGL</t>
-  </si>
-  <si>
-    <t>B0FLTBH467</t>
-  </si>
-  <si>
-    <t>B0FQBW6KX7</t>
-  </si>
-  <si>
-    <t>B0FXGQFT2M</t>
-  </si>
-  <si>
-    <t>B0FV2S9SB7</t>
-  </si>
-  <si>
-    <t>B0FXBC59YG</t>
-  </si>
-  <si>
-    <t>B0FY2TSC4D</t>
-  </si>
-  <si>
-    <t>B0FQ1QCN5F</t>
-  </si>
-  <si>
-    <t>B0G1M3638L</t>
-  </si>
-  <si>
-    <t>B0FSRKYQM3</t>
-  </si>
-  <si>
-    <t>B0FNN4TGYZ</t>
-  </si>
-  <si>
-    <t>B0FN85R4JT</t>
-  </si>
-  <si>
-    <t>B0FRY26JKB</t>
-  </si>
-  <si>
-    <t>B0FSCHP9QL</t>
-  </si>
-  <si>
-    <t>B0FMD1STPC</t>
-  </si>
-  <si>
-    <t>B0FRXYVWGL</t>
-  </si>
-  <si>
-    <t>B0FRMRTBXN</t>
-  </si>
-  <si>
-    <t>B0FNZZTJY1</t>
-  </si>
-  <si>
-    <t>B0FR7Y5L6F</t>
-  </si>
-  <si>
-    <t>B0FP4LFQZB</t>
-  </si>
-  <si>
-    <t>B0FNCTTHPQ</t>
-  </si>
-  <si>
-    <t>B0FXGQM8M8</t>
-  </si>
-  <si>
-    <t>B0FVL4NK4V</t>
-  </si>
-  <si>
-    <t>B0FV8WTGXH</t>
-  </si>
-  <si>
-    <t>B0FP1L1L3J</t>
-  </si>
-  <si>
-    <t>B0FLJRXQ12</t>
-  </si>
-  <si>
-    <t>B0FPCWVYR1</t>
-  </si>
-  <si>
-    <t>B0FSZT77SR</t>
-  </si>
-  <si>
-    <t>B0FWRJ11VH</t>
-  </si>
-  <si>
-    <t>B0FN721M6R</t>
-  </si>
-  <si>
-    <t>B0FLNF15GZ</t>
-  </si>
-  <si>
-    <t>B0FLT67PQ5</t>
-  </si>
-  <si>
-    <t>B0FNMLJPR1</t>
-  </si>
-  <si>
-    <t>B0FYZ1HTPV</t>
-  </si>
-  <si>
-    <t>B0FS73CMC7</t>
-  </si>
-  <si>
-    <t>B0FQH7V88B</t>
-  </si>
-  <si>
-    <t>B0FXWDMVJP</t>
-  </si>
-  <si>
-    <t>B0FTFYW5NY</t>
-  </si>
-  <si>
-    <t>B0FWJC94GL</t>
-  </si>
-  <si>
-    <t>B0FNC7GPCH</t>
-  </si>
-  <si>
-    <t>B0FM6QS8BW</t>
-  </si>
-  <si>
-    <t>B0FQHZCYXT</t>
-  </si>
-  <si>
-    <t>B0FWRFM3ZZ</t>
-  </si>
-  <si>
-    <t>B0FR13KKJ9</t>
-  </si>
-  <si>
-    <t>B0FQ1G7BM1</t>
-  </si>
-  <si>
-    <t>B0FW3RPPDB</t>
-  </si>
-  <si>
-    <t>B0FKH1KG37</t>
-  </si>
-  <si>
-    <t>B0FZHN9F5B</t>
-  </si>
-  <si>
-    <t>B0FVY21DNG</t>
-  </si>
-  <si>
-    <t>B0FK4WGSLN</t>
-  </si>
-  <si>
-    <t>B0FPKMM79W</t>
-  </si>
-  <si>
-    <t>B0FX8Q7VCJ</t>
-  </si>
-  <si>
-    <t>B0FRZHKKJW</t>
-  </si>
-  <si>
-    <t>B0FRXY37D8</t>
-  </si>
-  <si>
-    <t>B0FRMVDHGN</t>
-  </si>
-  <si>
-    <t>B0FXLCF96Q</t>
-  </si>
-  <si>
-    <t>B0FXLQP52S</t>
-  </si>
-  <si>
-    <t>B0FM3DZCCJ</t>
-  </si>
-  <si>
-    <t>B0FR4GBZ27</t>
-  </si>
-  <si>
-    <t>B0FP1YX8FY</t>
-  </si>
-  <si>
-    <t>B0FV87MPMZ</t>
-  </si>
-  <si>
-    <t>B0FRFFPG7L</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61yGfi92LJL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81H4HoY1TtL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71x22AM6mHL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91ipoaQoiqL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71EwudBWeeL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/813FeqfZpuL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81QjQSSWVCL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81dWLdYCJ+L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91IPnecxNQL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71KnYC5h1BL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81PQD9L3FGL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91L8QCbgyIL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91PMJl5p72L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61A7YMj41cL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91qdMJUAx9L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/816sAH6PunL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81XihCz08zL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81LmRoTIAkL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81ga60nnboL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/811X2q6Kw6L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71HiHC15ZqL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81dQgASzLSL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91+VH6EkZ-L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81Xi8ZyWBSL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81-3ZdJEnSL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81QW7jw-ANL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81daDajN-EL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/8166Ord0KfL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/8144Gt4jmgL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91b7qt+oMPL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/818r-psRQiL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81HsYD75WqL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81ZirPh7X+L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81FXqdgrzsL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/718x8vrdZyL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81125XZE8uL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81DwhR0wDHL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61LPWv-fIkL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/814a92JqK2L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81SU6WX-CnL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71xCH3StJmL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81hZeyAlV1L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71PSJR0W-ML._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/813D999wQlL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61vCWjOj4TL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71ia95ZFaLL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81bILcq4oSL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/613-8ee1n6L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81AzcyyqD-L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81XCQ8BTvRL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81X4irUNBzL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81JXEHyeQtL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81LqyBxVBuL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81xTBAZ-XUL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71AdveT1WOL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81dZqUXNugL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/816GvWjESFL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81Pn8YX3UqL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71tiXDjwdlL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/8147-x3KTZL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81OFSKcaqeL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71dDHkht7dL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81PZg0m29rL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81UEgfBOG4L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81cS3zAvLwL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71pFJJ4mXRL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81j8W7bhENL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81dzJNV4YmL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81nM8nLCTML._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81XebF3fIJL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71kpO5+EsCL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71boja+YL3L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/9195scn1-tL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61It5NjkxmL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71w6XnnRZsL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61TYkBdKuDL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81QL2p2JYlL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81bSl9fPzZL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71CLEa8fRLL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61B+cihydUL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81A3MQg+ZZL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81q+5fOWalL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81GBsOlG60L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71kiCCsTP-L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81fqh4VUXBL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71NUkzjvNjL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71HFduL35nL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81YORIcG+EL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61tUz+dV9iL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71jOqsPS0FL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81dW3dAgtsL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81n3-DgE3kL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71uR75DHseL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/61o3fFDXmdL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81AK7a9helL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81njZTzIDyL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/91p8xlPz60L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/71aTm9nXI7L._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/81IGXLXvMAL._AC_UL900_SR900,600_.jpg</t>
-  </si>
-  <si>
-    <t>$6.99</t>
+    <t>Demon Movie Hunters Party Tableware, 20 Plates and 20 Napkins and Tablecloth71 '' x 42 ''Demon Movie Hunters Party Birthday Party Decorate Supplies</t>
+  </si>
+  <si>
+    <t>Butterfly Birthday Decorations, Girls Birthday Supplies - Plates, Napkins, Cups, Cutlery, Cake &amp; Cupcake Toppers, Banner, Hanging Swirls, Tablecloth, Balloons for Butterfly Party Decorations, Serve 20</t>
+  </si>
+  <si>
+    <t>Gatherfun Football Party Supplies Kit Serve 24,Includes Dinner Plates, Dessert Napkins, Cups,Banner and Touchdown Tablecloth for Birthday Gameday Tailgate Decorations, Green (2023053002)</t>
+  </si>
+  <si>
+    <t>Grencian 96 Pcs Over The Moon Baby Shower Decorations Plates Pastel Blue Moon Tableware Set We Are Over The Moon Baby Shower Supplies Plates Napkins for Boys Gender Reveal Twinkle Little Star Decor</t>
+  </si>
+  <si>
+    <t>Hushee 200 Pcs Cold Outside Baby Shower Paper Plates Cups Napkins Party Supplies Tableware Set Disposable Cup Napkin for 50 Guest Party Decoration</t>
+  </si>
+  <si>
+    <t>Oigco 60 PCS Sage Green Paper Plates, Sage Green Birthday Decorations, Gradient Plates and Napkins for Birthday Wedding Bridal Baby Shower Party Supplies</t>
+  </si>
+  <si>
+    <t>Grencian 96 Pcs Hot Pink Party Supplies Holographic Print Hot Pink Plates and Napkins Tableware Set for Girls Women Birthday Sprinkle Wedding Bachelorette Bridal Shower Decorations Serves 24</t>
+  </si>
+  <si>
+    <t>40 Pcs Wildflower Plates and Napkins Party Supplies, Floral Paper Plates Napkins Wildflower Baby Shower Decorations Tableware for Spring Summer Picnic Wedding Birthday Tea Party Serves 20</t>
+  </si>
+  <si>
+    <t>Winter Snowflake Paper Plates and Napkins Set, Blue and Purple Snowflake Winter Wonderland Disposable Tableware for Christmas Winter Holiday New Year Birthday Party Supplies Decorations, Serve 25</t>
+  </si>
+  <si>
+    <t>Grencian 96Pcs Two the Rescue Birthday Decorations Emergency Vehicle Theme Plates and Napkins Fire Truck Tableware Ambulance Dinnerware for Kid Emergency Vehicle 2 Years Old Birthday Party Decorations</t>
+  </si>
+  <si>
+    <t>Pink Bow Birthday Decorations Include Plates, Napkins, Cups, Cutlery, Banner, Hanging Swirls, Cake &amp; Cupcake Toppers, Balloons, Tablecloths for Coquette Birthday Decorations, Serves 20</t>
+  </si>
+  <si>
+    <t>96Pcs Pink Mouse Party Supplies Xmas Cartoon Mouse Paper Plates and Napkins Tableware Sets Pink White Polka Dot Bow Decorations for Kids Girls Birthday Baby Shower Cute Cartoon Theme Party Serves 24</t>
+  </si>
+  <si>
+    <t>96 Pcs Birthday Party Plates Napkins Forks Supplies Tableware Set Disposable Table Horned Horse Theme Decoration for Girl Birthday Party or Baby Shower, Serves 24 Guests</t>
+  </si>
+  <si>
+    <t>Oigco 50 Pcs Pink Plates and Napkins, Disposable Light Pink Scalloped Paper Plates &amp; Napkins for Wedding Bridal Shower Birthday Baby Shower, Serves 25</t>
+  </si>
+  <si>
+    <t>96Pcs Iridescent Birthday Party Supplies Purple Checkered Paper Plates Napkins Holographic Party Tableware Set Sparkle Tableware for Birthday Baby Shower Bachelorette Decoration Serve 24</t>
+  </si>
+  <si>
+    <t>Barbie Birthday Party Decorations | Barbie Party Decorations | Serves 16 Guests | Balloons, Banner, Tablecover, Plates, Napkins, Button | Officially Licensed</t>
+  </si>
+  <si>
+    <t>96PCS Dinosaur 3rd Birthday Party Paper Plates and Napkins and Forks Set Watercolor Dino Rex Tableware Set Three Rex Theme Dinnerware Paper Plates for Kids Birthday Gatherings Decorations</t>
+  </si>
+  <si>
+    <t>168pcs Winter Onederland Party Supplies Pink and Silver Snowflake Plates Napkins Disposable Tableware Set Paper Cups Winter Onederland 1st Birthday Party Supplies for Girls Birthday Decor Serves 24</t>
+  </si>
+  <si>
+    <t>300Pcs Woodland Baby Shower Party Supplies - Serves 50 Guests, Safari Jungle Animal Party Decorations Include Plates and Napkins, Cups, Straws, Forks</t>
+  </si>
+  <si>
+    <t>WERNNSAI Farm Plates and Napkins - 48PCS Farm Animals Birthday Decorations Barnyard Paper Plates Tableware for Kids Birthday Party Farmhouse Decorations Serves 16 Guests</t>
+  </si>
+  <si>
+    <t>60Pcs Woodland Party Paper Plates for Animal Party Decorations 7In Woodland Creatures Dessert Plates Disposable Tableware Dinnerware Set for Baby Shower Birthday Forest Animal Themed Party Supplies</t>
+  </si>
+  <si>
+    <t>96Pcs Axolotl Birthday Party Supplies Pink Cartoon Axolotl Party Plates and Napkins Tableware Sets Reptile Animals Axolotl Party Decorations for Kids Girls Baby Shower Party Favors, Serves 24</t>
+  </si>
+  <si>
+    <t>ITTEBISS 48PCS Sports Birthday Party Decorations 7" Sports Party Plates Disposable Sports Paper Plates Baseball Basketball Soccer Football Plates for Boys Adults Birthday Party Decorations</t>
+  </si>
+  <si>
+    <t>96Pcs Super Theme Hero Party Plates and Napkins Forks for Comic Heroes Birthday Decorations Hero's Action Sign Cityscape Buildings Tableware Set for 24 Guests Birthday Party Supplies Favors</t>
+  </si>
+  <si>
+    <t>Kepeel 96 Pcs Rose Gold Birthday Plates and Napkins Party Supplies for Women Paper Pink Girls Glitter Happy Birthday Party Disposable Tableware Set Decorations Favors, Serves 24</t>
+  </si>
+  <si>
+    <t>Winter Onederland 1st Birthday Themed Tableware - Snowflake One Plates, Napkins for Baby Girls First Birthday - Disposable Paper Party Decorations Supplies Favors for 24 Guests</t>
+  </si>
+  <si>
+    <t>168pcs Green Birthday Party Decorations Green Plates Napkins Party Supplies Disposable Paper Cups Tableware Set for Boys Kid Teen Birthday Decor Serves 24</t>
+  </si>
+  <si>
+    <t>Cecnamt Dinosaur Birthday Decorations, 170 Pcs Dinosaur Party Supplies Including Banner, Plates, Cups, Napkins, Cutlery and Tablecloths, Serves 24</t>
+  </si>
+  <si>
+    <t>DURYGEN 80PCS Building Blocks Themed Birthday Party Decorations Colorful Building Block Tableware Paper Plates Napkins Set for Boys, Kid’s Birthday Party Decorations Serve 20</t>
+  </si>
+  <si>
+    <t>122Pcs Mermaid Birthday Party Decorations Set Mermaid Party Supplies Includes Plates, Napkin, Fork, Cup, Tablecloth, Banner for Baby Shower Ocean Birthday Party Decorations, Serves 24</t>
+  </si>
+  <si>
+    <t>120PCS Wonderland Themed Party Supplies for Girls Kids Birthday Party Decorations Tea Party Tableware Set Plates Napkin Cups Set for 20 Guests</t>
+  </si>
+  <si>
+    <t>Video Game Party Supplies Tableware Set for 24 Guests Gaming Party Birthday Plates Blue Gamer Party Decorations Includes Plates, Napkins, Tablecloths</t>
+  </si>
+  <si>
+    <t>176 PCS Pink Party Decorations - Light Pink Scalloped Plates, Napkins, Cups, Cutlery, Tablecloth for Baby Shower, Wedding, Birthday Party Decorations, Serves 25</t>
+  </si>
+  <si>
+    <t>G1ngtar 96Pcs Monster Truck Happy Birthday Green Purple Party Plates Supplies - Party Tableware Decorations Disposable Paper Plates Napkins Forks for Birthday Baby Shower, Serves 24</t>
+  </si>
+  <si>
+    <t>96Pcs Red Brick Wall Street Paper Plates and Napkins Street Theme Birthday Party Supplies Cookie Cartoon Friends Disposable Dinnerware Tableware Set for Kid Baby Shower Table Party Decoration Serve 24</t>
+  </si>
+  <si>
+    <t>American Greetings Football Party Supplies, Football Dessert Plates (36-Count)</t>
+  </si>
+  <si>
+    <t>195Pcs Mermaid Birthday Party Decorations with Happy Birthday Banner Tablecloth, Mermaid Themed Party Supplies with Plates Cups Napkins Straws Cutlery, Purple Blue Disposable Tableware for 24 Guests</t>
+  </si>
+  <si>
+    <t>100 Pcs Racing Checkered Party Supplies Set, Serves 25 – Disposable Black and White Checkerboard Paper Plates, Napkins, and Forks, Race Car Themed Tableware for Birthday, and Racing Table Decorations</t>
+  </si>
+  <si>
+    <t>13th Birthday Party Supplies Black Themed 13th Disposable Tableware Decorations Plates Napkins Set for Kids Boys Teenager Favors</t>
+  </si>
+  <si>
+    <t>96Pcs Red and White Striped Party Supplies Red and White Striped Paper Plates and Napkins New Year Tableware Set Circus Theme Party Decorations for New Years Eve Carnival Birthday Picnic BBQ Serves 24</t>
+  </si>
+  <si>
+    <t>Tevxj Birthday Party Tableware Set, 96PCS Navy Blue and Silver, Disposable Plates, Napkins, Forks for 24 Guests, Place Setting for Men and Boys</t>
+  </si>
+  <si>
+    <t>134Pcs Pixel Birthday Party Supplies for Birthday Decorations Serves 24 Guests</t>
+  </si>
+  <si>
+    <t>Greencian 96Pcs Oh Deer He's Almost Here Baby Shower Party Supplies Green Deer Plates and Napkins Woodland Animal Tableware Set for Boy Animal Baby Shower Gender Reveal Party Supplies，Serves 24</t>
+  </si>
+  <si>
+    <t>CoComelon Party Supplies | CoComelon Birthday Party Supplies | CoComelon Backdrop | CoComelon Party Decorations Girls Boys 1st 2nd Backdrop, Balloons, Tablecloth, Plates, Napkins, Forks, Sticker</t>
+  </si>
+  <si>
+    <t>Greencian 96Pcs Pancakes and Pajamas Party Supplies Pajama Brunch Plates and Napkins Girls Pink Night Sleepover Tableware Set for Girls Night Pancake Themed Slumber Party Decorations Serves 24</t>
+  </si>
+  <si>
+    <t>120PCS Under the Sea Party Supplies for Ocean Theme Baby Shower Birthday Party Underwater World Creatures Decorations Ocean Sea Animal Plate Cup Napkin Knives Forks for 20 Guests</t>
+  </si>
+  <si>
+    <t>Woodland Baby Shower Party Supplies - 175 Pcs Safari Jungle Animal Wild Animal Party Decorations Nature Sage Plates Napkin Cups Spoons Forks Knives Tableware Set, Serves 25 Guests</t>
+  </si>
+  <si>
+    <t>168Pcs Demon Birthday Party Decorations Supplies Tableware Set for Kids Boys Girls Birthday Party Decorations Demon Themed Napkin Cups Forks Knives for 24 Guests</t>
+  </si>
+  <si>
+    <t>102 PCS Camp Bachelorette Decorations - Scalloped Gingham Plates, Napkins, Cups, Banner, Gingham Tablecloths for Baby Shower, Wedding, Birthday, Serves 25</t>
+  </si>
+  <si>
+    <t>OuMuaMua Strawberry Birthday Decorations, 75 Pcs Disposable Fruit Paper Plates and Napkins Tableware Set for Summer Sweet One 1st Baby Shower Berry First Strawberry Themed Party Supplies, Serves 25</t>
+  </si>
+  <si>
+    <t>Andi Cppss Monster Birthday Party Supplies - 96pcs Paper Plates Napkins Plastic Forks Kids Girl Boy Little Birthday Party Table Decorations Monster Themed Disposable Cake Tableware Set for 24 Guests</t>
+  </si>
+  <si>
+    <t>XIXIPTY Yellow Cartoon Party Supplies Ocean Tableware Set for Kids Boys Girls Birthday Party Decorations Yellow Undersea Happy Birthday Themed Napkin Cups Forks Knives for 20 Guests</t>
+  </si>
+  <si>
+    <t>90Pcs Cartoon Birthday Party Supplies Cartoon Plates Napkins Tableware for Toy Theme Birthday Decor for 30 Guests</t>
+  </si>
+  <si>
+    <t>40 Pcs Cherry Birthday Decorations - Pink Bows Plates and Napkins Party Supplies, Disposable Scalloped Bowknot Paper Dinner Plates Napkins Sets for Fruits Cherry Table Party Decor Favors, Serves 20</t>
+  </si>
+  <si>
+    <t>Greencian 96Pcs Blue Race Car Baby Shower Decorations for Boys Blue Race Car Plates and Napkins A Little Racer Is on the Way Plates for Birthday Baby Shower Party Supplies Serves 24</t>
+  </si>
+  <si>
+    <t>175 PCS Blue Gingham Party Supplies Includes Light Blue Gingham Paper Plates, Cups, Napkins, Cutlery for Wedding Bridal Shower Birthday Baby Shower Party Decorations, Serves 25</t>
+  </si>
+  <si>
+    <t>300 Pcs Pink Bow Plates, Cups, Napkins and Tableware Sets for Coquette Birthday Decorations, Party Supplies Include Straws, Pink Birthday Decorations Which Can Serve 50</t>
+  </si>
+  <si>
+    <t>CHUNNIN 200 PCS Gone Fishing Party Plates Napkins Fishing Themed Tableware Set for Fishing Party Gone Fishing Decoration Dessert Plates Forks Serve 50 Guests for Fishing Birthday Party Favor Supplies</t>
+  </si>
+  <si>
+    <t>Naozinebi 50 Count Bear Paper Plates Bear Shaped Disposable Cake Plates Brown Theme First Birthday Tableware Teddy for Gender Reveal Boy Girl Baby Shower Birthday Party Decorations</t>
+  </si>
+  <si>
+    <t>120PCS My First Rodeo Party Supplies Wild West Dinnerware Party Decorations for Boys Kids 1st Birthday Western Cowboy Themed Party Paper Plates Napkins Forks Serves 20 Guests</t>
+  </si>
+  <si>
+    <t>Practice Star 41 PCS Pink and Green Witch Party Decorations Include Pink Plates, Green Plates, Napkins, Tablecloth for Witch Birthday Party Decorations</t>
+  </si>
+  <si>
+    <t>171 Pcs Axolotl Birthday Decorations Pink Axolotl Party Decorations Cake Cupcake Topper Balloons Banner Plates and Napkins Table Cloth Axolotl Party Supplies for Girls Cartoon Fun Animal Party</t>
+  </si>
+  <si>
+    <t>191 PCS Sports Birthday Party Decorations Includes Plates, Napkins, Cups, Knives, Forks, Banner, Cake &amp; Cupcake Toppers, Tablecloth for Sports Themed Party Decorations, Serves 24</t>
+  </si>
+  <si>
+    <t>EUOYUFO 96PCS Sleepover Plates and Napkins Party Supplies Pajama Party Decorations Sleepover Party Supplies for Girls Slumber Themed Disposable Tableware Set Serve 24 Guests</t>
+  </si>
+  <si>
+    <t>183Pcs Monster Truck Party Supplies, Monster Truck Party Supplies Include Plates and Napkins, Serves 26</t>
+  </si>
+  <si>
+    <t>Grencian 96Pcs Cartoon Spider Birthday Party Decorations Red Blue Spider 5th Birthday Party Plates Disposable Super Theme Paper Tableware Set for Spider Kids 5 Year Old Supplies, Serves 24</t>
+  </si>
+  <si>
+    <t>NKPDAXM Unicorn Birthday Decorations - Plates, Napkins, Cups, Cutlery, Hanging Swirls, Banner, Honeycomb Centerpiece, Balloons, Tablecloths for Rainbow Girls Birthday Party Decorations, Serves 24</t>
+  </si>
+  <si>
+    <t>HFBOBP 50PCS Soccer Plates and Napkins Party Decorations, 7inch Disposable Soccer Themed Birthday Paper Plates and Napkins Tableware Set Sports Party Supplies for Birthday Baby Shower Game Favors</t>
+  </si>
+  <si>
+    <t>40Pack Minnie Party Supplies include 20 plates, 20 napkins for Minnie Party Decoration</t>
+  </si>
+  <si>
+    <t>CANREVEL 96 PCS Bow Party Plates Serve 24, Bow Plates and Napkins Forks Set, Disposable Tableware for Birthday Supplies Party Decorations for Grils Kids Women</t>
+  </si>
+  <si>
+    <t>96Pcs Airplane 1st Birthday Decorations for Boys Red &amp; Blue Airplane First Birthday Plates and Napkins Sets How Time Flies Party Decorations for Girls Baby Shower One Years Old Supplies Serve 24</t>
+  </si>
+  <si>
+    <t>Peppa Pig Birthday Party Supplies, Peppa Pig Party Supplies and Decorations for 16 Guests, With Table Cover, Plates, Napkins, Cups and Sticker</t>
+  </si>
+  <si>
+    <t>Grencian 96Pcs Ice Skating Birthday Party Decorations Ice Skating Party Plates and Napkins Disposable Ice Skating Tableware Set for Girls Ice Skating Birthday Winter Wonderland Party Supplies Serves24</t>
+  </si>
+  <si>
+    <t>Greencian 96Pcs Winter Onederland 1st Birthday Party Decorations Snowflake Plates and Napkins Set Woodland Animals 1 year old Party Decorations for Kids Baby Shower First Birthday Supplies Serves 24</t>
+  </si>
+  <si>
+    <t>162Pcs Cartoon Animation Birthday Party Supplies Decorations for Birthday,Cartoon Theme Party Favors Including Banner, Plates, Cups, Napkins, Cutlery and Tablecloth for 24 Guests</t>
+  </si>
+  <si>
+    <t>96 Pcs 90th Birthday Party Decorations for Women Rose Gold Floral 90th Birthday Plates and Napkins Tableware Sets 90 and Fabulous Party Supplies for 90 Years Old Birthday Party Favors Serves 24</t>
+  </si>
+  <si>
+    <t>175Pcs Princess Paper Plates Napkins, Princess Themed Birthday Party Decorations Pink Party Supplies Disposable Dinnerware Set Plate, Utensils, Cup, Napkin, Tableware Set, Serve 25 Guests</t>
+  </si>
+  <si>
+    <t>40 Pcs Dinosaur Plates and Napkins, Watercolor Dinosaur Birthday Party Supplies, Theme Party Decoration, for Boys Kids</t>
+  </si>
+  <si>
+    <t>Yingoto 200pcs Paint Party Decorations for Kids and Art Lovers, Convenient Disposable Paper Tableware Set Includes 300gsm Plates and 2 PE Plastic Tablecloths for Paint Party and Celebration</t>
+  </si>
+  <si>
+    <t>APUXXJUPA 60 Pcs Casino Dice Plates, Dice Theme Dinnerware for Casino Party Decorations Game Night Themed Party Supplies</t>
+  </si>
+  <si>
+    <t>Dinosaur Birthday Decorations - 81Pcs Dinosaur Paper Tableware Set Including Plate, Napkins, Dino Tablecloth for Kids Boys Birthday Supplies, Serve 20</t>
+  </si>
+  <si>
+    <t>LINHAXM 175 PCS Spring Wildflower Party Decorations include Plates, Cups, Napkins, Cutlery, Cake Toppers, Banner, Tablecloth, Balloons for Floral Baby Shower Birthday Decorations, Serves 20</t>
+  </si>
+  <si>
+    <t>FOR Mario Party Tableware, 20 Plates and 20 Napkins and Tablecloth71 '' x 42 ''Super Bros Birthday Party Decorate Supplies</t>
+  </si>
+  <si>
+    <t>Sage Greenery Baby Shower Plates and Napkins Tableware Set - 175pcs Gender Neutral Baby Shower Decorations Oh Baby Party Supplies, Disposable Paper Plates Napkins for Baby Girl Boy Shower Decorations</t>
+  </si>
+  <si>
+    <t>201 Pcs Pastel Dinosaur Birthday Decorations Girl, Dinosaur Birthday Banner, Cupcake Toppers, Disposable Table Cloth, Plates and Napkins Pink Watercolor Cute Girls Dino Theme Party Supplies</t>
+  </si>
+  <si>
+    <t>96PCS Summer Floral Birthday Party Plates Wood Grain Pink Flower Rustic Tableware Set for Girls Kids Bridal Shower Party Supplies Wooden Birthday Paper Plates Napkins Decorations for 24 Guests</t>
+  </si>
+  <si>
+    <t>96Pcs Jungle Animals Plates and Napkins Safari Happy Birthday Party Decorations Zoo Party Dessert Plates Wild Animals Lion Tiger Theme Tableware for 24 Guests Men Woman Adults Birthday Supplies</t>
+  </si>
+  <si>
+    <t>Greencian 96Pcs Pink Bow Party Supplies Coquette 18th Birthday Party Plates and Napkins Disposable Bow Themed Tableware Set for Girl Happy 18th Birthday Baby Shower Decorations, Serves 24</t>
+  </si>
+  <si>
+    <t>Navy Blue and Sliver Birthday Decorations Happy Birthday Party Tableware Set Happy Birthday Tablecloths and Plates Napkins Party Dinnerware for Men Women Kids Birthday Party Supplies</t>
+  </si>
+  <si>
+    <t>96Pcs Strawberry Party Plates and Napkins Bow Berry Sweet Scalloped Birthday Plates Party Supplies Pink Coquette Strawberry Tableware for Girls Baby Shower Wedding Birthday Decor 24 Guests</t>
+  </si>
+  <si>
+    <t>140PCS Mexican Serape Fiesta Plates and Napkins Set, Fit Mexican Themed Paper Dessert Plates, Taco Colorful Stripes Pinata Ponchos Platters Dance Party, Serves 20 Guests</t>
+  </si>
+  <si>
+    <t>Zhehao 50 Pcs Birthday Party Plates 7 Inch Blue Cartoon Theme Disposable Paper Plates Tropical Hawaii Party Decorations for Summer Holiday</t>
+  </si>
+  <si>
+    <t>BQK 96 Pcs Construction Plates &amp; Napkins - Party Decorations &amp; Birthday Supplies</t>
+  </si>
+  <si>
+    <t>81Pcs Reptile Party Decorations Plates - Including Reptile Birthday Decorations Plates Napkins Wildlife Tablecloth for Jungle Safari Lizard Swamp Birthday Party Supplies, Serve 20</t>
+  </si>
+  <si>
+    <t>96 Pcs Owl Birthday Party Supplies Cute Cartoon Owl Paper Plates and Napkins Disposable Animal Owl Theme Tableware Set Owl Birthday Party Decorations for Kids Boys Girls Birthday Baby Shower Serves 24</t>
+  </si>
+  <si>
+    <t>Berry First Birthday Decor Strawberry 1st Birthday Decorations for Plates, Napkins, Cups, Cutlery, Cupcake Toppers, Banner, Tablecloth, Balloons for Girls Strawberry Party Decorations, Serve 20</t>
+  </si>
+  <si>
+    <t>120PCS Something Blue Before I Do Decorations for Wedding Blue Floral Bridal Shower Party Supplies Bachelorette Tableware Set Miss to Mrs Plates Napkins Cups Forks Knives for 20 Guests</t>
+  </si>
+  <si>
+    <t>REDWORD Cherry Birthday Decorations, 120Pcs She's The Cherry On Top Party Plates Napkin Cups for Cherr y Theme Girl Birthday Baby Shower Party Decorations-Serves 24</t>
+  </si>
+  <si>
+    <t>XXDecor 80 Pcs Red Cartoon 1st Birthday Party Plates - Boys One Birthday Dessert Plates Napkins Forks Tableware Kit for Boys 1st Bday Party Decorations Supplies (20 Guests)</t>
+  </si>
+  <si>
+    <t>B0GBYH9WQQ</t>
+  </si>
+  <si>
+    <t>B0F1CQFB11</t>
+  </si>
+  <si>
+    <t>B0C6M51JQK</t>
+  </si>
+  <si>
+    <t>B0DXZYHNT6</t>
+  </si>
+  <si>
+    <t>B0DXF8XHDJ</t>
+  </si>
+  <si>
+    <t>B0F6SFYLLN</t>
+  </si>
+  <si>
+    <t>B0CYPP5HHL</t>
+  </si>
+  <si>
+    <t>B0D5Y8995K</t>
+  </si>
+  <si>
+    <t>B0CJMG5ZGK</t>
+  </si>
+  <si>
+    <t>B0FGCXQ94G</t>
+  </si>
+  <si>
+    <t>B0FQBRYWR6</t>
+  </si>
+  <si>
+    <t>B0F9DJ24BR</t>
+  </si>
+  <si>
+    <t>B0C1BY6PZS</t>
+  </si>
+  <si>
+    <t>B0FQHZQJHM</t>
+  </si>
+  <si>
+    <t>B0DK5FJC17</t>
+  </si>
+  <si>
+    <t>B0C54LZD99</t>
+  </si>
+  <si>
+    <t>B0FD9L335T</t>
+  </si>
+  <si>
+    <t>B0DK99R22Q</t>
+  </si>
+  <si>
+    <t>B0F1552TF1</t>
+  </si>
+  <si>
+    <t>B081362K15</t>
+  </si>
+  <si>
+    <t>B0DKS8XGG8</t>
+  </si>
+  <si>
+    <t>B0DFCGQ8GK</t>
+  </si>
+  <si>
+    <t>B0DKMTDGGM</t>
+  </si>
+  <si>
+    <t>B0DXKNZ1TB</t>
+  </si>
+  <si>
+    <t>B0BYNSGDKB</t>
+  </si>
+  <si>
+    <t>B0BK8NQJQS</t>
+  </si>
+  <si>
+    <t>B0F5VVJ39T</t>
+  </si>
+  <si>
+    <t>B0DB15THS5</t>
+  </si>
+  <si>
+    <t>B0D7ZSMKDW</t>
+  </si>
+  <si>
+    <t>B0CJXX7RXN</t>
+  </si>
+  <si>
+    <t>B0CPXNSJ19</t>
+  </si>
+  <si>
+    <t>B0CBS9PJX5</t>
+  </si>
+  <si>
+    <t>B0FQH7MDGB</t>
+  </si>
+  <si>
+    <t>B0CNCWBLSL</t>
+  </si>
+  <si>
+    <t>B0FJMC1NTP</t>
+  </si>
+  <si>
+    <t>B0B2KRJ64G</t>
+  </si>
+  <si>
+    <t>B0FKB84XY7</t>
+  </si>
+  <si>
+    <t>B0F7XXCMTF</t>
+  </si>
+  <si>
+    <t>B0CQP1GYWB</t>
+  </si>
+  <si>
+    <t>B0D8STYP4Y</t>
+  </si>
+  <si>
+    <t>B0B2PGSKT7</t>
+  </si>
+  <si>
+    <t>B0FQ6ZGPVC</t>
+  </si>
+  <si>
+    <t>B0FPKSYGXC</t>
+  </si>
+  <si>
+    <t>B09QXZDFT1</t>
+  </si>
+  <si>
+    <t>B0FM1TNTD2</t>
+  </si>
+  <si>
+    <t>B0D62QGNKX</t>
+  </si>
+  <si>
+    <t>B0FBRC1HRD</t>
+  </si>
+  <si>
+    <t>B0FR1ZYYXW</t>
+  </si>
+  <si>
+    <t>B0FQJ4WJY6</t>
+  </si>
+  <si>
+    <t>B0F3GHQNFJ</t>
+  </si>
+  <si>
+    <t>B0FB2PS2QS</t>
+  </si>
+  <si>
+    <t>B0FK2LCW1Q</t>
+  </si>
+  <si>
+    <t>B0FCLWYM7L</t>
+  </si>
+  <si>
+    <t>B0F63755WX</t>
+  </si>
+  <si>
+    <t>B0FN6Z6GFB</t>
+  </si>
+  <si>
+    <t>B0FQHQZKGQ</t>
+  </si>
+  <si>
+    <t>B0DK4RWJB3</t>
+  </si>
+  <si>
+    <t>B0CTGV245K</t>
+  </si>
+  <si>
+    <t>B0CQ7CYY81</t>
+  </si>
+  <si>
+    <t>B0D5CS57H1</t>
+  </si>
+  <si>
+    <t>B0F62DVCRM</t>
+  </si>
+  <si>
+    <t>B0FBQW3F59</t>
+  </si>
+  <si>
+    <t>B0F386NJYT</t>
+  </si>
+  <si>
+    <t>B0DQ8R3QMB</t>
+  </si>
+  <si>
+    <t>B0F66GPBDR</t>
+  </si>
+  <si>
+    <t>B0DWFJZYQZ</t>
+  </si>
+  <si>
+    <t>B0FV864LC9</t>
+  </si>
+  <si>
+    <t>B0FHQ564NV</t>
+  </si>
+  <si>
+    <t>B0DG4ZDF4X</t>
+  </si>
+  <si>
+    <t>B0F2T4MBSV</t>
+  </si>
+  <si>
+    <t>B0DWFL1R9N</t>
+  </si>
+  <si>
+    <t>B09FRH36SX</t>
+  </si>
+  <si>
+    <t>B0DDXDZ9Z2</t>
+  </si>
+  <si>
+    <t>B0FPWZKYLH</t>
+  </si>
+  <si>
+    <t>B0DPXSWWZL</t>
+  </si>
+  <si>
+    <t>B0D8321WVG</t>
+  </si>
+  <si>
+    <t>B0FDF917WK</t>
+  </si>
+  <si>
+    <t>B0F3X7K71R</t>
+  </si>
+  <si>
+    <t>B0DQPK6BYN</t>
+  </si>
+  <si>
+    <t>B0F66SMRMS</t>
+  </si>
+  <si>
+    <t>B0D34HJT73</t>
+  </si>
+  <si>
+    <t>B0DPH4JTLC</t>
+  </si>
+  <si>
+    <t>B0FLPNB2NY</t>
+  </si>
+  <si>
+    <t>B0F63FNFQS</t>
+  </si>
+  <si>
+    <t>B0FMY423V2</t>
+  </si>
+  <si>
+    <t>B0BNCY6S63</t>
+  </si>
+  <si>
+    <t>B0DQ46NYRN</t>
+  </si>
+  <si>
+    <t>B0FMNWM8NF</t>
+  </si>
+  <si>
+    <t>B0CKXDZKK1</t>
+  </si>
+  <si>
+    <t>B0F7X716KX</t>
+  </si>
+  <si>
+    <t>B0F92HFN7F</t>
+  </si>
+  <si>
+    <t>B0F3DDVCRD</t>
+  </si>
+  <si>
+    <t>B0CL8XY1GK</t>
+  </si>
+  <si>
+    <t>B0D9H282YR</t>
+  </si>
+  <si>
+    <t>B0DNMBYRFC</t>
+  </si>
+  <si>
+    <t>B0DY1LKRQP</t>
+  </si>
+  <si>
+    <t>B0FNWB82PL</t>
+  </si>
+  <si>
+    <t>B0FDPX558G</t>
+  </si>
+  <si>
+    <t>B0D16WHHRF</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81H-QBcJpcL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/815ZtGe7hWL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71ucFzmR-6L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71C-wUDTRHL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81bhe2JkGCL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61is3OzGiNL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91DrQMMK8lL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81NJosDTa8L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91+JdIHIFtL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/816GJSvdtRL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81easpUeIML._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71lE3+SH29L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91LW7i+kNtL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/6174yz++sAL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71QvpTDTU7L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91tfSRG9+aL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81MKLIHZ85L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81T6f5rSwwL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91yGFVcJe9L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71hDUvwCXYL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81Utgg2PkVL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81jkPpmsHZL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81VxQToBcWL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81FxLeSZq4L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81-z1XlrjjL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81avIvRGYkL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81sm7QFviQL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81JwspWJQDL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Q3EWyaEuL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81PF2cT2AnL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/910B+pogDtL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81GGFDBmLjL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61Z6biZI0-L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91zRq7ZVi9L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/8126ykB7R3L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91xDqIMklCL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/912Ew9DbWxL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71UNWXuhdAL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81H9FHqeMaL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71WcG6htWeL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81to5VMnGFL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71xQpcDXHoL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81BCJMtCJSL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91QSqJNt0VL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71rRbBxHHPL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81JAJFupA1L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81rni2leD4L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/810tjxT9UkL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81c8MVcI7qL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81wEK65aZQL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81gaXZbHNWL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81KN4NliddL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81ZUEWn5zDL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/7122JP3NvPL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/816dcxoEcwL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/715Ak0KYD1L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71rHEQs9ujL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Y3MrDGDSL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71zkoDWIT1L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91l4JY0BqCL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81mmKYgMMOL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81q+79wGdUL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81blHPSRcjL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81GugkwJknL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/818IksGJ6JL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81sgacWRglL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/814+Z1S11xL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/7171I6C5kyL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81RcNTVlPXL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71fcG1fFojL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81+7rZZEHqL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81FzbUaCbhL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81bxfOj07FL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81tDSDhq4vL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/717h8WU14FL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81zq6nEwLyL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71Oc+lYeZ5L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81NK10zcXyL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81XOQjIid7L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71ouosEy8bL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/811BnuuzVtL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81bDRDEH3DL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71G8tOwn+IL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81yr-9NdyfL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81Gl5OQErgL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81jnLYGIXaL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/813fTpTBiBL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71xoyAqOlZL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91m63-gsdNL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71XJ9qhDOlL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81A68K0jz7L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/8131DzeKX0L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/710bySlGohL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81hQ-qE9BvL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81qkjArY1+L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81lLEV9AG8L._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/914g7diQ0cL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81UNxmeFmVL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/71UVoBbYPdL._AC_UL900_SR900,600_.jpg</t>
+  </si>
+  <si>
+    <t>$23.99</t>
+  </si>
+  <si>
+    <t>$21.99</t>
+  </si>
+  <si>
+    <t>$25.98</t>
+  </si>
+  <si>
+    <t>$26.99</t>
+  </si>
+  <si>
+    <t>$13.99</t>
+  </si>
+  <si>
+    <t>$24.99</t>
+  </si>
+  <si>
+    <t>$8.99</t>
+  </si>
+  <si>
+    <t>$19.99</t>
+  </si>
+  <si>
+    <t>$17.99</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>$34.99</t>
+  </si>
+  <si>
+    <t>$20.99</t>
+  </si>
+  <si>
+    <t>$29.99</t>
+  </si>
+  <si>
+    <t>$11.99</t>
   </si>
   <si>
     <t>$12.99</t>
@@ -943,799 +982,919 @@
     <t>$18.99</t>
   </si>
   <si>
-    <t>$13.99</t>
-  </si>
-  <si>
-    <t>$7.99</t>
-  </si>
-  <si>
-    <t>$8.99</t>
-  </si>
-  <si>
-    <t>$9.33</t>
-  </si>
-  <si>
-    <t>$4.70</t>
-  </si>
-  <si>
-    <t>$17.99</t>
-  </si>
-  <si>
-    <t>$11.99</t>
-  </si>
-  <si>
-    <t>$8.68</t>
-  </si>
-  <si>
-    <t>$6.86</t>
-  </si>
-  <si>
-    <t>$5.99</t>
-  </si>
-  <si>
-    <t>$11.66</t>
-  </si>
-  <si>
-    <t>$12.96</t>
-  </si>
-  <si>
-    <t>$6.88</t>
-  </si>
-  <si>
-    <t>$14.96</t>
-  </si>
-  <si>
-    <t>$3.50</t>
-  </si>
-  <si>
-    <t>$3.99</t>
-  </si>
-  <si>
-    <t>$9.99</t>
+    <t>$9.98</t>
   </si>
   <si>
     <t>$16.99</t>
   </si>
   <si>
+    <t>$22.99</t>
+  </si>
+  <si>
+    <t>$22.49</t>
+  </si>
+  <si>
+    <t>$25.99</t>
+  </si>
+  <si>
+    <t>$11.39</t>
+  </si>
+  <si>
+    <t>$7.49</t>
+  </si>
+  <si>
+    <t>$15.99</t>
+  </si>
+  <si>
     <t>$14.99</t>
   </si>
   <si>
-    <t>$15.99</t>
-  </si>
-  <si>
-    <t>$7.39</t>
-  </si>
-  <si>
-    <t>$6.66</t>
-  </si>
-  <si>
-    <t>$8.59</t>
-  </si>
-  <si>
-    <t>$8.86</t>
-  </si>
-  <si>
-    <t>$4.99</t>
-  </si>
-  <si>
-    <t>$12.66</t>
-  </si>
-  <si>
-    <t>$8.96</t>
-  </si>
-  <si>
-    <t>$13.97</t>
-  </si>
-  <si>
-    <t>$25.99</t>
-  </si>
-  <si>
-    <t>$6.68</t>
-  </si>
-  <si>
-    <t>$9.59</t>
-  </si>
-  <si>
-    <t>$13.96</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 36}, {'dk': '202511', 'sales': 884}, {'dk': '202512', 'sales': 3410}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 496}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 1703}, {'dk': '202510', 'sales': 2922}, {'dk': '202511', 'sales': 677}, {'dk': '202512', 'sales': 1209}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 27}, {'dk': '202512', 'sales': 372}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 341}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 3}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 5}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 5}, {'dk': '202511', 'sales': 49}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 38}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 5}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 23}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 10}, {'dk': '202511', 'sales': 59}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 256}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 43}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 5}, {'dk': '202511', 'sales': 21}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 13}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 13}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 18}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 6}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 20}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 3}, {'dk': '202511', 'sales': 42}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 8}, {'dk': '202511', 'sales': 22}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 18}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 48}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 275}, {'dk': '202512', 'sales': 589}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 58}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 6}, {'dk': '202510', 'sales': 20}, {'dk': '202511', 'sales': 74}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 163}, {'dk': '202512', 'sales': 682}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 2}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 7}, {'dk': '202510', 'sales': 54}, {'dk': '202511', 'sales': 185}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 15}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 92}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 7}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 1}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 13}, {'dk': '202510', 'sales': 355}, {'dk': '202511', 'sales': 372}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 24}, {'dk': '202511', 'sales': 165}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 2}, {'dk': '202511', 'sales': 90}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 18}, {'dk': '202511', 'sales': 195}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 25}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 17}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 31}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 92}, {'dk': '202512', 'sales': 403}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 71}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 30}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 7}, {'dk': '202511', 'sales': 44}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 5}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 6}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 2}, {'dk': '202510', 'sales': 14}, {'dk': '202511', 'sales': 202}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 10}, {'dk': '202511', 'sales': 141}, {'dk': '202512', 'sales': 310}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 2}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 14}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 15}, {'dk': '202511', 'sales': 114}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 5}, {'dk': '202511', 'sales': 22}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 10}, {'dk': '202511', 'sales': 123}, {'dk': '202512', 'sales': 248}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 35}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 78}, {'dk': '202511', 'sales': 163}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 32}, {'dk': '202512', 'sales': 217}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 9}, {'dk': '202511', 'sales': 33}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 10}, {'dk': '202511', 'sales': 56}, {'dk': '202512', 'sales': 186}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 3}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 19}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 15}, {'dk': '202512', 'sales': 279}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 37}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 24}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 2}, {'dk': '202510', 'sales': 6}, {'dk': '202511', 'sales': 84}, {'dk': '202512', 'sales': 155}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 86}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 110}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 10}, {'dk': '202512', 'sales': 62}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 5}, {'dk': '202511', 'sales': 19}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 21}, {'dk': '202512', 'sales': 124}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 7}, {'dk': '202511', 'sales': 48}, {'dk': '202512', 'sales': 93}]</t>
-  </si>
-  <si>
-    <t>[{'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 18}, {'dk': '202512', 'sales': 93}]</t>
+    <t>$31.99</t>
+  </si>
+  <si>
+    <t>$27.99</t>
+  </si>
+  <si>
+    <t>$28.99</t>
+  </si>
+  <si>
+    <t>$8.98</t>
+  </si>
+  <si>
+    <t>$12.59</t>
+  </si>
+  <si>
+    <t>$10.82</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 132}, {'dk': '202601', 'sales': 3813}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 19}, {'dk': '202505', 'sales': 224}, {'dk': '202507', 'sales': 646}, {'dk': '202508', 'sales': 703}, {'dk': '202509', 'sales': 893}, {'dk': '202510', 'sales': 1016}, {'dk': '202511', 'sales': 1219}, {'dk': '202512', 'sales': 804}, {'dk': '202601', 'sales': 1271}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202307', 'sales': 19}, {'dk': '202308', 'sales': 995}, {'dk': '202309', 'sales': 678}, {'dk': '202310', 'sales': 1509}, {'dk': '202311', 'sales': 1359}, {'dk': '202312', 'sales': 98}, {'dk': '202401', 'sales': 3808}, {'dk': '202402', 'sales': 6408}, {'dk': '202403', 'sales': 674}, {'dk': '202404', 'sales': 721}, {'dk': '202405', 'sales': 584}, {'dk': '202406', 'sales': 508}, {'dk': '202407', 'sales': 601}, {'dk': '202408', 'sales': 1906}, {'dk': '202409', 'sales': 2591}, {'dk': '202410', 'sales': 1487}, {'dk': '202411', 'sales': 1306}, {'dk': '202412', 'sales': 880}, {'dk': '202501', 'sales': 4396}, {'dk': '202502', 'sales': 10402}, {'dk': '202503', 'sales': 472}, {'dk': '202504', 'sales': 479}, {'dk': '202505', 'sales': 506}, {'dk': '202506', 'sales': 524}, {'dk': '202507', 'sales': 551}, {'dk': '202508', 'sales': 411}, {'dk': '202509', 'sales': 2462}, {'dk': '202510', 'sales': 1949}, {'dk': '202511', 'sales': 1706}, {'dk': '202512', 'sales': 769}, {'dk': '202601', 'sales': 1116}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 604}, {'dk': '202506', 'sales': 536}, {'dk': '202507', 'sales': 1998}, {'dk': '202508', 'sales': 504}, {'dk': '202509', 'sales': 2799}, {'dk': '202510', 'sales': 943}, {'dk': '202511', 'sales': 1967}, {'dk': '202512', 'sales': 572}, {'dk': '202601', 'sales': 465}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202501', 'sales': 0}, {'dk': '202502', 'sales': 1135}, {'dk': '202503', 'sales': 1440}, {'dk': '202504', 'sales': 1174}, {'dk': '202505', 'sales': 1265}, {'dk': '202506', 'sales': 1075}, {'dk': '202507', 'sales': 1305}, {'dk': '202508', 'sales': 989}, {'dk': '202509', 'sales': 977}, {'dk': '202510', 'sales': 1268}, {'dk': '202511', 'sales': 1107}, {'dk': '202512', 'sales': 609}, {'dk': '202601', 'sales': 1023}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 206}, {'dk': '202507', 'sales': 1049}, {'dk': '202508', 'sales': 855}, {'dk': '202509', 'sales': 946}, {'dk': '202510', 'sales': 1069}, {'dk': '202511', 'sales': 932}, {'dk': '202512', 'sales': 621}, {'dk': '202601', 'sales': 837}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 573}, {'dk': '202410', 'sales': 625}, {'dk': '202411', 'sales': 1315}, {'dk': '202412', 'sales': 893}, {'dk': '202501', 'sales': 1821}, {'dk': '202502', 'sales': 1511}, {'dk': '202503', 'sales': 1643}, {'dk': '202504', 'sales': 1330}, {'dk': '202505', 'sales': 1330}, {'dk': '202506', 'sales': 1251}, {'dk': '202507', 'sales': 1523}, {'dk': '202508', 'sales': 1407}, {'dk': '202509', 'sales': 1393}, {'dk': '202510', 'sales': 1326}, {'dk': '202511', 'sales': 1094}, {'dk': '202512', 'sales': 592}, {'dk': '202601', 'sales': 806}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202408', 'sales': 248}, {'dk': '202409', 'sales': 427}, {'dk': '202410', 'sales': 137}, {'dk': '202411', 'sales': 69}, {'dk': '202412', 'sales': 107}, {'dk': '202501', 'sales': 1019}, {'dk': '202502', 'sales': 785}, {'dk': '202503', 'sales': 1551}, {'dk': '202504', 'sales': 5188}, {'dk': '202505', 'sales': 3470}, {'dk': '202506', 'sales': 3353}, {'dk': '202507', 'sales': 2761}, {'dk': '202508', 'sales': 2518}, {'dk': '202509', 'sales': 2058}, {'dk': '202510', 'sales': 1705}, {'dk': '202511', 'sales': 1963}, {'dk': '202512', 'sales': 921}, {'dk': '202601', 'sales': 1116}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202310', 'sales': 5}, {'dk': '202311', 'sales': 167}, {'dk': '202312', 'sales': 365}, {'dk': '202401', 'sales': 150}, {'dk': '202402', 'sales': 11}, {'dk': '202403', 'sales': 2}, {'dk': '202404', 'sales': 148}, {'dk': '202405', 'sales': 241}, {'dk': '202406', 'sales': 245}, {'dk': '202407', 'sales': 286}, {'dk': '202408', 'sales': 330}, {'dk': '202409', 'sales': 442}, {'dk': '202410', 'sales': 429}, {'dk': '202411', 'sales': 607}, {'dk': '202412', 'sales': 825}, {'dk': '202501', 'sales': 542}, {'dk': '202502', 'sales': 552}, {'dk': '202503', 'sales': 524}, {'dk': '202504', 'sales': 440}, {'dk': '202505', 'sales': 473}, {'dk': '202506', 'sales': 649}, {'dk': '202507', 'sales': 514}, {'dk': '202508', 'sales': 573}, {'dk': '202509', 'sales': 569}, {'dk': '202510', 'sales': 518}, {'dk': '202511', 'sales': 719}, {'dk': '202512', 'sales': 871}, {'dk': '202601', 'sales': 961}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202509', 'sales': 1480}, {'dk': '202510', 'sales': 1343}, {'dk': '202511', 'sales': 1184}, {'dk': '202512', 'sales': 660}, {'dk': '202601', 'sales': 651}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202410', 'sales': 98}, {'dk': '202411', 'sales': 73}, {'dk': '202412', 'sales': 55}, {'dk': '202501', 'sales': 215}, {'dk': '202502', 'sales': 714}, {'dk': '202506', 'sales': 192}, {'dk': '202507', 'sales': 587}, {'dk': '202508', 'sales': 499}, {'dk': '202509', 'sales': 427}, {'dk': '202510', 'sales': 440}, {'dk': '202511', 'sales': 452}, {'dk': '202512', 'sales': 304}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 13}, {'dk': '202508', 'sales': 538}, {'dk': '202509', 'sales': 1134}, {'dk': '202510', 'sales': 1225}, {'dk': '202511', 'sales': 796}, {'dk': '202512', 'sales': 538}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202407', 'sales': 535}, {'dk': '202408', 'sales': 952}, {'dk': '202409', 'sales': 1239}, {'dk': '202410', 'sales': 992}, {'dk': '202411', 'sales': 943}, {'dk': '202412', 'sales': 363}, {'dk': '202501', 'sales': 842}, {'dk': '202502', 'sales': 636}, {'dk': '202503', 'sales': 539}, {'dk': '202504', 'sales': 692}, {'dk': '202505', 'sales': 554}, {'dk': '202506', 'sales': 1597}, {'dk': '202507', 'sales': 1710}, {'dk': '202508', 'sales': 2222}, {'dk': '202509', 'sales': 1212}, {'dk': '202510', 'sales': 932}, {'dk': '202511', 'sales': 931}, {'dk': '202512', 'sales': 513}, {'dk': '202601', 'sales': 775}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 18}, {'dk': '202511', 'sales': 82}, {'dk': '202512', 'sales': 71}, {'dk': '202601', 'sales': 93}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 139}, {'dk': '202506', 'sales': 300}, {'dk': '202507', 'sales': 1}, {'dk': '202508', 'sales': 539}, {'dk': '202509', 'sales': 621}, {'dk': '202510', 'sales': 648}, {'dk': '202511', 'sales': 656}, {'dk': '202512', 'sales': 431}, {'dk': '202601', 'sales': 496}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202307', 'sales': 1263}, {'dk': '202308', 'sales': 1406}, {'dk': '202309', 'sales': 1411}, {'dk': '202310', 'sales': 1206}, {'dk': '202311', 'sales': 1231}, {'dk': '202312', 'sales': 791}, {'dk': '202401', 'sales': 1645}, {'dk': '202402', 'sales': 1340}, {'dk': '202403', 'sales': 1218}, {'dk': '202404', 'sales': 1051}, {'dk': '202405', 'sales': 966}, {'dk': '202406', 'sales': 925}, {'dk': '202407', 'sales': 894}, {'dk': '202408', 'sales': 1025}, {'dk': '202409', 'sales': 1105}, {'dk': '202410', 'sales': 935}, {'dk': '202411', 'sales': 929}, {'dk': '202412', 'sales': 789}, {'dk': '202501', 'sales': 966}, {'dk': '202502', 'sales': 933}, {'dk': '202503', 'sales': 914}, {'dk': '202504', 'sales': 868}, {'dk': '202505', 'sales': 972}, {'dk': '202506', 'sales': 935}, {'dk': '202507', 'sales': 1108}, {'dk': '202508', 'sales': 1071}, {'dk': '202509', 'sales': 650}, {'dk': '202510', 'sales': 534}, {'dk': '202511', 'sales': 564}, {'dk': '202512', 'sales': 465}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 44}, {'dk': '202508', 'sales': 190}, {'dk': '202509', 'sales': 309}, {'dk': '202510', 'sales': 377}, {'dk': '202511', 'sales': 525}, {'dk': '202512', 'sales': 457}, {'dk': '202601', 'sales': 713}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202412', 'sales': 379}, {'dk': '202501', 'sales': 354}, {'dk': '202502', 'sales': 147}, {'dk': '202503', 'sales': 1}, {'dk': '202504', 'sales': 275}, {'dk': '202505', 'sales': 86}, {'dk': '202506', 'sales': 334}, {'dk': '202507', 'sales': 455}, {'dk': '202508', 'sales': 282}, {'dk': '202509', 'sales': 282}, {'dk': '202510', 'sales': 344}, {'dk': '202511', 'sales': 471}, {'dk': '202512', 'sales': 286}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 65}, {'dk': '202505', 'sales': 198}, {'dk': '202506', 'sales': 158}, {'dk': '202507', 'sales': 256}, {'dk': '202508', 'sales': 338}, {'dk': '202509', 'sales': 436}, {'dk': '202510', 'sales': 572}, {'dk': '202511', 'sales': 459}, {'dk': '202512', 'sales': 305}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202210', 'sales': 81}, {'dk': '202211', 'sales': 746}, {'dk': '202212', 'sales': 1198}, {'dk': '202301', 'sales': 2286}, {'dk': '202302', 'sales': 2979}, {'dk': '202303', 'sales': 1214}, {'dk': '202310', 'sales': 28}, {'dk': '202311', 'sales': 129}, {'dk': '202312', 'sales': 129}, {'dk': '202407', 'sales': 1403}, {'dk': '202408', 'sales': 1195}, {'dk': '202409', 'sales': 1683}, {'dk': '202410', 'sales': 1236}, {'dk': '202411', 'sales': 787}, {'dk': '202412', 'sales': 841}, {'dk': '202501', 'sales': 965}, {'dk': '202502', 'sales': 841}, {'dk': '202503', 'sales': 1059}, {'dk': '202504', 'sales': 964}, {'dk': '202505', 'sales': 968}, {'dk': '202506', 'sales': 808}, {'dk': '202507', 'sales': 699}, {'dk': '202508', 'sales': 651}, {'dk': '202509', 'sales': 588}, {'dk': '202510', 'sales': 711}, {'dk': '202511', 'sales': 812}, {'dk': '202512', 'sales': 472}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202411', 'sales': 411}, {'dk': '202412', 'sales': 227}, {'dk': '202501', 'sales': 589}, {'dk': '202502', 'sales': 703}, {'dk': '202503', 'sales': 689}, {'dk': '202504', 'sales': 689}, {'dk': '202505', 'sales': 304}, {'dk': '202506', 'sales': 1114}, {'dk': '202507', 'sales': 1658}, {'dk': '202508', 'sales': 1549}, {'dk': '202509', 'sales': 1299}, {'dk': '202510', 'sales': 1016}, {'dk': '202511', 'sales': 926}, {'dk': '202512', 'sales': 532}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202501', 'sales': 1071}, {'dk': '202502', 'sales': 1143}, {'dk': '202503', 'sales': 1230}, {'dk': '202504', 'sales': 1078}, {'dk': '202505', 'sales': 1182}, {'dk': '202506', 'sales': 1238}, {'dk': '202507', 'sales': 1489}, {'dk': '202508', 'sales': 1312}, {'dk': '202509', 'sales': 1116}, {'dk': '202510', 'sales': 79}, {'dk': '202511', 'sales': 745}, {'dk': '202512', 'sales': 529}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202412', 'sales': 136}, {'dk': '202501', 'sales': 306}, {'dk': '202502', 'sales': 305}, {'dk': '202504', 'sales': 349}, {'dk': '202505', 'sales': 542}, {'dk': '202506', 'sales': 570}, {'dk': '202507', 'sales': 542}, {'dk': '202508', 'sales': 632}, {'dk': '202509', 'sales': 640}, {'dk': '202510', 'sales': 753}, {'dk': '202511', 'sales': 989}, {'dk': '202512', 'sales': 577}, {'dk': '202601', 'sales': 527}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 293}, {'dk': '202505', 'sales': 461}, {'dk': '202506', 'sales': 371}, {'dk': '202507', 'sales': 648}, {'dk': '202508', 'sales': 738}, {'dk': '202509', 'sales': 752}, {'dk': '202510', 'sales': 733}, {'dk': '202511', 'sales': 770}, {'dk': '202512', 'sales': 427}, {'dk': '202601', 'sales': 651}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202310', 'sales': 3546}, {'dk': '202311', 'sales': 4231}, {'dk': '202312', 'sales': 4026}, {'dk': '202401', 'sales': 4255}, {'dk': '202402', 'sales': 3594}, {'dk': '202403', 'sales': 5117}, {'dk': '202407', 'sales': 5312}, {'dk': '202408', 'sales': 3401}, {'dk': '202409', 'sales': 953}, {'dk': '202410', 'sales': 841}, {'dk': '202411', 'sales': 1154}, {'dk': '202412', 'sales': 595}, {'dk': '202501', 'sales': 660}, {'dk': '202502', 'sales': 761}, {'dk': '202503', 'sales': 1075}, {'dk': '202504', 'sales': 1245}, {'dk': '202505', 'sales': 1048}, {'dk': '202506', 'sales': 1077}, {'dk': '202507', 'sales': 1151}, {'dk': '202508', 'sales': 922}, {'dk': '202509', 'sales': 59}, {'dk': '202510', 'sales': 477}, {'dk': '202511', 'sales': 562}, {'dk': '202512', 'sales': 274}, {'dk': '202601', 'sales': 62}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202407', 'sales': 850}, {'dk': '202408', 'sales': 658}, {'dk': '202409', 'sales': 737}, {'dk': '202410', 'sales': 620}, {'dk': '202411', 'sales': 833}, {'dk': '202412', 'sales': 768}, {'dk': '202501', 'sales': 1025}, {'dk': '202502', 'sales': 732}, {'dk': '202503', 'sales': 419}, {'dk': '202506', 'sales': 433}, {'dk': '202507', 'sales': 442}, {'dk': '202508', 'sales': 2822}, {'dk': '202509', 'sales': 2843}, {'dk': '202510', 'sales': 2614}, {'dk': '202511', 'sales': 2267}, {'dk': '202512', 'sales': 518}, {'dk': '202601', 'sales': 527}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 10}, {'dk': '202507', 'sales': 796}, {'dk': '202508', 'sales': 748}, {'dk': '202509', 'sales': 858}, {'dk': '202510', 'sales': 875}, {'dk': '202511', 'sales': 1003}, {'dk': '202512', 'sales': 482}, {'dk': '202601', 'sales': 744}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 28}, {'dk': '202410', 'sales': 272}, {'dk': '202411', 'sales': 463}, {'dk': '202412', 'sales': 429}, {'dk': '202501', 'sales': 648}, {'dk': '202502', 'sales': 501}, {'dk': '202503', 'sales': 577}, {'dk': '202504', 'sales': 718}, {'dk': '202505', 'sales': 1140}, {'dk': '202506', 'sales': 656}, {'dk': '202507', 'sales': 810}, {'dk': '202508', 'sales': 790}, {'dk': '202509', 'sales': 767}, {'dk': '202510', 'sales': 838}, {'dk': '202511', 'sales': 868}, {'dk': '202512', 'sales': 580}, {'dk': '202601', 'sales': 682}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202408', 'sales': 15}, {'dk': '202409', 'sales': 76}, {'dk': '202410', 'sales': 184}, {'dk': '202411', 'sales': 213}, {'dk': '202412', 'sales': 212}, {'dk': '202501', 'sales': 410}, {'dk': '202502', 'sales': 380}, {'dk': '202503', 'sales': 377}, {'dk': '202504', 'sales': 328}, {'dk': '202505', 'sales': 384}, {'dk': '202506', 'sales': 374}, {'dk': '202507', 'sales': 362}, {'dk': '202508', 'sales': 447}, {'dk': '202509', 'sales': 516}, {'dk': '202510', 'sales': 490}, {'dk': '202511', 'sales': 521}, {'dk': '202512', 'sales': 395}, {'dk': '202601', 'sales': 465}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202310', 'sales': 61}, {'dk': '202311', 'sales': 379}, {'dk': '202312', 'sales': 501}, {'dk': '202401', 'sales': 1365}, {'dk': '202402', 'sales': 2284}, {'dk': '202403', 'sales': 414}, {'dk': '202404', 'sales': 1321}, {'dk': '202405', 'sales': 1455}, {'dk': '202406', 'sales': 1359}, {'dk': '202407', 'sales': 1442}, {'dk': '202408', 'sales': 1223}, {'dk': '202409', 'sales': 1100}, {'dk': '202410', 'sales': 806}, {'dk': '202411', 'sales': 755}, {'dk': '202412', 'sales': 989}, {'dk': '202501', 'sales': 1132}, {'dk': '202502', 'sales': 2132}, {'dk': '202503', 'sales': 1030}, {'dk': '202504', 'sales': 285}, {'dk': '202505', 'sales': 736}, {'dk': '202506', 'sales': 991}, {'dk': '202507', 'sales': 1297}, {'dk': '202508', 'sales': 1021}, {'dk': '202509', 'sales': 940}, {'dk': '202510', 'sales': 668}, {'dk': '202511', 'sales': 726}, {'dk': '202512', 'sales': 490}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202405', 'sales': 0}, {'dk': '202406', 'sales': 0}, {'dk': '202407', 'sales': 0}, {'dk': '202409', 'sales': 0}, {'dk': '202410', 'sales': 0}, {'dk': '202411', 'sales': 0}, {'dk': '202412', 'sales': 0}, {'dk': '202501', 'sales': 0}, {'dk': '202502', 'sales': 0}, {'dk': '202503', 'sales': 0}, {'dk': '202504', 'sales': 0}, {'dk': '202505', 'sales': 0}, {'dk': '202506', 'sales': 0}, {'dk': '202507', 'sales': 0}, {'dk': '202508', 'sales': 0}, {'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 375}, {'dk': '202511', 'sales': 314}, {'dk': '202512', 'sales': 81}, {'dk': '202601', 'sales': 124}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202308', 'sales': 18}, {'dk': '202309', 'sales': 60}, {'dk': '202310', 'sales': 119}, {'dk': '202311', 'sales': 81}, {'dk': '202312', 'sales': 95}, {'dk': '202401', 'sales': 129}, {'dk': '202402', 'sales': 175}, {'dk': '202403', 'sales': 188}, {'dk': '202404', 'sales': 237}, {'dk': '202405', 'sales': 179}, {'dk': '202406', 'sales': 239}, {'dk': '202407', 'sales': 214}, {'dk': '202408', 'sales': 275}, {'dk': '202409', 'sales': 220}, {'dk': '202410', 'sales': 213}, {'dk': '202411', 'sales': 135}, {'dk': '202412', 'sales': 252}, {'dk': '202501', 'sales': 280}, {'dk': '202502', 'sales': 286}, {'dk': '202503', 'sales': 381}, {'dk': '202504', 'sales': 290}, {'dk': '202505', 'sales': 255}, {'dk': '202506', 'sales': 347}, {'dk': '202507', 'sales': 505}, {'dk': '202508', 'sales': 607}, {'dk': '202509', 'sales': 433}, {'dk': '202510', 'sales': 503}, {'dk': '202511', 'sales': 656}, {'dk': '202512', 'sales': 458}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 10}, {'dk': '202511', 'sales': 337}, {'dk': '202512', 'sales': 370}, {'dk': '202601', 'sales': 496}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 0}, {'dk': '202410', 'sales': 0}, {'dk': '202411', 'sales': 829}, {'dk': '202412', 'sales': 681}, {'dk': '202501', 'sales': 204}, {'dk': '202502', 'sales': 167}, {'dk': '202503', 'sales': 357}, {'dk': '202504', 'sales': 59}, {'dk': '202505', 'sales': 51}, {'dk': '202506', 'sales': 369}, {'dk': '202507', 'sales': 407}, {'dk': '202508', 'sales': 320}, {'dk': '202509', 'sales': 382}, {'dk': '202510', 'sales': 482}, {'dk': '202511', 'sales': 697}, {'dk': '202512', 'sales': 493}, {'dk': '202601', 'sales': 465}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 163}, {'dk': '202508', 'sales': 391}, {'dk': '202509', 'sales': 520}, {'dk': '202510', 'sales': 510}, {'dk': '202511', 'sales': 646}, {'dk': '202512', 'sales': 367}, {'dk': '202601', 'sales': 465}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202303', 'sales': 173}, {'dk': '202304', 'sales': 272}, {'dk': '202305', 'sales': 272}, {'dk': '202306', 'sales': 302}, {'dk': '202307', 'sales': 531}, {'dk': '202308', 'sales': 1708}, {'dk': '202309', 'sales': 2019}, {'dk': '202310', 'sales': 1369}, {'dk': '202311', 'sales': 883}, {'dk': '202312', 'sales': 430}, {'dk': '202401', 'sales': 1405}, {'dk': '202402', 'sales': 1564}, {'dk': '202403', 'sales': 352}, {'dk': '202404', 'sales': 460}, {'dk': '202405', 'sales': 409}, {'dk': '202406', 'sales': 339}, {'dk': '202407', 'sales': 464}, {'dk': '202408', 'sales': 1336}, {'dk': '202409', 'sales': 2339}, {'dk': '202410', 'sales': 1874}, {'dk': '202411', 'sales': 1289}, {'dk': '202412', 'sales': 667}, {'dk': '202501', 'sales': 1411}, {'dk': '202502', 'sales': 3621}, {'dk': '202503', 'sales': 403}, {'dk': '202504', 'sales': 386}, {'dk': '202505', 'sales': 494}, {'dk': '202506', 'sales': 456}, {'dk': '202507', 'sales': 571}, {'dk': '202508', 'sales': 1372}, {'dk': '202509', 'sales': 2136}, {'dk': '202510', 'sales': 1408}, {'dk': '202511', 'sales': 1180}, {'dk': '202512', 'sales': 470}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202509', 'sales': 194}, {'dk': '202510', 'sales': 442}, {'dk': '202511', 'sales': 452}, {'dk': '202512', 'sales': 275}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202508', 'sales': 49}, {'dk': '202509', 'sales': 171}, {'dk': '202510', 'sales': 710}, {'dk': '202511', 'sales': 367}, {'dk': '202512', 'sales': 196}, {'dk': '202601', 'sales': 124}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202404', 'sales': 131}, {'dk': '202405', 'sales': 164}, {'dk': '202406', 'sales': 215}, {'dk': '202407', 'sales': 184}, {'dk': '202408', 'sales': 219}, {'dk': '202409', 'sales': 193}, {'dk': '202410', 'sales': 245}, {'dk': '202411', 'sales': 253}, {'dk': '202412', 'sales': 184}, {'dk': '202501', 'sales': 274}, {'dk': '202502', 'sales': 319}, {'dk': '202503', 'sales': 310}, {'dk': '202504', 'sales': 278}, {'dk': '202505', 'sales': 325}, {'dk': '202506', 'sales': 256}, {'dk': '202507', 'sales': 301}, {'dk': '202508', 'sales': 312}, {'dk': '202509', 'sales': 398}, {'dk': '202510', 'sales': 364}, {'dk': '202511', 'sales': 361}, {'dk': '202512', 'sales': 300}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 344}, {'dk': '202412', 'sales': 376}, {'dk': '202501', 'sales': 516}, {'dk': '202502', 'sales': 529}, {'dk': '202506', 'sales': 189}, {'dk': '202507', 'sales': 837}, {'dk': '202508', 'sales': 728}, {'dk': '202509', 'sales': 755}, {'dk': '202510', 'sales': 658}, {'dk': '202511', 'sales': 599}, {'dk': '202512', 'sales': 391}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202211', 'sales': 4544}, {'dk': '202212', 'sales': 4237}, {'dk': '202301', 'sales': 3779}, {'dk': '202310', 'sales': 182}, {'dk': '202404', 'sales': 957}, {'dk': '202405', 'sales': 2687}, {'dk': '202406', 'sales': 145}, {'dk': '202407', 'sales': 1349}, {'dk': '202408', 'sales': 1780}, {'dk': '202409', 'sales': 1720}, {'dk': '202410', 'sales': 1648}, {'dk': '202411', 'sales': 1157}, {'dk': '202412', 'sales': 641}, {'dk': '202501', 'sales': 1510}, {'dk': '202502', 'sales': 1640}, {'dk': '202503', 'sales': 1479}, {'dk': '202504', 'sales': 1424}, {'dk': '202505', 'sales': 1477}, {'dk': '202506', 'sales': 991}, {'dk': '202507', 'sales': 977}, {'dk': '202508', 'sales': 134}, {'dk': '202509', 'sales': 80}, {'dk': '202510', 'sales': 743}, {'dk': '202511', 'sales': 649}, {'dk': '202512', 'sales': 431}, {'dk': '202601', 'sales': 527}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 250}, {'dk': '202511', 'sales': 126}, {'dk': '202512', 'sales': 279}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 30}, {'dk': '202512', 'sales': 130}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202303', 'sales': 1517}, {'dk': '202304', 'sales': 1447}, {'dk': '202305', 'sales': 1287}, {'dk': '202306', 'sales': 1353}, {'dk': '202307', 'sales': 1850}, {'dk': '202308', 'sales': 1404}, {'dk': '202309', 'sales': 1481}, {'dk': '202310', 'sales': 1100}, {'dk': '202311', 'sales': 1431}, {'dk': '202312', 'sales': 875}, {'dk': '202401', 'sales': 1589}, {'dk': '202402', 'sales': 1519}, {'dk': '202403', 'sales': 1196}, {'dk': '202404', 'sales': 1332}, {'dk': '202405', 'sales': 1253}, {'dk': '202406', 'sales': 1264}, {'dk': '202407', 'sales': 1407}, {'dk': '202408', 'sales': 1156}, {'dk': '202409', 'sales': 1132}, {'dk': '202410', 'sales': 1109}, {'dk': '202411', 'sales': 1022}, {'dk': '202412', 'sales': 835}, {'dk': '202501', 'sales': 979}, {'dk': '202502', 'sales': 919}, {'dk': '202503', 'sales': 965}, {'dk': '202504', 'sales': 808}, {'dk': '202505', 'sales': 781}, {'dk': '202506', 'sales': 854}, {'dk': '202507', 'sales': 864}, {'dk': '202508', 'sales': 760}, {'dk': '202509', 'sales': 766}, {'dk': '202510', 'sales': 637}, {'dk': '202511', 'sales': 642}, {'dk': '202512', 'sales': 437}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 13}, {'dk': '202511', 'sales': 41}, {'dk': '202512', 'sales': 302}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202411', 'sales': 0}, {'dk': '202412', 'sales': 0}, {'dk': '202501', 'sales': 0}, {'dk': '202502', 'sales': 0}, {'dk': '202503', 'sales': 0}, {'dk': '202504', 'sales': 0}, {'dk': '202505', 'sales': 0}, {'dk': '202506', 'sales': 239}, {'dk': '202507', 'sales': 992}, {'dk': '202508', 'sales': 176}, {'dk': '202509', 'sales': 242}, {'dk': '202510', 'sales': 378}, {'dk': '202511', 'sales': 309}, {'dk': '202512', 'sales': 249}, {'dk': '202601', 'sales': 465}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 262}, {'dk': '202508', 'sales': 359}, {'dk': '202509', 'sales': 372}, {'dk': '202510', 'sales': 394}, {'dk': '202511', 'sales': 345}, {'dk': '202512', 'sales': 200}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 113}, {'dk': '202511', 'sales': 230}, {'dk': '202512', 'sales': 109}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 7}, {'dk': '202511', 'sales': 221}, {'dk': '202512', 'sales': 193}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 185}, {'dk': '202507', 'sales': 580}, {'dk': '202508', 'sales': 699}, {'dk': '202509', 'sales': 86}, {'dk': '202510', 'sales': 88}, {'dk': '202511', 'sales': 101}, {'dk': '202512', 'sales': 125}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 66}, {'dk': '202508', 'sales': 188}, {'dk': '202509', 'sales': 286}, {'dk': '202510', 'sales': 384}, {'dk': '202511', 'sales': 320}, {'dk': '202512', 'sales': 237}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202509', 'sales': 261}, {'dk': '202510', 'sales': 182}, {'dk': '202511', 'sales': 272}, {'dk': '202512', 'sales': 176}, {'dk': '202601', 'sales': 186}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 105}, {'dk': '202508', 'sales': 149}, {'dk': '202509', 'sales': 236}, {'dk': '202510', 'sales': 212}, {'dk': '202511', 'sales': 265}, {'dk': '202512', 'sales': 219}, {'dk': '202601', 'sales': 217}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 1493}, {'dk': '202511', 'sales': 861}, {'dk': '202512', 'sales': 88}, {'dk': '202601', 'sales': 31}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 0}, {'dk': '202512', 'sales': 96}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 49}, {'dk': '202512', 'sales': 100}, {'dk': '202601', 'sales': 124}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202411', 'sales': 93}, {'dk': '202412', 'sales': 250}, {'dk': '202501', 'sales': 282}, {'dk': '202502', 'sales': 711}, {'dk': '202503', 'sales': 736}, {'dk': '202504', 'sales': 414}, {'dk': '202505', 'sales': 295}, {'dk': '202506', 'sales': 276}, {'dk': '202507', 'sales': 330}, {'dk': '202508', 'sales': 327}, {'dk': '202509', 'sales': 293}, {'dk': '202510', 'sales': 289}, {'dk': '202511', 'sales': 316}, {'dk': '202512', 'sales': 251}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 583}, {'dk': '202410', 'sales': 31}, {'dk': '202411', 'sales': 493}, {'dk': '202412', 'sales': 275}, {'dk': '202501', 'sales': 591}, {'dk': '202502', 'sales': 78}, {'dk': '202506', 'sales': 220}, {'dk': '202507', 'sales': 1010}, {'dk': '202508', 'sales': 887}, {'dk': '202509', 'sales': 778}, {'dk': '202510', 'sales': 555}, {'dk': '202511', 'sales': 621}, {'dk': '202512', 'sales': 524}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202401', 'sales': 67}, {'dk': '202402', 'sales': 81}, {'dk': '202403', 'sales': 58}, {'dk': '202404', 'sales': 150}, {'dk': '202405', 'sales': 152}, {'dk': '202406', 'sales': 159}, {'dk': '202407', 'sales': 176}, {'dk': '202408', 'sales': 159}, {'dk': '202409', 'sales': 354}, {'dk': '202410', 'sales': 276}, {'dk': '202411', 'sales': 266}, {'dk': '202412', 'sales': 318}, {'dk': '202501', 'sales': 348}, {'dk': '202502', 'sales': 412}, {'dk': '202503', 'sales': 440}, {'dk': '202504', 'sales': 618}, {'dk': '202505', 'sales': 528}, {'dk': '202506', 'sales': 456}, {'dk': '202507', 'sales': 459}, {'dk': '202508', 'sales': 483}, {'dk': '202509', 'sales': 502}, {'dk': '202510', 'sales': 390}, {'dk': '202511', 'sales': 431}, {'dk': '202512', 'sales': 292}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202411', 'sales': 291}, {'dk': '202412', 'sales': 492}, {'dk': '202501', 'sales': 740}, {'dk': '202502', 'sales': 874}, {'dk': '202503', 'sales': 432}, {'dk': '202504', 'sales': 638}, {'dk': '202505', 'sales': 479}, {'dk': '202506', 'sales': 322}, {'dk': '202507', 'sales': 555}, {'dk': '202508', 'sales': 239}, {'dk': '202509', 'sales': 262}, {'dk': '202510', 'sales': 278}, {'dk': '202511', 'sales': 286}, {'dk': '202512', 'sales': 212}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 126}, {'dk': '202506', 'sales': 155}, {'dk': '202507', 'sales': 259}, {'dk': '202508', 'sales': 293}, {'dk': '202509', 'sales': 164}, {'dk': '202510', 'sales': 273}, {'dk': '202511', 'sales': 582}, {'dk': '202512', 'sales': 492}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 11}, {'dk': '202508', 'sales': 176}, {'dk': '202509', 'sales': 163}, {'dk': '202510', 'sales': 239}, {'dk': '202511', 'sales': 174}, {'dk': '202512', 'sales': 201}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 911}, {'dk': '202505', 'sales': 2142}, {'dk': '202506', 'sales': 416}, {'dk': '202507', 'sales': 306}, {'dk': '202508', 'sales': 329}, {'dk': '202509', 'sales': 380}, {'dk': '202510', 'sales': 430}, {'dk': '202511', 'sales': 448}, {'dk': '202512', 'sales': 287}, {'dk': '202601', 'sales': 403}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202502', 'sales': 0}, {'dk': '202503', 'sales': 0}, {'dk': '202504', 'sales': 0}, {'dk': '202506', 'sales': 0}, {'dk': '202507', 'sales': 0}, {'dk': '202508', 'sales': 0}, {'dk': '202509', 'sales': 0}, {'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 586}, {'dk': '202512', 'sales': 344}, {'dk': '202601', 'sales': 93}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 84}, {'dk': '202507', 'sales': 165}, {'dk': '202508', 'sales': 188}, {'dk': '202509', 'sales': 283}, {'dk': '202510', 'sales': 240}, {'dk': '202511', 'sales': 321}, {'dk': '202512', 'sales': 203}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 599}, {'dk': '202506', 'sales': 651}, {'dk': '202507', 'sales': 745}, {'dk': '202508', 'sales': 757}, {'dk': '202509', 'sales': 828}, {'dk': '202510', 'sales': 657}, {'dk': '202511', 'sales': 629}, {'dk': '202512', 'sales': 368}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 22}, {'dk': '202512', 'sales': 173}, {'dk': '202601', 'sales': 279}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 145}, {'dk': '202505', 'sales': 309}, {'dk': '202506', 'sales': 264}, {'dk': '202507', 'sales': 864}, {'dk': '202508', 'sales': 1011}, {'dk': '202509', 'sales': 1162}, {'dk': '202510', 'sales': 773}, {'dk': '202511', 'sales': 1226}, {'dk': '202512', 'sales': 520}, {'dk': '202601', 'sales': 620}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 15}, {'dk': '202507', 'sales': 219}, {'dk': '202508', 'sales': 65}, {'dk': '202509', 'sales': 256}, {'dk': '202510', 'sales': 245}, {'dk': '202511', 'sales': 246}, {'dk': '202512', 'sales': 143}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 167}, {'dk': '202506', 'sales': 217}, {'dk': '202507', 'sales': 419}, {'dk': '202508', 'sales': 594}, {'dk': '202509', 'sales': 364}, {'dk': '202510', 'sales': 452}, {'dk': '202511', 'sales': 476}, {'dk': '202512', 'sales': 261}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 0}, {'dk': '202505', 'sales': 193}, {'dk': '202506', 'sales': 468}, {'dk': '202507', 'sales': 448}, {'dk': '202508', 'sales': 507}, {'dk': '202509', 'sales': 432}, {'dk': '202510', 'sales': 308}, {'dk': '202511', 'sales': 365}, {'dk': '202512', 'sales': 267}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202210', 'sales': 720}, {'dk': '202211', 'sales': 870}, {'dk': '202212', 'sales': 463}, {'dk': '202301', 'sales': 776}, {'dk': '202302', 'sales': 856}, {'dk': '202303', 'sales': 729}, {'dk': '202304', 'sales': 642}, {'dk': '202305', 'sales': 577}, {'dk': '202306', 'sales': 333}, {'dk': '202307', 'sales': 589}, {'dk': '202308', 'sales': 415}, {'dk': '202309', 'sales': 195}, {'dk': '202310', 'sales': 131}, {'dk': '202311', 'sales': 313}, {'dk': '202312', 'sales': 327}, {'dk': '202401', 'sales': 356}, {'dk': '202402', 'sales': 325}, {'dk': '202403', 'sales': 328}, {'dk': '202404', 'sales': 330}, {'dk': '202405', 'sales': 342}, {'dk': '202406', 'sales': 319}, {'dk': '202407', 'sales': 390}, {'dk': '202408', 'sales': 385}, {'dk': '202409', 'sales': 309}, {'dk': '202410', 'sales': 403}, {'dk': '202411', 'sales': 203}, {'dk': '202412', 'sales': 426}, {'dk': '202501', 'sales': 758}, {'dk': '202502', 'sales': 663}, {'dk': '202503', 'sales': 705}, {'dk': '202504', 'sales': 836}, {'dk': '202505', 'sales': 792}, {'dk': '202506', 'sales': 598}, {'dk': '202507', 'sales': 892}, {'dk': '202508', 'sales': 209}, {'dk': '202509', 'sales': 72}, {'dk': '202510', 'sales': 240}, {'dk': '202511', 'sales': 436}, {'dk': '202512', 'sales': 298}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202409', 'sales': 943}, {'dk': '202411', 'sales': 168}, {'dk': '202412', 'sales': 373}, {'dk': '202501', 'sales': 275}, {'dk': '202502', 'sales': 242}, {'dk': '202503', 'sales': 380}, {'dk': '202505', 'sales': 240}, {'dk': '202506', 'sales': 166}, {'dk': '202507', 'sales': 572}, {'dk': '202508', 'sales': 609}, {'dk': '202509', 'sales': 614}, {'dk': '202510', 'sales': 132}, {'dk': '202511', 'sales': 554}, {'dk': '202512', 'sales': 354}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 58}, {'dk': '202511', 'sales': 772}, {'dk': '202512', 'sales': 1185}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202501', 'sales': 41}, {'dk': '202502', 'sales': 148}, {'dk': '202503', 'sales': 65}, {'dk': '202504', 'sales': 285}, {'dk': '202505', 'sales': 130}, {'dk': '202506', 'sales': 387}, {'dk': '202507', 'sales': 454}, {'dk': '202508', 'sales': 237}, {'dk': '202509', 'sales': 479}, {'dk': '202510', 'sales': 449}, {'dk': '202511', 'sales': 370}, {'dk': '202512', 'sales': 195}, {'dk': '202601', 'sales': 217}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202411', 'sales': 0}, {'dk': '202412', 'sales': 309}, {'dk': '202501', 'sales': 159}, {'dk': '202502', 'sales': 738}, {'dk': '202503', 'sales': 675}, {'dk': '202504', 'sales': 561}, {'dk': '202505', 'sales': 814}, {'dk': '202506', 'sales': 808}, {'dk': '202507', 'sales': 937}, {'dk': '202508', 'sales': 949}, {'dk': '202509', 'sales': 983}, {'dk': '202510', 'sales': 857}, {'dk': '202511', 'sales': 321}, {'dk': '202512', 'sales': 607}, {'dk': '202601', 'sales': 434}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 8}, {'dk': '202508', 'sales': 151}, {'dk': '202509', 'sales': 208}, {'dk': '202510', 'sales': 212}, {'dk': '202511', 'sales': 259}, {'dk': '202512', 'sales': 201}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202505', 'sales': 6}, {'dk': '202506', 'sales': 108}, {'dk': '202507', 'sales': 246}, {'dk': '202508', 'sales': 205}, {'dk': '202509', 'sales': 317}, {'dk': '202510', 'sales': 318}, {'dk': '202511', 'sales': 310}, {'dk': '202512', 'sales': 281}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202503', 'sales': 136}, {'dk': '202504', 'sales': 142}, {'dk': '202505', 'sales': 97}, {'dk': '202506', 'sales': 140}, {'dk': '202507', 'sales': 141}, {'dk': '202508', 'sales': 142}, {'dk': '202509', 'sales': 159}, {'dk': '202510', 'sales': 166}, {'dk': '202511', 'sales': 195}, {'dk': '202512', 'sales': 140}, {'dk': '202601', 'sales': 217}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202508', 'sales': 197}, {'dk': '202509', 'sales': 257}, {'dk': '202510', 'sales': 282}, {'dk': '202511', 'sales': 461}, {'dk': '202512', 'sales': 642}, {'dk': '202601', 'sales': 279}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202309', 'sales': 471}, {'dk': '202310', 'sales': 379}, {'dk': '202311', 'sales': 383}, {'dk': '202312', 'sales': 277}, {'dk': '202401', 'sales': 657}, {'dk': '202402', 'sales': 633}, {'dk': '202403', 'sales': 723}, {'dk': '202404', 'sales': 930}, {'dk': '202405', 'sales': 403}, {'dk': '202406', 'sales': 95}, {'dk': '202407', 'sales': 106}, {'dk': '202408', 'sales': 319}, {'dk': '202409', 'sales': 766}, {'dk': '202410', 'sales': 454}, {'dk': '202411', 'sales': 325}, {'dk': '202412', 'sales': 326}, {'dk': '202501', 'sales': 450}, {'dk': '202502', 'sales': 492}, {'dk': '202503', 'sales': 623}, {'dk': '202504', 'sales': 661}, {'dk': '202505', 'sales': 617}, {'dk': '202506', 'sales': 465}, {'dk': '202507', 'sales': 504}, {'dk': '202508', 'sales': 521}, {'dk': '202509', 'sales': 446}, {'dk': '202510', 'sales': 329}, {'dk': '202511', 'sales': 422}, {'dk': '202512', 'sales': 247}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202501', 'sales': 5}, {'dk': '202502', 'sales': 249}, {'dk': '202503', 'sales': 659}, {'dk': '202504', 'sales': 911}, {'dk': '202505', 'sales': 2057}, {'dk': '202506', 'sales': 927}, {'dk': '202507', 'sales': 778}, {'dk': '202508', 'sales': 577}, {'dk': '202509', 'sales': 411}, {'dk': '202510', 'sales': 325}, {'dk': '202511', 'sales': 241}, {'dk': '202512', 'sales': 176}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202509', 'sales': 77}, {'dk': '202510', 'sales': 187}, {'dk': '202511', 'sales': 80}, {'dk': '202512', 'sales': 72}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 37}, {'dk': '202507', 'sales': 147}, {'dk': '202508', 'sales': 168}, {'dk': '202509', 'sales': 210}, {'dk': '202510', 'sales': 230}, {'dk': '202511', 'sales': 292}, {'dk': '202512', 'sales': 185}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 98}, {'dk': '202511', 'sales': 132}, {'dk': '202512', 'sales': 161}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202406', 'sales': 1759}, {'dk': '202407', 'sales': 1637}, {'dk': '202408', 'sales': 1416}, {'dk': '202409', 'sales': 1110}, {'dk': '202410', 'sales': 3}, {'dk': '202411', 'sales': 14}, {'dk': '202412', 'sales': 30}, {'dk': '202501', 'sales': 863}, {'dk': '202502', 'sales': 840}, {'dk': '202503', 'sales': 954}, {'dk': '202504', 'sales': 896}, {'dk': '202505', 'sales': 964}, {'dk': '202506', 'sales': 982}, {'dk': '202507', 'sales': 1306}, {'dk': '202508', 'sales': 1128}, {'dk': '202509', 'sales': 813}, {'dk': '202510', 'sales': 677}, {'dk': '202511', 'sales': 711}, {'dk': '202512', 'sales': 366}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202408', 'sales': 220}, {'dk': '202410', 'sales': 287}, {'dk': '202411', 'sales': 352}, {'dk': '202412', 'sales': 681}, {'dk': '202504', 'sales': 136}, {'dk': '202505', 'sales': 178}, {'dk': '202506', 'sales': 460}, {'dk': '202507', 'sales': 1923}, {'dk': '202508', 'sales': 1930}, {'dk': '202509', 'sales': 1958}, {'dk': '202510', 'sales': 1842}, {'dk': '202511', 'sales': 1866}, {'dk': '202512', 'sales': 1408}, {'dk': '202601', 'sales': 1054}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202510', 'sales': 0}, {'dk': '202511', 'sales': 2}, {'dk': '202512', 'sales': 37}, {'dk': '202601', 'sales': 217}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202311', 'sales': 70}, {'dk': '202312', 'sales': 107}, {'dk': '202401', 'sales': 200}, {'dk': '202402', 'sales': 213}, {'dk': '202403', 'sales': 195}, {'dk': '202404', 'sales': 243}, {'dk': '202405', 'sales': 137}, {'dk': '202406', 'sales': 259}, {'dk': '202407', 'sales': 209}, {'dk': '202408', 'sales': 297}, {'dk': '202409', 'sales': 326}, {'dk': '202410', 'sales': 315}, {'dk': '202411', 'sales': 305}, {'dk': '202412', 'sales': 331}, {'dk': '202501', 'sales': 327}, {'dk': '202502', 'sales': 261}, {'dk': '202503', 'sales': 338}, {'dk': '202504', 'sales': 272}, {'dk': '202505', 'sales': 261}, {'dk': '202506', 'sales': 280}, {'dk': '202507', 'sales': 225}, {'dk': '202508', 'sales': 211}, {'dk': '202509', 'sales': 299}, {'dk': '202510', 'sales': 246}, {'dk': '202511', 'sales': 307}, {'dk': '202512', 'sales': 242}, {'dk': '202601', 'sales': 310}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202507', 'sales': 48}, {'dk': '202508', 'sales': 100}, {'dk': '202509', 'sales': 108}, {'dk': '202510', 'sales': 100}, {'dk': '202511', 'sales': 117}, {'dk': '202512', 'sales': 124}, {'dk': '202601', 'sales': 186}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 143}, {'dk': '202505', 'sales': 134}, {'dk': '202506', 'sales': 281}, {'dk': '202507', 'sales': 339}, {'dk': '202508', 'sales': 342}, {'dk': '202509', 'sales': 396}, {'dk': '202510', 'sales': 428}, {'dk': '202511', 'sales': 602}, {'dk': '202512', 'sales': 317}, {'dk': '202601', 'sales': 279}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202504', 'sales': 0}, {'dk': '202505', 'sales': 0}, {'dk': '202506', 'sales': 0}, {'dk': '202507', 'sales': 0}, {'dk': '202508', 'sales': 480}, {'dk': '202509', 'sales': 377}, {'dk': '202510', 'sales': 251}, {'dk': '202511', 'sales': 262}, {'dk': '202512', 'sales': 88}, {'dk': '202601', 'sales': 124}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202311', 'sales': 467}, {'dk': '202312', 'sales': 273}, {'dk': '202401', 'sales': 738}, {'dk': '202402', 'sales': 931}, {'dk': '202403', 'sales': 951}, {'dk': '202404', 'sales': 1041}, {'dk': '202405', 'sales': 898}, {'dk': '202406', 'sales': 1003}, {'dk': '202407', 'sales': 838}, {'dk': '202408', 'sales': 716}, {'dk': '202409', 'sales': 639}, {'dk': '202410', 'sales': 761}, {'dk': '202411', 'sales': 706}, {'dk': '202412', 'sales': 569}, {'dk': '202501', 'sales': 691}, {'dk': '202502', 'sales': 914}, {'dk': '202503', 'sales': 1261}, {'dk': '202504', 'sales': 1231}, {'dk': '202505', 'sales': 1003}, {'dk': '202506', 'sales': 887}, {'dk': '202507', 'sales': 703}, {'dk': '202508', 'sales': 538}, {'dk': '202509', 'sales': 527}, {'dk': '202510', 'sales': 471}, {'dk': '202511', 'sales': 489}, {'dk': '202512', 'sales': 233}, {'dk': '202601', 'sales': 341}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202401', 'sales': 8}, {'dk': '202402', 'sales': 27}, {'dk': '202403', 'sales': 14}, {'dk': '202404', 'sales': 54}, {'dk': '202405', 'sales': 32}, {'dk': '202406', 'sales': 90}, {'dk': '202407', 'sales': 34}, {'dk': '202408', 'sales': 70}, {'dk': '202409', 'sales': 75}, {'dk': '202410', 'sales': 80}, {'dk': '202411', 'sales': 99}, {'dk': '202412', 'sales': 60}, {'dk': '202501', 'sales': 297}, {'dk': '202502', 'sales': 527}, {'dk': '202503', 'sales': 389}, {'dk': '202504', 'sales': 297}, {'dk': '202505', 'sales': 414}, {'dk': '202506', 'sales': 329}, {'dk': '202507', 'sales': 358}, {'dk': '202508', 'sales': 359}, {'dk': '202509', 'sales': 365}, {'dk': '202510', 'sales': 286}, {'dk': '202511', 'sales': 357}, {'dk': '202512', 'sales': 194}, {'dk': '202601', 'sales': 124}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202503', 'sales': 42}, {'dk': '202504', 'sales': 203}, {'dk': '202505', 'sales': 590}, {'dk': '202506', 'sales': 135}, {'dk': '202507', 'sales': 736}, {'dk': '202508', 'sales': 565}, {'dk': '202509', 'sales': 671}, {'dk': '202510', 'sales': 506}, {'dk': '202511', 'sales': 486}, {'dk': '202512', 'sales': 247}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202503', 'sales': 659}, {'dk': '202504', 'sales': 911}, {'dk': '202506', 'sales': 370}, {'dk': '202507', 'sales': 1346}, {'dk': '202508', 'sales': 1372}, {'dk': '202509', 'sales': 1275}, {'dk': '202510', 'sales': 922}, {'dk': '202511', 'sales': 268}, {'dk': '202512', 'sales': 566}, {'dk': '202601', 'sales': 744}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202506', 'sales': 239}, {'dk': '202507', 'sales': 992}, {'dk': '202508', 'sales': 966}, {'dk': '202509', 'sales': 367}, {'dk': '202510', 'sales': 122}, {'dk': '202511', 'sales': 380}, {'dk': '202512', 'sales': 196}, {'dk': '202601', 'sales': 372}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202508', 'sales': 119}, {'dk': '202509', 'sales': 229}, {'dk': '202510', 'sales': 238}, {'dk': '202511', 'sales': 1152}, {'dk': '202512', 'sales': 376}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>[{'dk': '202405', 'sales': 113}, {'dk': '202406', 'sales': 120}, {'dk': '202407', 'sales': 97}, {'dk': '202408', 'sales': 202}, {'dk': '202409', 'sales': 77}, {'dk': '202410', 'sales': 218}, {'dk': '202411', 'sales': 6}, {'dk': '202412', 'sales': 72}, {'dk': '202501', 'sales': 33}, {'dk': '202502', 'sales': 43}, {'dk': '202503', 'sales': 37}, {'dk': '202504', 'sales': 94}, {'dk': '202505', 'sales': 112}, {'dk': '202506', 'sales': 104}, {'dk': '202507', 'sales': 152}, {'dk': '202508', 'sales': 192}, {'dk': '202509', 'sales': 273}, {'dk': '202510', 'sales': 278}, {'dk': '202511', 'sales': 318}, {'dk': '202512', 'sales': 216}, {'dk': '202601', 'sales': 248}]</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-08-10</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
   </si>
   <si>
     <t>2025-09-15</t>
   </si>
   <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
   </si>
   <si>
     <t>2025-12-04</t>
   </si>
   <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
-    <t>2025-09-27</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-09-05</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-09-14</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2025-09-09</t>
-  </si>
-  <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 19563, 86262, 77092, 0, 0, 0, 0, 0, 0, 0, 0, 12232, 28344, 121081, 114061, 0, 0, 0, 842, 3312, 3288, 5295, 5045, 9068, 24474, 113335, 160064, 3256, 1830, 890, 933, 2628, 1338, 2123, 4821, 7327, 16738, 71427, 115103, 1911, 1675, 1595, 2349, 3226, 4294, 7756, 6876, 10478, 25834, 156199, 240871, 3122, 1606, 2451, 2166, 2970, 4844, 7766, 8842, 12929, 32120, 151160, 246636, 3944, 1141, 737, 1417, 1583, 3324, 4745, 7288, 16802, 51472, 186582, 231101, 2414, 1352, 1418, 1407, 1893, 2919, 6017, 7662, 17803, 48735, 134075, 246725, 2384, 913, 462, 660, 1574, 2851, 5694, 8111, 17064, 42123, 142448], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーの装飾', 'keyword': 'christmas party decorations'}, {'keywordCn': '格林奇派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10844, 7632, 0, 12723, 0, 0, 0, 0, 0, 0, 0, 2026, 7218, 7385, 0, 0, 0, 0, 0, 541, 0, 0, 1184, 2637, 8326, 9863, 0, 0, 0, 0, 0, 0, 575, 575, 922, 4214, 21437, 23826, 1984, 576, 0, 0, 0, 0, 793, 1608, 3589, 7751, 20021, 23534, 3208, 1379, 0, 0, 0, 369, 714, 2309, 4120, 14810, 61220, 64123, 2932, 1337, 637, 616, 754, 722, 1556, 2522, 4809, 16264, 54534, 67706, 2151, 700, 621, 482, 0, 140, 1570, 2280, 4182, 11829, 51028], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチパーティーの装飾', 'keyword': 'grinch party decorations'}, {'keywordCn': '格林奇装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 26638, 22865, 0, 0, 0, 0, 0, 0, 0, 0, 16087, 39502, 241810, 132598, 0, 0, 0, 0, 0, 0, 1667, 2539, 5637, 12238, 67151, 55838, 1951, 0, 0, 635, 517, 528, 2075, 3031, 11375, 35355, 162071, 74375, 6467, 1278, 936, 1256, 987, 2193, 5180, 7748, 18039, 67759, 268497, 126668, 9770, 2151, 1450, 1526, 1947, 3335, 9506, 13463, 16326, 35784, 186325, 93923, 8221, 1675, 1342, 917, 1963, 2614, 5220, 16444, 25416, 49888, 160115, 80169, 3785, 1243, 935, 1362, 1351, 1901, 3477, 6904, 13913, 38366, 121840, 69718, 3105, 641, 140, 762, 698, 1401, 3164, 5430, 20078, 50232, 158884], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチデコレーション', 'keyword': 'grinch decorations'}, {'keywordCn': '格林奇装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2775, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8351, 20791, 12122, 0, 0, 0, 0, 0, 0, 0, 0, 2299, 5316, 16009, 12950, 0, 0, 0, 0, 592, 861, 2056, 4152, 7269, 13470, 42884, 19960, 2335, 0, 0, 893, 708, 1366, 2699, 4836, 10739, 26628, 126368, 49868, 4576, 1581, 2369, 1480, 2091, 1999, 5249, 11549, 22179, 69946, 212580, 74283, 8182, 1391, 1451, 2379, 3554, 4705, 7918, 20307, 45114, 93079, 201151, 70216, 7270, 1079, 818, 1430, 1487, 4391, 14400, 25753, 46509, 80255, 197362, 76151, 3595, 544, 599, 511, 1919, 2897, 7112, 15412, 27191, 58018, 175349], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチの装飾', 'keyword': 'grinch decor'}, {'keywordCn': '圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 30535, 128890, 82035, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13117, 70546, 35394, 0, 0, 0, 0, 0, 1361, 3814, 6550, 24836, 68462, 322642, 191594, 6717, 0, 948, 658, 2548, 1807, 5247, 13734, 58514, 163670, 625988, 279771, 14213, 2155, 1187, 1844, 3474, 6905, 15063, 26378, 76206, 265268, 832873, 378278, 26641, 4240, 2981, 4604, 5912, 11045, 29369, 64053, 128680, 324273, 1120817, 511218, 37909, 7997, 4778, 5482, 5378, 12439, 24655, 86859, 177866, 370334, 1332640, 417609, 43744, 9261, 9295, 8655, 9980, 23188, 50701, 94861, 171563, 351848, 920260, 371111, 26902, 5090, 3680, 4475, 7596, 14852, 34076, 58731, 112284, 239809, 1059041], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチクリスマスデコレーション', 'keyword': 'grinch christmas decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 5967], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'nye decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6497, 34898, 60266, 41496, 35935], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4167, 66370, 128807, 122755, 91381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'k pop demon hunters party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 103598, 580513, 1339018, 1590123, 1058017, 1292157], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2694, 22869, 38882, 41693, 35583, 37741], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters poster'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 23911, 149373, 335139, 279847, 218405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 43770, 0, 0, 0, 0, 0, 0, 0, 0, 5829, 7177, 7624, 31322, 2525, 0, 0, 0, 2888, 1153, 3757, 5340, 4402, 5734, 12685, 119525, 8431, 1603, 1709, 0, 565, 0, 0, 616, 3774, 7231, 16588, 244138, 10922, 4274, 926, 938, 917, 941, 1510, 2019, 3783, 6372, 16361, 184602, 11118, 2127, 1595, 1044, 907, 982, 1334, 1872, 2900, 6978, 16176, 238549, 11639, 807, 565, 0, 545, 1389, 1238, 2141, 4655, 15498, 14528, 105478, 13014, 2587, 928, 963, 1247, 1518, 1891, 2481, 2994, 6929, 26089, 236986, 16559, 1531, 731, 1064, 1321, 1558, 1726, 1574, 2929, 5153, 24118], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new years decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 27456, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2369, 5764, 13091, 0, 0, 0, 0, 0, 0, 0, 0, 1772, 1547, 4410, 16158, 3335, 0, 0, 0, 0, 0, 0, 0, 4429, 2070, 2391, 15901, 1656, 0, 516, 0, 0, 552, 0, 604, 0, 807, 3274, 15944, 2483, 0, 0, 0, 0, 0, 0, 444, 923, 971, 2800, 21236, 2809, 0, 0, 0, 0, 0, 0, 0, 875, 1986, 3163, 25021, 2338, 0, 0, 0, 0, 0, 0, 0, 590, 639, 2943, 35083, 2675, 0, 0, 0, 0, 0, 0, 0, 737, 1397, 5405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new year decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 556, 0, 816, 3352], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 5967], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'nye decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'keywordCn': '新年前夕的聚会用品', 'searches': [21792, 0, 0, 0, 0, 0, 0, 0, 14509, 27792, 83092, 626351, 20961, 0, 0, 0, 0, 0, 0, 7589, 13266, 22050, 59243, 479089, 21666, 0, 3246, 4001, 1796, 1810, 1548, 6047, 7057, 8597, 16283, 178936, 13486, 0, 0, 0, 0, 704, 0, 805, 2786, 4433, 9246, 249163, 8151, 889, 1149, 971, 2361, 3340, 4678, 4464, 5626, 6950, 18640, 250731, 12335, 847, 2328, 1670, 1986, 2856, 4217, 5219, 3311, 4221, 15301, 257435, 10772, 590, 100, 0, 327, 1223, 2515, 2765, 1887, 2030, 36872, 374559, 5854, 0, 685, 0, 140, 992, 2303, 2272, 1338, 1764, 5076, 131577, 4329, 0, 0, 0, 0, 0, 676, 1696, 4434, 13733, 54383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ニューイヤーズ・イヴ・パーティ用品', 'keyword': 'new years eve party supplies'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 402, 2610], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year decorations 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2178], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 990], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years backdrop 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 493], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year back drop 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'keywordCn': '除夕背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3446, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1827, 13392, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2085, 15126, 0, 0, 0, 0, 0, 0, 0, 0, 0, 730, 1938, 14492, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2164, 15123, 0, 0, 0, 0, 0, 0, 0, 0, 0, 482, 1262, 15254, 684, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1693, 15182, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1264, 18531, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1271], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日の背景', 'keyword': 'new years eve backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'keywordCn': '除夕装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 26506, 133689, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3241, 9929, 57516, 2153, 0, 0, 0, 0, 0, 0, 0, 0, 1327, 3697, 66904, 2287, 0, 0, 0, 0, 0, 0, 0, 0, 926, 4051, 52595, 1199, 0, 0, 485, 0, 0, 780, 0, 0, 1132, 5068, 65884, 1980, 0, 0, 0, 0, 0, 0, 0, 509, 1129, 4985, 68363, 1878, 0, 0, 0, 0, 0, 100, 0, 1814, 5301, 12194, 83011, 2255, 0, 0, 0, 0, 0, 0, 0, 0, 1667, 8139, 83723, 1498, 0, 0, 0, 0, 0, 0, 0, 1500, 2131, 11656], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日の装飾', 'keyword': 'new years eve decorations'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'keywordCn': '银色的新年前夕装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3251, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ぎんがわのかざり', 'keyword': 'silver new years eve decorations'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas backdrop clearance'}, {'keywordCn': '圣诞快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1527, 3346, 2880, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2988, 5943, 0, 0, 0, 0, 0, 0, 0, 0, 1605, 1412, 5376, 9521, 0, 0, 0, 0, 0, 0, 0, 566, 732, 2435, 13719, 27773, 0, 0, 0, 0, 0, 0, 0, 737, 942, 2946, 14194, 24447, 730, 0, 0, 0, 0, 0, 100, 804, 1785, 3930, 21011, 42957, 0, 0, 0, 0, 0, 0, 0, 568, 949, 2636, 17142, 44707, 0, 0, 0, 0, 0, 0, 0, 0, 680, 2529, 18799], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスの背景', 'keyword': 'merry christmas backdrop'}, {'keywordCn': '圣诞背景墙', 'searches': [4379, 0, 2699, 0, 0, 0, 4791, 6092, 13406, 53816, 140582, 89640, 0, 0, 0, 0, 0, 0, 4416, 12029, 19751, 52270, 154628, 96611, 0, 0, 3214, 3703, 2214, 1438, 6853, 12602, 16613, 45866, 178398, 214412, 5901, 1777, 1222, 1583, 2914, 3405, 5592, 8032, 16345, 53441, 150732, 146101, 3471, 1784, 2376, 2150, 0, 4866, 9959, 13511, 30411, 74490, 299413, 330381, 5964, 2738, 2612, 2981, 3131, 5193, 10523, 15866, 28523, 72986, 298994, 312465, 8115, 3418, 2226, 2622, 3007, 4731, 8262, 19126, 43557, 158179, 384716, 379564, 6091, 2857, 2291, 2418, 2946, 5475, 13368, 19831, 38261, 93717, 270025, 308708, 5767, 1732, 1590, 2065, 2820, 4265, 9955, 16987, 34641, 77418, 252758], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・バックドロップ', 'keyword': 'christmas backdrop'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1092, 624, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 668, 694, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 338, 631, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1911, 1483, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1314, 1678, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2126], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'xmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 43770, 0, 0, 0, 0, 0, 0, 0, 0, 5829, 7177, 7624, 31322, 2525, 0, 0, 0, 2888, 1153, 3757, 5340, 4402, 5734, 12685, 119525, 8431, 1603, 1709, 0, 565, 0, 0, 616, 3774, 7231, 16588, 244138, 10922, 4274, 926, 938, 917, 941, 1510, 2019, 3783, 6372, 16361, 184602, 11118, 2127, 1595, 1044, 907, 982, 1334, 1872, 2900, 6978, 16176, 238549, 11639, 807, 565, 0, 545, 1389, 1238, 2141, 4655, 15498, 14528, 105478, 13014, 2587, 928, 963, 1247, 1518, 1891, 2481, 2994, 6929, 26089, 236986, 16559, 1531, 731, 1064, 1321, 1558, 1726, 1574, 2929, 5153, 24118], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new years decorations'}, {'keywordCn': '除夕装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 26506, 133689, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3241, 9929, 57516, 2153, 0, 0, 0, 0, 0, 0, 0, 0, 1327, 3697, 66904, 2287, 0, 0, 0, 0, 0, 0, 0, 0, 926, 4051, 52595, 1199, 0, 0, 485, 0, 0, 780, 0, 0, 1132, 5068, 65884, 1980, 0, 0, 0, 0, 0, 0, 0, 509, 1129, 4985, 68363, 1878, 0, 0, 0, 0, 0, 100, 0, 1814, 5301, 12194, 83011, 2255, 0, 0, 0, 0, 0, 0, 0, 0, 1667, 8139, 83723, 1498, 0, 0, 0, 0, 0, 0, 0, 1500, 2131, 11656], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日の装飾', 'keyword': 'new years eve decorations'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 43770, 0, 0, 0, 0, 0, 0, 0, 0, 5829, 7177, 7624, 31322, 2525, 0, 0, 0, 2888, 1153, 3757, 5340, 4402, 5734, 12685, 119525, 8431, 1603, 1709, 0, 565, 0, 0, 616, 3774, 7231, 16588, 244138, 10922, 4274, 926, 938, 917, 941, 1510, 2019, 3783, 6372, 16361, 184602, 11118, 2127, 1595, 1044, 907, 982, 1334, 1872, 2900, 6978, 16176, 238549, 11639, 807, 565, 0, 545, 1389, 1238, 2141, 4655, 15498, 14528, 105478, 13014, 2587, 928, 963, 1247, 1518, 1891, 2481, 2994, 6929, 26089, 236986, 16559, 1531, 731, 1064, 1321, 1558, 1726, 1574, 2929, 5153, 24118], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new years decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year 2026 decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2178], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years eve backdrop 2026'}, {'keywordCn': '奈背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 765, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7030, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5617, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 683, 7073, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 572, 8324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13068, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9764, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ナイの背景', 'keyword': 'nye backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '费利斯纳维达旗帜', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2569, 2619, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4019, 5912, 0, 0, 0, 0, 0, 0, 0, 0, 0, 525, 4967, 5520, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1589, 6175, 7927, 0, 0, 0, 0, 0, 0, 0, 0, 639, 909, 6614, 9920, 476, 0, 0, 0, 0, 0, 0, 0, 0, 1702, 9474, 16539, 0, 0, 0, 0, 0, 0, 0, 0, 0, 853, 7321, 16299, 0, 0, 0, 0, 0, 0, 0, 0, 309, 1261, 11241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadバナー', 'keyword': 'feliz navidad banner'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}, {'keywordCn': '圣诞快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1527, 3346, 2880, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2988, 5943, 0, 0, 0, 0, 0, 0, 0, 0, 1605, 1412, 5376, 9521, 0, 0, 0, 0, 0, 0, 0, 566, 732, 2435, 13719, 27773, 0, 0, 0, 0, 0, 0, 0, 737, 942, 2946, 14194, 24447, 730, 0, 0, 0, 0, 0, 100, 804, 1785, 3930, 21011, 42957, 0, 0, 0, 0, 0, 0, 0, 568, 949, 2636, 17142, 44707, 0, 0, 0, 0, 0, 0, 0, 0, 680, 2529, 18799], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスの背景', 'keyword': 'merry christmas backdrop'}, {'keywordCn': '圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7127, 4240, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2870, 12982, 11276, 0, 0, 0, 0, 0, 0, 0, 0, 1758, 3379, 9900, 13502, 0, 0, 0, 0, 619, 0, 866, 586, 2691, 5636, 19956, 19100, 0, 0, 0, 0, 0, 0, 0, 820, 1727, 5706, 19967, 25911, 0, 0, 0, 0, 0, 0, 400, 799, 1769, 5439, 18307, 20080, 639, 0, 0, 0, 0, 0, 515, 1728, 3277, 9926, 17714, 23594, 0, 0, 0, 0, 0, 0, 140, 466, 2009, 5609, 21204, 28604, 0, 0, 0, 0, 0, 0, 140, 749, 1988, 4212, 24085], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景', 'keyword': 'christmas background'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 842, 1391, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 990], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'pink christmas back drop'}, {'keywordCn': '粉红色的圣诞摄影背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 460, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 671, 530, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1534, 1524, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 657], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '写真撮影のためのピンクのクリスマスの背景', 'keyword': 'pink christmas backdrops for photography'}, {'keywordCn': '圣诞背景墙粉红色', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1741, 1444, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1293, 1226, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1295], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景色ピンク', 'keyword': 'christmas backdrop pink'}, {'keywordCn': '粉红色的圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1148, 893, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2476, 2410, 0, 0, 0, 0, 0, 0, 0, 0, 0, 643, 3887, 3172, 0, 0, 0, 0, 0, 0, 0, 0, 973, 3428, 11431, 8052, 0, 0, 0, 0, 0, 0, 0, 0, 688, 2361, 12659, 12873, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2275, 13761], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのクリスマスの背景', 'keyword': 'pink christmas backdrop'}, {'keywordCn': '粉红色的圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 628, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 747, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1686, 510, 0, 0, 0, 0, 0, 0, 0, 0, 0, 865, 3217, 1836, 0, 0, 0, 0, 0, 0, 0, 0, 0, 619, 3470, 2525, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3508], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのクリスマスバナー', 'keyword': 'pink christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1420, 7663, 18185, 13814, 9339], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunter birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4167, 66370, 128807, 122755, 91381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'k pop demon hunters party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4883, 15306, 17490, 16425], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'saja boys birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1850, 7299, 7567, 7137], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 23911, 149373, 335139, 279847, 218405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': '2026 new year banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'happy new year 2026 black shimmer wall backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'happy new year 2026 canvs'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '姜饼背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2048, 1154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2309, 2173, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3278, 3801, 2805, 0, 0, 0, 0, 0, 0, 0, 0, 0, 915, 4776, 4002, 0, 0, 0, 0, 0, 0, 0, 0, 549, 1491, 5738, 4764, 0, 0, 0, 0, 0, 0, 0, 0, 1265, 3320, 15644, 9073, 0, 0, 0, 0, 0, 0, 140, 368, 1325, 3897, 17541, 14313, 0, 0, 0, 0, 0, 0, 0, 140, 779, 3914, 23527], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジンジャーブレッドの背景', 'keyword': 'gingerbread backdrop'}, {'keywordCn': '姜饼背景墙圣诞节', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1924, 2220, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1430, 4519, 3522, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1398, 6867, 5416, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1049, 7931], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジンジャーブレッドバックドロップクリスマス', 'keyword': 'gingerbread backdrop christmas'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}, {'keywordCn': '姜饼圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3758, 14907, 3761, 0, 0, 0, 0, 0, 0, 0, 0, 1819, 3416, 7509, 4342, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1474, 4042, 1747, 0, 0, 0, 0, 0, 528, 4164, 7606, 14195, 40636, 134678, 51511, 2539, 0, 0, 0, 0, 0, 1462, 1315, 2454, 7058, 18632, 6628, 1182, 0, 0, 0, 0, 915, 6276, 16642, 36774, 112180, 225939, 103358, 6467, 0, 0, 0, 655, 2688, 12099, 25523, 53332, 132206, 305136, 122186, 11683, 1149, 906, 1204, 661, 3640, 13463, 22164, 39576, 115945, 339781], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジンジャーブレッドのクリスマスデコレーション', 'keyword': 'gingerbread christmas decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '纳维达基金会', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 677, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 642, 0, 0, 0, 0, 0, 0, 0, 0, 0, 460, 733, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2043, 2991, 3008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 880, 1825, 2510, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1292, 4308], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'fondo de navidad', 'keyword': 'fondo de navidad'}, {'keywordCn': '蓝色圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 469, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 592, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 995, 1653, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 772, 1390, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 651], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスパーティーの装飾', 'keyword': 'blue christmas party decorations'}, {'keywordCn': '蓝色圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 561, 861, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 1804, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1815, 2111, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1184, 3664, 3772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 366, 2759, 3496, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2796], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスの背景', 'keyword': 'blue christmas backdrop'}, {'keywordCn': '室内圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 736, 0, 0, 0, 0, 0, 0, 0, 0, 0, 653, 5469, 6761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5154, 5736, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3863, 7079, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 5419, 9345, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6116], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '屋内のメリークリスマスバナー', 'keyword': 'merry christmas banner indoor'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞背景装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3975, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 874, 1127, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 557, 1300, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1147, 1406, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1421, 2466, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 709, 1764, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 650], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景の装飾', 'keyword': 'christmas backdrop decorations'}, {'keywordCn': '背景圣诞节', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1888, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1316, 1520, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2698, 3255, 0, 0, 0, 0, 0, 0, 0, 0, 0, 455, 1923, 2820, 0, 0, 0, 0, 0, 0, 0, 0, 0, 604, 1508, 1600, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1632, 3507, 3059, 0, 0, 0, 0, 0, 0, 0, 0, 0, 800, 3071, 3418, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2847], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '背景クリスマス', 'keyword': 'background christmas'}, {'keywordCn': '壁炉圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 758, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 945, 678, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1403, 1589, 0, 0, 0, 0, 0, 0, 0, 0, 0, 912, 3712, 2232, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1820, 1307, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1831], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '暖炉のクリスマスの背景', 'keyword': 'fireplace christmas backdrop'}, {'keywordCn': '圣诞装饰品背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 699, 711, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 996, 2206, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1208, 2002, 0, 0, 0, 0, 0, 0, 0, 0, 0, 969, 2902, 4175, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1942, 3839, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2281], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの装飾の背景', 'keyword': 'christmas decorations backdrop'}, {'keywordCn': '圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7127, 4240, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2870, 12982, 11276, 0, 0, 0, 0, 0, 0, 0, 0, 1758, 3379, 9900, 13502, 0, 0, 0, 0, 619, 0, 866, 586, 2691, 5636, 19956, 19100, 0, 0, 0, 0, 0, 0, 0, 820, 1727, 5706, 19967, 25911, 0, 0, 0, 0, 0, 0, 400, 799, 1769, 5439, 18307, 20080, 639, 0, 0, 0, 0, 0, 515, 1728, 3277, 9926, 17714, 23594, 0, 0, 0, 0, 0, 0, 140, 466, 2009, 5609, 21204, 28604, 0, 0, 0, 0, 0, 0, 140, 749, 1988, 4212, 24085], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景', 'keyword': 'christmas background'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬季背景', 'searches': [3374, 0, 0, 0, 0, 0, 0, 0, 0, 3074, 14535, 3341, 0, 0, 0, 0, 0, 0, 0, 2716, 4147, 9699, 19137, 13155, 5729, 3230, 0, 1969, 1595, 1762, 3274, 3275, 5384, 8867, 17119, 15162, 7362, 3895, 1981, 504, 639, 1171, 1798, 1998, 3928, 8697, 17245, 12435, 5581, 3392, 1415, 894, 627, 934, 1736, 2675, 4366, 7763, 20501, 15748, 6589, 2231, 780, 634, 0, 528, 1299, 2141, 3656, 7148, 18226, 14666, 8492, 2390, 595, 570, 559, 669, 1144, 2690, 4321, 11439, 51930, 33560, 9365, 1938, 0, 140, 557, 680, 1315, 1986, 4207, 9957, 30701, 28914, 9569, 1558, 382, 580, 504, 659, 1292, 1862, 3362, 8392, 28320], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のバックドロップ', 'keyword': 'winter backdrop'}, {'keywordCn': '冬日仙境的背景', 'searches': [2761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3697, 3141, 3689, 0, 0, 0, 0, 0, 0, 0, 4229, 9800, 19281, 15188, 7190, 2058, 0, 1218, 1657, 2994, 4699, 4960, 7684, 12640, 25395, 19687, 12654, 4958, 862, 0, 619, 784, 1780, 1941, 3919, 8203, 18635, 14684, 7144, 2418, 1322, 914, 1193, 1419, 2640, 3047, 5103, 11820, 30778, 24275, 10069, 3260, 981, 537, 778, 929, 836, 2779, 5005, 11724, 32084, 25161, 13259, 3795, 767, 504, 516, 1332, 1739, 3175, 5186, 16485, 59662, 45583, 16024, 2587, 0, 0, 140, 625, 1607, 2538, 5739, 15766, 44667, 43844, 13327, 1829, 0, 0, 0, 140, 140, 1520, 4689, 12250, 41964], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドの背景', 'keyword': 'winter wonderland backdrop'}, {'keywordCn': '蓝色圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 561, 861, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 1804, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1815, 2111, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1184, 3664, 3772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 366, 2759, 3496, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2796], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスの背景', 'keyword': 'blue christmas backdrop'}, {'keywordCn': '假日背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9180, 7773, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2204, 14614, 9454, 0, 0, 0, 0, 1519, 0, 0, 0, 1507, 3797, 11690, 13195, 0, 0, 0, 0, 0, 0, 0, 0, 912, 2982, 7242, 5814, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2452, 9013, 11444, 0, 0, 0, 0, 0, 0, 1, 0, 672, 2234, 11044, 13407, 0, 0, 0, 0, 0, 0, 0, 0, 921, 3730, 19281, 16677, 0, 0, 0, 0, 0, 0, 0, 0, 1118, 2945, 16343, 16661, 0, 0, 0, 0, 0, 0, 0, 0, 646, 2958, 17985], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '休日の背景', 'keyword': 'holiday backdrop'}, {'keywordCn': '冬季仙境横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2181, 1714, 2321, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1922, 2940, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 817, 1240, 0, 0, 0, 0, 0, 0, 0, 0, 0, 783, 2823, 3261, 693, 0, 0, 0, 0, 0, 0, 0, 0, 334, 3239, 3304, 1086, 0, 0, 0, 0, 0, 0, 0, 0, 790, 4367, 4174, 1840, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3275, 3579, 1552, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3970], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドバナー', 'keyword': 'winter wonderland banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '蓝色和银色圣诞布景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 772, 877, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青と銀のクリスマスの背景', 'keyword': 'blue and silver christmas backdrop'}, {'keywordCn': '蓝色圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 469, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 592, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 995, 1653, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 772, 1390, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 651], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスパーティーの装飾', 'keyword': 'blue christmas party decorations'}, {'keywordCn': '蓝色圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 561, 861, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 1804, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1815, 2111, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1184, 3664, 3772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 366, 2759, 3496, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2796], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスの背景', 'keyword': 'blue christmas backdrop'}, {'keywordCn': '圣诞派对装饰品背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 464, 816, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1515, 2318, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1306, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 909], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・パーティー・デコレーションの背景', 'keyword': 'christmas party decorations backdrop'}, {'keywordCn': '圣诞横幅的内部', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 435, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1181, 4308, 3782, 0, 0, 0, 0, 0, 0, 0, 0, 1610, 5667, 31982, 35656, 516, 0, 0, 0, 0, 0, 0, 388, 1307, 6109, 37420], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・バナー', 'keyword': 'christmas banners for inside'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13658, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2622, 14767, 9459, 0, 0, 0, 0, 0, 0, 0, 0, 2139, 4969, 13721, 9574, 0, 0, 0, 0, 0, 0, 534, 1255, 3750, 9077, 27705, 13250, 0, 0, 0, 0, 0, 0, 620, 1308, 2620, 6832, 21173, 13398, 0, 0, 0, 0, 0, 0, 537, 616, 1591, 5225, 17181, 11838, 0, 0, 0, 0, 0, 0, 431, 1146, 2929, 6179, 24674, 12731, 0, 0, 0, 0, 0, 0, 0, 577, 1826, 5322, 23438, 14936, 0, 0, 0, 0, 0, 0, 1, 435, 2000, 5207, 25530], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banners'}, {'keywordCn': '圣诞派对装饰品背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 464, 816, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1515, 2318, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1306, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 909], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・パーティー・デコレーションの背景', 'keyword': 'christmas party decorations backdrop'}, {'keywordCn': '圣诞横幅的内部', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 435, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1181, 4308, 3782, 0, 0, 0, 0, 0, 0, 0, 0, 1610, 5667, 31982, 35656, 516, 0, 0, 0, 0, 0, 0, 388, 1307, 6109, 37420], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・バナー', 'keyword': 'christmas banners for inside'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years eve backdrop 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': '2026 graduation season backdrop'}, {'keywordCn': '新年落球', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2744, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2169, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2262, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 884, 2598, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 400, 3870, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のボールドロップ', 'keyword': 'new years ball drop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years decorations 2026 silver'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'snowflake xmas trees merry christmas supplies'}, {'keywordCn': '蓝色圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 469, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 592, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 995, 1653, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 772, 1390, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 651], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いクリスマスパーティーの装飾', 'keyword': 'blue christmas party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'flat banner navideño'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'blue merry christmad backdrop'}, {'keywordCn': '圣诞快乐和新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925, 744, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 797, 1279, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1385, 1730, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2603, 2860, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1664, 2762, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1622], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスと新年あけましておめでとうございますバナー', 'keyword': 'merry christmas and happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 27456, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2369, 5764, 13091, 0, 0, 0, 0, 0, 0, 0, 0, 1772, 1547, 4410, 16158, 3335, 0, 0, 0, 0, 0, 0, 0, 4429, 2070, 2391, 15901, 1656, 0, 516, 0, 0, 552, 0, 604, 0, 807, 3274, 15944, 2483, 0, 0, 0, 0, 0, 0, 444, 923, 971, 2800, 21236, 2809, 0, 0, 0, 0, 0, 0, 0, 875, 1986, 3163, 25021, 2338, 0, 0, 0, 0, 0, 0, 0, 590, 639, 2943, 35083, 2675, 0, 0, 0, 0, 0, 0, 0, 737, 1397, 5405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new year decorations'}, {'keywordCn': '新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 43770, 0, 0, 0, 0, 0, 0, 0, 0, 5829, 7177, 7624, 31322, 2525, 0, 0, 0, 2888, 1153, 3757, 5340, 4402, 5734, 12685, 119525, 8431, 1603, 1709, 0, 565, 0, 0, 616, 3774, 7231, 16588, 244138, 10922, 4274, 926, 938, 917, 941, 1510, 2019, 3783, 6372, 16361, 184602, 11118, 2127, 1595, 1044, 907, 982, 1334, 1872, 2900, 6978, 16176, 238549, 11639, 807, 565, 0, 545, 1389, 1238, 2141, 4655, 15498, 14528, 105478, 13014, 2587, 928, 963, 1247, 1518, 1891, 2481, 2994, 6929, 26089, 236986, 16559, 1531, 731, 1064, 1321, 1558, 1726, 1574, 2929, 5153, 24118], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の飾り', 'keyword': 'new years decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 402, 2610], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year decorations 2026'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬日仙境的圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1488, 926, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1252, 1257, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1509], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウィンターワンダーランドクリスマスバックグラウンド', 'keyword': 'winter wonderland christmas backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1124, 1447, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1566], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'christmas backdrop￼'}, {'keywordCn': '雪花背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4232, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6761, 3029, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2011, 4962, 4401, 3229, 0, 698, 0, 0, 0, 0, 1161, 1149, 1728, 3555, 3161, 2268, 0, 0, 0, 0, 0, 0, 0, 0, 1278, 4863, 4308, 2000, 788, 0, 0, 0, 0, 0, 0, 636, 1701, 5028, 4340, 2954, 0, 0, 0, 0, 0, 0, 0, 991, 2385, 5578, 4680, 2817, 0, 0, 0, 0, 0, 0, 0, 882, 1546, 5427, 6144, 2650, 0, 0, 0, 0, 0, 0, 0, 419, 1451, 5381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '雪の結晶の背景', 'keyword': 'snowflake backdrop'}, {'keywordCn': '圣诞背景墙', 'searches': [4379, 0, 2699, 0, 0, 0, 4791, 6092, 13406, 53816, 140582, 89640, 0, 0, 0, 0, 0, 0, 4416, 12029, 19751, 52270, 154628, 96611, 0, 0, 3214, 3703, 2214, 1438, 6853, 12602, 16613, 45866, 178398, 214412, 5901, 1777, 1222, 1583, 2914, 3405, 5592, 8032, 16345, 53441, 150732, 146101, 3471, 1784, 2376, 2150, 0, 4866, 9959, 13511, 30411, 74490, 299413, 330381, 5964, 2738, 2612, 2981, 3131, 5193, 10523, 15866, 28523, 72986, 298994, 312465, 8115, 3418, 2226, 2622, 3007, 4731, 8262, 19126, 43557, 158179, 384716, 379564, 6091, 2857, 2291, 2418, 2946, 5475, 13368, 19831, 38261, 93717, 270025, 308708, 5767, 1732, 1590, 2065, 2820, 4265, 9955, 16987, 34641, 77418, 252758], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・バックドロップ', 'keyword': 'christmas backdrop'}, {'keywordCn': '圣诞地板装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 931, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2758, 1631, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4655, 3213, 0, 0, 0, 0, 0, 0, 0, 0, 0, 906, 6467, 4964, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1242, 5853, 3382, 0, 0, 0, 0, 0, 0, 0, 0, 0, 988, 4195, 1688, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 4180, 2025, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2857], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの床の装飾', 'keyword': 'christmas floor decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '照片横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1948, 3623, 2304, 989, 936, 3115, 2995, 3642, 886, 4787, 896, 1428, 3892, 3686, 3526, 3244, 1964, 3850, 3741, 3535, 1545, 3239, 3305, 3576, 2914, 3436, 2925, 1873, 1354, 2760, 2712, 3462, 4525, 4944, 4198, 4385, 3821, 3495, 3195, 2647, 2213, 3418, 3981, 4218, 4590, 5892, 4696, 4081, 4313, 3467, 2802, 2742, 1906, 4135, 3738, 3602, 4064, 4997, 4722, 3800, 4397, 3682, 3349, 2709, 2093, 3869, 3616, 3808, 5446, 7246, 5295, 4620, 3532, 3576, 2803, 2055, 1776, 3405, 3296, 3691, 5628, 8336, 5916, 4138, 3881, 4191, 2751, 2257], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フォトバナー', 'keyword': 'photo banner'}, {'keywordCn': '黑色和金色背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6063, 6321, 1302, 5538, 5376, 7209, 7246, 7096, 7639, 7526, 6009, 6860, 8084, 7332, 6837, 7984, 9565, 9198, 7405, 2099, 4758, 5475, 4607, 5078, 6697, 6034, 5003, 6197, 6352, 6500, 6714, 6148, 7880, 6466, 6090, 5826, 6928, 6423, 6566, 7270, 6972, 7025, 7539, 8162, 9525, 5852, 4624, 5240, 6010, 5286, 4603, 5482, 6230, 5769, 5792, 6811, 6975, 4449, 4149, 4617, 4781, 6040, 5837, 6618, 7230, 6139, 6246, 8543, 9046, 4678, 3864, 3420, 4813, 4508, 3569, 5572, 5502, 4829, 4597, 6331, 7353, 4205, 3090, 3201, 4601, 3600, 3610], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '黒と金の背景', 'keyword': 'black and gold backdrop'}, {'keywordCn': '金色和黑色背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2310, 1308, 1627, 0, 0, 0, 0, 0, 0, 1456, 1760, 0, 954, 0, 0, 0, 534, 0, 642, 1067, 736, 1638, 1100, 841, 1275, 1258, 1586, 1205, 739, 1057, 802, 1255, 1208, 1530, 1471, 1215, 1202, 1226, 2033, 1238, 689, 0, 583, 843, 629, 832, 878, 887, 1041, 1273, 1644, 854, 633, 1070, 0, 985, 1244, 1697, 1168, 1079, 1264, 1061, 1317, 488, 140, 140, 658, 507, 683, 1173, 1387, 572, 622, 892, 1339, 712, 0, 140, 389, 474, 563], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '金と黒の背景', 'keyword': 'gold and black backdrop'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1655, 955, 13818, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3849, 34533, 2278, 0, 0, 0, 936, 0, 0, 0, 721, 1219, 3726, 45995, 1893, 0, 0, 0, 0, 0, 0, 0, 0, 1267, 5578, 43416, 2177, 0, 0, 0, 0, 0, 0, 467, 0, 684, 4098, 43973, 2695, 0, 0, 0, 0, 0, 0, 0, 0, 1958, 5001, 53445, 1814, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 3718, 48597, 1599, 0, 0, 0, 0, 0, 0, 0, 140, 140, 3604], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new years backdrop'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3096, 14187, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2400, 17948, 2321, 0, 0, 0, 0, 0, 0, 0, 0, 590, 3198, 20796, 2201, 872, 0, 0, 0, 0, 0, 0, 0, 768, 3675, 24606, 2116, 0, 0, 0, 0, 0, 0, 0, 0, 403, 2648, 22237, 2604, 0, 0, 0, 0, 0, 0, 0, 0, 822, 3532, 33868, 2107, 0, 0, 0, 0, 0, 0, 0, 0, 600, 2577, 35796, 1940, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2367], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new year backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '费利斯纳维达旗帜', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2569, 2619, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4019, 5912, 0, 0, 0, 0, 0, 0, 0, 0, 0, 525, 4967, 5520, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1589, 6175, 7927, 0, 0, 0, 0, 0, 0, 0, 0, 639, 909, 6614, 9920, 476, 0, 0, 0, 0, 0, 0, 0, 0, 1702, 9474, 16539, 0, 0, 0, 0, 0, 0, 0, 0, 0, 853, 7321, 16299, 0, 0, 0, 0, 0, 0, 0, 0, 309, 1261, 11241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadバナー', 'keyword': 'feliz navidad banner'}, {'keywordCn': '费利斯纳维达装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 643, 1610, 1265, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1462, 1324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2245, 2012, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1237, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1752], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスnavidadの装飾', 'keyword': 'feliz navidad decor'}, {'keywordCn': '费利斯纳维达', 'searches': [2389, 0, 0, 0, 0, 0, 0, 0, 0, 3903, 6738, 12013, 2920, 0, 0, 0, 0, 0, 0, 0, 0, 3551, 11589, 13057, 0, 0, 4643, 4066, 3344, 1547, 1400, 3223, 3869, 5574, 20676, 60338, 9069, 4381, 3104, 1397, 0, 0, 0, 0, 0, 1537, 8565, 8688, 1481, 0, 0, 0, 0, 0, 1419, 1299, 1621, 2682, 13899, 40110, 4747, 2158, 1736, 1485, 1410, 1285, 856, 1333, 2402, 2911, 12183, 26322, 4341, 1903, 2895, 2211, 1331, 1248, 1165, 1809, 2859, 4163, 18358, 43302, 3805, 1179, 597, 885, 490, 458, 594, 140, 1782, 3272, 19335, 39510, 1906, 515, 0, 638, 0, 592, 594, 1266, 2091, 4023, 25567], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliz navidad', 'keyword': 'feliz navidad'}, {'keywordCn': '费利斯纳维达背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1081, 2666, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2407, 4660, 0, 0, 0, 0, 0, 0, 0, 0, 0, 912, 3750, 6241, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2476, 7144, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3029], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadの背景', 'keyword': 'feliz navidad backdrop'}, {'keywordCn': '法利兹纳维达', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1548, 3026, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 644, 1429, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 654, 847, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 923], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ファリス・ナヴィダード', 'keyword': 'faliz navidad'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 828, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1358, 5234, 5594, 0, 0, 0, 0, 0, 0, 0, 0, 1498, 2157, 4984, 7803, 509, 0, 0, 676, 532, 892, 1206, 699, 0, 2739, 6379, 7921, 0, 617, 0, 0, 0, 614, 671, 868, 715, 1876, 5620, 6416, 496, 0, 0, 0, 0, 328, 100, 1746, 2674, 4481, 18464, 25603, 950, 0, 0, 0, 0, 1050, 1513, 1414, 2599, 3139, 19170, 26465, 1153, 0, 0, 0, 0, 595, 140, 0, 564, 1549, 7195], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの誕生日の飾り', 'keyword': 'christmas birthday decorations'}, {'keywordCn': '格林奇生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4203, 3358, 2120, 0, 0, 0, 0, 966, 998, 0, 2582, 3581, 8734, 8473, 3509, 2127, 1886, 1630, 2090, 2112, 2951, 2223, 3307, 5231, 13189, 12893, 4382, 2932, 2762, 2659, 3138, 3484, 3699, 4135, 4905, 6249, 15572, 13933, 5158, 3273, 2778, 2801, 2440, 2609, 2720, 4005, 5452, 11060, 34969, 29872, 9012, 4002, 3077, 3161, 3193, 3383, 4287, 4897, 7537, 12743, 30691, 27198, 7894, 3917, 2998, 2478, 2302, 2914, 3614, 3567, 4237, 6575, 21727], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチ誕生日パーティーの装飾', 'keyword': 'grinch birthday party decorations'}, {'keywordCn': '格林奇生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2053, 2140, 506, 0, 0, 0, 0, 0, 0, 0, 0, 789, 3130, 3856, 770, 0, 0, 0, 0, 0, 0, 0, 0, 672, 3716, 3978, 1106, 0, 0, 0, 0, 0, 0, 0, 835, 2093, 6352, 7523, 1342, 0, 0, 0, 0, 0, 140, 140, 730, 1912, 7328, 7691, 1766, 0, 0, 0, 0, 0, 140, 462, 1639, 3018, 13546], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチの誕生日の装飾', 'keyword': 'grinch birthday decorations'}, {'keywordCn': '圣诞生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5755, 6820, 0, 10915, 0, 0, 0, 0, 0, 0, 0, 0, 2486, 3061, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1215, 8565, 11530, 1306, 891, 770, 561, 1200, 1753, 2512, 2140, 3391, 4502, 13014, 14386, 1324, 625, 0, 0, 672, 1551, 1930, 2008, 2356, 5111, 13977, 14556, 1585, 915, 462, 498, 644, 1131, 1511, 1168, 1745, 3302, 11482, 8748, 0, 0, 0, 370, 550, 140, 984, 886, 1204, 3348, 7816, 8570, 0, 0, 0, 0, 498, 818, 1759, 1512, 2685, 4949, 20673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの誕生日パーティーの装飾', 'keyword': 'christmas birthday party decorations'}, {'keywordCn': '圣诞节 生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 597, 1933, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1940, 3335, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3113, 5549, 0, 0, 0, 0, 0, 553, 543, 0, 0, 947, 3425, 5761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 720, 3302, 4913, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3747, 5658, 0, 0, 0, 0, 0, 0, 140, 0, 0, 140, 3060, 5748, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2962], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの誕生日', 'keyword': 'christmas birthday'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2909, 3858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1335, 12502, 1335, 0, 0, 0, 0, 0, 0, 0, 0, 544, 2691, 21548, 2102, 0, 0, 0, 0, 0, 0, 0, 0, 901, 4752, 33934, 2567, 0, 0, 0, 0, 0, 0, 0, 656, 693, 4342, 29754, 3238, 0, 0, 0, 0, 0, 0, 0, 0, 1518, 4173, 41644, 2248, 0, 0, 0, 0, 0, 0, 0, 0, 534, 2589, 31156, 1577, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1655, 955, 13818, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3849, 34533, 2278, 0, 0, 0, 936, 0, 0, 0, 721, 1219, 3726, 45995, 1893, 0, 0, 0, 0, 0, 0, 0, 0, 1267, 5578, 43416, 2177, 0, 0, 0, 0, 0, 0, 467, 0, 684, 4098, 43973, 2695, 0, 0, 0, 0, 0, 0, 0, 0, 1958, 5001, 53445, 1814, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 3718, 48597, 1599, 0, 0, 0, 0, 0, 0, 0, 140, 140, 3604], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new years backdrop'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3096, 14187, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2400, 17948, 2321, 0, 0, 0, 0, 0, 0, 0, 0, 590, 3198, 20796, 2201, 872, 0, 0, 0, 0, 0, 0, 0, 768, 3675, 24606, 2116, 0, 0, 0, 0, 0, 0, 0, 0, 403, 2648, 22237, 2604, 0, 0, 0, 0, 0, 0, 0, 0, 822, 3532, 33868, 2107, 0, 0, 0, 0, 0, 0, 0, 0, 600, 2577, 35796, 1940, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2367], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new year backdrop'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞门套', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 15056, 59785, 31910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3932, 23668, 13861, 0, 0, 0, 0, 0, 0, 1776, 1711, 3987, 12399, 55588, 39830, 0, 0, 0, 0, 0, 0, 1270, 1126, 4755, 12943, 70309, 34867, 1352, 0, 0, 0, 0, 0, 1543, 1801, 5333, 15265, 76276, 46307, 1259, 0, 0, 0, 0, 0, 892, 2678, 6434, 17783, 99047, 58155, 1744, 0, 0, 0, 0, 564, 1665, 3440, 11351, 36608, 153964, 65860, 950, 0, 0, 0, 140, 1251, 2327, 4584, 15809, 91727, 253178, 120528, 1673, 0, 0, 0, 0, 1170, 2606, 12013, 20095, 52957, 213951], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスドアカバー', 'keyword': 'christmas door cover'}, {'keywordCn': '圣诞门套', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4419, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4477, 16371, 70907, 33378, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3429, 11934, 7259, 0, 0, 0, 0, 0, 0, 0, 0, 971, 2408, 7555, 4575, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1962, 9210, 5974, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1287, 8638, 6045, 0, 0, 0, 0, 0, 0, 0, 0, 2248, 4415, 26346, 20029, 0, 0, 0, 0, 0, 0, 0, 0, 1629, 15233, 47102, 17169, 0, 0, 0, 0, 0, 0, 0, 2025, 2714, 9752, 44341], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスドアカバー', 'keyword': 'christmas door covers'}, {'keywordCn': '圣诞门横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3123, 1412, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2714, 7067, 3952, 0, 0, 0, 0, 0, 0, 0, 926, 3005, 7681, 23321, 8224, 0, 0, 0, 0, 0, 0, 751, 774, 2888, 8651, 15637, 8935, 0, 0, 0, 0, 0, 0, 0, 468, 1690, 4158, 12495, 6416, 0, 0, 0, 0, 0, 0, 0, 0, 2119, 4700, 17137, 5970, 0, 0, 0, 0, 0, 0, 515, 620, 1523, 3071, 14756, 7518, 0, 0, 0, 0, 0, 0, 140, 671, 1523, 3472, 21872], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスドアバナー', 'keyword': 'christmas door banner'}, {'keywordCn': '前门的圣诞门套', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1419, 1228, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2762, 14976, 11893, 0, 0, 0, 0, 0, 0, 0, 539, 1089, 3153, 14725, 12414, 380, 0, 0, 0, 0, 0, 0, 0, 1829, 3565, 44981, 46852, 0, 0, 0, 0, 0, 0, 0, 0, 1506, 24368, 52396, 15461, 0, 0, 0, 0, 0, 0, 0, 2759, 2681, 11823, 42933], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '玄関用クリスマスドアカバー', 'keyword': 'christmas door covers for front door'}, {'keywordCn': '圣诞门饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 23666, 89883, 47329, 0, 0, 0, 0, 0, 0, 0, 0, 8923, 24246, 140252, 62762, 0, 0, 0, 0, 0, 0, 1728, 3138, 8903, 25906, 140539, 99677, 2425, 0, 779, 0, 3170, 1792, 2891, 4382, 12386, 34184, 179904, 89843, 1821, 0, 0, 573, 686, 812, 2745, 4543, 12922, 44345, 240677, 141686, 2087, 0, 0, 0, 657, 1160, 3442, 5679, 12390, 43548, 230483, 140209, 2402, 554, 0, 0, 592, 1328, 2582, 4586, 13406, 55030, 217372, 104655, 1096, 0, 0, 522, 0, 1203, 2385, 5576, 16931, 51595, 177089, 127057, 1359, 0, 0, 0, 0, 616, 2625, 6495, 15246, 47834, 203824], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスのドアの装飾', 'keyword': 'christmas door decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '这房子里有一些 ho ho ho', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 416, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1140, 583, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4964, 11338, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2150, 8503, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4047], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'この家にはいくつかのホホホがあります', 'keyword': 'theres some ho ho hos in this house'}, {'keywordCn': '圣诞派对横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1764, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1596, 3989, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1138, 1929, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2206, 4177, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1882, 3957, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2999, 4491, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2185, 5088, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2786], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーバナー', 'keyword': 'christmas party banner'}, {'keywordCn': '格林奇横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1575, 1490, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3684, 3184, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1274, 6471, 5245, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1171, 6971, 5293, 0, 0, 0, 0, 0, 0, 0, 0, 921, 2689, 12235, 7214, 0, 0, 0, 0, 0, 0, 0, 460, 864, 2137, 11869, 8544, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1602, 11324], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチバナー', 'keyword': 'grinch banner'}, {'keywordCn': '这房子里有一些居士', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3550, 6731, 5523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2323, 3402, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1195, 1286, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 860, 1515, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2251, 2380, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1534], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'この家にはいくつかの家があります', 'keyword': 'theres some hos in this house'}, {'keywordCn': '圣诞派对横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 937, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1397], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティー バンнер', 'keyword': 'christmas party banners'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞树横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1793, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2426, 1772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2701, 919, 0, 0, 0, 0, 0, 0, 0, 0, 0, 583, 1583, 841, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1380, 778, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2232, 1257, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1772, 1173, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2133], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスツリーのバナー', 'keyword': 'christmas tree banner'}, {'keywordCn': '圣诞摄影背景板', 'searches': [3186, 0, 0, 0, 0, 0, 0, 3568, 11347, 46517, 86894, 45612, 3388, 0, 0, 0, 0, 0, 4655, 15373, 28228, 80917, 213646, 138326, 7176, 4204, 1887, 3570, 1731, 3377, 7914, 13620, 26243, 74457, 224254, 150567, 4308, 2845, 3116, 3114, 3586, 4261, 6745, 12630, 26151, 82169, 250319, 224427, 6015, 3180, 3120, 2574, 1867, 3353, 5125, 9891, 22362, 82794, 198147, 186235, 4793, 1798, 1843, 3070, 2307, 3487, 4943, 11502, 24200, 75991, 201361, 192316, 5628, 2104, 2337, 2789, 2384, 2839, 5066, 15023, 24417, 16105, 62880, 53930, 0, 1463, 1131, 1374, 855, 2223, 5283, 12367, 38943, 79798, 146036, 171060, 3752, 1233, 1350, 1559, 1390, 2116, 4452, 11028, 26024, 62313, 144810], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '写真撮影のためのクリスマスの背景', 'keyword': 'christmas backdrops for photography'}, {'keywordCn': '圣诞派对横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1764, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1596, 3989, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1138, 1929, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2206, 4177, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1882, 3957, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2999, 4491, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2185, 5088, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2786], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーバナー', 'keyword': 'christmas party banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1300], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'christmas tree backdrops for wall'}, {'keywordCn': '圣诞树背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2888, 2971, 1403, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3988, 3047, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1407, 4462, 3734, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1863, 5426, 4715, 0, 0, 0, 0, 0, 0, 1, 0, 639, 1154, 5110, 4811, 0, 0, 0, 0, 0, 0, 100, 0, 1316, 3048, 9127, 6565, 0, 0, 0, 0, 0, 0, 0, 0, 576, 2060, 8138, 8394, 0, 0, 0, 0, 0, 0, 0, 0, 479, 1793, 7795], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスツリーの背景', 'keyword': 'christmas tree backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '格林奇背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 645, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2200, 7153, 6658, 0, 0, 0, 0, 0, 0, 0, 639, 1796, 3950, 11856, 11994, 0, 519, 0, 0, 0, 0, 547, 759, 1926, 4659, 15150, 13729, 642, 0, 0, 0, 0, 0, 540, 1141, 2073, 6375, 18560, 15250, 1127, 0, 0, 0, 0, 0, 695, 1805, 3501, 12539, 45110, 42124, 907, 0, 0, 0, 0, 0, 625, 1342, 2772, 9930, 40583, 45343, 565, 0, 0, 0, 0, 0, 494, 592, 2362, 7727, 41830], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチの背景', 'keyword': 'grinch backdrop'}, {'keywordCn': '格林奇门装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1343, 1222, 0, 0, 0, 0, 0, 0, 0, 0, 0, 721, 3207, 2097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3896, 18819, 4231, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2825, 12072, 5491, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8959], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチドアの装飾', 'keyword': 'grinch door decor'}, {'keywordCn': '嘎吱嘎吱的车库门盖', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1165, 763, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2423, 14873, 4740, 0, 0, 0, 0, 0, 0, 0, 0, 544, 2474, 15799, 5684, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3211, 21579], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチガレージドアカバー', 'keyword': 'grinch garage door cover'}, {'keywordCn': '格林奇门盖', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7932, 1863, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4735, 4433, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3917, 3355, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2064, 7021, 5519, 0, 0, 0, 0, 0, 0, 0, 0, 1191, 3778, 15942, 11019, 0, 0, 0, 0, 0, 0, 0, 0, 2714, 9093, 67681, 35093, 0, 0, 0, 0, 0, 0, 0, 491, 1819, 13252, 68017, 40550, 565, 0, 0, 0, 0, 0, 0, 140, 1779, 7654, 59066], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチドアカバー', 'keyword': 'grinch door cover'}, {'keywordCn': '格林奇门装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5646, 5129, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2602, 14373, 12511, 0, 0, 0, 0, 0, 0, 1, 555, 907, 3904, 22851, 16517, 0, 0, 0, 0, 0, 0, 0, 0, 1266, 1823, 35764, 25088, 0, 0, 0, 0, 0, 0, 0, 491, 1771, 10539, 42547, 27408, 0, 0, 0, 0, 0, 0, 0, 0, 437, 4561, 46350], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリンチドア装飾', 'keyword': 'grinch door decoration'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 402, 2610], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year decorations 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 12156, 38358, 12759, 0, 0, 0, 0, 0, 0, 0, 3041, 8236, 16918, 49827, 24095, 0, 0, 0, 0, 0, 1391, 2039, 3067, 4425, 10575, 25967, 17088, 0, 0, 0, 0, 520, 1440, 910, 1310, 3156, 7479, 15484, 14322, 0, 0, 0, 0, 0, 656, 500, 1140, 2779, 7069, 20550, 17692, 0, 0, 0, 0, 0, 0, 648, 812, 2921, 7060, 19090, 15289, 0, 0, 0, 0, 0, 0, 924, 2466, 4605, 14734, 36961, 27646, 0, 0, 0, 0, 0, 0, 729, 1463, 3662, 11557, 33749, 28914, 369, 0, 0, 0, 0, 0, 612, 1648, 3472, 9545, 33688], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景', 'keyword': 'christmas backdrops'}, {'keywordCn': '北极圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 602, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 559, 1791, 597, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3472, 12019, 5895, 0, 0, 0, 0, 0, 0, 0, 0, 956, 3217, 11413, 2889, 0, 0, 0, 0, 0, 0, 0, 0, 888, 2749, 14687, 6336, 0, 0, 0, 0, 0, 0, 0, 455, 578, 3631, 17075], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極のクリスマスデコレーション', 'keyword': 'north pole christmas decorations'}, {'keywordCn': '圣诞照相亭', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12438, 13386, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2707, 13235, 14230, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3926, 12176, 16029, 0, 0, 0, 0, 0, 636, 915, 769, 11984, 1598, 4832, 5735, 0, 0, 0, 0, 0, 0, 491, 0, 0, 2298, 9940, 13898, 0, 0, 0, 0, 0, 0, 509, 0, 718, 2058, 12324, 13375, 0, 0, 0, 0, 0, 0, 100, 0, 1595, 3183, 14548, 17814, 0, 0, 0, 0, 0, 0, 0, 0, 418, 2489, 11856, 17019, 0, 0, 0, 0, 0, 0, 0, 0, 564, 2290, 14827], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスフォトブース', 'keyword': 'christmas photo booth'}, {'keywordCn': '北极装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9887, 6729, 0, 9350, 0, 0, 0, 0, 0, 0, 0, 2149, 7277, 5375, 0, 0, 0, 0, 0, 0, 0, 0, 7371, 1645, 6633, 3959, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2303, 9509, 5749, 0, 0, 0, 0, 0, 0, 0, 0, 643, 1313, 4066, 2388, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2082, 7156, 4979, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1283, 4438, 2157, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1277, 5268], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極の装飾', 'keyword': 'north pole decorations'}, {'keywordCn': '北极背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 886, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2262, 1614, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2509, 1634, 0, 0, 0, 0, 0, 0, 0, 0, 0, 784, 2796, 1664, 0, 0, 0, 0, 0, 0, 0, 0, 0, 704, 3124, 2245, 0, 0, 0, 0, 0, 0, 0, 0, 805, 2099, 6669, 3894, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1699, 6949, 4696, 0, 0, 0, 0, 0, 0, 0, 0, 208, 1944, 8388], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極の背景', 'keyword': 'north pole backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '照片横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1948, 3623, 2304, 989, 936, 3115, 2995, 3642, 886, 4787, 896, 1428, 3892, 3686, 3526, 3244, 1964, 3850, 3741, 3535, 1545, 3239, 3305, 3576, 2914, 3436, 2925, 1873, 1354, 2760, 2712, 3462, 4525, 4944, 4198, 4385, 3821, 3495, 3195, 2647, 2213, 3418, 3981, 4218, 4590, 5892, 4696, 4081, 4313, 3467, 2802, 2742, 1906, 4135, 3738, 3602, 4064, 4997, 4722, 3800, 4397, 3682, 3349, 2709, 2093, 3869, 3616, 3808, 5446, 7246, 5295, 4620, 3532, 3576, 2803, 2055, 1776, 3405, 3296, 3691, 5628, 8336, 5916, 4138, 3881, 4191, 2751, 2257], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フォトバナー', 'keyword': 'photo banner'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1655, 955, 13818, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3849, 34533, 2278, 0, 0, 0, 936, 0, 0, 0, 721, 1219, 3726, 45995, 1893, 0, 0, 0, 0, 0, 0, 0, 0, 1267, 5578, 43416, 2177, 0, 0, 0, 0, 0, 0, 467, 0, 684, 4098, 43973, 2695, 0, 0, 0, 0, 0, 0, 0, 0, 1958, 5001, 53445, 1814, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 3718, 48597, 1599, 0, 0, 0, 0, 0, 0, 0, 140, 140, 3604], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new years backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'silver black 2026 eve party supplies'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'cheers to 2026 banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years decorations 2026 silver'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'keywordCn': '新年前夕的聚会用品', 'searches': [21792, 0, 0, 0, 0, 0, 0, 0, 14509, 27792, 83092, 626351, 20961, 0, 0, 0, 0, 0, 0, 7589, 13266, 22050, 59243, 479089, 21666, 0, 3246, 4001, 1796, 1810, 1548, 6047, 7057, 8597, 16283, 178936, 13486, 0, 0, 0, 0, 704, 0, 805, 2786, 4433, 9246, 249163, 8151, 889, 1149, 971, 2361, 3340, 4678, 4464, 5626, 6950, 18640, 250731, 12335, 847, 2328, 1670, 1986, 2856, 4217, 5219, 3311, 4221, 15301, 257435, 10772, 590, 100, 0, 327, 1223, 2515, 2765, 1887, 2030, 36872, 374559, 5854, 0, 685, 0, 140, 992, 2303, 2272, 1338, 1764, 5076, 131577, 4329, 0, 0, 0, 0, 0, 676, 1696, 4434, 13733, 54383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ニューイヤーズ・イヴ・パーティ用品', 'keyword': 'new years eve party supplies'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '照片横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1948, 3623, 2304, 989, 936, 3115, 2995, 3642, 886, 4787, 896, 1428, 3892, 3686, 3526, 3244, 1964, 3850, 3741, 3535, 1545, 3239, 3305, 3576, 2914, 3436, 2925, 1873, 1354, 2760, 2712, 3462, 4525, 4944, 4198, 4385, 3821, 3495, 3195, 2647, 2213, 3418, 3981, 4218, 4590, 5892, 4696, 4081, 4313, 3467, 2802, 2742, 1906, 4135, 3738, 3602, 4064, 4997, 4722, 3800, 4397, 3682, 3349, 2709, 2093, 3869, 3616, 3808, 5446, 7246, 5295, 4620, 3532, 3576, 2803, 2055, 1776, 3405, 3296, 3691, 5628, 8336, 5916, 4138, 3881, 4191, 2751, 2257], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フォトバナー', 'keyword': 'photo banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 390, 1323, 722, 483, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 sign'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years banner 2026'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'keywordCn': '新年快乐标志', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1195, 8297, 0, 13858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9469, 0, 0, 0, 0, 0, 0, 0, 0, 0, 352, 726, 10088, 1424, 0, 0, 0, 0, 0, 0, 0, 0, 0, 908, 9809, 1937, 0, 0, 0, 0, 0, 0, 0, 0, 0, 681, 12462, 2130, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1900, 16661, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1025, 17748, 1401, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1420], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year sign'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}, {'keywordCn': '圣诞快乐和新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925, 744, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 797, 1279, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1385, 1730, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2603, 2860, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1664, 2762, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1622], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスと新年あけましておめでとうございますバナー', 'keyword': 'merry christmas and happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year banner 2026'}, {'keywordCn': '新年快乐霓虹灯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 701, 2600, 0, 0, 0, 0, 0, 0, 0, 0, 0, 762, 1514, 4692, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 821, 5553, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 616], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうネオンサイン', 'keyword': 'happy new year neon sign'}, {'keywordCn': '除夕横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12089, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 806, 8669, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12095, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7536, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9394, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10954, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 802, 8123, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13782, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 259], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日バナー', 'keyword': 'new years eve banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '马里奥生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 666, 1251, 0, 1339, 1375, 0, 2533, 1895, 1805, 1665, 3964, 3618, 3608, 4249, 4439, 5338, 5898, 4550, 4640, 3166, 2768, 3676, 5802, 5646, 6545, 5896, 5433, 5158, 5124, 4213, 3506, 4346, 3738, 3644, 8689, 7324, 8308, 13053, 40136, 71463, 54277, 75886, 61861, 42843, 29804, 24766, 82469, 65997, 74422, 74078, 68408, 63424, 52965, 47402, 47639, 24807, 19625, 13153, 30089, 27588, 28737, 26851, 26683, 24678, 25472, 25969, 27673, 17642, 14721], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオの誕生日の装飾', 'keyword': 'mario birthday decorations'}, {'keywordCn': '超级马里奥生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 899, 0, 0, 589, 0, 0, 852, 808, 891, 629, 2081, 2604, 2960, 2821, 0, 2825, 3130, 3217, 3513, 2797, 1957, 2149, 4211, 3544, 4093, 4006, 3251, 2704, 2185, 2462, 1682, 1984, 1857, 1532, 4243, 3597, 4082, 5703, 6108, 6244, 6293, 7275, 9751, 9618, 5909, 5312, 8942, 7551, 5920, 7044, 4400, 4527, 4020, 5488, 4262, 3080, 4881, 4250, 9919, 7089, 6114, 5817, 4586, 6005, 5935, 5478, 6517, 3752, 3153], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーマリオの誕生日の装飾', 'keyword': 'super mario birthday decorations'}, {'keywordCn': '马里奥生日派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14655, 13012, 12609, 14039, 0, 0, 11959, 10089, 9585, 8856, 6391, 5823, 15086, 12879, 9302, 9159, 8161, 8644, 9056, 9341, 9067, 7173, 7294, 5455, 12639, 12902, 11744, 8362, 9625, 11625, 11736, 12260, 14328, 11499, 9190, 7226, 15302, 16163, 17695, 17708, 15668, 16104, 17816, 15832, 15848, 12245, 11564, 8064, 17054, 15741, 18139, 16975, 16289, 16283, 14857, 14872, 14467, 12239, 9707, 8942, 22452, 22411, 33475, 62288, 20606, 15080, 14902, 25596, 20546, 4386, 11306, 9466, 19586, 18902, 17642, 18908, 13091, 9312, 10106, 9874, 9887, 6926, 4750, 3746, 9330, 8341, 7530, 6288, 5260, 5306, 5951, 5584, 5718, 4495, 2693], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオの誕生日パーティー用品', 'keyword': 'mario birthday party supplies'}, {'keywordCn': '马里奥派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2100, 0, 0, 0, 0, 4789, 3930, 3503, 926, 1810, 1958, 2370, 1966, 0, 0, 2593, 2289, 2091, 1592, 2131, 2344, 2824, 3554, 3682, 3842, 3576, 2364, 4703, 3255, 4149, 4001, 5147, 5606, 6140, 5335, 6447, 6818, 4062, 2665, 3948, 5252, 5346, 5265, 5895, 5684, 5471, 5684, 6352, 7700, 5474, 3503, 8927, 9129, 9941, 19620, 21409, 21401, 20000, 34013, 38291, 38070, 20757, 12940, 28322, 27631, 27948, 27262, 22788, 19828, 20850, 23820, 21665, 25169, 13700, 7352, 15954, 17642, 18330, 15327, 14234, 15435, 15446, 13883, 15139, 13881, 6117], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオパーティの装飾', 'keyword': 'mario party decorations'}, {'keywordCn': '超级马里奥派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1649, 0, 1465, 0, 0, 1457, 1521, 0, 0, 1960, 1371, 706, 0, 0, 1311, 1698, 0, 3278, 2423, 1809, 883, 1863, 2440, 3463, 3723, 5146, 4217, 4788, 4160, 3775, 3984, 3771, 2037, 4242, 4641, 6222, 4849, 5049, 4236, 3876, 4610, 4112, 4734, 4209, 3727, 9120, 7005, 4886, 8474, 8330, 9260, 9447, 18361, 26594, 52897, 14557, 9852, 19557, 15831, 12496, 13353, 13229, 10589, 8123, 6786, 6726, 9986, 9165, 5480, 17889, 25695, 29840, 24016, 25157, 22611, 25512, 21375, 21421, 16588, 9563], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーマリオパーティの装飾', 'keyword': 'super mario party decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '1/2 生日男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6251, 5888, 989, 0, 0, 0, 0, 6301, 5668, 5143, 5275, 6663, 6177, 6761, 4827, 4733, 3802, 6815, 7265, 8664, 7084, 7889, 11333, 12516, 10578, 11044, 8933, 7905, 5970, 13974, 13309, 12929, 11133, 8186, 7460, 8189, 8298, 8620, 6449, 5918, 4585, 11608, 11671, 9143, 9992, 9398, 9523, 8353, 9909, 9036, 6050, 5763, 5023, 10922, 11882, 9914, 9210, 9444, 9442, 8322, 13815, 13296, 10877, 8413, 6179, 18344, 17961, 18350, 21187, 17785, 18266, 18611, 18405, 22722, 16238, 14419, 9759, 25274, 34564, 38139, 32993, 32427, 31219, 29437, 28337, 23770, 23041, 19676], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1/2歳の男の子', 'keyword': '1/2 birthday boy'}, {'keywordCn': '6个月大的男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 504, 0, 979, 0, 0, 0, 863, 0, 1116, 604, 700, 277, 834, 599, 1211, 906, 771, 585, 0, 1343, 1886, 1393, 2097, 1749, 1298, 1657, 1663, 1851, 1310, 930], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '6ヶ月の誕生日の男の子', 'keyword': '6 month birthday boy'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'half-year birthday balloon party'}, {'keywordCn': '6个月生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1791, 1379, 1787, 0, 983, 1259, 0, 969, 1123, 541, 658, 3492, 5157, 4589, 3827, 3474, 1970, 1377, 912, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 662, 952, 623, 271, 140, 0, 625, 569, 0, 140, 1446, 648, 753, 741, 0, 883, 140, 501, 635, 483, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '6ヶ月の誕生日の飾り', 'keyword': '6 month birthday decorations'}, {'keywordCn': '一个男婴的一半', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 550, 0, 763, 677, 0, 0, 0, 0, 0, 1175, 945, 861, 1368, 545, 0, 683, 530, 0, 0, 488, 0, 623, 892, 810, 499, 0, 0, 614, 511, 834, 0, 0, 0, 0, 785, 1262, 1039, 1591, 2029, 2060, 2477, 2529, 2101, 1920, 1593, 3349, 3687, 2810, 3781, 2958, 3380, 3324, 3902, 3740, 2280, 1987, 1451, 3804, 3335, 3401, 3353, 2757, 3734, 3790, 4611, 4255, 3012, 2558], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '一人の男の子の途中', 'keyword': 'halfway to one baby boy'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '猎豹印花派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 887, 1228, 0, 1612, 920, 851, 674, 883, 1241, 0, 0, 0, 0, 671, 675, 0, 676, 725, 550, 477, 0, 559, 925, 969, 676, 802, 1231, 929, 559, 520, 540, 907, 817, 807, 784, 763, 680, 532, 1328, 1145, 766, 833, 0, 0, 1133, 995, 918, 913, 620, 963, 1323, 1903, 1563, 1653, 2555, 8505, 11711, 9116, 7103, 7425, 7753, 8732, 9690, 11424, 6638, 5993], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チーター柄のパーティーデコレーション', 'keyword': 'cheetah print party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1510, 2510, 2497, 2485, 2400, 2835, 3380, 3666, 3674, 4514], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cheetah print decorations for birthday'}, {'keywordCn': '猎豹印花生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 829, 0, 0, 0, 614, 0, 0, 676, 0, 851, 503, 767, 986, 1583, 1642, 1580, 1422, 942, 498, 1552, 1346, 1499, 1122, 1168, 775, 698, 1174, 1284, 894, 897, 610, 2208, 2165, 1849, 1521, 1208, 1205, 1343, 2127, 1994, 1209, 1470, 825, 2316, 1767, 1514, 1693, 1237, 1479, 1517, 2479, 2847, 2273, 2367, 3776, 12247, 11603, 9740, 8102, 6911, 8104, 9300, 12472, 18756, 13943, 16336], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チーター柄の誕生日の飾り', 'keyword': 'cheetah print birthday decorations'}, {'keywordCn': '猎豹生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1158, 568, 0, 2032, 813, 1132, 0, 2733, 3490, 3340, 3038, 2678, 3084, 3601, 3794, 3977, 2776, 2139, 1649, 2823, 4311, 3567, 3679, 3984, 3638, 3699, 3970, 3861, 3437, 2866, 1736, 3957, 3994, 3571, 3211, 3898, 3338, 3620, 4127, 3996, 3218, 3008, 2071, 4439, 4277, 4087, 3920, 3349, 3228, 3195, 4849, 6295, 3765, 2706, 2827, 9152, 6774, 6708, 6821, 6471, 7407, 9060, 11379, 14338, 9623, 11494], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チーターの誕生日の装飾', 'keyword': 'cheetah birthday decorations'}, {'keywordCn': '猎豹派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 560, 0, 670, 594, 0, 778, 1278, 540, 0, 1063, 1712, 1993, 2623, 2717, 2589, 3322, 3279, 3312, 2497, 1818, 986, 2666, 3253, 3010, 3103, 3451, 3216, 2603, 3296, 3271, 1997, 1362, 733, 2685, 2655, 2370, 2475, 1545, 2195, 2043, 3099, 2745, 1982, 1301, 372, 2100, 1685, 1226, 1696, 1824, 1918, 1843, 1894, 2294, 1882, 2160, 1920, 5507, 4984, 4739, 4165, 4690, 5316, 5573, 5693, 7613, 4732, 4543], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チーターパーティーの装飾', 'keyword': 'cheetah party decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '滑雪装饰', 'searches': [7583, 7421, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2970, 3921, 3828, 4194, 6889, 4203, 0, 0, 0, 0, 0, 0, 0, 0, 2462, 2652, 1695, 0, 1188, 0, 583, 627, 729, 1441, 1637, 2221, 3156, 3313, 3302, 2036, 1704, 922, 861, 733, 1171, 1515, 1422, 1942, 3608, 3232, 3560, 2131, 962, 814, 643, 0, 935, 723, 778, 989, 3185, 3262, 2627, 1162, 882, 483, 561, 641, 762, 1723, 1770, 2415, 3829, 3371, 3278, 2223, 805, 585, 505, 0, 907, 1347, 1414, 1446, 3147, 3136, 3059, 1951, 796, 529, 0, 140, 648, 853, 952, 1592, 4474], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スキー装飾', 'keyword': 'ski decor'}, {'keywordCn': '滑雪结束后', 'searches': [3380, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2674, 6132, 6265, 10049, 2581, 0, 0, 0, 0, 0, 0, 0, 1976, 3738, 4450, 3438, 1214, 0, 0, 0, 615, 0, 0, 0, 1389, 3102, 4658, 4143, 1457, 0, 0, 0, 0, 0, 0, 0, 2768, 5657, 11568, 8525, 1782, 0, 0, 0, 0, 0, 0, 1392, 6032, 11985, 14909, 9972, 4487, 323, 0, 0, 0, 1220, 1625, 3766, 9837, 21473, 36478, 23336, 7413, 1426, 264, 0, 474, 602, 1712, 3572, 12297, 25519, 38225, 26573, 7689, 1471, 531, 0, 140, 673, 1395, 3324, 14312], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アプレススキー', 'keyword': 'apres ski'}, {'keywordCn': '阿普雷斯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 773, 662, 0, 1767, 1547, 6452, 6011, 5562, 5387, 6408, 7022, 6331, 4953, 4653, 4338, 6120, 7145, 5432, 6219, 9195, 8395, 11512, 8646, 8859, 8179, 8009, 9438, 12036, 13263, 13925, 14918, 12803, 13326, 16358, 17685, 19981, 17697, 15810, 19675, 28181, 40533, 35471, 40705, 34756, 32653, 36979, 41400, 46495, 36629, 25250, 27728, 44378, 55883, 44763, 21856, 18086, 15442, 16326, 26841, 26776, 26962, 17103, 16857, 22368, 24372, 28365, 34707, 35075, 36830, 45176, 37311, 39046, 38446, 33644, 34746, 45325, 45702, 45440, 46573, 44501, 50156, 61568, 46284, 43329, 45335, 54000], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'apres', 'keyword': 'apres'}, {'keywordCn': '滑雪后派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 845, 1952, 1085, 0, 0, 0, 0, 0, 0, 0, 0, 425, 786, 1341, 493, 0, 0, 0, 0, 0, 0, 0, 0, 1923], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スキー後のパーティー', 'keyword': 'apres ski party'}, {'keywordCn': '滑雪后装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 543, 382, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1432, 1439, 952, 916, 0, 0, 0, 0, 0, 0, 0, 140, 1388, 1880, 2216, 821, 0, 0, 0, 0, 0, 0, 0, 657, 3088], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'apresスキーの装飾', 'keyword': 'apres ski decor'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '风火轮生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1681, 0, 868, 0, 0, 708, 967, 0, 1478, 976, 1502, 1518, 3609, 3883, 3730, 3333, 3839, 3619, 3710, 4085, 4949, 4669, 3848, 3451, 5516, 6180, 5726, 5394, 6545, 5916, 4756, 6128, 6770, 5631, 5312, 4483, 6895, 5442, 4420, 4017, 2960, 4150, 4548, 7529, 8480, 15653, 16193, 13583, 41691, 33797, 47045, 62182, 56143, 55448, 49880, 51123, 56115, 35893, 25938, 21649, 50042, 53516, 55766, 46568, 47485, 47071, 48476, 42922, 49332, 31925, 30284], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ホットウィールの誕生日の装飾', 'keyword': 'hot wheels birthday decorations'}, {'keywordCn': '风火轮生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1724, 2285, 1887, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1341, 1299, 1652, 1808, 1494, 3177, 1910, 1871, 3938, 9980, 11975, 12030, 11646, 13615, 11455, 8739], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ホットウィールの誕生日の装飾', 'keyword': 'hotwheels birthday decorations'}, {'keywordCn': '赛车生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 794, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 447, 986, 750, 673, 100, 1836, 1802, 7799, 12308, 7230, 28043, 26304, 27626, 33242, 30064, 28269, 28831, 32737, 32293, 17244, 12738, 8509, 22413, 26140, 29963, 27433, 26727, 26643, 28599, 28716, 29507, 21749, 16661], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レーシングカーの誕生日パーティーの装飾', 'keyword': 'race car birthday party decorations'}, {'keywordCn': '汽车生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1699, 1173, 1545, 1925, 2747, 2434, 1779, 1769, 0, 0, 2269, 2101, 1867, 2145, 0, 2433, 2127, 0, 3526, 3137, 3507, 2722, 4904, 4857, 4936, 3748, 4206, 4309, 4225, 4024, 4678, 3763, 4036, 3058, 4749, 5588, 5267, 4787, 5139, 5678, 5247, 6282, 6190, 5482, 4952, 4258, 8360, 7294, 6099, 5782, 5670, 6599, 6747, 10122, 15493, 21903, 15323, 12905, 36421, 32545, 36086, 38960, 35065, 38981, 36973, 39094, 41741, 29576, 18810, 15467, 35588, 36044, 36204, 34238, 36624, 35827, 33784, 41328, 48643, 37081, 32979], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '車の誕生日の装飾', 'keyword': 'cars birthday decorations'}, {'keywordCn': '汽车生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1395, 0, 1196, 1129, 0, 1332, 1163, 1739, 892, 1691, 1632, 2241, 1764, 1332, 877, 690, 890, 0, 1217, 647, 516, 753, 1323, 1273, 957, 838, 871, 877, 931, 1167, 794, 100, 461, 1228, 893, 1283, 833, 1364, 1481, 1652, 2362, 2138, 2555, 2367, 2109, 4817, 3923, 3246, 3410, 3192, 2986, 3571, 3848, 4112, 4019, 3228, 3026, 8470, 6240, 7190, 5894, 6662, 6436, 6272, 6720, 7307, 4779, 3656], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '車の誕生日の装飾', 'keyword': 'car birthday decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13658, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2622, 14767, 9459, 0, 0, 0, 0, 0, 0, 0, 0, 2139, 4969, 13721, 9574, 0, 0, 0, 0, 0, 0, 534, 1255, 3750, 9077, 27705, 13250, 0, 0, 0, 0, 0, 0, 620, 1308, 2620, 6832, 21173, 13398, 0, 0, 0, 0, 0, 0, 537, 616, 1591, 5225, 17181, 11838, 0, 0, 0, 0, 0, 0, 431, 1146, 2929, 6179, 24674, 12731, 0, 0, 0, 0, 0, 0, 0, 577, 1826, 5322, 23438, 14936, 0, 0, 0, 0, 0, 0, 1, 435, 2000, 5207, 25530], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banners'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '快乐 grinchmas 横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1632, 1741, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2850, 2855, 0, 0, 0, 0, 0, 0, 0, 0, 0, 872, 5397, 5043, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4568, 4528, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6320, 7692, 0, 0, 0, 0, 0, 0, 0, 0, 0, 601, 5851, 6957, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4256], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '陽気なgrinchmasバナー', 'keyword': 'merry grinchmas banner'}, {'keywordCn': '圣诞背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2272, 2504, 0, 0, 0, 0, 0, 0, 0, 0, 622, 3287, 48864, 74526, 1338, 0, 0, 0, 0, 0, 0, 435, 2771, 14498, 57363], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '壁掛け用クリスマスバックドロップ', 'keyword': 'christmas backdrops for wall'}, {'keywordCn': '圣诞横幅背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 788, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 671, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 733, 979, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1667, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 886], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナーの背景', 'keyword': 'christmas banner backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 19563, 86262, 77092, 0, 0, 0, 0, 0, 0, 0, 0, 12232, 28344, 121081, 114061, 0, 0, 0, 842, 3312, 3288, 5295, 5045, 9068, 24474, 113335, 160064, 3256, 1830, 890, 933, 2628, 1338, 2123, 4821, 7327, 16738, 71427, 115103, 1911, 1675, 1595, 2349, 3226, 4294, 7756, 6876, 10478, 25834, 156199, 240871, 3122, 1606, 2451, 2166, 2970, 4844, 7766, 8842, 12929, 32120, 151160, 246636, 3944, 1141, 737, 1417, 1583, 3324, 4745, 7288, 16802, 51472, 186582, 231101, 2414, 1352, 1418, 1407, 1893, 2919, 6017, 7662, 17803, 48735, 134075, 246725, 2384, 913, 462, 660, 1574, 2851, 5694, 8111, 17064, 42123, 142448], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーの装飾', 'keyword': 'christmas party decorations'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'merry christmas banner red and black'}, {'keywordCn': '格子圣诞布景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 972, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チェック柄のクリスマスバックドロップ', 'keyword': 'plaid christmas backdrop'}, {'keywordCn': '黑色圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 682, 634, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 941, 669, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2124, 2247, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1818, 1977, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1251], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '黒のクリスマスの背景', 'keyword': 'black christmas backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'red christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞回落', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2610, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1475, 5550, 4815, 0, 5910, 0, 0, 0, 0, 0, 0, 0, 2468, 7242, 8495, 0, 0, 0, 0, 0, 0, 0, 645, 1587, 3419, 12000, 11870, 0, 0, 0, 600, 0, 0, 0, 0, 0, 3920, 14327, 14822, 0, 0, 0, 0, 0, 0, 1, 0, 753, 4252, 14465, 17053, 0, 0, 0, 0, 0, 0, 372, 903, 2334, 6976, 23381, 24921, 0, 0, 0, 0, 0, 0, 443, 915, 2161, 6340, 33069, 37824, 516, 0, 0, 0, 0, 0, 0, 140, 2022, 5308, 29879], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスのバックドロップ', 'keyword': 'christmas back drop'}, {'keywordCn': '圣诞节背景 7x5', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2591, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 689, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 552, 768, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4561, 3401, 2918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1592, 2885, 3064, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景7x5', 'keyword': 'christmas backdrop 7x5'}, {'keywordCn': '冬日仙境的圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1488, 926, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1252, 1257, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1509], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウィンターワンダーランドクリスマスバックグラウンド', 'keyword': 'winter wonderland christmas backdrop'}, {'keywordCn': '冬季仙境回落', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 419, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 674, 662, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1092, 1402, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1471, 1218, 140, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1743], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドのバックドロップ', 'keyword': 'winter wonderland back drop'}, {'keywordCn': '回落圣诞节', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4048, 597, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 577, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1051, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3279, 7028, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1894], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バックドロップクリスマス', 'keyword': 'back drop christmas'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '复古圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 569, 0, 0, 0, 0, 0, 0, 0, 630, 471, 949, 1622, 3851, 2080, 808, 0, 0, 0, 0, 0, 0, 904, 1143, 2408, 4149, 1882, 0, 0, 0, 0, 0, 0, 0, 626, 0, 1238, 2859, 1499, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 3440], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ヴィンテージクリスマスバナー', 'keyword': 'vintage christmas banner'}, {'keywordCn': '圣诞快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1527, 3346, 2880, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2988, 5943, 0, 0, 0, 0, 0, 0, 0, 0, 1605, 1412, 5376, 9521, 0, 0, 0, 0, 0, 0, 0, 566, 732, 2435, 13719, 27773, 0, 0, 0, 0, 0, 0, 0, 737, 942, 2946, 14194, 24447, 730, 0, 0, 0, 0, 0, 100, 804, 1785, 3930, 21011, 42957, 0, 0, 0, 0, 0, 0, 0, 568, 949, 2636, 17142, 44707, 0, 0, 0, 0, 0, 0, 0, 0, 680, 2529, 18799], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスの背景', 'keyword': 'merry christmas backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas vintage banner'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'silver new year decorations 2026 banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years eve party supplies blue'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'cheers to 2026 banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years eve decorations blue'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'cheers to 2026 new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年照片背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7078, 0, 0, 0, 0, 0, 0, 0, 0, 0, 537, 807, 5758, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 530, 5348, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 586, 5299, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1175, 5452, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 473, 5217, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の写真の背景', 'keyword': 'new years photo backdrop'}, {'keywordCn': '新年快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2909, 3858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1335, 12502, 1335, 0, 0, 0, 0, 0, 0, 0, 0, 544, 2691, 21548, 2102, 0, 0, 0, 0, 0, 0, 0, 0, 901, 4752, 33934, 2567, 0, 0, 0, 0, 0, 0, 0, 656, 693, 4342, 29754, 3238, 0, 0, 0, 0, 0, 0, 0, 0, 1518, 4173, 41644, 2248, 0, 0, 0, 0, 0, 0, 0, 0, 534, 2589, 31156, 1577, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year banner 2026'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'happy new year door cover banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 19563, 86262, 77092, 0, 0, 0, 0, 0, 0, 0, 0, 12232, 28344, 121081, 114061, 0, 0, 0, 842, 3312, 3288, 5295, 5045, 9068, 24474, 113335, 160064, 3256, 1830, 890, 933, 2628, 1338, 2123, 4821, 7327, 16738, 71427, 115103, 1911, 1675, 1595, 2349, 3226, 4294, 7756, 6876, 10478, 25834, 156199, 240871, 3122, 1606, 2451, 2166, 2970, 4844, 7766, 8842, 12929, 32120, 151160, 246636, 3944, 1141, 737, 1417, 1583, 3324, 4745, 7288, 16802, 51472, 186582, 231101, 2414, 1352, 1418, 1407, 1893, 2919, 6017, 7662, 17803, 48735, 134075, 246725, 2384, 913, 462, 660, 1574, 2851, 5694, 8111, 17064, 42123, 142448], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーの装飾', 'keyword': 'christmas party decorations'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2272, 2504, 0, 0, 0, 0, 0, 0, 0, 0, 622, 3287, 48864, 74526, 1338, 0, 0, 0, 0, 0, 0, 435, 2771, 14498, 57363], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '壁掛け用クリスマスバックドロップ', 'keyword': 'christmas backdrops for wall'}, {'keywordCn': '圣诞晚会背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3222, 5495, 0, 5632, 0, 0, 0, 0, 0, 0, 0, 0, 4212, 7755, 0, 0, 0, 0, 0, 0, 0, 0, 0, 847, 4001, 6868, 0, 0, 0, 0, 0, 0, 0, 0, 0, 929, 6980, 12900, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1137, 7710, 12221, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1978, 11721, 20319, 0, 0, 0, 0, 0, 0, 0, 0, 576, 1714, 8488, 19368, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1029, 8899], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスパーティーの背景', 'keyword': 'christmas party backdrop'}, {'keywordCn': '外面的圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1480, 6266, 4074, 0, 0, 0, 0, 0, 0, 0, 0, 1458, 7121, 32714, 17541, 852, 0, 0, 0, 0, 0, 733, 880, 2614, 8795, 32663, 15786, 0, 0, 0, 0, 0, 0, 431, 1212, 2381, 5529, 42702, 19611, 0, 0, 0, 0, 0, 0, 538, 620, 2629, 7773, 31381, 18508, 749, 0, 0, 0, 0, 0, 318, 596, 2094, 7132, 32310], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '外のクリスマスバナー', 'keyword': 'christmas banners for outside'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '费利斯纳维达旗帜', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2569, 2619, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4019, 5912, 0, 0, 0, 0, 0, 0, 0, 0, 0, 525, 4967, 5520, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1589, 6175, 7927, 0, 0, 0, 0, 0, 0, 0, 0, 639, 909, 6614, 9920, 476, 0, 0, 0, 0, 0, 0, 0, 0, 1702, 9474, 16539, 0, 0, 0, 0, 0, 0, 0, 0, 0, 853, 7321, 16299, 0, 0, 0, 0, 0, 0, 0, 0, 309, 1261, 11241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadバナー', 'keyword': 'feliz navidad banner'}, {'keywordCn': '费利斯纳维达装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 643, 1610, 1265, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1462, 1324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2245, 2012, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1237, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1752], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスnavidadの装飾', 'keyword': 'feliz navidad decor'}, {'keywordCn': '费利斯纳维达背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1081, 2666, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2407, 4660, 0, 0, 0, 0, 0, 0, 0, 0, 0, 912, 3750, 6241, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2476, 7144, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3029], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadの背景', 'keyword': 'feliz navidad backdrop'}, {'keywordCn': '费利斯纳维达装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13129, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3590, 14919, 14335, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2773, 12356, 15062, 0, 0, 0, 0, 0, 0, 0, 0, 1420, 2751, 11833, 13862, 0, 0, 0, 0, 0, 0, 489, 545, 0, 3049, 15816, 17645, 497, 0, 0, 0, 0, 0, 426, 498, 732, 4436, 18146, 21092, 803, 0, 0, 0, 0, 0, 0, 0, 1162, 3404, 24328, 27679, 0, 0, 0, 0, 0, 0, 0, 0, 1096, 2973, 18404, 28273, 0, 0, 0, 0, 0, 0, 0, 0, 392, 2568, 16037], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスナヴィダードデコレーション', 'keyword': 'feliz navidad decorations'}, {'keywordCn': '圣诞快乐！圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1723, 0, 0, 0, 0, 0, 0, 0, 0, 0, 837, 1364, 1876, 1382, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 684, 1079, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1259], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリス・ナヴィダート・クリスマス・デコレーション', 'keyword': 'feliz navidad christmas decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas backdrop little white goose backdrop'}, {'keywordCn': '红白圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1749, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 610, 905, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 641], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤と白のクリスマスバックドロップ', 'keyword': 'red and white christmas backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas jack backdrop'}, {'keywordCn': '红色和白色背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 583, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 592, 542, 0, 0, 0, 0, 0, 0, 0, 0, 0, 454, 0, 0, 575, 319, 100, 0, 0, 0, 775, 863, 313, 0, 854, 0, 0, 629, 0, 0, 0, 140, 140, 0, 140, 0, 0, 0, 0, 483, 625, 140, 0, 0, 536, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤と白の背景', 'keyword': 'red and white backdrop'}, {'keywordCn': '圣诞背景墙', 'searches': [4379, 0, 2699, 0, 0, 0, 4791, 6092, 13406, 53816, 140582, 89640, 0, 0, 0, 0, 0, 0, 4416, 12029, 19751, 52270, 154628, 96611, 0, 0, 3214, 3703, 2214, 1438, 6853, 12602, 16613, 45866, 178398, 214412, 5901, 1777, 1222, 1583, 2914, 3405, 5592, 8032, 16345, 53441, 150732, 146101, 3471, 1784, 2376, 2150, 0, 4866, 9959, 13511, 30411, 74490, 299413, 330381, 5964, 2738, 2612, 2981, 3131, 5193, 10523, 15866, 28523, 72986, 298994, 312465, 8115, 3418, 2226, 2622, 3007, 4731, 8262, 19126, 43557, 158179, 384716, 379564, 6091, 2857, 2291, 2418, 2946, 5475, 13368, 19831, 38261, 93717, 270025, 308708, 5767, 1732, 1590, 2065, 2820, 4265, 9955, 16987, 34641, 77418, 252758], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマス・バックドロップ', 'keyword': 'christmas backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1627], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '门横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 599, 0, 0, 655, 0, 1131, 737, 824, 1052, 1288, 651, 883, 597, 0, 608, 539, 0, 798, 0, 948, 768, 692, 1330, 1309, 908, 786, 624, 906, 490, 465, 0, 806, 658, 1270, 553, 641, 708, 913, 768, 622, 1953, 1182, 1142, 1608, 1592, 1664, 1384, 1133, 1190, 1051, 794, 1305, 1321, 1159, 1085, 1097, 1184, 1805, 743, 1664, 1585, 1672, 1553, 1696, 1991, 1875, 1490, 2094], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ドアバナー', 'keyword': 'door banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 390, 1323, 722, 483, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 sign'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 925], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1655, 955, 13818, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3849, 34533, 2278, 0, 0, 0, 936, 0, 0, 0, 721, 1219, 3726, 45995, 1893, 0, 0, 0, 0, 0, 0, 0, 0, 1267, 5578, 43416, 2177, 0, 0, 0, 0, 0, 0, 467, 0, 684, 4098, 43973, 2695, 0, 0, 0, 0, 0, 0, 0, 0, 1958, 5001, 53445, 1814, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 3718, 48597, 1599, 0, 0, 0, 0, 0, 0, 0, 140, 140, 3604], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new years backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 339], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 backdrop'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '复古圣诞背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 432, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1664, 956, 0, 0, 0, 0, 0, 0, 0, 0, 0, 278, 1505, 962, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1694], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ヴィンテージクリスマスバックドロップ', 'keyword': 'vintage christmas backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'vintage christmas fireplace backdrop'}, {'keywordCn': '圣诞壁炉背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2861, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2028, 7326, 733, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1978, 6019, 4908, 0, 0, 0, 0, 0, 0, 0, 0, 717, 2421, 5510, 4037, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2353, 9589, 7332, 0, 0, 0, 0, 0, 0, 0, 438, 517, 2651, 10906, 7288, 0, 0, 0, 0, 0, 0, 0, 0, 1172, 9324, 19031, 8376, 0, 0, 0, 0, 0, 0, 0, 140, 1329, 4207, 16339, 11111, 0, 0, 0, 0, 0, 0, 140, 0, 611, 3192, 19123], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの暖炉の背景', 'keyword': 'christmas fireplace backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas fireplace decorations backdrop'}, {'keywordCn': '复古圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 534, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 772, 1471, 1084, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1037, 540, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1352], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ヴィンテージメリークリスマスバナー', 'keyword': 'vintage merry christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬季背景', 'searches': [3374, 0, 0, 0, 0, 0, 0, 0, 0, 3074, 14535, 3341, 0, 0, 0, 0, 0, 0, 0, 2716, 4147, 9699, 19137, 13155, 5729, 3230, 0, 1969, 1595, 1762, 3274, 3275, 5384, 8867, 17119, 15162, 7362, 3895, 1981, 504, 639, 1171, 1798, 1998, 3928, 8697, 17245, 12435, 5581, 3392, 1415, 894, 627, 934, 1736, 2675, 4366, 7763, 20501, 15748, 6589, 2231, 780, 634, 0, 528, 1299, 2141, 3656, 7148, 18226, 14666, 8492, 2390, 595, 570, 559, 669, 1144, 2690, 4321, 11439, 51930, 33560, 9365, 1938, 0, 140, 557, 680, 1315, 1986, 4207, 9957, 30701, 28914, 9569, 1558, 382, 580, 504, 659, 1292, 1862, 3362, 8392, 28320], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のバックドロップ', 'keyword': 'winter backdrop'}, {'keywordCn': '冬天场景背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 795, 2597, 1674, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2316, 2282, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1194, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 625, 2145, 1286, 0, 0, 0, 0, 0, 0, 0, 0, 0, 574, 2973, 2150, 637, 0, 0, 0, 0, 0, 0, 0, 0, 1860, 4553, 2801, 804, 0, 0, 0, 0, 0, 0, 0, 0, 998, 3293, 2436, 1689, 0, 0, 0, 0, 0, 0, 0, 0, 1280, 3600], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のシーンの背景', 'keyword': 'winter scene backdrop'}, {'keywordCn': '冬季挂毯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7631, 0, 0, 0, 0, 0, 0, 0, 0, 3527, 3059, 3606, 9753, 3514, 0, 0, 0, 0, 0, 0, 0, 1976, 3569, 4416, 7972, 4505, 1191, 0, 0, 0, 646, 0, 610, 2162, 3568, 5052, 11433, 4716, 1799, 684, 0, 0, 0, 0, 1143, 1644, 2678, 3647, 9895, 4540, 1509, 0, 0, 0, 0, 0, 650, 1370, 1759, 2814, 7859, 3968, 1115, 0, 0, 0, 0, 0, 1, 1291, 1944, 3126, 8438, 3958, 1594, 0, 0, 0, 0, 0, 0, 531, 1299, 1895, 6254, 3228, 1248, 0, 0, 0, 0, 0, 0, 0, 594, 1576, 5499], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のタペストリー', 'keyword': 'winter tapestry'}, {'keywordCn': '圣诞挂毯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 6973, 14079, 38073, 18637, 0, 0, 0, 0, 0, 0, 0, 3393, 8948, 15833, 57528, 20102, 0, 0, 0, 0, 0, 0, 2786, 4036, 6953, 13090, 44491, 16288, 0, 0, 0, 979, 604, 947, 3071, 5343, 10944, 14803, 51732, 15995, 0, 0, 0, 717, 556, 893, 2318, 4627, 7618, 14402, 50728, 15674, 910, 0, 0, 551, 643, 866, 2116, 4190, 6719, 12250, 42241, 15563, 694, 0, 0, 0, 532, 699, 1540, 3674, 5046, 12389, 52343, 18661, 797, 0, 0, 0, 0, 0, 1351, 2196, 4505, 12287, 41500, 18190, 0, 0, 0, 0, 0, 0, 497, 1630, 3670, 9676, 40639], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスタペストリー', 'keyword': 'christmas tapestry'}, {'keywordCn': '冬季背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2710, 2742, 1646, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 744, 488, 0, 0, 0, 0, 0, 0, 0, 0, 0, 583, 1140, 640, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1425, 566, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1164, 2842, 1763, 829, 0, 0, 0, 0, 0, 0, 0, 0, 377, 1481, 1320, 599, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1909], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬の背景', 'keyword': 'winter backdrops'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '查理-布朗圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 960, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チャーリー・布朗のクリスマスバナー', 'keyword': 'charlie brown christmas banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas movie night backdrop'}, {'keywordCn': '查理布朗圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 3335, 20043, 13949, 0, 0, 0, 0, 0, 0, 0, 0, 4068, 12081, 31523, 19646, 0, 0, 0, 0, 0, 0, 0, 1382, 2597, 6070, 30129, 25212, 1705, 0, 749, 0, 0, 0, 834, 1644, 3424, 8354, 34121, 23838, 2484, 0, 0, 0, 0, 683, 756, 1925, 4204, 9800, 36716, 26093, 2010, 0, 0, 0, 0, 0, 868, 2526, 4794, 12759, 40727, 28071, 2609, 0, 0, 0, 0, 416, 1243, 2771, 3822, 9258, 47825, 25909, 822, 0, 0, 0, 0, 140, 1335, 2171, 4302, 12215, 39023, 24212, 1438, 0, 0, 0, 0, 0, 1264, 2574, 3915, 13275, 43449], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チャーリーブラウンのクリスマスデコレーション', 'keyword': 'charlie brown christmas decorations'}, {'keywordCn': '查理布朗圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 616, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 929, 473, 0, 0, 0, 0, 0, 0, 0, 0, 0, 766, 1991, 480, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1861, 968, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2551], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'チャーリーブラウンのクリスマスの背景', 'keyword': 'charlie brown christmas backdrop'}, {'keywordCn': '史努比背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 417, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 754, 899, 0, 0, 0, 0, 0, 0, 0, 0, 0, 502, 596, 589, 140, 1061, 0, 536, 432, 0, 140, 349, 561, 797, 1275, 1291], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スヌーピーの背景', 'keyword': 'snoopy backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'happy valentine’s day background'}, {'keywordCn': '情人节背景墙', 'searches': [5307, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7020, 7770, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1700, 18205, 3571, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4662, 14167, 14425, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3635, 15587, 17825, 0, 0, 0, 0, 0, 0, 0, 0, 490, 4438, 26259, 30622, 547, 0, 0, 0, 0, 0, 0, 436, 579, 5372, 37259, 32227, 0, 0, 0, 0, 0, 0, 0, 815, 2111, 8853, 68165, 53916, 0, 0, 0, 0, 0, 0, 0, 140, 1058, 8447, 71961, 64270, 0, 0, 0, 0, 0, 0, 0, 140, 984], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バレンタイン・バックドロップ', 'keyword': 'valentines backdrop'}, {'keywordCn': '情人节摄影背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11538, 9060, 0, 0, 0, 0, 0, 0, 0, 848, 1730, 2351, 21764, 3840, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3551, 19546, 13670, 0, 0, 0, 0, 0, 0, 0, 0, 1641, 12811, 37043, 23748, 0, 0, 0, 0, 0, 0, 0, 742, 2059, 10747, 30693, 15650, 0, 0, 0, 0, 0, 0, 0, 0, 1653, 11824, 46602, 34405, 0, 0, 0, 0, 0, 0, 0, 0, 878, 4910, 30246, 18287, 0, 0, 0, 0, 0, 0, 0, 0, 385, 6806, 36924, 28698, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '写真撮影のためのバレンタインの背景', 'keyword': 'valentines backdrops for photography'}, {'keywordCn': '情人节背景墙', 'searches': [14227, 3329, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7464, 7189, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2423, 7617, 4276, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5022, 29550, 30539, 0, 0, 0, 0, 0, 0, 0, 543, 1127, 11795, 46081, 41383, 0, 0, 0, 0, 0, 0, 0, 791, 1131, 8878, 54809, 44308, 0, 0, 0, 0, 0, 0, 0, 0, 655, 7710, 49939, 45364, 0, 0, 0, 0, 0, 0, 0, 1080, 2003, 16258, 86402, 52710, 0, 0, 0, 0, 0, 0, 0, 464, 1592, 14501, 83365, 59960, 0, 0, 0, 0, 0, 0, 0, 140, 1146], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バレンタイン・バックドロップ', 'keyword': 'valentines day backdrop'}, {'keywordCn': '情人节背景墙', 'searches': [5226, 4441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7383, 7255, 0, 0, 0, 0, 0, 0, 0, 0, 0, 613, 19425, 3474, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3046, 12343, 13520, 0, 0, 0, 0, 0, 0, 0, 0, 484, 4996, 20044, 17055, 0, 0, 0, 0, 0, 0, 0, 0, 683, 4936, 19294, 17392, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4485, 24275, 20727, 0, 0, 0, 0, 0, 0, 0, 815, 1090, 3911, 39242, 31422, 0, 0, 0, 0, 0, 0, 0, 0, 140, 5960, 50161, 40879, 0, 0, 0, 0, 0, 0, 0, 140, 397], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バレンタイン・バックドロップ', 'keyword': 'valentine backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 5967], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'nye decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '奈装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2233, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4251, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5076, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5580, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8696, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 920, 14461, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 15104, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 558], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日の装飾', 'keyword': 'nye decor'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '平安夜送货', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2326, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1205, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1828, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2798, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスイブの配達', 'keyword': 'christmas eve delivery'}, {'keywordCn': '照片打印 4x6', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203, 2129, 0, 1615, 2245, 2153, 1521, 1727, 1957, 2037, 1979, 2114, 2831, 0, 2632, 2245, 2859, 3132, 3250, 3939, 4738, 4512, 4989, 4852, 4910, 6240, 8653, 5699, 6776, 6115, 6025, 5264, 5707, 5718, 5381, 5034, 5704, 5541, 5994, 4710, 4836, 5099, 4210, 4569, 4736, 5614, 5114, 4447, 3651, 4163, 4044, 5970, 14072, 11723, 8251, 12002, 13242, 7661, 6607, 7787, 8739, 5312, 4352, 4119, 4503, 4776, 3812, 4206, 4608, 3595, 3566, 2753, 3430, 3738, 3938, 3201, 3776, 3637, 3078, 3393], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '写真プリント4x6', 'keyword': 'photo prints 4x6'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'winter fire pro'}, {'keywordCn': '壁炉圣诞毛衣', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 797, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1467, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 749, 784, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '暖炉のクリスマスセーター', 'keyword': 'fireplace christmas sweater'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '糖果手杖巷背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 995, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 881, 978, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1542], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンディーバンク ライン バックドロップ', 'keyword': 'candy cane lane backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas chapter backdrop'}, {'keywordCn': '棒棒糖背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1456, 1593, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2723, 2859, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1298, 3957, 3527, 0, 0, 0, 0, 0, 0, 0, 0, 0, 540, 4801, 4084, 0, 0, 0, 0, 0, 0, 0, 0, 0, 526, 4808], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンディケインの背景', 'keyword': 'candy cane backdrop'}, {'keywordCn': '糖果手杖背景圣诞节', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 474, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2912, 3425, 0, 0, 0, 0, 0, 0, 0, 0, 0, 486, 2739, 2781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3215], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンディケインの背景のクリスマス', 'keyword': 'candy cane backdrop christmas'}, {'keywordCn': '棒棒糖窗帘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 990, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 641, 1481, 618, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1282, 485, 0, 0, 0, 0, 0, 0, 0, 0, 0, 833, 3672, 806, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2652, 916, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2983], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンディケインカーテン', 'keyword': 'candy cane curtains'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '雪景圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 760, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの雪景色', 'keyword': 'snow christmas backdrop'}, {'keywordCn': '冬季森林背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 674, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 680, 540, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1222, 736, 0, 0, 0, 0, 0, 0, 0, 0, 0, 956, 2563, 1858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 546, 2313, 1418, 757, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1960], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬の森の背景', 'keyword': 'winter forest backdrop'}, {'keywordCn': '冬日仙境的背景', 'searches': [2761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3697, 3141, 3689, 0, 0, 0, 0, 0, 0, 0, 4229, 9800, 19281, 15188, 7190, 2058, 0, 1218, 1657, 2994, 4699, 4960, 7684, 12640, 25395, 19687, 12654, 4958, 862, 0, 619, 784, 1780, 1941, 3919, 8203, 18635, 14684, 7144, 2418, 1322, 914, 1193, 1419, 2640, 3047, 5103, 11820, 30778, 24275, 10069, 3260, 981, 537, 778, 929, 836, 2779, 5005, 11724, 32084, 25161, 13259, 3795, 767, 504, 516, 1332, 1739, 3175, 5186, 16485, 59662, 45583, 16024, 2587, 0, 0, 140, 625, 1607, 2538, 5739, 15766, 44667, 43844, 13327, 1829, 0, 0, 0, 140, 140, 1520, 4689, 12250, 41964], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドの背景', 'keyword': 'winter wonderland backdrop'}, {'keywordCn': '冬天回落', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 554, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 571, 525, 0, 0, 0, 0, 0, 0, 0, 0, 0, 751, 1521, 1242, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1592, 1415, 384, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1439], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のバックドロップ', 'keyword': 'winter back drop'}, {'keywordCn': '白雪皑皑的背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2320, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 811, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1288, 672, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1598, 1648, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1236, 3511, 2319, 0, 0, 0, 0, 0, 0, 0, 0, 0, 686, 2943, 2201, 602, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2580], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '雪の背景', 'keyword': 'snowy backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬季仙境照片背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3216, 5683, 3920, 3203, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1380, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 460, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 786, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 472, 1128, 786, 516, 0, 0, 0, 0, 0, 0, 0, 0, 751, 2469, 1939, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1780, 1368, 599, 0, 0, 0, 0, 0, 0, 0, 0, 320, 2463], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドの写真の背景', 'keyword': 'winter wonderland photo backdrop'}, {'keywordCn': '冬日仙境的背景', 'searches': [2761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3697, 3141, 3689, 0, 0, 0, 0, 0, 0, 0, 4229, 9800, 19281, 15188, 7190, 2058, 0, 1218, 1657, 2994, 4699, 4960, 7684, 12640, 25395, 19687, 12654, 4958, 862, 0, 619, 784, 1780, 1941, 3919, 8203, 18635, 14684, 7144, 2418, 1322, 914, 1193, 1419, 2640, 3047, 5103, 11820, 30778, 24275, 10069, 3260, 981, 537, 778, 929, 836, 2779, 5005, 11724, 32084, 25161, 13259, 3795, 767, 504, 516, 1332, 1739, 3175, 5186, 16485, 59662, 45583, 16024, 2587, 0, 0, 140, 625, 1607, 2538, 5739, 15766, 44667, 43844, 13327, 1829, 0, 0, 0, 140, 140, 1520, 4689, 12250, 41964], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドの背景', 'keyword': 'winter wonderland backdrop'}, {'keywordCn': '冬季横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2020, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2057, 2609, 2741, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2452, 2882, 3264, 0, 0, 0, 0, 0, 0, 0, 0, 543, 2718, 2946, 2646, 0, 0, 0, 0, 0, 0, 0, 0, 429, 2451, 2951, 2560, 0, 0, 0, 0, 0, 0, 0, 0, 919, 3049, 3120, 2590, 0, 0, 0, 0, 0, 0, 0, 140, 270, 2394, 3029, 2173, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2615], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のバナー', 'keyword': 'winter banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1522, 2108, 1209, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2948], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'winter backdrops for wall'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2308, 16071, 17715, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1347, 7784], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'christmas back drop for wall'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '半岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3836, 4119, 2862, 954, 1481, 4916, 5813, 4163, 3891, 2615, 7706, 8566, 5286, 5510, 9538, 12482, 13834, 13696, 14651, 12310, 11156, 8988, 15805, 15929, 14557, 14537, 14303, 14113, 13178, 13135, 12145, 9359, 7887, 6666, 12307, 13223, 12651, 12606, 9468, 11129, 8530, 8896, 8852, 7184, 6254, 4783, 11218, 9221, 7907, 8626, 5204, 7865, 7057, 9128, 8357, 6813, 5630, 4716, 10568, 11169, 11791, 13257, 12881, 13994, 12336, 12998, 13024, 9302, 6930, 5946, 15510, 15187, 15877, 15155, 14433, 19616, 17468, 15127, 20007, 16142, 14850], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ハーフバースデーの飾り', 'keyword': 'half birthday decorations'}, {'keywordCn': '1/2 生日男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6251, 5888, 989, 0, 0, 0, 0, 6301, 5668, 5143, 5275, 6663, 6177, 6761, 4827, 4733, 3802, 6815, 7265, 8664, 7084, 7889, 11333, 12516, 10578, 11044, 8933, 7905, 5970, 13974, 13309, 12929, 11133, 8186, 7460, 8189, 8298, 8620, 6449, 5918, 4585, 11608, 11671, 9143, 9992, 9398, 9523, 8353, 9909, 9036, 6050, 5763, 5023, 10922, 11882, 9914, 9210, 9444, 9442, 8322, 13815, 13296, 10877, 8413, 6179, 18344, 17961, 18350, 21187, 17785, 18266, 18611, 18405, 22722, 16238, 14419, 9759, 25274, 34564, 38139, 32993, 32427, 31219, 29437, 28337, 23770, 23041, 19676], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1/2歳の男の子', 'keyword': '1/2 birthday boy'}, {'keywordCn': '1/2 生日', 'searches': [0, 0, 0, 0, 0, 3689, 2858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2961, 3959, 1632, 1055, 0, 0, 0, 4849, 4518, 2572, 1368, 1455, 3608, 3724, 2874, 2377, 1497, 5262, 6318, 4330, 4218, 4335, 4479, 5073, 4641, 4662, 3997, 3509, 3043, 5669, 5508, 5394, 5319, 4794, 4575, 4855, 4861, 5389, 3868, 3654, 2959, 5806, 6182, 5618, 6360, 5147, 4625, 3791, 3426, 3503, 2237, 2159, 1841, 4054, 4214, 4367, 3266, 2794, 2878, 3101, 3500, 3627, 2907, 2196, 1869, 3639, 3722, 3084, 3373, 2840, 3296, 2955, 3193, 3671, 3044, 2575, 2190, 5815, 5911, 5543, 5387, 4974, 4807, 4503, 5078, 9186, 5617, 5165], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1/2歳の誕生日', 'keyword': '1/2 birthday'}, {'keywordCn': '6个月生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 974, 764, 0, 2124, 2773, 0, 1916, 1379, 756, 0, 2784, 3303, 3035, 2403, 2477, 2845, 3068, 4161, 2937, 1888, 1517, 0, 2942, 3497, 2469, 2085, 1898, 2162, 1941, 1949, 2366, 1614, 1569, 666, 1274, 2136, 3134, 3382, 5848, 4863, 5588, 5171, 7448, 3975, 2573, 1524, 8746, 8497, 5088, 6818, 7757, 8837, 8574, 9710, 10490, 4846, 2531, 1199, 2681, 5911, 14968, 7605, 13029, 15228, 15068, 14535, 12908, 6225, 5503], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '6ヶ月の誕生日の飾り', 'keyword': '6 months birthday decorations'}, {'keywordCn': '半岁生日', 'searches': [6144, 0, 3123, 0, 0, 0, 2851, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7349, 6946, 5913, 951, 0, 0, 0, 7578, 6178, 6078, 6919, 6231, 6737, 6028, 4802, 3927, 2735, 6959, 6535, 5533, 5558, 6068, 7785, 8408, 6407, 7295, 6420, 4903, 4926, 8646, 9506, 8614, 8714, 6477, 6564, 6840, 6573, 6376, 4855, 4728, 4087, 8255, 8472, 7189, 8268, 6461, 7451, 5742, 5739, 5379, 3850, 3607, 2918, 7267, 6678, 5535, 4992, 5836, 6411, 5218, 6794, 6525, 4383, 4203, 3558, 7663, 6823, 6475, 8455, 7209, 7614, 6595, 6381, 7641, 5739, 5502, 3718, 9470, 9356, 9910, 9573, 8684, 8385, 7074, 7327, 8178, 5080, 4521], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ハーフバースデー', 'keyword': 'half birthday'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '烟花爆竹', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3429, 3651, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2381, 0, 0, 0, 0, 0, 0, 883, 2070, 1854, 0, 1430, 606, 1628, 1137, 0, 669, 0, 1303, 1789, 3463, 4189, 622, 1747, 3649, 4543, 4647, 3451, 1510, 0, 0, 1060, 4365, 5081, 990, 726, 3944, 1363, 4169, 2379, 1067, 550, 875, 959, 5108, 4445, 1824, 2124, 2153, 3543, 4470, 1850, 1216, 0, 1674, 1530, 1497, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 425, 2062, 1775, 430, 504, 2961, 1467], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花火線香花火', 'keyword': 'fireworks sparklers'}, {'keywordCn': '新年快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2909, 3858, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1335, 12502, 1335, 0, 0, 0, 0, 0, 0, 0, 0, 544, 2691, 21548, 2102, 0, 0, 0, 0, 0, 0, 0, 0, 901, 4752, 33934, 2567, 0, 0, 0, 0, 0, 0, 0, 656, 693, 4342, 29754, 3238, 0, 0, 0, 0, 0, 0, 0, 0, 1518, 4173, 41644, 2248, 0, 0, 0, 0, 0, 0, 0, 0, 534, 2589, 31156, 1577, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year backdrop'}, {'keywordCn': '烟花', 'searches': [54209, 52578, 59024, 74090, 95258, 138552, 111810, 75498, 68733, 66767, 35476, 50734, 41675, 45675, 50368, 64148, 72519, 105659, 84207, 66168, 69550, 57170, 39023, 45675, 42611, 41179, 36990, 51792, 59769, 74915, 67716, 45325, 45954, 44126, 29326, 47587, 37511, 31617, 28155, 20099, 44105, 146414, 99790, 41586, 42553, 34956, 34115, 66264, 34204, 33209, 36376, 42432, 55320, 123679, 99922, 44289, 49520, 47514, 38023, 66634, 38621, 34376, 37833, 40588, 60122, 136828, 69733, 49109, 50878, 47039, 27464, 51587, 35138, 28116, 25738, 29431, 38506, 63560, 39669, 50871, 59694, 48385, 36533, 61366, 37615, 41438, 45677, 54336, 63562, 83970, 66801, 53902, 63670, 62718, 35279, 65057, 40871, 37723, 42964, 48202, 57223, 89988, 75599, 50311, 52168, 49144, 32281], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '線香花火', 'keyword': 'sparklers'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'supplies 7x5ft'}, {'keywordCn': '除夕横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12089, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 806, 8669, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12095, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7536, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9394, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10954, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 802, 8123, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13782, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 259], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日バナー', 'keyword': 'new years eve banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '北极圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 602, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 559, 1791, 597, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3472, 12019, 5895, 0, 0, 0, 0, 0, 0, 0, 0, 956, 3217, 11413, 2889, 0, 0, 0, 0, 0, 0, 0, 0, 888, 2749, 14687, 6336, 0, 0, 0, 0, 0, 0, 0, 455, 578, 3631, 17075], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極のクリスマスデコレーション', 'keyword': 'north pole christmas decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 612, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 969], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'north pole christmas backdrop'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'north pole christmas background'}, {'keywordCn': '北极装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9887, 6729, 0, 9350, 0, 0, 0, 0, 0, 0, 0, 2149, 7277, 5375, 0, 0, 0, 0, 0, 0, 0, 0, 7371, 1645, 6633, 3959, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2303, 9509, 5749, 0, 0, 0, 0, 0, 0, 0, 0, 643, 1313, 4066, 2388, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2082, 7156, 4979, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1283, 4438, 2157, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1277, 5268], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極の装飾', 'keyword': 'north pole decorations'}, {'keywordCn': '北极背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 886, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2262, 1614, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2509, 1634, 0, 0, 0, 0, 0, 0, 0, 0, 0, 784, 2796, 1664, 0, 0, 0, 0, 0, 0, 0, 0, 0, 704, 3124, 2245, 0, 0, 0, 0, 0, 0, 0, 0, 805, 2099, 6669, 3894, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1699, 6949, 4696, 0, 0, 0, 0, 0, 0, 0, 0, 208, 1944, 8388], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '北極の背景', 'keyword': 'north pole backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 403, 0, 0, 0, 0, 0, 0, 0, 0, 4154, 22021], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years eve party supplies 2026'}, {'keywordCn': '新年前夕的聚会用品', 'searches': [21792, 0, 0, 0, 0, 0, 0, 0, 14509, 27792, 83092, 626351, 20961, 0, 0, 0, 0, 0, 0, 7589, 13266, 22050, 59243, 479089, 21666, 0, 3246, 4001, 1796, 1810, 1548, 6047, 7057, 8597, 16283, 178936, 13486, 0, 0, 0, 0, 704, 0, 805, 2786, 4433, 9246, 249163, 8151, 889, 1149, 971, 2361, 3340, 4678, 4464, 5626, 6950, 18640, 250731, 12335, 847, 2328, 1670, 1986, 2856, 4217, 5219, 3311, 4221, 15301, 257435, 10772, 590, 100, 0, 327, 1223, 2515, 2765, 1887, 2030, 36872, 374559, 5854, 0, 685, 0, 140, 992, 2303, 2272, 1338, 1764, 5076, 131577, 4329, 0, 0, 0, 0, 0, 676, 1696, 4434, 13733, 54383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ニューイヤーズ・イヴ・パーティ用品', 'keyword': 'new years eve party supplies'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3431, 8373, 2241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'life of a showgirl merch'}, {'keywordCn': '泰勒斯威夫特生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 714, 0, 815, 0, 608, 594, 553, 0, 591, 736, 605, 2537, 2271, 1944, 1897, 1673, 1126, 824, 883, 2417, 2782, 3595, 2591, 5214, 4443, 6935, 9645, 14402, 14957, 16054, 40689, 49126, 51679, 56662, 55202, 194257, 206353, 228802, 241136, 212293, 206218, 179851, 174697, 153450, 80891, 52604, 37376, 77051, 79297, 70209, 53797, 47005, 38684, 37757, 36390, 37561, 22805, 16176], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'テイラースウィフトバースデーデコレーション', 'keyword': 'taylor swift birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9004, 69180, 168563, 43066], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'life of a showgirl'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10968, 9926, 3774], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'life of a showgirl party decorations'}, {'keywordCn': '歌女', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2566, 2943, 1738, 1405, 0, 0, 2552, 1550, 0, 0, 0, 0, 0, 1342, 1499, 1461, 1516, 1824, 1848, 1665, 1500, 1902, 1644, 1135, 749, 860, 776, 0, 589, 0, 0, 530, 628, 0, 604, 0, 0, 0, 0, 100, 812, 0, 0, 0, 552, 751, 510, 0, 789, 730, 513, 507, 1300, 1438, 472, 0, 476, 0, 100, 0, 849, 977, 1125, 1168, 1605, 1705, 1435, 930, 682, 1138, 586, 403, 630, 654, 0, 522, 1288, 4356, 5456, 2322, 2480, 1412, 1406, 5224, 40410, 28156, 2766], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ショーガール', 'keyword': 'showgirl'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '奇怪的东西装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2630, 0, 0, 0, 0, 0, 5197, 8606, 0, 0, 0, 0, 0, 0, 0, 4418, 9045, 8637, 12945, 14794, 4268, 2635, 2842, 2760, 3122, 785, 1508, 1406, 1871, 2636, 3879, 4484, 2250, 979, 1985, 1077, 1658, 1149, 766, 856, 546, 1765, 2883, 3782, 1272, 617, 838, 914, 844, 627, 5634, 14686, 17663, 19727, 24919, 33216, 5787, 2647, 4722, 3139, 1719, 1529, 1359, 1272, 1789, 2716, 5098, 8617, 1664, 0, 1127, 0, 665, 440, 866, 1129, 1259, 2139, 5110, 8483, 1361, 388, 1203, 828, 438, 781, 479, 2273, 2931, 3101, 8197, 25791, 48553], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '見知らぬものの装飾', 'keyword': 'stranger things decorations'}, {'keywordCn': '陌生人的东西生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 775, 0, 0, 0, 498, 0, 0, 0, 679, 0, 909, 822, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 1122, 1398, 1465, 2216, 7906, 13985, 14994, 13271, 8443, 5308, 4800, 7898, 5147, 2404, 2211, 1749, 1850, 1801, 3291, 3602, 3902, 3786, 2901, 8843, 6451, 6571, 8442, 6984, 6609, 7204, 7197, 8121, 2848, 2115, 1703, 5520, 5069, 5417, 3455, 3027, 3874, 4754, 4621, 8593, 8505, 20130], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '見知らぬものの誕生日の装飾', 'keyword': 'stranger things birthday decorations'}, {'keywordCn': '陌生人事物派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2801, 2784, 2823, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1558, 5702, 6041, 7435, 4029, 2416, 0, 1558, 0, 795, 676, 676, 886, 1555, 2432, 2021, 1850, 2052, 1148, 2181, 1640, 2150, 2113, 1550, 1184, 1457, 1929, 1598, 1480, 1126, 645, 816, 1274, 1705, 1805, 4654, 12803, 15508, 22423, 15417, 11851, 6970, 4859, 8592, 5077, 2893, 2462, 2531, 2386, 2205, 3023, 7361, 4610, 2286, 1914, 1848, 1181, 0, 1651, 1365, 1321, 1814, 2615, 2295, 1646, 1149, 455, 1304, 1056, 475, 1528, 538, 1786, 1771, 1708, 2848, 3862, 12137], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '見知らぬものパーティーの装飾', 'keyword': 'stranger things party decorations'}, {'keywordCn': '陌生事物派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1253, 1591, 5689, 9050, 8157, 8040, 6232, 4036, 2377, 3843, 3773, 2914, 1600, 0, 2028, 2267, 0, 2825, 2149, 1904, 1615, 2367, 2080, 2666, 3052, 2480, 2251, 3053, 2892, 2202, 1919, 1560, 759, 1337, 1177, 968, 1639, 6253, 14651, 14903, 16247, 13352, 8172, 4768, 2644, 5018, 3482, 2489, 1812, 1597, 1420, 1409, 2483, 2436, 2011, 1238, 412, 1381, 920, 507, 707, 394, 310, 861, 628, 608, 777, 0, 1, 1315, 374, 295, 161, 140, 888, 1507, 1549, 1988, 4122, 15076], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ストレンジャー・シングス・パーティー', 'keyword': 'stranger things party'}, {'keywordCn': '陌生人事物派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12993, 13146, 2892, 3265, 3855, 3389, 4033, 7371, 9173, 8044, 0, 0, 0, 0, 3508, 3448, 4781, 12183, 26751, 35671, 48699, 46811, 23290, 11579, 31827, 35670, 26572, 14014, 12099, 13073, 14793, 13405, 15909, 13594, 7339, 4280, 10609, 12229, 11049, 9854, 12228, 11866, 13192, 9549, 9463, 6479, 4179, 2499, 5184, 7012, 5580, 6962, 28756, 70445, 92835, 124660, 153747, 95621, 39312, 13080, 21180, 14939, 7054, 5598, 4606, 5063, 4671, 5757, 5236, 2287, 2042, 690, 2663, 2499, 1777, 1384, 804, 1182, 1305, 1465, 1559, 1210, 976, 140, 2011, 1093, 1628, 996, 1960, 2611, 3163, 3971, 4361, 6514, 19606], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '見知らぬものパーティー用品', 'keyword': 'stranger things party supplies'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'keywordCn': '农历新年的装饰品', 'searches': [12083, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 18917, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 40303, 14202, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3720, 35870, 1862, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3119, 37525, 25645, 0, 0, 0, 0, 0, 0, 0, 0, 650, 2743, 26013, 7373, 0, 0, 0, 0, 0, 0, 442, 563, 686, 5898, 34266, 1423, 0, 0, 0, 0, 0, 0, 0, 1091, 2809, 12858, 51549, 23198, 0, 0, 0, 0, 0, 0, 0, 557, 2126, 12223, 73931, 2376, 0, 0, 0, 0, 0, 0, 0, 140, 1681], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '旧正月のデコレーション', 'keyword': 'lunar new year decorations'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas tree pattern backdrop'}, {'keywordCn': '复古横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 965, 0, 0, 0, 1, 0, 0, 0, 0, 0, 772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ヴィンテージバナー', 'keyword': 'vintage banner'}, {'keywordCn': '带地板的摄影圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1857, 2904, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 669, 702, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 532, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 685, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '床と写真撮影のためのクリスマスの背景', 'keyword': 'christmas backdrops for photography with floor'}, {'keywordCn': '圣诞照片背景与地板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2180, 722, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1792, 1324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1458], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '床とクリスマスの写真の背景', 'keyword': 'christmas photo backdrop with floor'}, {'keywordCn': '与地板的圣诞节背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1251, 1419, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 797, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1665, 689, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1101, 2709, 2030, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1770, 1363, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1556], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '床とクリスマスの背景', 'keyword': 'christmas backdrop with floor'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年前夕的聚会装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年会の飾り付け', 'keyword': 'new year eve party decorations'}, {'keywordCn': '新年前夕的聚会用品', 'searches': [21792, 0, 0, 0, 0, 0, 0, 0, 14509, 27792, 83092, 626351, 20961, 0, 0, 0, 0, 0, 0, 7589, 13266, 22050, 59243, 479089, 21666, 0, 3246, 4001, 1796, 1810, 1548, 6047, 7057, 8597, 16283, 178936, 13486, 0, 0, 0, 0, 704, 0, 805, 2786, 4433, 9246, 249163, 8151, 889, 1149, 971, 2361, 3340, 4678, 4464, 5626, 6950, 18640, 250731, 12335, 847, 2328, 1670, 1986, 2856, 4217, 5219, 3311, 4221, 15301, 257435, 10772, 590, 100, 0, 327, 1223, 2515, 2765, 1887, 2030, 36872, 374559, 5854, 0, 685, 0, 140, 992, 2303, 2272, 1338, 1764, 5076, 131577, 4329, 0, 0, 0, 0, 0, 676, 1696, 4434, 13733, 54383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ニューイヤーズ・イヴ・パーティ用品', 'keyword': 'new years eve party supplies'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 442, 635, 1981, 9168], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 new years decorations'}, {'keywordCn': '新年快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22113, 0, 0, 0, 0, 0, 0, 0, 0, 4617, 7401, 13892, 43241, 0, 0, 0, 0, 0, 1996, 2041, 2499, 2347, 3323, 4358, 12374, 1885, 0, 0, 0, 0, 541, 505, 565, 1168, 971, 2144, 18937, 3159, 0, 0, 0, 0, 642, 1226, 1396, 798, 1205, 2493, 28550, 3387, 0, 0, 0, 0, 642, 873, 1658, 1512, 1121, 4233, 39518, 4298, 0, 0, 0, 0, 0, 0, 1781, 1219, 1518, 2710, 30628, 3452, 0, 0, 0, 0, 515, 349, 992, 2044, 2413, 7345, 86117, 6008, 0, 0, 0, 0, 0, 0, 633, 1502, 2103, 9760], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうございます', 'keyword': 'happy new year decorations'}, {'keywordCn': '新年花环', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2615, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2794, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3257, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4040, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4233, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4384, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の花輪', 'keyword': 'new years garland'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞快乐花环', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8561, 3435, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7592, 5501, 0, 0, 0, 0, 0, 0, 0, 0, 845, 2523, 12910, 7924, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2238, 14178, 8311, 0, 0, 0, 0, 0, 0, 1, 0, 570, 2314, 12772, 7352, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3107, 18279, 8449, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1963, 17467, 8427, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1489, 17647], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスガーランド', 'keyword': 'merry christmas garland'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'merry friendsmas lets get lit banner'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2190, 887, 0, 0, 0, 0, 0, 0, 0, 0, 0, 791, 1901, 1226, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1343, 610, 0, 0, 0, 0, 0, 0, 0, 0, 0, 758, 2795, 2061, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1932, 1759, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1992], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banners'}, {'keywordCn': '圣诞横幅花环', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1779, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3803, 2118, 0, 0, 0, 0, 0, 0, 0, 0, 0, 414, 1397, 732, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1269, 650, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1991, 908, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 3157, 1385, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4398], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナーガーランド', 'keyword': 'christmas banner garland'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1655, 955, 13818, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3849, 34533, 2278, 0, 0, 0, 936, 0, 0, 0, 721, 1219, 3726, 45995, 1893, 0, 0, 0, 0, 0, 0, 0, 0, 1267, 5578, 43416, 2177, 0, 0, 0, 0, 0, 0, 467, 0, 684, 4098, 43973, 2695, 0, 0, 0, 0, 0, 0, 0, 0, 1958, 5001, 53445, 1814, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 3718, 48597, 1599, 0, 0, 0, 0, 0, 0, 0, 140, 140, 3604], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new years backdrop'}, {'keywordCn': '新年快乐霓虹灯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 701, 2600, 0, 0, 0, 0, 0, 0, 0, 0, 0, 762, 1514, 4692, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 821, 5553, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 616], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうネオンサイン', 'keyword': 'happy new year neon sign'}, {'keywordCn': '奈背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 765, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7030, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5617, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 683, 7073, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 572, 8324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13068, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9764, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ナイの背景', 'keyword': 'nye backdrop'}, {'keywordCn': '发光派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1762, 4878, 6045, 963, 0, 4613, 3091, 3724, 1319, 1972, 846, 1356, 4513, 6107, 5264, 4829, 3527, 2644, 4583, 4114, 0, 678, 527, 775, 1476, 2737, 3208, 2331, 1262, 1360, 1975, 2795, 3174, 3852, 2671, 2750, 2972, 3884, 4634, 3521, 2386, 3569, 4820, 4815, 4855, 5583, 4072, 3961, 4523, 6498, 7554, 5421, 3796, 8336, 8117, 9267, 9649, 8229, 7559, 7534, 11810, 11251, 18151, 14929, 6462, 11305, 11250, 13116, 18071, 20974, 12741, 11309, 12019, 14551, 15709, 8674, 6207, 14762, 13285, 11605, 21529, 22083, 11581, 9328, 9444, 12088, 9492, 5688], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グローパーティーの装飾', 'keyword': 'glow party decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞背景 8x6', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 777, 906, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1018, 1642, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3718, 4423, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1708, 2987, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1605], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの背景8x6', 'keyword': 'christmas backdrop 8x6'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas wreath photo booth'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'christmas background backdrop 8x6'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '哦，两个人', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 860, 1870, 1569, 1397, 1604, 0, 0, 3104, 3658, 2064, 716, 0, 2434, 2637, 0, 2170, 1480, 1929, 1561, 3065, 2663, 2573, 2247, 2239, 1952, 2196, 2039, 2066, 2024, 1812, 1524, 2301, 2443, 2063, 2791, 2526, 2636, 2720, 2354, 1653, 1469, 1209, 582, 3342, 2762, 2982, 2662, 2778, 2827, 2650, 3592, 3768, 2887, 2276, 2161, 4364, 4098, 2852, 2846, 3146, 2892, 3205, 3553, 2798, 2377, 2425, 2062, 5707, 4681, 3350, 2988, 3360, 3619, 2988, 3446, 3936, 2142, 1908], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ああ二人組', 'keyword': 'oh twodles'}, {'keywordCn': 'oh twodles 生日派对用品女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 4056, 4013, 3670, 4180, 4930, 4732, 5562, 7205, 8859, 9038, 8014, 6949, 13196, 12787, 11401, 11878, 10366, 11371, 9257, 10674, 9868, 8902, 7581, 7837, 15673, 14306, 13877, 11797, 11745, 11208, 11215, 16964, 14090, 3364, 4854, 6077, 26194, 23869, 20293, 21877, 19037, 21073, 22185, 24078, 22913, 21209, 15293, 13337, 32090, 24702, 22602, 21079, 21613, 22176, 21559, 23462, 17895, 15188, 13998], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ああ二人の誕生日パーティー用品の女の子', 'keyword': 'oh twodles birthday party supplies girl'}, {'keywordCn': 'oh toodles 生日装饰女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 821, 884, 0, 2316, 2596, 2228, 2453, 1936, 2234, 2396, 2839, 2443, 2053, 1389, 1430, 3011, 2970, 2889, 2129, 2366, 2649, 2538, 2531, 2265, 1912, 1910], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'オー・トゥードルズ・バースデー・デコレーションズ・ガール', 'keyword': 'oh toodles birthday decorations girl'}, {'keywordCn': 'oh twodles 生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3625, 2782, 2321, 4458, 4866, 5091, 6267, 3915, 3328, 4342, 3441, 3952, 4359, 4189, 3220, 8839, 7001, 6614, 4009, 2980, 2596, 2665, 3441, 8434, 6345, 6834], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日の飾り付け', 'keyword': 'oh twodles birthday decorations'}, {'keywordCn': '女孩的 2 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2627, 3230, 0, 909, 0, 0, 0, 0, 0, 1448, 5085, 2536, 2245, 1999, 3692, 5676, 7119, 7498, 8210, 6059, 5252, 5089, 11923, 9986, 12306, 9735, 11543, 11299, 12506, 12416, 11703, 9531, 7368, 7578, 14656, 12251, 11241, 9364, 11289, 11129, 11103, 10790, 9149, 7951, 6783, 6099, 13619, 11745, 10009, 9799, 6118, 9369, 9443, 15866, 11211, 3787, 8365, 9126, 21781, 16182, 17421, 17973, 15801, 18281, 18410, 18283, 17949, 14548, 11760, 9748, 24056, 21065, 19451, 17232, 18188, 17966, 18268, 17198, 15141, 12323, 9221], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための2歳の誕生日の装飾', 'keyword': '2nd birthday decorations for girl'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'buffalo plaid christmas decorations happy holidays banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'diyasy red black buffalo plaid christmas banners'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'red black buffalo plaid christmas banners'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13658, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2622, 14767, 9459, 0, 0, 0, 0, 0, 0, 0, 0, 2139, 4969, 13721, 9574, 0, 0, 0, 0, 0, 0, 534, 1255, 3750, 9077, 27705, 13250, 0, 0, 0, 0, 0, 0, 620, 1308, 2620, 6832, 21173, 13398, 0, 0, 0, 0, 0, 0, 537, 616, 1591, 5225, 17181, 11838, 0, 0, 0, 0, 0, 0, 431, 1146, 2929, 6179, 24674, 12731, 0, 0, 0, 0, 0, 0, 0, 577, 1826, 5322, 23438, 14936, 0, 0, 0, 0, 0, 0, 1, 435, 2000, 5207, 25530], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banners'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年照片背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7078, 0, 0, 0, 0, 0, 0, 0, 0, 0, 537, 807, 5758, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 530, 5348, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 586, 5299, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1175, 5452, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 473, 5217, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の写真の背景', 'keyword': 'new years photo backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1504, 2230, 4744, 17413], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 506, 1403, 3124, 4475, 7828, 35337], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years decorations 2026'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 419, 2377, 4565, 4250, 3543, 2699, 2988, 921, 2757, 5075, 4172, 5129, 4773, 4125, 2914, 2422, 2004], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'whats funnier than 24 25 spongebob birthday decorations'}, {'keywordCn': '男士 25 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1515, 0, 0, 1422, 0, 0, 0, 0, 2134, 2386, 2385, 4623, 5800, 6473, 6106, 6236, 5824, 5047, 3929, 2980, 5467, 6168, 6011, 5204, 5051, 5156, 5746, 5424, 6263, 4957, 4097, 3686, 5815, 5968, 6303, 5411, 5150, 5331, 5585, 6165, 5490, 4662, 4109, 3104, 6396, 5984, 6158, 5960, 5116, 5203, 5582, 6886, 7182, 3501, 5793, 5290, 13297, 11728, 11927, 8746, 6616, 6561, 7773, 8095, 8946, 6528, 6751, 6163, 15918, 14030, 15170, 13689, 11074, 12307, 11514, 11689, 17215, 5455, 5115], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '男性のための25歳の誕生日の装飾', 'keyword': '25th birthday decorations for men'}, {'keywordCn': '25岁生日', 'searches': [13518, 0, 14045, 0, 2758, 13540, 14272, 14340, 14010, 3241, 0, 0, 12935, 3562, 0, 0, 0, 0, 0, 12113, 12004, 9665, 7091, 2714, 4813, 0, 8056, 7472, 7145, 8015, 8510, 9109, 8559, 8776, 5660, 4346, 8223, 7835, 5935, 5331, 5919, 5782, 4850, 6051, 7154, 6016, 4709, 3542, 7294, 6537, 8096, 7171, 6364, 6383, 6748, 6695, 6819, 5457, 4759, 3559, 5921, 5857, 5906, 5677, 5559, 5542, 5129, 5421, 4759, 4441, 3462, 3090, 5749, 5486, 5331, 4898, 5099, 5513, 5064, 6988, 8056, 5366, 3802, 3544, 6937, 5380, 6194, 5958, 5903, 5505, 5461, 5767, 5874, 4247, 2999, 2520, 7510, 6201, 6802, 5871, 5767, 6184, 7334, 8089, 15939, 5133, 3945], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '25歳の誕生日', 'keyword': '25th birthday'}, {'keywordCn': '25 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15563, 16096, 14574, 13746, 14142, 12569, 13815, 15618, 15958, 14293, 10886, 8545, 19209, 16718, 12011, 9976, 9274, 9680, 11867, 12178, 14267, 11043, 11390, 7739, 14112, 14158, 11017, 4584, 3683, 3915, 3510, 4431, 5384, 4328, 4530, 3036, 5553, 5437, 4763, 4773, 4403, 4117, 4813, 4206, 4360, 3030, 3089, 1918, 4470, 4185, 3851, 2895, 2855, 2469, 3264, 2893, 3375, 2116, 1998, 1465, 3808, 3670, 3992, 3598, 4114, 4683, 3907, 5278, 9194, 19935, 7200, 3588, 8500, 7421, 14866, 28076, 28064, 27731, 26891, 29747, 33491, 23119, 6549, 2753, 7197, 5689, 5624, 5811, 6548, 7609, 6860, 7798, 23082, 10651, 8382], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '25歳の誕生日の飾り', 'keyword': '25th birthday decorations'}, {'keywordCn': '海绵宝宝的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1784, 1545, 0, 1660, 2090, 0, 2207, 2892, 2563, 3881, 7566, 7254, 9682, 10100, 12727, 14894, 12610, 11645, 10554, 6502, 6900, 6129, 9607, 9500, 16469, 15249, 17232, 15627, 15193, 21117, 31422, 21866, 16890, 10140, 18320, 20953, 13049, 12770, 14049, 18288, 15753, 27977, 18625, 14550, 11833, 12927, 67078, 66130, 71211, 75870, 72568, 77406, 71750, 77492, 75329, 52142, 33641, 21323, 45862, 61125, 67329, 65665, 66154, 69109, 67269, 61139, 63564, 46909, 41110], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポンジボブの誕生日の飾り', 'keyword': 'spongebob birthday decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '姜饼背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2048, 1154, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2309, 2173, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3278, 3801, 2805, 0, 0, 0, 0, 0, 0, 0, 0, 0, 915, 4776, 4002, 0, 0, 0, 0, 0, 0, 0, 0, 549, 1491, 5738, 4764, 0, 0, 0, 0, 0, 0, 0, 0, 1265, 3320, 15644, 9073, 0, 0, 0, 0, 0, 0, 140, 368, 1325, 3897, 17541, 14313, 0, 0, 0, 0, 0, 0, 0, 140, 779, 3914, 23527], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジンジャーブレッドの背景', 'keyword': 'gingerbread backdrop'}, {'keywordCn': '圣诞节生日横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 617, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 791, 632, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1262, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1141, 1855, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 671, 1852, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 767], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの誕生日バナー', 'keyword': 'christmas birthday banner'}, {'keywordCn': '糖果乐园圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 709, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 644, 572, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2464, 1354, 0, 0, 0, 0, 0, 0, 0, 0, 0, 486, 2572, 1447, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2546], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンディランドのクリスマスの背景', 'keyword': 'candyland christmas backdrop'}, {'keywordCn': '粉红色的圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 628, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 747, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1686, 510, 0, 0, 0, 0, 0, 0, 0, 0, 0, 865, 3217, 1836, 0, 0, 0, 0, 0, 0, 0, 0, 0, 619, 3470, 2525, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3508], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのクリスマスバナー', 'keyword': 'pink christmas banner'}, {'keywordCn': '粉红色的圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1148, 893, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2476, 2410, 0, 0, 0, 0, 0, 0, 0, 0, 0, 643, 3887, 3172, 0, 0, 0, 0, 0, 0, 0, 0, 973, 3428, 11431, 8052, 0, 0, 0, 0, 0, 0, 0, 0, 688, 2361, 12659, 12873, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2275, 13761], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのクリスマスの背景', 'keyword': 'pink christmas backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 990], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new years backdrop 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 493], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'new year back drop 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 467, 5967], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'nye decorations 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 backdrop'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1203], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year 2026 banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '一个婴儿正在酝酿婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 804, 3676, 3268, 3365, 2151, 2474, 2233, 0, 0, 2355, 1624, 1952, 0, 0, 863, 1131, 0, 2924, 2683, 899, 0, 1262, 1404, 1450, 1877, 2313, 2267, 3171, 5397, 12213, 12232, 1415, 1045, 2464, 2766, 2694, 2304, 3621, 3789, 5014, 9837, 15015, 12728, 1340, 673, 2986, 2267, 2695, 2649, 2540, 2811, 4057, 9111, 10760, 1143, 1143, 775, 3275, 2970, 1892, 2655, 2515, 3113, 4504, 12127, 18601, 12777, 1413, 1446, 3558, 2580, 2874, 2704, 3172, 4727, 8011, 14189, 18524, 13929, 4684], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃんがベビーシャワーの装飾を醸造しています', 'keyword': 'a baby is brewing baby shower decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1148, 3147, 5402, 6836, 9157, 7980, 3869], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'baby is brewing baby shower decor'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 541, 456, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'a baby is brewing sign'}, {'keywordCn': '一个婴儿正在酿造横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 599, 671, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2229, 3523, 0, 0, 0, 0, 0, 0, 0, 0, 594, 680, 2363, 2487, 0, 0, 0, 0, 0, 0, 0, 0, 0, 902, 2123, 2454, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1259, 1341, 0, 0, 0, 0, 0, 0, 0, 0, 0, 474, 974, 1399, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃんがバナーを醸造しています', 'keyword': 'a baby is brewing banner'}, {'keywordCn': '一个婴儿正在酝酿', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1625, 0, 871, 2413, 1905, 0, 1460, 0, 0, 0, 0, 1366, 1701, 1662, 0, 958, 1253, 656, 1331, 2312, 2729, 652, 0, 1985, 2200, 2705, 2994, 2419, 2650, 3100, 4354, 8732, 9206, 1315, 767, 1829, 2191, 2265, 1951, 2549, 2103, 3276, 5899, 9927, 7996, 888, 565, 1506, 1422, 1686, 1507, 1465, 1827, 2580, 5080, 11205, 7307, 876, 0, 1846, 1411, 971, 1494, 1326, 1347, 2014, 3909, 7303, 5695, 605, 140, 2057, 1766, 1811, 1496, 1550, 2125, 2546, 4064, 7729, 5583, 2081], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃんが醸造しています', 'keyword': 'a baby is brewing'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 828, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1358, 5234, 5594, 0, 0, 0, 0, 0, 0, 0, 0, 1498, 2157, 4984, 7803, 509, 0, 0, 676, 532, 892, 1206, 699, 0, 2739, 6379, 7921, 0, 617, 0, 0, 0, 614, 671, 868, 715, 1876, 5620, 6416, 496, 0, 0, 0, 0, 328, 100, 1746, 2674, 4481, 18464, 25603, 950, 0, 0, 0, 0, 1050, 1513, 1414, 2599, 3139, 19170, 26465, 1153, 0, 0, 0, 0, 595, 140, 0, 564, 1549, 7195], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスの誕生日の飾り', 'keyword': 'christmas birthday decorations'}, {'keywordCn': '生日快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2012, 4713, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1791, 2998, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1263, 2825, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2509, 3643, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1597, 3678, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 2133], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとうバナー', 'keyword': 'merry birthday banner'}, {'keywordCn': '生日快乐', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1955, 3613, 0, 0, 0, 0, 0, 0, 656, 0, 0, 579, 2386, 4542, 0, 0, 0, 0, 0, 0, 390, 0, 0, 0, 2421, 4654, 0, 0, 0, 0, 0, 0, 575, 0, 0, 963, 3087, 4385, 0, 0, 0, 0, 0, 0, 140, 0, 0, 140, 3517, 8557, 1443, 0, 0, 0, 0, 0, 140, 0, 0, 0, 3442], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとう', 'keyword': 'merry birthday'}, {'keywordCn': '生日快乐装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2719, 5309, 0, 0, 0, 0, 0, 0, 677, 0, 0, 860, 4406, 7846, 0, 0, 0, 0, 0, 635, 664, 0, 0, 608, 4561, 6598, 0, 0, 0, 0, 0, 0, 212, 0, 0, 1392, 5140, 9659, 0, 0, 0, 0, 0, 0, 140, 0, 0, 674, 6122, 13058, 0, 0, 0, 0, 0, 0, 363, 0, 0, 440, 6626], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリーバースデーデコレーション', 'keyword': 'merry birthday decorations'}, {'keywordCn': '生日圣诞装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 538, 934, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 694, 1528, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 929, 1280, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1878, 2854, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1527, 2411, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1431], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日のクリスマスの飾り', 'keyword': 'birthday christmas decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '圣诞快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 20758, 78525, 51322, 0, 0, 0, 0, 0, 0, 0, 5282, 9717, 24063, 98043, 61035, 0, 0, 0, 991, 0, 2235, 1454, 5111, 10743, 29071, 136268, 109748, 2731, 0, 0, 899, 732, 796, 3851, 5901, 13644, 32862, 172211, 116748, 3858, 1225, 0, 975, 1388, 2215, 4686, 6018, 13373, 35640, 157729, 141127, 3461, 824, 638, 0, 627, 1551, 3128, 4608, 9197, 25950, 156787, 140887, 3826, 860, 0, 558, 730, 957, 1860, 3640, 5934, 25555, 127658, 131505, 2236, 0, 0, 0, 652, 1189, 2449, 3282, 8247, 24755, 93205, 136033, 1844, 0, 0, 0, 0, 508, 2262, 3195, 6816, 19441, 97624], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスバナー', 'keyword': 'merry christmas banner'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13658, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2622, 14767, 9459, 0, 0, 0, 0, 0, 0, 0, 0, 2139, 4969, 13721, 9574, 0, 0, 0, 0, 0, 0, 534, 1255, 3750, 9077, 27705, 13250, 0, 0, 0, 0, 0, 0, 620, 1308, 2620, 6832, 21173, 13398, 0, 0, 0, 0, 0, 0, 537, 616, 1591, 5225, 17181, 11838, 0, 0, 0, 0, 0, 0, 431, 1146, 2929, 6179, 24674, 12731, 0, 0, 0, 0, 0, 0, 0, 577, 1826, 5322, 23438, 14936, 0, 0, 0, 0, 0, 0, 1, 435, 2000, 5207, 25530], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banners'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 16964, 67498, 34393, 0, 0, 0, 0, 0, 0, 0, 5297, 9128, 21507, 91451, 43004, 0, 0, 0, 1345, 0, 2328, 4639, 5364, 9094, 24449, 112743, 75995, 1531, 0, 911, 0, 1884, 1657, 3777, 5188, 13190, 30172, 141935, 66873, 2193, 0, 0, 608, 911, 2346, 5165, 5983, 12210, 28561, 125710, 65224, 1763, 686, 0, 0, 646, 1393, 3163, 4458, 8220, 18486, 87408, 54919, 1459, 0, 433, 0, 280, 1165, 2210, 3572, 7311, 22729, 86557, 63969, 1097, 0, 0, 0, 425, 1509, 2951, 3889, 7789, 19314, 73350, 68826, 1459, 0, 0, 0, 681, 818, 2483, 3869, 7438, 18389, 80968], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'christmas banner'}, {'keywordCn': '圣诞快乐背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1527, 3346, 2880, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2988, 5943, 0, 0, 0, 0, 0, 0, 0, 0, 1605, 1412, 5376, 9521, 0, 0, 0, 0, 0, 0, 0, 566, 732, 2435, 13719, 27773, 0, 0, 0, 0, 0, 0, 0, 737, 942, 2946, 14194, 24447, 730, 0, 0, 0, 0, 0, 100, 804, 1785, 3930, 21011, 42957, 0, 0, 0, 0, 0, 0, 0, 568, 949, 2636, 17142, 44707, 0, 0, 0, 0, 0, 0, 0, 0, 680, 2529, 18799], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メリークリスマスの背景', 'keyword': 'merry christmas backdrop'}, {'keywordCn': '圣诞横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1092, 624, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 668, 694, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 338, 631, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1911, 1483, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1314, 1678, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2126], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クリスマスバナー', 'keyword': 'xmas banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1334], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'feliz año nuevo 2026'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'feliz año nuevo 2026 banner'}, {'keywordCn': '新年背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3096, 14187, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2400, 17948, 2321, 0, 0, 0, 0, 0, 0, 0, 0, 590, 3198, 20796, 2201, 872, 0, 0, 0, 0, 0, 0, 0, 768, 3675, 24606, 2116, 0, 0, 0, 0, 0, 0, 0, 0, 403, 2648, 22237, 2604, 0, 0, 0, 0, 0, 0, 0, 0, 822, 3532, 33868, 2107, 0, 0, 0, 0, 0, 0, 0, 0, 600, 2577, 35796, 1940, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2367], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年の背景', 'keyword': 'new year backdrop'}, {'keywordCn': '费利斯阿诺新', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1142, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 516, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2757, 0, 0, 1656, 1646, 0, 0, 0, 0, 0, 0, 0, 2646, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'felizañonuevo', 'keyword': 'feliz año nuevo'}, {'keywordCn': '新装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2480, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 576, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1367, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1517, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3720, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5656, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 501], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'デコレーションデアニョヌエボ', 'keyword': 'decoracion de año nuevo'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '费利斯纳维达旗帜', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2569, 2619, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4019, 5912, 0, 0, 0, 0, 0, 0, 0, 0, 0, 525, 4967, 5520, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1589, 6175, 7927, 0, 0, 0, 0, 0, 0, 0, 0, 639, 909, 6614, 9920, 476, 0, 0, 0, 0, 0, 0, 0, 0, 1702, 9474, 16539, 0, 0, 0, 0, 0, 0, 0, 0, 0, 853, 7321, 16299, 0, 0, 0, 0, 0, 0, 0, 0, 309, 1261, 11241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'feliznavidadバナー', 'keyword': 'feliz navidad banner'}, {'keywordCn': '费利斯纳维达装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 643, 1610, 1265, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1462, 1324, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2245, 2012, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1237, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1752], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスnavidadの装飾', 'keyword': 'feliz navidad decor'}, {'keywordCn': '费利斯纳维达装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13129, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3590, 14919, 14335, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2773, 12356, 15062, 0, 0, 0, 0, 0, 0, 0, 0, 1420, 2751, 11833, 13862, 0, 0, 0, 0, 0, 0, 489, 545, 0, 3049, 15816, 17645, 497, 0, 0, 0, 0, 0, 426, 498, 732, 4436, 18146, 21092, 803, 0, 0, 0, 0, 0, 0, 0, 1162, 3404, 24328, 27679, 0, 0, 0, 0, 0, 0, 0, 0, 1096, 2973, 18404, 28273, 0, 0, 0, 0, 0, 0, 0, 0, 392, 2568, 16037], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスナヴィダードデコレーション', 'keyword': 'feliz navidad decorations'}, {'keywordCn': '费利斯纳维达标志', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2245, 1853, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2233, 2320, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1663, 2152, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2970, 3208, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1911, 2453, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1619], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フェリスnavidadサイン', 'keyword': 'feliz navidad sign'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years banner spanish'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years decorations 2026 pink'}, {'keywordCn': '粉红色的新年装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 529, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 744, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1091, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクの新年の装飾', 'keyword': 'pink new years decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy new year banner 2026'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pink new years'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日快乐耶稣派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1374, 9495, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3764, 9298, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 729, 3091, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2473, 7192, 0, 0, 0, 0, 0, 0, 0, 0, 0, 668, 6609, 11181, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8046, 17051, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1391, 5703, 13954, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 3525], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとうイエスパーティー用品', 'keyword': 'happy birthday jesus party supplies'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'jesus love you backdrop'}, {'keywordCn': '生日快乐耶稣横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2038, 2998, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2115, 3078, 0, 0, 0, 0, 0, 0, 0, 0, 0, 713, 3336, 4539, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3016, 4745, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4007, 4205, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2910, 5443, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3346], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとうイエスバナー', 'keyword': 'happy birthday jesus banner'}, {'keywordCn': '耶稣生日快乐背景墙', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 367, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1096, 1750, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 576, 1132, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 686], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ハッピーバースデージーザスバックドロップ', 'keyword': 'happy birthday jesus backdrop'}, {'keywordCn': '生日快乐耶稣装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1692, 0, 0, 0, 0, 0, 0, 0, 0, 0, 928, 4308, 4187, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 796, 469, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1060, 1582, 1466, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1646, 1936, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3212], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとうイエスの装飾', 'keyword': 'happy birthday jesus decorations'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'new years eve backdrop 2026'}, {'keywordCn': '除夕背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3446, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1827, 13392, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2085, 15126, 0, 0, 0, 0, 0, 0, 0, 0, 0, 730, 1938, 14492, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2164, 15123, 0, 0, 0, 0, 0, 0, 0, 0, 0, 482, 1262, 15254, 684, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1693, 15182, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1264, 18531, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1271], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日の背景', 'keyword': 'new years eve backdrop'}, {'keywordCn': '奈', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8929, 0, 0, 0, 0, 0, 0, 0, 0, 0, 637, 847, 7772, 0, 9156, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11732, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13584, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14905, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 17621, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 937, 17443, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 22002, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 254], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ナイ', 'keyword': 'nye'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 339], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': '2026 backdrop'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬日仙境的圣诞背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1488, 926, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1252, 1257, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1509], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウィンターワンダーランドクリスマスバックグラウンド', 'keyword': 'winter wonderland christmas backdrop'}, {'keywordCn': '冬日仙境的背景', 'searches': [2761, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3697, 3141, 3689, 0, 0, 0, 0, 0, 0, 0, 4229, 9800, 19281, 15188, 7190, 2058, 0, 1218, 1657, 2994, 4699, 4960, 7684, 12640, 25395, 19687, 12654, 4958, 862, 0, 619, 784, 1780, 1941, 3919, 8203, 18635, 14684, 7144, 2418, 1322, 914, 1193, 1419, 2640, 3047, 5103, 11820, 30778, 24275, 10069, 3260, 981, 537, 778, 929, 836, 2779, 5005, 11724, 32084, 25161, 13259, 3795, 767, 504, 516, 1332, 1739, 3175, 5186, 16485, 59662, 45583, 16024, 2587, 0, 0, 140, 625, 1607, 2538, 5739, 15766, 44667, 43844, 13327, 1829, 0, 0, 0, 140, 140, 1520, 4689, 12250, 41964], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドの背景', 'keyword': 'winter wonderland backdrop'}, {'keywordCn': '冬季仙境回落', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 419, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 674, 662, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1092, 1402, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1471, 1218, 140, 0, 0, 0, 0, 0, 0, 0, 0, 140, 1743], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドのバックドロップ', 'keyword': 'winter wonderland back drop'}, {'keywordCn': '雪背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2884, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3264, 8496, 3384, 2397, 0, 0, 0, 0, 0, 0, 1708, 2484, 3455, 7548, 5888, 3145, 1436, 710, 0, 0, 656, 531, 0, 1372, 2505, 5523, 5141, 2103, 0, 0, 0, 0, 622, 0, 706, 1566, 2339, 7057, 5717, 2394, 711, 0, 0, 0, 0, 0, 0, 996, 2454, 6117, 5345, 2146, 480, 0, 0, 0, 0, 0, 911, 1489, 3091, 8739, 6296, 2642, 0, 0, 0, 0, 0, 140, 401, 715, 2505, 7299, 6577, 2013, 431, 0, 0, 0, 140, 1, 0, 639, 2312, 7572], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '雪の背景', 'keyword': 'snow backdrop'}, {'keywordCn': '假日照相亭背景', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3506, 3413, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1932, 3061, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 921, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 804, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1908, 2035, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 488, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1189], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '休日の写真ブースの背景', 'keyword': 'holiday photo booth backdrop'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年快乐横幅银', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2019, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2287, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3164, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2063, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナーシルバー', 'keyword': 'happy new year banner silver'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10910, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1193, 13181, 871, 0, 0, 0, 0, 0, 0, 0, 0, 653, 1572, 14896, 1489, 0, 0, 0, 0, 0, 0, 0, 446, 602, 1264, 15693, 1832, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1744, 19890, 0, 0, 0, 0, 0, 0, 0, 0, 0, 325, 1187, 21952, 918, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1472], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new year banner'}, {'keywordCn': '新年横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11502, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9769, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14273, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 798, 14781, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1137, 16775, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 17196, 1441, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1547, 25712, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086, 27571, 607, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '新年のバナー', 'keyword': 'new years banner'}, {'keywordCn': '除夕横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12089, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 806, 8669, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12095, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7536, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9394, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10954, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 802, 8123, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13782, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 259], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '大晦日バナー', 'keyword': 'new years eve banner'}, {'keywordCn': '新年快乐横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 45097, 0, 0, 0, 0, 0, 0, 0, 0, 0, 805, 7426, 38607, 3317, 0, 0, 0, 0, 0, 0, 0, 1939, 2695, 5818, 68296, 6188, 0, 0, 0, 0, 0, 0, 687, 1341, 2620, 7170, 74387, 5653, 1701, 0, 584, 637, 561, 534, 1133, 1334, 3052, 8942, 84721, 7645, 0, 768, 593, 0, 0, 438, 784, 1718, 3454, 9559, 96316, 9282, 439, 0, 0, 0, 0, 0, 1662, 1299, 2731, 9817, 121765, 7922, 0, 367, 0, 0, 0, 140, 818, 1747, 2375, 8768, 114011, 10011, 0, 0, 0, 0, 0, 0, 804, 1964, 2596, 9749], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '明けましておめでとうバナー', 'keyword': 'happy new year banner'}], 'success': True}</t>
-  </si>
-  <si>
-    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '新年快乐的横幅', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 668, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1640, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ハッピー・ニュー・イヤー・バナー', 'keyword': 'feliz año nuevo banner'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'spanish happy new year 2026 banner'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1334], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'feliz año nuevo 2026'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1870], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'decoracion de año nuevo 2026'}, {'keywordCn': '新装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2480, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 576, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1367, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1517, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3720, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5656, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 501], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'デコレーションデアニョヌエボ', 'keyword': 'decoracion de año nuevo'}], 'success': True}</t>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12692, 41460, 38643, 31597], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'demon hunters birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6497, 34898, 60266, 41496, 35935], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4167, 66370, 128807, 122755, 91381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'k pop demon hunters party decorations'}, {'keywordCn': '通用', 'searches': [39166, 53099, 38778, 36529, 34141, 37782, 37245, 32679, 37964, 24223, 22482, 20574, 25425, 19924, 26527, 22506, 24735, 23540, 23441, 24216, 18877, 25115, 15795, 15233, 19157, 19761, 9211, 8656, 8961, 7464, 5186, 5297, 5739, 5083, 5264, 5069, 5597, 4699, 2741, 3674, 3833, 25048, 31741, 56507, 59023, 52071, 31205, 33884, 43530, 48467, 55267, 78027, 70846, 76964, 80625, 109489, 112389, 124958, 138363, 146621, 205380, 227799, 230667, 223836, 320797, 389929, 356806, 558900, 594571, 563092, 467701, 465099, 572136, 615103, 144782, 169165, 191301, 133528, 87047, 136546, 131220, 114437, 91359, 105920, 112902, 123983, 139048, 133907, 151877, 128352, 99589, 118601, 125864, 123015, 114150, 96839, 112168, 116691, 121577, 113868, 121548, 111018, 98819, 114590, 111589, 94639, 90524], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジェネリック', 'keyword': 'generic'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 23911, 149373, 335139, 279847, 218405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '蝴蝶装饰品', 'searches': [12709, 16449, 20161, 17887, 16804, 15753, 17603, 16935, 16291, 14995, 0, 0, 14849, 18710, 22127, 28027, 23293, 18769, 20560, 21315, 17205, 15793, 12883, 10652, 17972, 24270, 14873, 16276, 17152, 15249, 15360, 15508, 16171, 14614, 13248, 11112, 21840, 35329, 29594, 19963, 21326, 21907, 12740, 19376, 20935, 21320, 15525, 12559, 15817, 19071, 28674, 40228, 39580, 29835, 16735, 29676, 25714, 22135, 16872, 13714, 27025, 35928, 44357, 42142, 40769, 33029, 29988, 37946, 33288, 25991, 15519, 13822, 27391, 27316, 21808, 29883, 33879, 59365, 61962, 100314, 96864, 57273, 44614, 38990, 58220, 97443, 112162, 136908, 129403, 90408, 80620, 87207, 79643, 53266, 34860, 34943, 64362, 82037, 91458, 92070, 95864, 68986, 60616, 59078, 56405, 46789, 29367], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '蝶のデコレーション', 'keyword': 'butterfly decorations'}, {'keywordCn': '女孩生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8324, 8830, 8068, 6996, 5094, 14233, 11825, 11387, 12286, 11271, 12195, 13099, 12903, 13150, 9996, 7956, 4626, 12808, 10351, 9452, 12698, 14856, 15160, 15396, 14044, 15187, 12164, 10008, 7885, 13891, 13947, 14732, 14420, 16449, 12565, 14157, 14148, 14986, 10745, 10870, 7656, 10071, 6612, 5915, 5539, 4672, 4787, 4449, 5100, 5133, 3738, 3365, 2210, 5704, 4867, 3846, 3438, 8476, 8201, 7662, 11399, 13604, 11683, 8943, 7193, 17845, 15383, 17085, 17683, 15708, 16381, 18161, 17702, 18848, 15193, 11711, 7721, 19043, 18748, 20018, 17427, 17364, 16434, 18336, 17307, 19971, 14467, 13292], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子の誕生日の装飾', 'keyword': 'girl birthday decorations'}, {'keywordCn': '女孩的生日装饰品', 'searches': [0, 11901, 12178, 0, 6042, 5718, 12691, 15206, 13654, 13836, 0, 0, 16372, 16137, 15724, 15445, 14093, 0, 18184, 15364, 13300, 13325, 12483, 7564, 4500, 16479, 16855, 19419, 21557, 21590, 22909, 26750, 27608, 23547, 17530, 12480, 20350, 33347, 30346, 63942, 53658, 33185, 49411, 35214, 36512, 31906, 27103, 20850, 38532, 43587, 43498, 43055, 46954, 38379, 40898, 31873, 40295, 32544, 26497, 18336, 38755, 38081, 35009, 32788, 33137, 28459, 26327, 29412, 29146, 24370, 20810, 14822, 33070, 30806, 17782, 16980, 30137, 17833, 16133, 30482, 25823, 18153, 24013, 19001, 33688, 31469, 34344, 34026, 33411, 32196, 33807, 34981, 39719, 29250, 22144, 16848, 31152, 29986, 28973, 28790, 28551, 27451, 28097, 30742, 33803, 26464, 25057], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための誕生日の装飾', 'keyword': 'birthday decorations for girls'}, {'keywordCn': '女孩生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 9110, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2803, 0, 0, 0, 0, 3459, 0, 0, 0, 1595, 0, 0, 0, 1361, 0, 0, 0, 4034, 3160, 3190, 2655, 4031, 0, 988, 1510, 2513, 2564, 857, 1700, 3313, 4271, 5116, 4689, 5557, 6267, 12334, 12226, 12676, 8896, 8393, 7775, 14570, 13940, 13183, 11033, 10123, 11206, 11219, 10535, 9950, 8881, 8797, 6503, 14113, 12545, 9680, 9104, 3804, 6366, 7322, 11504, 12067, 10503, 8596, 6541, 17322, 14425, 13329, 13500, 11204, 12159, 12451, 13267, 13183, 10066, 7206, 5685, 15827, 14464, 12961, 12623, 11149, 11344, 12994, 13278, 11762, 8497, 6942], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子の誕生日パーティーの装飾', 'keyword': 'girls birthday party decorations'}, {'keywordCn': '蝴蝶生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2273, 3991, 1696, 3241, 3142, 3009, 4582, 3341, 2869, 1955, 4847, 4807, 5935, 4353, 7081, 11167, 13767, 14886, 13836, 11573, 8408, 5941, 14004, 15895, 20073, 20729, 21648, 17504, 21347, 11956, 17761, 13361, 14135, 9097, 19859, 22627, 28107, 30136, 27997, 26021, 20535, 25580, 27048, 17634, 14959, 11812, 25296, 22659, 22413, 23209, 32616, 21304, 18849, 37127, 35416, 28610, 24094, 18440, 62155, 45095, 43579, 48078, 42417, 46314, 48175, 53304, 46335, 26963, 23071, 15610, 36876, 37221, 35250, 36722, 35310, 32920, 35752, 35005, 38601, 26161, 20974], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '蝶の誕生日の装飾', 'keyword': 'butterfly birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日装饰品', 'searches': [172906, 173696, 176403, 160782, 157213, 170157, 185858, 203833, 224930, 204461, 142612, 89163, 246234, 239314, 217272, 249612, 211489, 198932, 210521, 229602, 275851, 231425, 167288, 91540, 269916, 295000, 249775, 241525, 203725, 205618, 198277, 228163, 270236, 220331, 157956, 86296, 185499, 197544, 50914, 111193, 388005, 219576, 158270, 316672, 348549, 255406, 179917, 143675, 331213, 314721, 334256, 344536, 280052, 252745, 306096, 302420, 316801, 265266, 196756, 133406, 270241, 287124, 300449, 289390, 272854, 258921, 221508, 279798, 305565, 262959, 194584, 168781, 366500, 366718, 212450, 322089, 457793, 200743, 181847, 213068, 247553, 193385, 181482, 147995, 223175, 217885, 253357, 274588, 248644, 244436, 242020, 283812, 304451, 211477, 146471, 130985, 239926, 251591, 245657, 248241, 229460, 240201, 250025, 291889, 323284, 254296, 213689], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデーデコレーション', 'keyword': 'birthday decorations'}, {'keywordCn': '超级碗派对装饰品', 'searches': [13963, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3701, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 49725, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4666, 261145, 12090, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2428, 30473, 21597, 0, 0, 0, 0, 0, 0, 0, 0, 688, 947, 14857, 33826, 0, 0, 0, 0, 0, 0, 535, 822, 792, 1879, 27824, 73102, 0, 0, 0, 0, 0, 0, 952, 1754, 880, 3039, 19152, 30305, 0, 0, 0, 0, 0, 0, 1316, 1389, 1491, 6397, 85899, 31886, 0, 0, 0, 0, 0, 760, 2131, 2565, 2040], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーボール・パーティー・デコレーション', 'keyword': 'superbowl party decorations'}, {'keywordCn': '足球派对装饰品', 'searches': [15584, 0, 0, 0, 0, 0, 0, 14476, 0, 0, 0, 0, 20007, 0, 0, 0, 0, 0, 0, 24170, 22620, 14676, 6813, 0, 27586, 2328, 3227, 4100, 4564, 3019, 6000, 21535, 31664, 38323, 22700, 12292, 73340, 10446, 7331, 3825, 5954, 7080, 6952, 9762, 19547, 13938, 9619, 5110, 47622, 64451, 6905, 7204, 7854, 8091, 9647, 21199, 35742, 35876, 20497, 9380, 65910, 161106, 13039, 12326, 12861, 12647, 13060, 40980, 61286, 42424, 28405, 12822, 69534, 149472, 11912, 12091, 11981, 12153, 13743, 52376, 76233, 42110, 41663, 19486, 152996, 230667, 22143, 23835, 20697, 22349, 26663, 69203, 117834, 81320, 39565, 20263, 129532, 200728, 21097, 18509, 18310, 17520, 25958, 76985, 117277, 86764, 52773], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フットボール・パーティー・デコレーション', 'keyword': 'football party decorations'}, {'keywordCn': '足球', 'searches': [289268, 258336, 220429, 219955, 201232, 198098, 202619, 272358, 386090, 429907, 479892, 493143, 260290, 226990, 217813, 188193, 194302, 209242, 193760, 205217, 365079, 366188, 424551, 461640, 193394, 178144, 230618, 215054, 203030, 281654, 226072, 312037, 568136, 568282, 667894, 663941, 577614, 409821, 188968, 198452, 183832, 168260, 148872, 167798, 500825, 423271, 426324, 461574, 402054, 211504, 192457, 186527, 191957, 165306, 161894, 300530, 698253, 584605, 605720, 618354, 569744, 337225, 260224, 275852, 249348, 225740, 208796, 304797, 719196, 722206, 666419, 588585, 589093, 347930, 215648, 213465, 217808, 188065, 172298, 316718, 1350436, 943842, 847890, 803235, 623346, 317900, 319028, 259885, 268360, 231660, 222588, 348252, 894832, 757518, 724478, 651760, 360247, 204038, 194760, 187656, 180657, 164172, 142144, 203019, 332263, 323622, 463927], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フットボール', 'keyword': 'football'}, {'keywordCn': '新年前夕的聚会用品', 'searches': [21792, 0, 0, 0, 0, 0, 0, 0, 14509, 27792, 83092, 626351, 20961, 0, 0, 0, 0, 0, 0, 7589, 13266, 22050, 59243, 479089, 21666, 0, 3246, 4001, 1796, 1810, 1548, 6047, 7057, 8597, 16283, 178936, 13486, 0, 0, 0, 0, 704, 0, 805, 2786, 4433, 9246, 249163, 8151, 889, 1149, 971, 2361, 3340, 4678, 4464, 5626, 6950, 18640, 250731, 12335, 847, 2328, 1670, 1986, 2856, 4217, 5219, 3311, 4221, 15301, 257435, 10772, 590, 100, 0, 327, 1223, 2515, 2765, 1887, 2030, 36872, 374559, 5854, 0, 685, 0, 140, 992, 2303, 2272, 1338, 1764, 5076, 131577, 4329, 0, 0, 0, 0, 0, 676, 1696, 4434, 13733, 54383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ニューイヤーズ・イヴ・パーティ用品', 'keyword': 'new years eve party supplies'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '非常开心', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1473, 1615, 1683, 2873, 3495, 1887, 1607, 3142, 2909, 1713, 1543, 1588, 0, 0, 0, 0, 0, 1722, 0, 787, 846, 820, 1169, 1760, 16470, 36952, 28869, 16148, 14564, 11992, 11553, 9286, 6039, 5641, 5774, 5484, 4502, 4998, 4416, 3875, 4135, 3749, 3678, 3013, 2905, 2558, 2451, 2980, 2239, 2714, 2469, 3479, 2665, 3460, 3656, 3012, 2962, 2696, 3344, 3368, 2886, 2503, 2471, 3595, 3779, 3316, 3003, 3077, 3180, 2924, 3035, 3009, 2960, 2819, 2061, 3644, 3648, 5023, 4083, 3071, 4079, 12769, 14124, 6125, 4184, 2767], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '月を越えて', 'keyword': 'over the moon'}, {'keywordCn': '婴儿沐浴盘', 'searches': [19049, 17552, 16568, 15863, 16234, 13796, 15622, 15000, 15664, 13822, 0, 0, 18075, 22046, 16418, 19605, 17379, 15744, 16544, 16049, 18004, 14933, 12220, 7101, 23633, 23940, 15348, 15342, 15564, 18493, 17093, 17188, 19205, 18852, 14908, 8840, 21303, 23994, 17583, 2920, 6195, 12089, 12412, 13436, 12215, 9843, 6131, 4712, 10860, 13387, 13650, 15767, 15002, 13803, 14925, 14015, 14523, 11459, 8256, 6027, 13210, 14193, 15818, 13886, 13576, 12590, 12695, 13853, 12589, 11695, 8166, 5854, 15663, 15356, 12644, 11334, 10129, 9909, 9614, 16753, 18178, 14867, 9083, 6067, 21792, 20981, 20580, 21846, 17148, 16276, 15692, 14887, 17146, 14139, 9354, 6689, 20773, 19681, 19598, 18703, 18388, 15667, 14752, 15300, 16017, 13572, 8206], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワープレート', 'keyword': 'baby shower plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1705, 607, 681, 501, 681, 648, 979, 848, 464, 625, 385, 1496, 923, 631, 683, 536, 641, 631, 0, 0, 554, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'twinkle little star baby shower decor'}, {'keywordCn': '月亮上的婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1551, 0, 1123, 0, 0, 0, 0, 0, 0, 740, 0, 0, 704, 1072, 1170, 1674, 2015, 1721, 2469, 2243, 2427, 1858, 2236, 1961, 4243, 4356, 4353, 4204, 4182, 4537, 4313, 4037, 4076, 3615, 3249, 3351, 8569, 7029, 6111, 6243, 5636, 5498, 5634, 7869, 5846, 1751, 2422, 4535, 15175, 12848, 12115, 12076, 9103, 8709, 9983, 9896, 9647, 7384, 4603, 4593, 14106, 10816, 9368, 7925, 6874, 6553, 6607, 6738, 5892, 4843, 3466], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '月の上のベビーシャワーの装飾', 'keyword': 'over the moon baby shower decorations'}, {'keywordCn': '婴儿淋浴盘和餐巾', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 3165, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2094, 1310, 0, 1391, 0, 2149, 1108, 2170, 2096, 0, 1455, 0, 1562, 0, 0, 2365, 3428, 2390, 0, 805, 1393, 1275, 1671, 2011, 1797, 2120, 899, 1870, 2612, 2815, 3090, 3006, 2262, 2351, 1997, 2609, 2389, 2470, 1653, 3937, 3305, 4013, 3460, 3430, 2599, 2957, 3334, 2766, 1442, 900, 647, 1645, 2481, 3367, 3176, 2956, 2522, 2499, 3201, 3373, 2639, 2189, 1603, 4442, 4141, 3371, 3730, 3384, 3119, 3047, 2987, 3283, 2976, 2133, 1750, 5798, 4248, 4970, 4061, 5107, 5255, 4147, 4246, 6871, 7215, 5403], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワープレートとナプキン', 'keyword': 'baby shower plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '宝宝外面很冷', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11907, 16150, 14697, 3882, 0, 0, 0, 0, 0, 0, 0, 0, 3563, 3519, 2121, 1166, 0, 0, 0, 0, 0, 0, 0, 910, 616, 736, 0, 0, 0, 0, 0, 0, 0, 0, 0, 983, 3042, 3341, 1440, 1115, 0, 0, 0, 0, 0, 0, 809, 1475, 2193, 4518, 2272, 2314, 0, 0, 0, 0, 0, 100, 1817, 3740, 12966, 31188, 24960, 18976, 1025, 0, 0, 0, 1166, 2199, 5560, 10066, 17132, 23569, 22537, 16989, 1506, 0, 0, 0, 375, 2148, 4848, 12998, 20445, 28653], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーの外でその冷たい赤ちゃん', 'keyword': 'baby its cold outside baby shower'}, {'keywordCn': '婴儿淋浴盘和餐巾', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 3165, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2094, 1310, 0, 1391, 0, 2149, 1108, 2170, 2096, 0, 1455, 0, 1562, 0, 0, 2365, 3428, 2390, 0, 805, 1393, 1275, 1671, 2011, 1797, 2120, 899, 1870, 2612, 2815, 3090, 3006, 2262, 2351, 1997, 2609, 2389, 2470, 1653, 3937, 3305, 4013, 3460, 3430, 2599, 2957, 3334, 2766, 1442, 900, 647, 1645, 2481, 3367, 3176, 2956, 2522, 2499, 3201, 3373, 2639, 2189, 1603, 4442, 4141, 3371, 3730, 3384, 3119, 3047, 2987, 3283, 2976, 2133, 1750, 5798, 4248, 4970, 4061, 5107, 5255, 4147, 4246, 6871, 7215, 5403], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワープレートとナプキン', 'keyword': 'baby shower plates and napkins'}, {'keywordCn': 'baby its cold outside baby shower boy', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 997, 685, 0, 0, 0, 0, 0, 0, 0, 528, 3684, 6990, 7710, 5412, 3585, 0, 0, 0, 0, 0, 0, 0, 0, 0, 333], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃん、外は寒い (男孩の洗礼会)', 'keyword': 'baby its cold outside baby shower boy'}, {'keywordCn': '婴儿外面很冷，婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1423, 4801, 9945, 18611, 14927, 14360, 1582, 0, 0, 0, 0, 0, 0, 4291, 7894, 12289, 8581, 8374, 1438, 0, 0, 0, 0, 592, 1837, 4939, 9544, 15344, 13085, 10147, 1171, 0, 0, 0, 0, 635, 2249, 5538, 11832, 16663, 14013, 11132, 721, 0, 0, 0, 0, 434, 3764, 6209, 1629, 1490, 0, 0, 0, 0, 0, 0, 0, 0, 0, 644, 543, 1371, 665, 671, 0, 0, 0, 0, 0, 0, 2199, 4538, 8744, 12970], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃんの冷たい外のベビーシャワーの装飾', 'keyword': 'baby its cold outside baby shower decorations'}, {'keywordCn': '宝贝，外面的婴儿洗澡很冷', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1532, 2023, 1534, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 519, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 939, 1487, 697, 563, 0, 0, 0, 0, 0, 0, 0, 0, 808, 1648, 479, 751, 0, 0, 0, 0, 0, 0, 0, 1165, 2346, 3098, 2746, 2414, 0, 0, 0, 0, 0, 0, 0, 1458, 2134, 2980, 2518, 1828, 0, 0, 0, 0, 0, 0, 0, 338, 1888, 2426], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤ちゃんそれはベビーシャワーの外で寒いです', 'keyword': "baby it's cold outside baby shower"}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '鼠尾草绿色盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 743, 1219, 2060, 2733, 2274, 3003, 2803, 3362, 2356, 1942, 1466, 3386, 3412, 2957, 4151, 4587, 3693, 2975, 3358, 2553, 2620, 2223, 1863, 3879, 3936, 3890, 4311, 4546, 4244, 3860, 4156, 4093, 3694, 3106, 2294, 5109, 5579, 6662, 8407, 7314, 5853, 5856, 5754, 5721, 4456, 3165, 2313, 7264, 7736, 8504, 9832, 9442, 7093, 7696, 7087, 7919, 5508, 4434], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セージグリーンプレート', 'keyword': 'sage green plates'}, {'keywordCn': '绿色纸盘', 'searches': [0, 3308, 10820, 4691, 9526, 4142, 0, 0, 4650, 0, 0, 0, 4485, 0, 10812, 9988, 9948, 5460, 7708, 6277, 6151, 5820, 5730, 5051, 5722, 6392, 9959, 8432, 8824, 7378, 7073, 7342, 7400, 7028, 6473, 6072, 7824, 9475, 13173, 2403, 4150, 3560, 3673, 4908, 4818, 4491, 4584, 3672, 4292, 5123, 6710, 6426, 7532, 7084, 7546, 6705, 6757, 6098, 5928, 6135, 5596, 8335, 8842, 9166, 10693, 8701, 7160, 8118, 8395, 6513, 6851, 7008, 8059, 11872, 12664, 8504, 7545, 6563, 5899, 7363, 7715, 6299, 7503, 7453, 7488, 12696, 17861, 15142, 14422, 9844, 8443, 9549, 9111, 8181, 8385, 9371, 10691, 17657, 22550, 17509, 18184, 14155, 11219, 11927, 11967, 8795, 9241], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '緑の紙皿', 'keyword': 'green paper plates'}, {'keywordCn': '鼠尾草绿色生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1393, 1766, 2058, 1585, 1686, 2174, 2561, 2482, 1826, 2002, 1377, 3466, 3528, 4146, 4331, 5160, 3918, 3362, 4342, 4367, 3747, 3327, 2477, 6305, 5694, 5470, 5430, 3438, 4660, 5128, 6935, 5884, 4328, 4810, 4184, 9636, 8982, 13198, 11859, 11050, 9493, 11371, 13035, 15349, 9098, 7060, 4904, 14345, 12693, 14059, 14535, 12679, 9301, 11686, 14335, 14115, 8698, 7341], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セージグリーンの誕生日の飾り', 'keyword': 'sage green birthday decorations'}, {'keywordCn': '鼠尾草绿', 'searches': [0, 0, 3414, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3242, 3471, 3905, 3536, 0, 0, 0, 4089, 2737, 2579, 2270, 2243, 4601, 3470, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1302, 828, 897, 878, 1148, 1934, 1710, 1259, 9237, 15202, 31804, 32834, 33595, 22497, 15336, 16595, 19393, 20618, 15289, 11759, 14506, 15330, 16017, 15076, 14736, 12717, 12330, 12675, 14547, 15817, 14100, 11294, 13037, 13753, 14153, 12697, 8636, 7887, 6827, 7034, 7390, 9533, 9134, 7708, 9307, 10062, 8881, 8780, 9561, 9097, 7689, 7360, 8038, 7259, 7719, 6321, 8069, 9576, 8977, 8938, 9549, 8347, 8085, 6617, 8195, 8592, 7735, 5865, 8563], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セージグリーン', 'keyword': 'sage green'}, {'keywordCn': '绿板', 'searches': [4354, 4283, 9690, 4515, 4359, 3407, 4633, 4536, 4509, 0, 4092, 4013, 4013, 5420, 9443, 4735, 0, 0, 0, 5128, 4901, 5027, 5220, 3409, 6147, 4479, 7912, 5526, 6147, 4926, 4032, 4911, 5805, 5718, 4856, 4459, 5455, 6202, 9856, 1973, 3870, 4981, 4601, 4471, 4706, 4024, 4164, 4013, 4196, 6002, 7985, 6080, 7298, 6178, 6559, 6453, 6412, 5355, 5800, 5648, 5903, 8520, 6748, 8015, 9095, 7428, 6271, 6451, 6969, 5550, 6386, 5598, 7150, 11727, 11162, 6076, 6065, 5533, 5054, 6383, 6491, 5531, 6411, 5745, 6464, 11419, 16806, 13140, 11273, 8356, 8056, 7860, 8878, 7434, 7256, 7891, 9398, 15446, 19476, 14700, 13141, 10042, 10534, 9771, 13501, 11579, 13070], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'グリーンプレート', 'keyword': 'green plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '芭比娃娃时尚盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1352, 2310, 1484, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2066, 2100, 0, 0, 0, 0, 569, 533, 540, 556, 0, 1293, 1915, 2417, 881, 0, 695, 704, 759, 682, 658, 1307, 1135, 1440, 2890, 2729, 1139, 848, 995, 1189, 540, 627, 1395, 929, 808, 858, 1464, 1476, 2147, 1108, 575, 0, 306, 477, 1421, 1696, 2593, 2537, 4797, 4355, 1652, 1719, 857, 1799, 553, 643, 1320, 623, 1309, 1256, 3902, 5293, 655, 1473, 497, 600, 0, 229, 992, 599, 671, 1394, 2927], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービーファッションプレート', 'keyword': 'barbie fashion plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 3884, 5168, 5534], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday plates'}, {'keywordCn': '粉红色的盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 860, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 401, 0, 0, 0, 609, 0, 0, 0, 0, 0, 0, 0, 0, 389, 0, 0, 617, 906, 100, 1184, 687, 746, 1944, 3126, 6592, 1458, 815, 2013, 2035, 982, 1417, 956, 330, 665, 1097, 1530, 1365, 1611, 630, 2658, 3724, 2563, 2946, 4203, 3147, 2858, 4091, 5229, 3617, 2673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのプレートとナプキン', 'keyword': 'pink plates and napkins'}, {'keywordCn': '粉红色的生日盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1392, 0, 0, 0, 0, 0, 890, 1334, 0, 877, 1267, 0, 2079, 936, 669, 0, 1527, 2046, 2097, 2280, 2364, 2143, 2036, 1813, 2447, 1956, 1340, 945, 2292, 2673, 2957, 2716, 2552, 2637, 2457, 2318, 2820, 1920, 1373, 583, 2155, 1865, 2893, 2283, 2116, 2194, 2257, 3251, 2859, 2426, 2371, 1857, 3790, 4146, 2947, 3212, 2925, 2989, 2922, 3102, 3420, 2706, 2229, 1757, 3986, 4317, 4016, 3435, 3466, 3225, 3103, 3243, 3181, 2513, 2410], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのバースデープレート', 'keyword': 'pink birthday plates'}, {'keywordCn': '芭比娃娃盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1739, 0, 0, 621, 572, 2067, 0, 0, 1228, 1306, 2276, 2012, 1713, 2122, 1715, 0, 0, 0, 1517, 1455, 1709, 1374, 2015, 1666, 2049, 2276, 2024, 1811, 1276, 2841, 2466, 2400, 2751, 2910, 3272, 3632, 3569, 4201, 3366, 2992, 1957, 3542, 3042, 3090, 3136, 2942, 3149, 3083, 3706, 4370, 2285, 2205, 1442, 3391, 2872, 2720, 3132, 3413, 4384, 11499, 17685, 17701, 11875, 7149, 4697, 10762, 9319, 8529, 8096, 6924, 7437, 7346, 7040, 7195, 4679, 3326, 2276, 6607, 5358, 6279, 6221, 5442, 5295, 5026, 5171, 4920, 3317, 2540], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービープレート', 'keyword': 'barbie plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '花卉纸盘', 'searches': [3951, 6085, 14868, 18162, 17355, 0, 0, 0, 0, 0, 0, 0, 0, 13377, 17562, 26595, 19843, 14875, 14625, 13642, 11578, 8213, 2978, 2225, 8112, 16282, 11962, 13818, 13461, 9112, 8474, 8437, 7892, 5169, 4263, 3525, 9027, 11478, 8629, 3292, 4910, 5365, 5149, 5128, 4560, 3045, 1862, 816, 3629, 4938, 7825, 11028, 13046, 7700, 7789, 6952, 6507, 4878, 3220, 2651, 6440, 8302, 13324, 15473, 15025, 9941, 7147, 7150, 6286, 4771, 3598, 3113, 6932, 8412, 12511, 14235, 13490, 9198, 7938, 9510, 6841, 4319, 3496, 2824, 9310, 13550, 22189, 70717, 32564, 16331, 12780, 10006, 7392, 4165, 2963, 2410, 11614, 14352, 17289, 26633, 28410, 14021, 11756, 8782, 7125, 3590, 2539], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花柄の紙皿', 'keyword': 'floral paper plates'}, {'keywordCn': '花园派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13801, 14732, 12864, 0, 8165, 5053, 2805, 0, 0, 7531, 4722, 5158, 7270, 7581, 5750, 5574, 5169, 4267, 3111, 2699, 2425, 5581, 6605, 7205, 2885, 990, 1403, 1846, 2261, 3772, 3330, 1646, 1240, 3992, 5026, 6891, 9993, 9540, 7644, 7296, 5645, 4378, 2539, 1891, 1393, 4438, 5375, 7516, 9750, 11866, 9759, 6989, 6501, 4759, 2865, 1717, 1420, 5760, 8093, 9861, 12027, 9664, 11357, 8820, 12572, 5913, 3399, 2919, 2683, 11506, 16993, 25021, 35315, 31904, 23435, 18737, 16730, 9701, 3743, 2324, 2266, 9961, 15656, 23606, 33436, 30297, 16519, 13950, 10667, 7306, 3077, 1995], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ガーデンパーティーの装飾', 'keyword': 'garden party decorations'}, {'keywordCn': '花卉生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1835, 0, 0, 0, 0, 2624, 2232, 4720, 4863, 2817, 1105, 4917, 2695, 2289, 2075, 0, 0, 3045, 4073, 3583, 1697, 2697, 3123, 3024, 3433, 3069, 1875, 1314, 1430, 3440, 4120, 5419, 2252, 3900, 4250, 4325, 3805, 4008, 2328, 1803, 1219, 3613, 3920, 4190, 4966, 3989, 3312, 3380, 3483, 2760, 1986, 1277, 784, 2798, 2889, 3226, 3820, 4006, 3143, 2765, 3428, 3141, 2293, 2077, 1840, 4333, 4721, 6901, 7779, 6268, 5476, 5016, 5919, 4904, 3122, 2083, 1901, 6288, 6921, 11213, 12404, 9362, 8098, 7096, 6955, 6818, 3414, 2552], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花の誕生日の装飾', 'keyword': 'floral birthday decorations'}, {'keywordCn': '野花派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 502, 481, 916, 742, 763, 0, 0, 0, 0, 712, 1329, 3110, 3056, 3666, 3230, 2863, 2993, 2587, 1127, 677, 471, 3778, 4290, 4861, 5744, 4135, 5381, 6198, 6748, 3941, 2985, 1985, 1816, 6143, 5165, 7971, 15521, 18194, 19320, 19515, 17557, 13486, 4354, 1398, 1573, 5066, 5269, 8935, 20221, 28941, 23444, 22453, 20707, 13975, 7697, 4662], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '野花パーティーの装飾', 'keyword': 'wildflower party decorations'}, {'keywordCn': '花盘', 'searches': [3608, 4313, 4287, 4556, 3581, 4823, 4197, 3823, 3448, 2789, 0, 0, 3322, 4880, 4502, 5315, 0, 0, 0, 3370, 3700, 2067, 2014, 1593, 4347, 3261, 5265, 5643, 6007, 4788, 1381, 3693, 3328, 2701, 1546, 0, 3066, 3599, 3675, 1949, 3102, 2315, 2885, 2492, 2031, 1273, 979, 877, 2046, 2543, 4221, 5567, 6483, 4226, 4041, 4015, 3776, 2811, 2016, 1660, 4659, 4794, 5549, 7442, 7302, 3943, 3522, 3474, 2568, 1867, 1744, 1647, 4238, 5155, 5096, 5850, 6170, 4092, 3678, 4025, 3127, 2264, 1949, 1766, 4495, 5357, 8025, 10037, 9392, 6851, 4925, 4057, 2835, 2294, 1760, 1623, 6074, 6354, 8597, 13103, 12104, 5714, 4960, 3626, 3153, 2172, 2160], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フローラルプレート', 'keyword': 'floral plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬季装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 7720, 14401, 15794, 12973, 0, 0, 0, 0, 0, 0, 0, 0, 8409, 13116, 18770, 17212, 31608, 0, 0, 0, 0, 0, 0, 3815, 9688, 13517, 19601, 19044, 23717, 1284, 0, 0, 840, 851, 2459, 4799, 11688, 16120, 30158, 35289, 34630, 2618, 0, 771, 848, 1484, 3409, 7256, 13454, 15663, 35482, 45350, 51895, 2333, 671, 635, 0, 825, 4086, 8285, 12209, 15333, 29139, 42479, 52285, 2231, 595, 100, 100, 705, 2635, 7154, 16772, 24871, 42348, 59468, 65766, 2275, 0, 471, 662, 1323, 2973, 7307, 14335, 20624, 39683, 56211, 63228, 2213, 0, 0, 784, 998, 2930, 7457, 16300, 27889, 49336], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬の装飾', 'keyword': 'winter decor'}, {'keywordCn': '冷冻生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2203, 0, 0, 0, 0, 1412, 3003, 2928, 4022, 2936, 2335, 3256, 5849, 3210, 3250, 3063, 2552, 2271, 2335, 2142, 2737, 3067, 3076, 3156, 3803, 2862, 2929, 1812, 1690, 2026, 2409, 2668, 2688, 2175, 2393, 2724, 3987, 3609, 2320, 2153, 1627, 1482, 2557, 2540, 2219, 2372, 2009, 1419, 2204, 2106, 2582, 1980, 1948, 2482, 2837, 4262, 7434, 25841, 58400, 50576, 131734, 120214, 99743, 109452, 90547, 87831, 88844, 96248, 111349, 79816, 61431, 46887, 83650, 86409, 85778, 69177, 71978, 68815, 75116, 80212, 77143, 66309, 63646], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冷凍誕生日パーティーの装飾', 'keyword': 'frozen birthday party decorations'}, {'keywordCn': '艾尔莎生日派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1532, 5639, 7502, 23823, 20529, 20800, 21701, 19900, 20407, 20626, 19519, 21426, 13600, 13309, 8885, 22838, 25327, 23624, 21057, 22589, 21345, 22674, 21113, 20856, 14609, 14598], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'エルサ誕生日パーティーのデコレーション', 'keyword': 'elsa birthday party decorations'}, {'keywordCn': '冬日仙境的装饰品', 'searches': [33778, 0, 0, 0, 0, 0, 0, 0, 15806, 34427, 67074, 43124, 30823, 0, 0, 0, 0, 0, 0, 3956, 8662, 18896, 50504, 29691, 21284, 4176, 0, 0, 1786, 2857, 2954, 3709, 6916, 15009, 38975, 40758, 27198, 3158, 0, 0, 0, 894, 725, 2218, 9326, 21997, 53898, 35956, 14765, 5874, 2235, 1762, 997, 919, 1808, 3443, 8878, 14679, 89739, 72775, 19488, 3571, 1265, 676, 584, 784, 2413, 5911, 14970, 39611, 124454, 84604, 41322, 7996, 2204, 2027, 1803, 2422, 3332, 4613, 12406, 37146, 137142, 97318, 41719, 6949, 2647, 2250, 2339, 3560, 7424, 13082, 25237, 48840, 115571, 92937, 47846, 6437, 1662, 1818, 2644, 3619, 6181, 9321, 20190, 44317, 115859], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウィンターワンダーランドのデコレーション', 'keyword': 'winter wonderland decorations'}, {'keywordCn': '冬季派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6996, 13204, 9035, 5833, 0, 0, 0, 0, 0, 0, 2264, 3833, 5451, 9866, 8831, 7979, 3327, 1627, 0, 540, 616, 0, 1060, 2070, 3121, 5380, 4824, 4221, 1826, 0, 0, 707, 763, 929, 1373, 2188, 3898, 8429, 8267, 6228, 1495, 678, 0, 0, 0, 489, 1090, 1397, 3699, 8976, 9470, 6039, 1547, 0, 0, 0, 423, 569, 1577, 2340, 4132, 13270, 12618, 8742, 1878, 0, 0, 140, 0, 301, 736, 1777, 3124, 9774, 14835, 8991, 1841, 140, 0, 0, 0, 457, 503, 1479, 2610, 10048], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のパーティーの装飾', 'keyword': 'winter party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'fire truck table decorations'}, {'keywordCn': '消防车车牌和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 575, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '消防車のプレートとナプキン', 'keyword': 'fire truck plates and napkins'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'fire truck theme plates'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'rescue truck vehicle'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 565, 820, 637, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'two the rescue birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '粉红色的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 4037, 0, 0, 0, 0, 0, 0, 0, 0, 0, 9935, 11614, 10436, 9189, 6334, 5305, 12792, 9733, 11374, 10480, 11108, 9724, 11428, 11044, 11880, 12015, 9946, 6746, 14373, 13535, 9610, 11905, 14646, 15663, 15575, 15950, 16378, 14574, 12543, 9601, 16446, 17823, 15770, 16710, 16330, 15443, 16118, 13853, 15341, 14051, 13405, 9232, 16350, 17418, 23260, 22002, 21733, 19965, 21584, 25743, 25541, 18360, 14869, 14848, 32677, 31990, 29401, 28874, 10730, 18925, 22849, 46051, 54436, 44351, 45043, 39493, 89910, 70904, 70824, 73386, 63528, 65906, 67187, 74385, 82704, 61399, 46906, 37519, 70814, 65477, 64770, 66327, 65604, 65898, 65002, 69851, 77092, 60508, 55917], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクの誕生日の装飾', 'keyword': 'pink birthday decorations'}, {'keywordCn': '生日装饰品', 'searches': [172906, 173696, 176403, 160782, 157213, 170157, 185858, 203833, 224930, 204461, 142612, 89163, 246234, 239314, 217272, 249612, 211489, 198932, 210521, 229602, 275851, 231425, 167288, 91540, 269916, 295000, 249775, 241525, 203725, 205618, 198277, 228163, 270236, 220331, 157956, 86296, 185499, 197544, 50914, 111193, 388005, 219576, 158270, 316672, 348549, 255406, 179917, 143675, 331213, 314721, 334256, 344536, 280052, 252745, 306096, 302420, 316801, 265266, 196756, 133406, 270241, 287124, 300449, 289390, 272854, 258921, 221508, 279798, 305565, 262959, 194584, 168781, 366500, 366718, 212450, 322089, 457793, 200743, 181847, 213068, 247553, 193385, 181482, 147995, 223175, 217885, 253357, 274588, 248644, 244436, 242020, 283812, 304451, 211477, 146471, 130985, 239926, 251591, 245657, 248241, 229460, 240201, 250025, 291889, 323284, 254296, 213689], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデーデコレーション', 'keyword': 'birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1750, 2189, 1320, 1456, 1332, 2398, 3575, 6086, 8816, 7514, 8288, 10974, 30011, 26470, 24237, 21168, 18162, 19151, 20321, 23606, 24211, 16489, 16554], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 855, 140, 685, 0, 650, 1576, 2095, 2287, 2891, 5534, 6589, 23566, 29567, 30588, 22300, 24326, 26171, 27790, 26407, 31696, 24172, 21893], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'pink bow birthday decorations'}, {'keywordCn': '粉红色的派对装饰品', 'searches': [0, 14313, 13292, 0, 14343, 13714, 13871, 13245, 15540, 15362, 0, 0, 16818, 17653, 16138, 19212, 18211, 14799, 16258, 14950, 17045, 14978, 10956, 6689, 18675, 17841, 18685, 19216, 19703, 15934, 16722, 16760, 18876, 16263, 11949, 9142, 13020, 11542, 14373, 9309, 15182, 14610, 17462, 18457, 20806, 16721, 13436, 9087, 18271, 18658, 19561, 23249, 23592, 18238, 23439, 22098, 25768, 20028, 15211, 11861, 27727, 31166, 32664, 33426, 36771, 36683, 32431, 35218, 34637, 24007, 17054, 13568, 36363, 38567, 30511, 32673, 31025, 39095, 49477, 77748, 70296, 52121, 38279, 44790, 65818, 63374, 60448, 65323, 63076, 59602, 53572, 53513, 57865, 42679, 26469, 22707, 51765, 49569, 44526, 46653, 49984, 46177, 44875, 44710, 48162, 35372, 27781], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのパーティーの装飾', 'keyword': 'pink party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '米妮老鼠派对盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1766, 0, 0, 0, 2039, 1698, 0, 1657, 1743, 0, 0, 0, 1681, 0, 993, 0, 628, 639, 936, 986, 993, 857, 532, 0, 684, 925, 993, 1081, 808, 1221, 1527, 1323, 911, 882, 989, 683, 1870, 1445, 1782, 1153, 1265, 843, 1527, 1448, 1042, 742, 634, 343, 1808, 1921, 1464, 869, 502, 576, 589, 1298, 1174, 1108, 866, 0, 1130, 1165, 355, 591, 0, 0, 140, 485, 140, 784, 664, 140, 1921, 1468, 543, 1494, 1359, 1336, 1922, 1761, 1860, 1272, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスのパーティープレート', 'keyword': 'minnie mouse party plates'}, {'keywordCn': '米妮老鼠盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4673, 0, 0, 5485, 5546, 5517, 2087, 2039, 4901, 3105, 5193, 4944, 4225, 4594, 2461, 4870, 5599, 4538, 4312, 3954, 6435, 5740, 3747, 3021, 3182, 3966, 4058, 3933, 4197, 3623, 3466, 2759, 4341, 4292, 4492, 4197, 4338, 4441, 4855, 4664, 4617, 4640, 3914, 3531, 5217, 5401, 5197, 5234, 5335, 5286, 4520, 4801, 4726, 4449, 3838, 2788, 5364, 4990, 4721, 4457, 3907, 3998, 3851, 4473, 4300, 3937, 3923, 3138, 5780, 5565, 5394, 5704, 5082, 4455, 4853, 4892, 5308, 4898, 3856, 2775, 6096, 5448, 6252, 5747, 6669, 6803, 6955, 6862, 7203, 4896, 4148], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスプレート', 'keyword': 'minnie mouse plates'}, {'keywordCn': '波尔卡圆点板', 'searches': [4376, 4393, 3270, 3115, 0, 2817, 0, 0, 0, 2693, 0, 0, 0, 3018, 3121, 0, 0, 0, 0, 2390, 2377, 3135, 2531, 1489, 1910, 3586, 2762, 893, 2867, 2031, 2028, 1630, 1971, 1644, 0, 0, 1479, 1667, 1983, 499, 687, 0, 593, 662, 729, 567, 0, 0, 532, 0, 0, 0, 909, 794, 688, 701, 740, 623, 732, 100, 763, 487, 858, 790, 905, 0, 414, 547, 0, 0, 0, 334, 576, 617, 701, 889, 774, 643, 487, 893, 1181, 0, 0, 0, 0, 0, 450, 0, 667, 0, 0, 140, 0, 0, 522, 0, 886, 764, 444, 609, 918, 504, 550, 663, 955, 615, 468], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '水玉模様のプレート', 'keyword': 'polka dot plates'}, {'keywordCn': '粉色圆点板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1369, 0, 933, 0, 0, 0, 1508, 0, 0, 1368, 0, 0, 0, 0, 0, 0, 0, 0, 0, 803, 0, 0, 0, 498, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 507, 0, 0, 0, 0, 601, 0, 563, 0, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 583, 392, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 140, 370, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクの水玉模様のプレート', 'keyword': 'pink polka dot plates'}, {'keywordCn': '米妮老鼠盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2089, 0, 0, 0, 2016, 2154, 1507, 0, 0, 0, 0, 0, 0, 1733, 526, 727, 969, 1768, 1793, 1651, 850, 841, 0, 1166, 1285, 1696, 1721, 1674, 1612, 2274, 2208, 2017, 1544, 1044, 0, 863, 0, 0, 0, 552, 0, 0, 554, 483, 0, 0, 0, 586, 462, 0, 396, 2126, 1867, 1978, 2447, 2533, 2487, 2083, 1240, 3401, 2959, 2032, 2036, 1930, 1671, 1574, 1465, 1561, 2106, 1581, 1231, 2640, 2795, 2818, 2440, 2598, 2661, 2761, 2999, 2561, 1804, 1693], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスプレートとナプキン', 'keyword': 'minnie mouse plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '独角兽生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5894, 10859, 12308, 9278, 8281, 7559, 13550, 14308, 14192, 13845, 15083, 15810, 14714, 16367, 15735, 15686, 14986, 12359, 33753, 15551, 6711, 6978, 14321, 16773, 19263, 16107, 17692, 15867, 14255, 13271, 20241, 20395, 21744, 23814, 25270, 16296, 18210, 31393, 26796, 14558, 11565, 7957, 14755, 14164, 14724, 14291, 14023, 12748, 12497, 14437, 12585, 9629, 7891, 5503, 11518, 9439, 6833, 9209, 7459, 9581, 9405, 13871, 19599, 33294, 50391, 34083, 132485, 127350, 114913, 122221, 130719, 114025, 117648, 124672, 124815, 81529, 58151, 36407, 78402, 93922, 98012, 92637, 93739, 90315, 89023, 86725, 88102, 69886, 59231], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンの誕生日の装飾', 'keyword': 'unicorn birthday decorations'}, {'keywordCn': '独角兽生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4342, 3809, 3848, 3781, 3049, 7586, 4435, 4536, 2223, 4712, 1478, 2054, 5452, 6095, 6164, 4410, 3162, 5593, 4536, 2793, 1166, 2466, 4217, 1855, 2004, 4948, 4149, 3960, 3182, 5469, 4490, 4620, 5647, 6775, 5312, 6283, 5231, 5430, 4885, 3940, 2951, 4775, 4938, 4182, 4077, 4232, 3980, 3434, 4364, 3155, 2420, 1893, 1753, 4562, 4459, 1822, 1844, 1763, 1721, 1668, 2223, 2997, 3427, 2193, 2205, 2355, 2236, 2195, 2104, 2222, 1786, 2037, 2137, 1840, 1719, 1471, 1444, 2740, 1870, 1698, 1659, 1461, 1312, 1377, 1263, 1533, 844, 572], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンの誕生日パーティーの装飾', 'keyword': 'unicorn birthday party decorations'}, {'keywordCn': '独角兽盘子', 'searches': [0, 0, 0, 5081, 5158, 5496, 11372, 12428, 13202, 11135, 0, 0, 15309, 14997, 14348, 20343, 18283, 21210, 23738, 26247, 27169, 21940, 14558, 11911, 26713, 21526, 21810, 20700, 22117, 20521, 19077, 17251, 18091, 15048, 13042, 9241, 15990, 15668, 13836, 7738, 8684, 9582, 10850, 10855, 11582, 8634, 7763, 5346, 8901, 8844, 10014, 11149, 11484, 8817, 9562, 9082, 9088, 8464, 7075, 5629, 8258, 6597, 7591, 7332, 8649, 7323, 6057, 7265, 6471, 5572, 4730, 4151, 7075, 6080, 5449, 5481, 5043, 4968, 4966, 5197, 5612, 4257, 3792, 3025, 5866, 5741, 6686, 7762, 6720, 6001, 5973, 6338, 6615, 4988, 4069, 2650, 6138, 6354, 6727, 6277, 7101, 6198, 5769, 5125, 5874, 3869, 3437], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンプレート', 'keyword': 'unicorn plates'}, {'keywordCn': '独角兽派对用品', 'searches': [114890, 151389, 165256, 162475, 225870, 226955, 292267, 405724, 473868, 363306, 252476, 154185, 667774, 745557, 755242, 884554, 753298, 840743, 807722, 774772, 845113, 604607, 348101, 226885, 718715, 655332, 586255, 502589, 461485, 408090, 548618, 387923, 384285, 248346, 165424, 90780, 259636, 226380, 86025, 41829, 49555, 42790, 40137, 49509, 55714, 41933, 31459, 16122, 33184, 28262, 32882, 32113, 35640, 26203, 30114, 27729, 25891, 23437, 18635, 13821, 20844, 21663, 20733, 18182, 17400, 15157, 15235, 15896, 14419, 13161, 10036, 9232, 17033, 13182, 7788, 8169, 14792, 8982, 7508, 10276, 8936, 5311, 5392, 4310, 7435, 5698, 8551, 8081, 6101, 6074, 5857, 5682, 5793, 5098, 3952, 3153, 7448, 5293, 5173, 4335, 4475, 3812, 4722, 4236, 3830, 2892, 2287], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーン・パーティー用品', 'keyword': 'unicorn party supplies'}, {'keywordCn': '独角兽派对用品套装', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7108, 8062, 7027, 2101, 1414, 2483, 2961, 3709, 3623, 2221, 1630, 1349, 3282, 3741, 3835, 3568, 1505, 1539, 0, 0, 0, 650, 1441, 1406, 1347, 3660, 842, 1588, 0, 0, 618, 765, 0, 1468, 0, 0, 0, 0, 0, 538, 0, 563, 600, 696, 643, 876, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンパーティー用品セット', 'keyword': 'unicorn party supplies set'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '粉红色的盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 860, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 594, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 401, 0, 0, 0, 609, 0, 0, 0, 0, 0, 0, 0, 0, 389, 0, 0, 617, 906, 100, 1184, 687, 746, 1944, 3126, 6592, 1458, 815, 2013, 2035, 982, 1417, 956, 330, 665, 1097, 1530, 1365, 1611, 630, 2658, 3724, 2563, 2946, 4203, 3147, 2858, 4091, 5229, 3617, 2673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのプレートとナプキン', 'keyword': 'pink plates and napkins'}, {'keywordCn': '粉红色纸盘', 'searches': [14705, 15450, 15133, 16202, 17230, 15144, 15930, 15494, 14312, 12244, 0, 0, 17095, 19825, 16226, 22166, 18863, 14447, 15295, 13870, 13251, 12898, 7767, 5834, 15951, 15869, 15319, 16348, 15877, 14262, 14149, 13560, 15165, 15351, 11131, 7591, 17606, 20424, 15532, 4329, 6997, 8865, 9797, 11612, 11158, 9092, 6637, 4931, 9678, 11392, 12010, 14350, 14758, 13506, 13718, 14211, 12879, 8725, 7139, 5302, 10921, 14150, 13699, 15761, 17923, 15349, 12815, 14103, 13535, 12550, 7939, 6040, 14073, 14814, 13955, 15166, 12588, 12817, 13396, 20117, 17253, 15674, 9144, 6703, 23376, 26573, 23992, 27764, 29344, 22478, 20683, 20977, 21436, 16231, 11099, 8868, 27579, 34184, 26790, 32222, 34901, 27580, 22850, 21886, 23812, 17522, 14025], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクの紙皿', 'keyword': 'pink paper plates'}, {'keywordCn': '粉红色的生日盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1392, 0, 0, 0, 0, 0, 890, 1334, 0, 877, 1267, 0, 2079, 936, 669, 0, 1527, 2046, 2097, 2280, 2364, 2143, 2036, 1813, 2447, 1956, 1340, 945, 2292, 2673, 2957, 2716, 2552, 2637, 2457, 2318, 2820, 1920, 1373, 583, 2155, 1865, 2893, 2283, 2116, 2194, 2257, 3251, 2859, 2426, 2371, 1857, 3790, 4146, 2947, 3212, 2925, 2989, 2922, 3102, 3420, 2706, 2229, 1757, 3986, 4317, 4016, 3435, 3466, 3225, 3103, 3243, 3181, 2513, 2410], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのバースデープレート', 'keyword': 'pink birthday plates'}, {'keywordCn': '浅粉色生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 663, 552, 0, 756, 842, 513, 575, 0, 0, 597, 0, 0, 445, 556, 0, 779, 774, 652, 764, 652, 628, 0, 458, 880, 658, 611, 0, 1522, 1415, 1838, 1912, 1217, 1099, 1177, 1783, 1720, 1553, 2050, 2230, 4309, 4149, 3397, 3208, 2679, 2737, 3047, 3742, 4465, 3161, 2572, 2246, 4717, 3659, 3792, 3987, 3249, 3377, 3497, 3699, 3949, 2994, 2747], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '淡いピンクの誕生日の飾り', 'keyword': 'light pink birthday decorations'}, {'keywordCn': '粉红色盘子', 'searches': [14086, 13348, 13880, 12678, 14003, 12507, 12727, 12493, 11708, 11898, 3884, 3737, 13558, 14320, 14567, 15139, 13704, 13175, 12331, 12473, 12075, 12292, 8200, 6263, 15373, 15948, 13879, 15151, 15170, 14012, 15659, 16264, 17935, 16195, 12188, 8289, 18634, 19049, 15546, 5572, 12959, 13882, 15930, 14550, 14657, 13535, 10988, 8145, 15562, 16249, 16193, 18132, 17469, 15121, 18150, 16803, 16837, 13811, 11507, 8834, 17912, 19717, 18959, 24352, 25509, 19360, 17351, 18464, 17482, 15139, 12576, 9884, 23321, 24213, 14290, 15584, 16456, 15996, 15728, 26720, 28024, 23775, 17175, 14334, 36942, 44701, 33612, 41537, 41705, 34063, 33292, 31618, 31650, 28451, 20791, 19631, 50835, 54504, 39673, 44609, 45837, 38995, 36459, 37591, 40513, 31648, 26957], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのプレート', 'keyword': 'pink plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '派对盘子集', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1849, 2759, 1302, 0, 0, 1764, 3560, 2851, 1905, 1692, 1341, 889, 0, 0, 534, 0, 0, 845, 995, 2966, 2536, 3673, 3633, 4294, 5204, 6560, 8688, 7303, 4416, 2872, 1817, 1544, 995, 1186, 1583, 1688, 1219, 1357, 1166, 1584, 410, 504, 706, 565, 761, 1765, 1660, 2027, 1415, 1957, 1478, 1115, 2016, 2686, 2984, 2977, 2390, 3225, 2903, 2530, 3092, 2901, 2592, 1978, 2257, 1972, 2180, 2358, 2130, 2456, 868, 1506, 2100, 3459, 3107, 2915, 5387, 9339, 8436, 10645], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パーティープレートセット', 'keyword': 'party plates set'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 3884, 5168, 5534], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13590, 29272, 25599, 20683], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'huntrix birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4983, 19445, 14959, 9109, 6396], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters party supplies'}, {'keywordCn': '生日盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1845, 2139, 1814, 1361, 1264, 0, 0, 1623, 1524, 0, 0, 3299, 3584, 3633, 1700, 5537, 3908, 2500, 4156, 4172, 3855, 3984, 3745, 5797, 7041, 5953, 8700, 7937, 3194, 4492, 4487, 5176, 4278, 3990, 3364, 5453, 5500, 6528, 5760, 6372, 4925, 5150, 5355, 5649, 4985, 13926, 4336, 6324, 5702, 6745, 6340, 8661, 11459, 9915, 18218, 19769, 19451, 14162, 10098, 23302, 23781, 27229, 29463, 26078, 25380, 23785, 27374, 28809, 21323, 15454, 11429, 26276, 30732, 32205, 33151, 35028, 29434, 29107, 31939, 34632, 28174, 23291], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレートとナプキン', 'keyword': 'birthday plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '芭比娃娃生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2865, 0, 934, 1534, 1576, 2510, 2101, 1527, 0, 1818, 0, 0, 1690, 0, 1965, 3051, 4755, 5674, 5777, 5592, 5750, 13772, 12139, 12033, 11742, 11779, 11533, 14982, 14038, 13004, 11998, 9935, 9223, 14648, 13370, 12073, 11370, 11894, 10966, 9421, 13567, 14963, 10702, 9757, 8897, 16266, 13458, 20941, 24448, 20668, 33705, 97604, 140531, 113027, 69498, 57339, 46074, 78563, 56443, 54256, 56555, 52954, 47540, 46343, 48215, 31252, 11940, 7840, 6706, 14588, 9271, 8043, 7910, 6678, 7229, 8592, 9901, 14965, 10091, 8531], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービーの誕生日の飾り', 'keyword': 'barbie birthday decorations'}, {'keywordCn': '芭比生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2000, 2279, 2178, 1843, 0, 3605, 3852, 0, 3070, 3087, 2071, 2204, 2871, 2265, 3144, 3727, 3765, 3108, 3409, 3868, 3876, 3144, 2653, 2358, 3988, 3254, 1578, 1575, 1158, 912, 1315, 1274, 1441, 1788, 1335, 709, 1507, 1392, 1191, 1548, 634, 1671, 5812, 11747, 13620, 35240, 28237, 22045, 36679, 28187, 24572, 23784, 17698, 19791, 22725, 26160, 39517, 51479, 40645, 35236, 78234, 82881, 80970, 66914, 72407, 71000, 68035, 61640, 60072, 33940, 26776], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービーの誕生日パーティーの装飾', 'keyword': 'barbie birthday party decorations'}, {'keywordCn': '芭比娃娃的生日', 'searches': [5087, 5419, 5074, 0, 0, 0, 5362, 0, 5267, 5553, 0, 0, 5308, 4964, 0, 5035, 0, 0, 0, 5481, 5288, 3188, 3312, 2127, 3763, 3555, 4841, 4852, 1878, 3029, 1453, 4939, 4935, 4801, 3897, 3587, 5171, 4769, 4374, 3722, 5002, 5143, 6038, 5937, 7843, 6485, 5960, 5909, 9813, 8563, 8263, 8475, 8403, 8175, 9553, 11662, 11107, 8528, 7089, 7626, 12328, 9178, 8369, 8544, 8143, 7782, 6877, 8153, 8177, 6168, 5629, 5646, 9158, 7105, 5791, 6168, 6403, 7419, 13843, 29526, 24444, 15125, 9743, 8260, 16697, 13529, 14342, 14040, 12740, 11062, 11183, 11398, 11741, 8025, 6628, 5601, 13828, 9731, 10408, 9862, 10034, 11314, 9186, 9834, 9657, 6729, 6712], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービーの誕生日', 'keyword': 'barbie birthday'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 358, 3066, 8127, 6334, 1929, 1632, 3634, 8225], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'barbie party unboxed'}, {'keywordCn': '芭比派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3165, 0, 0, 0, 1276, 1227, 1480, 0, 1537, 1634, 0, 0, 2266, 1527, 1485, 1499, 2228, 2196, 3757, 4704, 4499, 2657, 3762, 3506, 8034, 8240, 8136, 7533, 8245, 7635, 11290, 11460, 15827, 15305, 15713, 12020, 22070, 19446, 16806, 18449, 18616, 19522, 16894, 21169, 22305, 16598, 13978, 10891, 21473, 19688, 20764, 31820, 62304, 92072, 214080, 223058, 220521, 157721, 82284, 61548, 183019, 159178, 149383, 140365, 133502, 137966, 110165, 91957, 112844, 51251, 32569, 23921, 44600, 32901, 31487, 35232, 34910, 30975, 31871, 33942, 30077, 25436, 18647], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バービーパーティーの装飾', 'keyword': 'barbie party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '三只雷克斯', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1274, 3223, 3038, 3084, 2601, 2419, 2061, 1749, 0, 2738, 2488, 3071, 958, 0, 2817, 3230, 3257, 3103, 2889, 2170, 1943, 4227, 4082, 4769, 4653, 5075, 5350, 6869, 6047, 5727, 5043, 4079, 3591, 6433, 5782, 6137, 6696, 7025, 6938, 6935, 7447, 6533, 5173, 4245, 3696, 7754, 6698, 6185, 5807, 5739, 5858, 5490, 7213, 6551, 4583, 3719, 2926, 6262, 5687, 5936, 6559, 5718, 5613, 4770, 4824, 4312, 2926, 2485, 2042, 5417, 4791, 4473, 3967, 4092, 4118, 4847, 4383, 4176, 2970, 2773], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スリーレックス', 'keyword': 'three rex'}, {'keywordCn': '恐龙派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5337, 0, 0, 5506, 6431, 5509, 14084, 15278, 16479, 11701, 3628, 7727, 18064, 16072, 15788, 14360, 18841, 22237, 21180, 24026, 28508, 24359, 17211, 18419, 110005, 125549, 107623, 36107, 19085, 14145, 14721, 13734, 17790, 18076, 25100, 15434, 46905, 36767, 55642, 45940, 48292, 51312, 59950, 46834, 45908, 42089, 30806, 21647, 40635, 53878, 55682, 41879, 53803, 51811, 44452, 45475, 42287, 34551, 39957, 23040, 59736, 60690, 26729, 26662, 31517, 31736, 25615, 35328, 49217, 65455, 23928, 21553, 35826, 30388, 32381, 53992, 44530, 50371, 80257, 29469, 28427, 26866, 18748, 14703, 32005, 23247, 22325, 24828, 25778, 26803, 26556, 25559, 25405, 21920, 15086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のパーティーの装飾', 'keyword': 'dinosaur party decorations'}, {'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6673, 4132, 3109, 2036, 962, 3221, 1942, 6239, 5233, 5204, 7043, 7236, 9243, 11536, 11144, 9060, 7996, 4790, 5675, 5428, 4671, 9713, 4415, 6838, 9294, 9213, 9188, 7331, 7289, 12661, 15217, 21132, 16450, 16963, 16125, 16535, 19602, 22551, 19603, 16024, 13446, 20621, 21794, 18660, 16367, 17468, 18800, 18312, 22658, 20285, 16519, 13805, 13878, 28764, 22529, 11406, 11418, 8343, 9460, 9636, 16226, 20098, 32493, 54205, 32455, 135507, 113821, 121687, 148897, 143752, 125806, 121146, 121964, 112608, 69536, 51728, 33319, 74675, 90330, 96322, 89237, 92308, 92944, 97892, 99951, 117830, 81273, 69839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dinosaur birthday decorations'}, {'keywordCn': '三个雷克斯男孩的生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1155, 1780, 6867, 14408, 16475, 19183, 16111, 17622, 16757, 16824, 15740, 12190, 8285, 7025, 18438, 16111, 16112, 15603, 16201, 15970, 15432, 15715, 12693, 10988, 8493], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '3人組の男孩用バースデーアイテム', 'keyword': 'three rex birthday decorations boy'}, {'keywordCn': '3 个雷克斯生日装饰品男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 692, 2733, 2922, 3437, 2916, 3296, 3467, 3566, 3244, 3036, 2265, 1958, 2077, 4003, 3761, 3591, 3435, 3110, 3156, 3321, 3972, 3626, 1848, 2625, 2215, 4316, 4160, 3948, 4141, 3837, 3789, 4192, 4079, 3752, 2804, 2395, 1924, 4544, 4095, 4172, 3234, 3252, 3521, 3931, 3970, 3282, 2655, 2386], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '3レックスの誕生日の装飾の男の子', 'keyword': '3 rex birthday decorations boys'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '1岁生日装饰品女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 697, 952, 0, 2712, 2535, 6153, 4860, 4928, 4753, 3725, 5784, 6476, 5340, 4084, 3180, 6473, 5430, 4468, 8914, 22908, 3305, 1814, 1756, 897, 0, 0, 0, 0, 871, 0, 0, 1228, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 435, 0, 0, 0, 0, 613, 0, 0, 0, 613, 797, 846, 1880, 1895, 4381, 13440, 16945, 43897, 38069, 37206, 39475, 35659, 35616, 38804, 36847, 35035, 27562, 20563, 21478, 44260, 36119, 31753, 28645, 29939, 28980, 31131, 28770, 26936, 22819, 19404], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1歳の誕生日の装飾の女の子', 'keyword': '1st birthday decorations girl'}, {'keywordCn': '冬季 onederland 派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3417, 4756, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6666, 6722, 0, 8548, 0, 0, 0, 0, 0, 1532, 2663, 3335, 5513, 5733, 3616, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 808, 4038, 4062, 4383, 1518, 0, 0, 0, 0, 0, 0, 0, 0, 671, 576, 582, 0, 0, 0, 0, 0, 289, 1582, 2143, 4071, 5961, 6988, 6318, 959, 0, 0, 0, 0, 0, 949, 1154, 834, 3114, 2223, 1037, 0, 0, 0, 0, 0, 0, 476, 4668, 5505, 14809], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドパーティーの装飾', 'keyword': 'winter onederland party decorations'}, {'keywordCn': '冬天 onederland 一岁生日女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2873, 0, 0, 0, 0, 0, 0, 0, 9574, 16310, 34533, 34263, 37917, 0, 0, 2283, 2212, 974, 6139, 9134, 13474, 19928, 41252, 38718, 43337, 9986, 2803, 1828, 2144, 0, 0, 0, 777, 890, 1847, 1646, 948, 0, 0, 0, 0, 0, 0, 0, 0, 1284, 1109, 687, 941, 0, 0, 0, 0, 544, 488, 742, 826, 694, 1630, 0, 836, 0, 0, 0, 0, 548, 2754, 13081, 20019, 34429, 54762, 50985, 39651, 5902, 2455, 2851, 3117, 5217, 9274, 13830, 18556, 29122, 46523, 44176, 30180, 4796, 2366, 2009, 2507, 4419, 7753, 12346, 12783, 22688, 39829], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランド1歳の誕生日の女の子', 'keyword': 'winter onederland 1st birthday girl'}, {'keywordCn': '冬日高原的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 512, 546, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 760, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のオネダランドのバースデー・デコレーション', 'keyword': 'winter onederland birthday decorations'}, {'keywordCn': '冬日里的德国', 'searches': [15727, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2995, 3121, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3301, 12843, 10005, 4580, 0, 0, 0, 0, 0, 0, 2943, 3868, 5869, 11616, 12500, 8375, 3669, 801, 670, 0, 568, 0, 723, 2886, 4637, 8794, 8708, 7437, 1372, 0, 0, 0, 0, 674, 1267, 1997, 4634, 12224, 9831, 9153, 1733, 0, 0, 686, 0, 1647, 2286, 2999, 5024, 12841, 9834, 8361, 848, 408, 0, 0, 569, 1238, 2371, 3568, 4777, 9491, 8713, 5846, 979, 0, 0, 0, 0, 632, 1253, 1707, 3333, 8011, 8880, 5616, 668, 0, 0, 0, 0, 140, 675, 2191, 2649, 7133], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のオンダランド', 'keyword': 'winter onederland'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '林地婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 7523, 5762, 0, 0, 0, 0, 17004, 15331, 18184, 19319, 16878, 17250, 19261, 22665, 23057, 24874, 12591, 7264, 34000, 43244, 32437, 32284, 47995, 44965, 48863, 54870, 63181, 55203, 34479, 24068, 34180, 37844, 45506, 4711, 10006, 5604, 8834, 9410, 12182, 12352, 5948, 4525, 11865, 22476, 40176, 44231, 13691, 27724, 42124, 39886, 39039, 33221, 25456, 18250, 52878, 51408, 46696, 43390, 40672, 37236, 33903, 41373, 38307, 33075, 22490, 20314, 64817, 51948, 40601, 34037, 31265, 26074, 24391, 45758, 46162, 41511, 27057, 23262, 68977, 58063, 53590, 52516, 45560, 43552, 45172, 47413, 48820, 41085, 24461, 19035, 52504, 45566, 42072, 35229, 32525, 29891, 27863, 30684, 31585, 27748, 19759], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のベビーシャワーの装飾', 'keyword': 'woodland baby shower decorations'}, {'keywordCn': '婴儿洗礼派对', 'searches': [158267, 149963, 140031, 126823, 133075, 124423, 129423, 125697, 136415, 116275, 62504, 37875, 141230, 139609, 135696, 147707, 116984, 127381, 133367, 134981, 131481, 109468, 65261, 41538, 164740, 167393, 152886, 164938, 148482, 132314, 126059, 134271, 135957, 115662, 77323, 51151, 166104, 164862, 112955, 27869, 60175, 78026, 75536, 76655, 86248, 67276, 38579, 29750, 72071, 83113, 97659, 124521, 115186, 107617, 123695, 106648, 98707, 80351, 57987, 40573, 94022, 118419, 130861, 113712, 95961, 93152, 88108, 95303, 95291, 74937, 50842, 36360, 118261, 96296, 54511, 49913, 58147, 49590, 48303, 75394, 79320, 67498, 45863, 36352, 80883, 78567, 78355, 82956, 76182, 72495, 71873, 70847, 72388, 61203, 44189, 33487, 70678, 66992, 63626, 61797, 59272, 56381, 57341, 58286, 61398, 52406, 43843], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワー', 'keyword': 'baby shower'}, {'keywordCn': '野生动物园婴儿淋浴装饰品', 'searches': [0, 16325, 17149, 15613, 19039, 21476, 18776, 18250, 20377, 0, 0, 0, 16235, 20131, 19550, 20581, 18611, 16303, 15487, 15713, 18023, 14353, 8311, 1172, 30263, 32496, 16256, 15733, 16345, 16870, 17576, 20973, 21511, 17548, 14270, 11733, 19578, 16242, 11552, 3910, 4420, 3136, 2621, 5219, 5658, 5156, 3618, 2779, 6466, 7955, 9799, 10791, 11027, 9793, 9985, 9199, 8963, 7790, 5819, 4463, 8559, 10476, 11650, 11524, 9915, 9460, 7570, 8273, 7892, 6060, 4695, 3641, 8556, 9152, 8953, 7510, 5686, 7062, 9361, 34389, 35096, 28119, 19554, 14343, 47211, 44537, 41112, 45201, 38405, 37557, 34408, 31193, 27222, 18383, 13174, 8196, 26395, 30916, 29618, 26756, 24852, 23771, 22311, 21268, 18518, 14345, 9228], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サファリのベビーシャワーの装飾', 'keyword': 'safari baby shower decorations'}, {'keywordCn': '林地婴儿沐浴', 'searches': [67927, 51604, 50489, 40337, 37822, 43673, 47921, 48232, 54580, 45276, 25068, 24629, 81751, 66930, 55362, 54843, 42822, 41972, 48374, 53055, 52957, 46019, 26361, 22135, 96094, 71652, 44978, 43965, 19280, 17283, 18533, 18721, 19451, 15602, 11834, 8963, 25150, 14530, 11716, 2025, 7563, 9464, 12358, 16505, 20063, 15791, 11573, 11120, 38653, 35450, 23502, 18685, 34579, 18630, 17164, 17094, 16856, 14064, 12719, 9563, 21651, 20807, 18005, 15392, 14532, 13682, 12741, 14106, 13941, 11634, 8172, 8201, 17176, 16046, 12158, 9691, 9049, 9962, 9502, 15694, 14743, 12336, 7592, 6608, 20704, 16335, 14358, 12178, 9520, 9860, 11391, 12199, 12240, 10001, 6187, 5005, 15547, 12082, 9822, 7673, 6707, 7350, 7845, 8706, 9030, 7647, 5194], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウッドランド・ベビーシャワー', 'keyword': 'woodland baby shower'}, {'keywordCn': '林地动物婴儿送礼会', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6737, 7438, 6195, 0, 0, 3130, 0, 4903, 4820, 4058, 4735, 4613, 5432, 6986, 7084, 4358, 3364, 9370, 6785, 1549, 1605, 854, 852, 1195, 1504, 1539, 1157, 964, 919, 2756, 2132, 2090, 2211, 1346, 1087, 945, 633, 0, 902, 0, 525, 1364, 608, 969, 717, 589, 0, 583, 0, 751, 437, 0, 545, 663, 718, 789, 0, 437, 528, 663, 1210, 1547, 814, 981, 0, 1336, 1154, 531, 1114, 1104, 701, 786, 393, 605, 0, 1132, 2281, 8041, 6447, 3682, 2754, 2330, 2506, 2969, 2618, 2721, 2401, 1880], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森の動物のベビーシャワー', 'keyword': 'woodland animals baby shower'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'farm style disposable plates'}, {'keywordCn': '农场生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1209, 3182, 1506, 1723, 2209, 2573, 1519, 0, 0, 2502, 1630, 1630, 0, 0, 1993, 2107, 0, 2738, 2103, 1227, 1503, 3003, 3309, 3984, 4045, 3785, 3808, 4377, 4180, 4764, 3328, 3018, 2234, 4646, 4324, 4747, 4560, 4819, 5091, 4742, 6471, 4574, 3704, 2831, 2435, 5707, 4948, 4820, 4976, 4324, 5617, 6240, 12360, 13815, 12135, 7191, 4509, 14752, 13440, 14652, 18201, 15677, 16021, 14399, 15266, 16692, 12294, 6562, 3854, 12024, 9872, 11262, 11290, 12904, 9263, 9463, 9682, 9377, 7308, 4144], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '農場の誕生日の装飾', 'keyword': 'farm birthday decorations'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'farm animal party plates'}, {'keywordCn': '农场动物生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1283, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 511, 0, 0, 0, 0, 0, 0, 0, 631, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 482, 1486, 900, 354, 1394, 1701, 1400, 1494, 2605, 2620, 2865, 3030, 2134, 8095, 6896, 7414, 7351, 6494, 5909, 5886, 5862, 5585, 2995, 2237, 1411, 2881, 2821, 5474, 4515, 5506, 5197, 4313, 4652, 4931, 3043, 2457], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '農場の動物の誕生日の装飾', 'keyword': 'farm animal birthday decorations'}, {'keywordCn': '老麦当劳派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 611, 542, 1182, 1324, 1226, 0, 0, 787, 987, 810, 749, 1205, 509, 637, 0, 654, 473, 140, 0, 0, 0, 693, 504, 827, 561, 635, 664, 140, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'オールド・マクドナルド・パーティーのデコレーション', 'keyword': 'old mcdonald party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '林地婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 7523, 5762, 0, 0, 0, 0, 17004, 15331, 18184, 19319, 16878, 17250, 19261, 22665, 23057, 24874, 12591, 7264, 34000, 43244, 32437, 32284, 47995, 44965, 48863, 54870, 63181, 55203, 34479, 24068, 34180, 37844, 45506, 4711, 10006, 5604, 8834, 9410, 12182, 12352, 5948, 4525, 11865, 22476, 40176, 44231, 13691, 27724, 42124, 39886, 39039, 33221, 25456, 18250, 52878, 51408, 46696, 43390, 40672, 37236, 33903, 41373, 38307, 33075, 22490, 20314, 64817, 51948, 40601, 34037, 31265, 26074, 24391, 45758, 46162, 41511, 27057, 23262, 68977, 58063, 53590, 52516, 45560, 43552, 45172, 47413, 48820, 41085, 24461, 19035, 52504, 45566, 42072, 35229, 32525, 29891, 27863, 30684, 31585, 27748, 19759], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のベビーシャワーの装飾', 'keyword': 'woodland baby shower decorations'}, {'keywordCn': '动物园的好朋友', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4320, 3156, 1420, 4582, 783, 2954, 1625, 6205, 4908, 5602, 1606, 4176, 3558, 4986, 4345, 5882, 4051, 3683, 3736, 3439, 3578, 4281, 3767, 3490, 2831, 3712, 2992, 3708, 2581, 4096, 7523, 5401, 6052, 5618, 4430, 4133, 5126, 4547, 4650, 5193, 4259, 5268, 5649, 7027, 8224, 5977, 7972, 5788, 4124, 4359, 4819, 3512, 2542, 4987, 4849, 4342, 3734, 4846, 4324, 4450, 63128, 18273, 13859, 11871, 9612, 9339, 15524, 9452, 13309, 9424, 8967, 9273, 13202, 6228, 4598, 3635, 3121, 3356, 5364, 3152, 4458, 4015, 3364, 4511, 4061, 4220, 3622, 4677], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '動物園の仲間', 'keyword': 'zoo pals'}, {'keywordCn': '林地板块', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2226, 0, 0, 1702, 0, 0, 2168, 1481, 1365, 0, 0, 0, 0, 0, 0, 1641, 1260, 1088, 0, 0, 0, 851, 740, 1064, 780, 0, 523, 769, 1248, 993, 1163, 1123, 0, 1160, 1334, 1521, 1258, 1263, 748, 1506, 1372, 1247, 1147, 949, 923, 639, 818, 893, 770, 744, 812, 1144, 1139, 647, 717, 813, 669, 625, 1169, 1463, 1438, 1378, 726, 1765, 1540, 890, 895, 500, 528, 563, 474, 746, 1195, 833, 0, 1523, 980, 651, 553, 0, 0, 140, 621, 856, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森林プレート', 'keyword': 'woodland plates'}, {'keywordCn': '林地婴儿沐浴', 'searches': [67927, 51604, 50489, 40337, 37822, 43673, 47921, 48232, 54580, 45276, 25068, 24629, 81751, 66930, 55362, 54843, 42822, 41972, 48374, 53055, 52957, 46019, 26361, 22135, 96094, 71652, 44978, 43965, 19280, 17283, 18533, 18721, 19451, 15602, 11834, 8963, 25150, 14530, 11716, 2025, 7563, 9464, 12358, 16505, 20063, 15791, 11573, 11120, 38653, 35450, 23502, 18685, 34579, 18630, 17164, 17094, 16856, 14064, 12719, 9563, 21651, 20807, 18005, 15392, 14532, 13682, 12741, 14106, 13941, 11634, 8172, 8201, 17176, 16046, 12158, 9691, 9049, 9962, 9502, 15694, 14743, 12336, 7592, 6608, 20704, 16335, 14358, 12178, 9520, 9860, 11391, 12199, 12240, 10001, 6187, 5005, 15547, 12082, 9822, 7673, 6707, 7350, 7845, 8706, 9030, 7647, 5194], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウッドランド・ベビーシャワー', 'keyword': 'woodland baby shower'}, {'keywordCn': '林地生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1852, 2018, 1786, 1418, 4205, 4168, 4459, 1833, 3543, 4722, 4093, 4095, 4209, 3467, 2637, 1837, 2597, 3501, 3230, 1704, 1769, 1627, 2093, 2372, 2576, 2576, 2258, 2038, 3950, 3536, 3955, 4115, 3435, 3539, 4009, 4723, 4629, 4096, 3829, 3454, 5593, 4061, 3373, 3192, 2628, 2628, 2788, 3543, 3199, 3170, 2888, 2291, 3994, 3368, 2431, 2190, 1597, 1441, 1717, 2191, 2256, 1763, 1495, 1052, 2365, 1894, 1691, 1458, 1433, 1436, 1471, 1878, 1975, 1880, 1409], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森の誕生日の装飾', 'keyword': 'woodland birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '蝾螈生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 696, 588, 986, 880, 989, 814, 1253, 829, 669, 0, 100, 715, 1249, 949, 1515, 1266, 1168, 682, 1376, 2018, 1847, 1267, 1156, 895, 2439, 2334, 1927, 1986, 1449, 1941, 1821, 2268, 1933, 1977, 1769, 1615, 3960, 2933, 2890, 3022, 3019, 2964, 2901, 2953, 2522, 1847, 1847], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルの誕生日', 'keyword': 'axolotl birthday'}, {'keywordCn': '斧头蛇的生日派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 468, 0, 100, 841, 0, 0, 0, 0, 990, 0, 0, 378, 1182, 0, 140, 602, 777, 0, 960, 0, 1701, 418, 945, 0, 0, 0, 521, 784, 688, 591, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートル誕生日会', 'keyword': 'axolotl birthday party'}, {'keywordCn': '蝾螈生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 590, 1549, 1768, 2477, 2983, 3315, 3288, 2828, 2663, 2610, 1699, 1898, 1661, 3898, 3609, 4303, 4569, 4497, 4569, 3945, 4368, 4354, 3607, 3555, 3100, 13080, 9966, 11171, 13888, 14307, 14922, 14854, 14882, 14100, 8446, 8253, 5775, 19800, 23759, 30606, 27154, 29766, 30414, 29995, 28638, 26392, 17470, 17137], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルの誕生日の装飾', 'keyword': 'axolotl birthday decorations'}, {'keywordCn': '蝾螈派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 466, 0, 880, 1327, 1327, 1778, 1605, 1068, 996, 410, 0, 0, 876, 875, 1528, 1580, 1306, 1935, 1957, 2326, 2342, 1697, 1162, 1672, 3287, 2371, 1825, 1691, 2075, 1890, 1741, 2171, 2546, 2365, 1903, 1696, 4323, 2901, 2511, 2641, 2403, 2470, 2452, 2370, 2290, 2164, 1882], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルパーティデコレーション', 'keyword': 'axolotl party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 952, 0, 0, 0, 553, 0, 140, 0, 0, 0, 0, 0, 784, 684, 714, 1064, 746, 1233, 1453, 1350, 1320, 608, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'axolotl plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '运动主题派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1809, 0, 941, 1706, 3990, 3061, 4043, 3861, 3266, 2255, 1879, 4234, 3234, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1070, 958, 1444, 2434, 1186, 724, 395, 100, 0, 0, 0, 746, 954, 634, 926, 640, 926, 2048, 5095, 4613, 3076, 5794, 6697, 8764, 12364, 12462, 9644, 9391, 9898, 12382, 6204, 3396, 1824, 4343, 6120, 7482, 9534, 10072, 8433, 9080, 8972, 9098, 6077, 4201], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポーツをテーマにしたパーティーの装飾', 'keyword': 'sports themed party decorations'}, {'keywordCn': '超级碗派对装饰品', 'searches': [13963, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3701, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 49725, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4666, 261145, 12090, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2428, 30473, 21597, 0, 0, 0, 0, 0, 0, 0, 0, 688, 947, 14857, 33826, 0, 0, 0, 0, 0, 0, 535, 822, 792, 1879, 27824, 73102, 0, 0, 0, 0, 0, 0, 952, 1754, 880, 3039, 19152, 30305, 0, 0, 0, 0, 0, 0, 1316, 1389, 1491, 6397, 85899, 31886, 0, 0, 0, 0, 0, 760, 2131, 2565, 2040], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーボール・パーティー・デコレーション', 'keyword': 'superbowl party decorations'}, {'keywordCn': '运动生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 706, 0, 661, 0, 0, 0, 767, 1841, 2425, 5507, 6447, 6298, 7259, 6970, 6045, 5684, 7688, 6728, 1052, 3535, 3347, 9166, 9697, 11829, 15104, 12614, 13072, 12147, 11381, 13042, 8265, 6174, 3461, 9412, 9323, 11477, 12883, 13612, 11829, 11986, 8927, 11157, 8576, 7213], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポーツの誕生日パーティーの装飾', 'keyword': 'sports birthday party decorations'}, {'keywordCn': '运动派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5216, 0, 3010, 3518, 0, 0, 0, 1842, 0, 2052, 2091, 1728, 1417, 4677, 3799, 4130, 3896, 2440, 1771, 3863, 3310, 0, 560, 772, 1526, 2014, 2035, 2445, 1175, 929, 0, 1517, 1773, 1818, 2668, 2969, 3248, 3533, 3320, 3264, 2463, 1978, 945, 2309, 3281, 3770, 4574, 6000, 4820, 4480, 4997, 4644, 3723, 3249, 2105, 4549, 5168, 4190, 4967, 6065, 5396, 4863, 5012, 4339, 3762, 3290, 2166, 4474, 4739, 5297, 7579, 7965, 5997, 5578, 5269, 6581, 4498, 2881, 1698, 4053, 4408, 5467, 5324, 7437, 5815, 5117, 4852, 5786, 4236, 3027], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポーツパーティーの装飾', 'keyword': 'sports party decorations'}, {'keywordCn': '生日盘', 'searches': [15746, 15788, 15708, 14756, 15497, 15022, 15422, 15003, 14353, 14497, 2657, 0, 16336, 17016, 16340, 16699, 14531, 14545, 14531, 15317, 16667, 14011, 11089, 7295, 17194, 18091, 13024, 13797, 15037, 14224, 15347, 14635, 17601, 14596, 13803, 8982, 17489, 18868, 16160, 18274, 15744, 19999, 21592, 18344, 19396, 16054, 12051, 9060, 15605, 16148, 17871, 19278, 19340, 16429, 17546, 18076, 17976, 13495, 13116, 8779, 15574, 16001, 19041, 18384, 19423, 19786, 16475, 17869, 17598, 14864, 14756, 9275, 18141, 17449, 15155, 13617, 14984, 13522, 13404, 23440, 24044, 16871, 13841, 9846, 23879, 24857, 27303, 30198, 27749, 24615, 26137, 27363, 29417, 22675, 16908, 14306, 29366, 29509, 30302, 32619, 37036, 30561, 31619, 31130, 34912, 27667, 25837], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレート', 'keyword': 'birthday plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '超级英雄生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1645, 0, 1392, 0, 0, 3933, 2173, 3425, 1468, 0, 925, 2182, 0, 2315, 1564, 1117, 1163, 2315, 2858, 2570, 1720, 1804, 1253, 2107, 2404, 2582, 4161, 4208, 3154, 3808, 3340, 3382, 3798, 3751, 3264, 2799, 5257, 4555, 4560, 4333, 4423, 8522, 8647, 4888, 3640, 4110, 2970, 2941, 3646, 4217, 4125, 3808, 3352, 4704, 4367, 4343, 3099, 2871, 2654, 2972, 2994, 3263, 4362, 4934, 2694, 8556, 11028, 10120, 4214, 3554, 2718, 2814, 3052, 3743, 2790, 2335], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーヒーローの誕生日の飾り', 'keyword': 'superhero birthday decorations'}, {'keywordCn': '超级英雄派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8022, 9242, 7959, 3071, 719, 7132, 2766, 4587, 5703, 5513, 5474, 6439, 7986, 11642, 10950, 6827, 3967, 5531, 2167, 1827, 1888, 5961, 5349, 963, 2624, 3845, 4651, 4006, 2706, 4032, 5119, 5625, 5633, 6018, 4764, 6154, 5649, 6710, 7473, 5344, 3596, 5432, 7019, 10984, 10720, 15635, 15659, 17359, 19377, 19415, 13996, 8712, 4239, 8424, 9088, 11523, 14716, 6527, 12187, 12994, 18656, 19112, 11289, 5832, 3333, 15632, 13484, 14380, 25143, 23735, 23373, 21843, 18614, 22243, 11243, 2904, 1911, 4406, 4611, 5457, 13141, 16680, 19348, 22086, 19238, 21894, 17698, 8102], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーヒーローのパーティーの装飾', 'keyword': 'superhero party decorations'}, {'keywordCn': '绿巨人生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 870, 1932, 0, 941, 542, 1017, 492, 1351, 1658, 2308, 2223, 2549, 2231, 2140, 2720, 2550, 2618, 4178, 3336, 5814, 8439, 12942, 9675, 12381, 10863, 9463, 9336, 8635, 6959, 5732, 4786, 9077, 9086, 9846, 8746, 8406, 8482, 7036, 8641, 8783, 6675, 6162, 4366, 13139, 13007, 13148, 13044, 13107, 12889, 11823, 11078, 11980, 7693, 5646, 4409, 12089, 12133, 12582, 9693, 11865, 12170, 9998, 9821, 12361, 8034, 6880], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ハルクの誕生日の飾り', 'keyword': 'hulk birthday decorations'}, {'keywordCn': '超级英雄生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 557, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 776, 2335, 4113, 4012, 2938, 5711, 4797, 2505, 2490, 1965, 1908, 1927, 2665, 3128, 3153, 4169, 3371, 11016, 11489, 8898, 12487, 9841, 9976, 10991, 12097, 9329, 4370, 3591, 2481, 7032, 9225, 10925, 7748, 7086, 7747, 9938, 9900, 9794, 5616, 4087], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーヒーローの誕生日の装飾', 'keyword': 'super hero birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 492, 0, 375, 0, 0, 452, 0, 0, 1133, 1501, 596, 1448, 1672, 1378, 1434, 1790, 654, 662], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'danny go birthday party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '玫瑰金生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13546, 15430, 13010, 13729, 14333, 17834, 18910, 12960, 12148, 12502, 25436, 17463, 15390, 15151, 14405, 14386, 14187, 15986, 19974, 18593, 16520, 15454, 57309, 30112, 28219, 21241, 24495, 25460, 29850, 25217, 29208, 23670, 15647, 16979, 26823, 29298, 35870, 29319, 23121, 17457, 29899, 58337, 84824, 66395, 51036, 25980, 75475, 69926, 73599, 65766, 33773, 22029, 16818, 17753, 16358, 14608, 14132, 13956, 31123, 23169, 15753, 12411, 22998, 15411, 12568, 20056, 17590, 17597, 33045, 20112, 65240, 53815, 57309, 55026, 39321, 43482, 46866, 51152, 53601, 37513, 25119, 17051, 41077, 42424, 42017, 34494, 27343, 27632, 27346, 27639, 28693, 20214, 17429], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ローズゴールドの誕生日の装飾', 'keyword': 'rose gold birthday decorations'}, {'keywordCn': '生日盘', 'searches': [15746, 15788, 15708, 14756, 15497, 15022, 15422, 15003, 14353, 14497, 2657, 0, 16336, 17016, 16340, 16699, 14531, 14545, 14531, 15317, 16667, 14011, 11089, 7295, 17194, 18091, 13024, 13797, 15037, 14224, 15347, 14635, 17601, 14596, 13803, 8982, 17489, 18868, 16160, 18274, 15744, 19999, 21592, 18344, 19396, 16054, 12051, 9060, 15605, 16148, 17871, 19278, 19340, 16429, 17546, 18076, 17976, 13495, 13116, 8779, 15574, 16001, 19041, 18384, 19423, 19786, 16475, 17869, 17598, 14864, 14756, 9275, 18141, 17449, 15155, 13617, 14984, 13522, 13404, 23440, 24044, 16871, 13841, 9846, 23879, 24857, 27303, 30198, 27749, 24615, 26137, 27363, 29417, 22675, 16908, 14306, 29366, 29509, 30302, 32619, 37036, 30561, 31619, 31130, 34912, 27667, 25837], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレート', 'keyword': 'birthday plates'}, {'keywordCn': '玫瑰金盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 2857, 0, 0, 0, 13247, 15155, 14665, 17692, 19433, 20540, 22512, 25788, 22973, 19481, 15771, 13121, 30423, 37941, 32572, 39190, 45130, 21994, 41577, 48295, 60456, 52397, 36332, 22554, 44870, 39817, 37804, 7584, 17338, 25246, 27024, 26440, 31847, 29604, 19624, 12390, 17813, 24533, 34340, 45271, 48152, 35748, 37071, 27536, 26097, 16840, 15672, 11210, 18364, 19550, 22835, 24945, 24080, 20075, 15642, 17628, 16270, 16278, 10925, 7658, 16092, 15137, 35258, 549502, 894367, 34898, 12721, 19407, 20082, 13986, 12539, 8107, 21430, 20024, 21852, 22170, 21530, 15723, 15358, 15550, 13891, 11743, 8537, 6084, 16372, 13281, 14159, 15588, 15843, 12544, 10878, 10014, 9942, 7226, 5547], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ローズゴールドプレート', 'keyword': 'rose gold plates'}, {'keywordCn': '玫瑰金盘子和餐巾纸派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1330, 9220, 15377, 16337, 16774, 16987, 12188, 7231, 6198, 12747, 11971, 12993, 7130, 14260, 16482, 24538, 28870, 31040, 22807, 16523, 9400, 24238, 35910, 38137, 37698, 44996, 30816, 21665, 24912, 22761, 14082, 14497, 7619, 13960, 14548, 34270, 197208, 16541, 209051, 8462, 229330, 18662, 3081, 5179, 4324, 12181, 11859, 13354, 16631, 16571, 12355, 11400, 9542, 11933, 7826, 4668, 3094, 8576, 9183, 9027, 9538, 8589, 5715, 5326, 5028, 4002, 3350, 2675], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ローズゴールドプレートとナプキンパーティー用品', 'keyword': 'rose gold plates and napkins party supplies'}, {'keywordCn': '生日盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1845, 2139, 1814, 1361, 1264, 0, 0, 1623, 1524, 0, 0, 3299, 3584, 3633, 1700, 5537, 3908, 2500, 4156, 4172, 3855, 3984, 3745, 5797, 7041, 5953, 8700, 7937, 3194, 4492, 4487, 5176, 4278, 3990, 3364, 5453, 5500, 6528, 5760, 6372, 4925, 5150, 5355, 5649, 4985, 13926, 4336, 6324, 5702, 6745, 6340, 8661, 11459, 9915, 18218, 19769, 19451, 14162, 10098, 23302, 23781, 27229, 29463, 26078, 25380, 23785, 27374, 28809, 21323, 15454, 11429, 26276, 30732, 32205, 33151, 35028, 29434, 29107, 31939, 34632, 28174, 23291], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレートとナプキン', 'keyword': 'birthday plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '为客人准备的婴儿送礼会', 'searches': [0, 0, 0, 0, 0, 2975, 4515, 3466, 4291, 4269, 0, 0, 4531, 0, 0, 17924, 0, 0, 17279, 15435, 15356, 15743, 10962, 3412, 7119, 4383, 8924, 8674, 8639, 9296, 8678, 9464, 12234, 8834, 5439, 4842, 17183, 17103, 9840, 4499, 8365, 7559, 8447, 9735, 9206, 6488, 4214, 4828, 13761, 7547, 10670, 9736, 3898, 8416, 11787, 10068, 12728, 11007, 9510, 6395, 16161, 20715, 14684, 12906, 13427, 9486, 8938, 15205, 18124, 15183, 12726, 6713, 20861, 22129, 19840, 18519, 8441, 14322, 14027, 27947, 20012, 14426, 18987, 11613, 30971, 31319, 32531, 32726, 28308, 25101, 25993, 23918, 25211, 20880, 15520, 10430, 31270, 27107, 27500, 24205, 21849, 19207, 18897, 19492, 24165, 18751, 12250], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ゲストのためのベビーシャワーの好意', 'keyword': 'baby shower favors for guests'}, {'keywordCn': '冬季 onederland 派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3417, 4756, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6666, 6722, 0, 8548, 0, 0, 0, 0, 0, 1532, 2663, 3335, 5513, 5733, 3616, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 808, 4038, 4062, 4383, 1518, 0, 0, 0, 0, 0, 0, 0, 0, 671, 576, 582, 0, 0, 0, 0, 0, 289, 1582, 2143, 4071, 5961, 6988, 6318, 959, 0, 0, 0, 0, 0, 949, 1154, 834, 3114, 2223, 1037, 0, 0, 0, 0, 0, 0, 476, 4668, 5505, 14809], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドパーティーの装飾', 'keyword': 'winter onederland party decorations'}, {'keywordCn': '冬天 onederland 一岁生日女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2873, 0, 0, 0, 0, 0, 0, 0, 9574, 16310, 34533, 34263, 37917, 0, 0, 2283, 2212, 974, 6139, 9134, 13474, 19928, 41252, 38718, 43337, 9986, 2803, 1828, 2144, 0, 0, 0, 777, 890, 1847, 1646, 948, 0, 0, 0, 0, 0, 0, 0, 0, 1284, 1109, 687, 941, 0, 0, 0, 0, 544, 488, 742, 826, 694, 1630, 0, 836, 0, 0, 0, 0, 548, 2754, 13081, 20019, 34429, 54762, 50985, 39651, 5902, 2455, 2851, 3117, 5217, 9274, 13830, 18556, 29122, 46523, 44176, 30180, 4796, 2366, 2009, 2507, 4419, 7753, 12346, 12783, 22688, 39829], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランド1歳の誕生日の女の子', 'keyword': 'winter onederland 1st birthday girl'}, {'keywordCn': 'onederland 1岁生日女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1773, 2444, 5334, 5047, 6149, 2617, 1318, 756, 0, 1527, 2244, 0, 2946, 2767, 2586, 627, 0, 579, 990, 1376, 2090, 2504, 3236, 2562, 2703, 3312, 5384, 4885, 5312, 3186, 3672, 4016, 4385, 4561, 4643, 4989, 5387, 5555, 6622, 6468, 9848, 6551, 5224, 4906, 4878, 4709, 4666, 5314, 4989, 4531, 5668, 6101, 9815, 6180, 5841, 5540, 5234, 5649, 5942, 6207, 5107, 4210, 4073, 5301, 9978, 5972, 5273, 4439, 4151, 4044, 5309, 5179, 3823, 3699, 4176], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ワンダーランド1歳の誕生日の女の子', 'keyword': 'onederland 1st birthday girl'}, {'keywordCn': '冬日里的德国', 'searches': [15727, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2995, 3121, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3301, 12843, 10005, 4580, 0, 0, 0, 0, 0, 0, 2943, 3868, 5869, 11616, 12500, 8375, 3669, 801, 670, 0, 568, 0, 723, 2886, 4637, 8794, 8708, 7437, 1372, 0, 0, 0, 0, 674, 1267, 1997, 4634, 12224, 9831, 9153, 1733, 0, 0, 686, 0, 1647, 2286, 2999, 5024, 12841, 9834, 8361, 848, 408, 0, 0, 569, 1238, 2371, 3568, 4777, 9491, 8713, 5846, 979, 0, 0, 0, 0, 632, 1253, 1707, 3333, 8011, 8880, 5616, 668, 0, 0, 0, 0, 140, 675, 2191, 2649, 7133], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のオンダランド', 'keyword': 'winter onederland'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '威廉姆斯："威廉姆斯："威廉姆斯：', 'searches': [82297, 109575, 131359, 118257, 108335, 89154, 93306, 94021, 130418, 82381, 52957, 17880, 85936, 116293, 112330, 96469, 83667, 74836, 68970, 76115, 91531, 67644, 45484, 15214, 66990, 83427, 55741, 63648, 58888, 94339, 35963, 35226, 52138, 49800, 34715, 16658, 38847, 53448, 46261, 24373, 17372, 22092, 22658, 29319, 33585, 23009, 24214, 13905, 38962, 35974, 46028, 65553, 76878, 74521, 80223, 70353, 73732, 42156, 29377, 15232, 27387, 25629, 21702, 21235, 21365, 16620, 14708, 21309, 18673, 15954, 14299, 11085, 20986, 18045, 13145, 14646, 12637, 11885, 12393, 23339, 19273, 9694, 9209, 5806, 12591, 10048, 11286, 12858, 15784, 13587, 12418, 14610, 16886, 11948, 10671, 7887, 18586, 13090, 15228, 25102, 26000, 21986, 19240, 18364, 15618, 7710, 5566], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフト・パーティー用品', 'keyword': 'minecraft party supplies'}, {'keywordCn': '我的世界板块', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4343, 0, 0, 0, 0, 0, 2305, 2952, 1972, 1220, 620, 2958, 3112, 2426, 2867, 2711, 2853, 2851, 2370, 3006, 2513, 2936, 1968, 3100, 3221, 2457, 2673, 2659, 3611, 3687, 4426, 4234, 3084, 3015, 2280, 3422, 3368, 3941, 4600, 4283, 4163, 4372, 4584, 4913, 4225, 3669, 2664, 3835, 4003, 4327, 4495, 4530, 3987, 3871, 3966, 4083, 3720, 2643, 2105, 3716, 4705, 3809, 3393, 3130, 2745, 2655, 3367, 3808, 3161, 2423, 1974, 3743, 3899, 3049, 4478, 3716, 3234, 3686, 3359, 4069, 3117, 2749, 1735, 3915, 4175, 6199, 11459, 14567, 12869, 8529, 8190, 8242, 5108, 3839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'Minecraftプレート', 'keyword': 'minecraft plates'}, {'keywordCn': '威廉姆斯的生日派对用品', 'searches': [16560, 14034, 13276, 5977, 6168, 6100, 6358, 7419, 6667, 7134, 8919, 7236, 22866, 15172, 6877, 7760, 6937, 0, 13674, 13981, 13042, 11173, 8135, 9847, 24903, 14081, 11537, 11222, 9118, 12529, 14114, 17950, 19392, 12972, 12459, 9629, 21523, 14718, 13794, 12374, 31448, 50819, 60587, 61497, 63869, 43730, 15644, 12775, 35546, 29867, 34649, 26071, 21140, 15769, 21652, 22077, 23867, 20311, 20094, 15881, 46255, 51788, 62249, 63446, 61260, 54411, 44078, 50206, 64141, 43515, 29953, 15943, 34324, 47500, 71110, 60277, 67879, 58193, 52741, 86164, 84684, 7395, 6724, 7217, 7440, 3619, 2092, 3982, 3215, 3655, 5291, 7038, 3690, 2136, 3019, 3270, 12289, 7645, 6274, 9890, 11572, 11451, 11000, 13831, 11841, 4157, 3049], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフト・バースデー・パーティー用品', 'keyword': 'minecraft birthday party supplies'}, {'keywordCn': '威廉斯派对', 'searches': [19474, 16427, 17887, 18524, 16146, 14737, 15393, 15525, 17578, 7641, 9902, 0, 17514, 15279, 7255, 15087, 7190, 7272, 12157, 14115, 12661, 8791, 7818, 6871, 17884, 13111, 10740, 9025, 8367, 8198, 8398, 11286, 13466, 11082, 8470, 5464, 11312, 9466, 8131, 5552, 7364, 9024, 9341, 9839, 9670, 7829, 6994, 5174, 8722, 8938, 9911, 11298, 11258, 8875, 10693, 11051, 11593, 8332, 7840, 6254, 10824, 11831, 12446, 12856, 11171, 9517, 9457, 12798, 11327, 8723, 7104, 5574, 12246, 11771, 7233, 7761, 6617, 5696, 5978, 11748, 13574, 9342, 6236, 4751, 8696, 9694, 9358, 11881, 9917, 9878, 12597, 13205, 14026, 9790, 7352, 5312, 13591, 13022, 15886, 28684, 27220, 21631, 20398, 18518, 16484, 11606, 7959], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフト・パーティー', 'keyword': 'minecraft party'}, {'keywordCn': '我的世界派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2136, 0, 1919, 1367, 2116, 2923, 1575, 1795, 2545, 4394, 1151, 1443, 4829, 5692, 4453, 3812, 2359, 5344, 4550, 4264, 3694, 5852, 6816, 6687, 6540, 6566, 5137, 5100, 4231, 7227, 8282, 9726, 8898, 8006, 7295, 9468, 9441, 11595, 9862, 9662, 6577, 11025, 10963, 11943, 12458, 11124, 9685, 9316, 11567, 11700, 8565, 7493, 6189, 14121, 14545, 5849, 7333, 8783, 7848, 7443, 13155, 20450, 23972, 16013, 14939, 20807, 20590, 19912, 23673, 21683, 25410, 26588, 29631, 31915, 25828, 22399, 16370, 33405, 23069, 29759, 57589, 51483, 45812, 43575, 41886, 36530, 24264, 19359], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'Minecraftのパーティーの装飾', 'keyword': 'minecraft party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 985, 0, 1866, 2218, 0, 2648, 2035, 1383, 1617, 3243, 2970, 4508, 4008, 3086, 2853, 1583, 899, 1711, 736, 0, 740, 1242, 2480, 2516, 1951, 1915, 2094, 2326, 3185, 4745, 3937, 3716, 3587, 5632, 4781, 4240, 4510, 3633, 3438, 3354, 4015, 3817, 4126, 3715, 3502, 4940, 5123, 5555, 5758, 4801, 4994, 5351, 4823, 5332, 3917, 2792, 2567, 5765, 5168, 5796, 5555, 5593, 6080, 7134, 5666, 5577, 3816, 3141], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dino birthday decorations'}, {'keywordCn': '恐龙派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5337, 0, 0, 5506, 6431, 5509, 14084, 15278, 16479, 11701, 3628, 7727, 18064, 16072, 15788, 14360, 18841, 22237, 21180, 24026, 28508, 24359, 17211, 18419, 110005, 125549, 107623, 36107, 19085, 14145, 14721, 13734, 17790, 18076, 25100, 15434, 46905, 36767, 55642, 45940, 48292, 51312, 59950, 46834, 45908, 42089, 30806, 21647, 40635, 53878, 55682, 41879, 53803, 51811, 44452, 45475, 42287, 34551, 39957, 23040, 59736, 60690, 26729, 26662, 31517, 31736, 25615, 35328, 49217, 65455, 23928, 21553, 35826, 30388, 32381, 53992, 44530, 50371, 80257, 29469, 28427, 26866, 18748, 14703, 32005, 23247, 22325, 24828, 25778, 26803, 26556, 25559, 25405, 21920, 15086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のパーティーの装飾', 'keyword': 'dinosaur party decorations'}, {'keywordCn': '恐龙派对', 'searches': [19427, 17342, 17883, 19199, 20553, 19242, 17910, 16886, 15992, 14649, 0, 0, 19949, 17058, 17005, 20210, 19394, 20099, 27808, 26052, 23666, 18741, 14234, 12590, 33315, 31622, 30243, 26030, 25858, 23924, 22835, 25410, 30503, 22472, 16417, 15018, 34453, 30536, 18776, 8326, 12500, 19029, 18148, 14544, 14892, 13324, 9466, 7773, 12286, 15084, 20995, 20287, 24744, 22297, 21662, 24825, 21298, 15934, 12757, 11092, 17038, 19403, 21257, 16457, 18957, 16818, 16330, 18562, 15933, 13544, 9490, 8060, 16759, 15084, 8711, 8554, 8071, 8223, 7800, 11033, 12025, 8716, 5605, 4445, 8865, 8481, 9830, 13055, 11090, 10932, 9732, 8598, 8615, 7082, 4692, 3744, 9094, 7344, 7610, 7566, 8323, 7807, 8772, 7763, 7302, 5839, 4320], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ダイナソー・パーティー', 'keyword': 'dinosaur party'}, {'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6673, 4132, 3109, 2036, 962, 3221, 1942, 6239, 5233, 5204, 7043, 7236, 9243, 11536, 11144, 9060, 7996, 4790, 5675, 5428, 4671, 9713, 4415, 6838, 9294, 9213, 9188, 7331, 7289, 12661, 15217, 21132, 16450, 16963, 16125, 16535, 19602, 22551, 19603, 16024, 13446, 20621, 21794, 18660, 16367, 17468, 18800, 18312, 22658, 20285, 16519, 13805, 13878, 28764, 22529, 11406, 11418, 8343, 9460, 9636, 16226, 20098, 32493, 54205, 32455, 135507, 113821, 121687, 148897, 143752, 125806, 121146, 121964, 112608, 69536, 51728, 33319, 74675, 90330, 96322, 89237, 92308, 92944, 97892, 99951, 117830, 81273, 69839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dinosaur birthday decorations'}, {'keywordCn': '恐龙生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5774, 0, 5603, 15010, 13924, 13407, 11923, 8953, 8735, 18933, 16731, 14404, 12325, 14462, 14001, 13087, 13399, 14921, 14684, 12666, 9850, 17539, 17153, 11479, 7446, 13711, 14732, 16073, 13658, 14250, 11065, 9082, 7884, 12034, 14224, 18189, 16896, 17856, 15216, 16021, 18293, 17922, 13202, 9869, 8235, 14172, 16098, 15933, 11068, 14007, 12839, 12423, 14640, 11948, 8155, 5341, 5801, 13707, 11850, 6275, 6015, 5748, 5585, 6020, 8616, 7408, 5344, 4557, 4040, 7395, 7904, 8319, 9470, 8313, 8214, 8668, 8071, 7230, 5172, 4036, 3887, 8621, 7066, 7176, 7021, 7081, 7045, 7867, 7591, 6951, 5046, 4122], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日', 'keyword': 'dinosaur birthday'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '乐高生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1901, 2722, 2432, 3297, 0, 680, 938, 0, 1314, 816, 854, 694, 1184, 848, 1428, 1335, 1163, 1179, 963, 1387, 1509, 1067, 914, 664, 1416, 1692, 3443, 3693, 3736, 3700, 3870, 5274, 5473, 3855, 3822, 3285, 6720, 5333, 4507, 4483, 9810, 8949, 8181, 14812, 15139, 16554, 14500, 10030, 19022, 8778, 9669, 10924, 8715, 9599, 13895, 16449, 21359, 20772, 17671, 12985, 29775, 25516, 25862, 21498, 22730, 23074, 23800, 26903, 27839, 21193, 19246], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レゴの誕生日の装飾', 'keyword': 'lego birthday decorations'}, {'keywordCn': '乐高生日', 'searches': [14201, 13095, 14019, 14375, 5759, 5597, 5956, 6654, 7300, 5925, 7374, 0, 13138, 6323, 6672, 6924, 6221, 6051, 12620, 9683, 8958, 7730, 5984, 3098, 7359, 13478, 9592, 8161, 7475, 7088, 6827, 7603, 7906, 5852, 5346, 4103, 8430, 8085, 6751, 6241, 6064, 6316, 5484, 5667, 5779, 4922, 4322, 3872, 6817, 6296, 5629, 5743, 5266, 4764, 6412, 5687, 5998, 4673, 4345, 3794, 6741, 5709, 5735, 5422, 5342, 5036, 4680, 5779, 6201, 4867, 4417, 4388, 8301, 6987, 6293, 6227, 5208, 5323, 5843, 8635, 11315, 6837, 4688, 4438, 12124, 9696, 9814, 11044, 7876, 8846, 8574, 11442, 11119, 8485, 5972, 4675, 13620, 10015, 8928, 7754, 7503, 7446, 7951, 8302, 8628, 6687, 5701], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レゴバースデー', 'keyword': 'lego birthday'}, {'keywordCn': '莱戈板', 'searches': [20319, 17547, 16655, 15420, 14386, 15596, 16343, 15889, 15697, 16197, 34930, 24484, 17596, 16130, 14849, 14876, 13492, 14012, 15317, 15510, 15590, 14191, 17874, 18658, 15742, 13578, 13275, 13728, 12524, 13499, 12741, 13924, 13912, 12420, 16938, 20209, 14293, 12852, 14769, 18984, 11200, 8134, 7734, 8069, 8582, 12391, 16323, 16580, 15919, 13651, 11884, 9233, 8901, 9867, 10707, 10868, 12545, 11953, 13806, 14017, 13080, 13712, 9688, 9238, 8817, 10554, 11179, 12231, 9908, 9044, 13545, 13708, 11586, 9033, 9063, 8545, 7432, 8313, 9269, 16274, 14346, 15590, 19244, 23080, 18895, 14962, 16605, 14811, 12790, 15885, 17591, 18014, 16602, 15703, 19952, 21117, 16229, 15174, 13691, 13002, 13009, 13025, 14997, 15532, 16131, 14988, 22835], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レゴプレート', 'keyword': 'lego plates'}, {'keywordCn': '乐高派对', 'searches': [23704, 24367, 23892, 20155, 18521, 15396, 15824, 16148, 15897, 14454, 8534, 0, 20544, 16990, 15445, 18798, 16237, 13496, 13717, 13117, 14158, 12233, 9027, 7355, 21374, 19731, 14537, 13056, 12595, 11585, 9934, 10887, 13010, 9284, 7825, 5177, 13216, 12047, 8816, 4885, 5054, 6139, 5697, 5570, 5783, 5090, 4240, 3304, 5344, 5161, 5448, 5238, 5951, 5525, 6318, 6026, 7017, 5088, 4192, 3420, 6235, 6161, 6053, 6335, 6283, 6104, 6054, 5963, 6606, 4835, 4520, 4099, 8281, 7422, 6259, 6134, 5429, 5194, 5621, 7361, 8688, 6232, 4649, 3917, 9184, 7604, 7598, 9616, 8219, 6692, 7908, 8340, 8464, 6094, 4062, 3040, 7513, 6719, 6626, 6092, 5773, 5399, 5821, 5733, 6307, 5188, 4374], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レゴパーティー', 'keyword': 'lego party'}, {'keywordCn': '乐高派对装饰品', 'searches': [0, 0, 0, 5350, 5975, 5527, 0, 0, 5212, 6071, 0, 0, 0, 4961, 0, 4694, 5281, 0, 0, 3612, 3489, 2039, 1724, 620, 5329, 3608, 0, 3604, 2017, 1515, 1414, 5270, 7388, 6602, 5056, 3838, 12120, 14341, 9140, 5556, 5508, 6078, 7253, 5341, 4993, 3304, 3202, 1952, 3436, 4710, 4576, 4764, 6139, 5322, 6561, 6054, 7286, 6543, 5630, 4713, 7712, 8114, 8294, 9316, 9087, 8882, 6986, 8319, 8068, 6068, 5818, 4678, 9852, 8699, 7318, 8690, 9093, 8814, 8563, 14429, 16511, 13224, 9629, 6228, 19574, 17443, 17088, 19456, 17171, 17459, 18283, 19984, 19657, 14209, 9778, 6497, 17212, 16155, 15456, 14014, 13530, 14246, 15677, 15969, 17992, 14025, 9165], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レゴパーティーの装飾', 'keyword': 'lego party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '美人鱼生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1856, 5648, 6094, 1736, 0, 0, 1886, 4991, 5881, 5671, 5394, 7852, 8678, 6086, 7093, 8743, 6989, 15579, 11295, 6879, 8430, 23730, 82563, 59976, 49259, 28997, 13899, 12864, 14592, 21701, 21045, 24743, 22725, 29578, 31288, 83069, 119311, 92844, 41876, 31368, 21180, 88817, 96845, 119292, 121928, 139978, 131928, 97314, 124832, 111725, 48042, 49115, 24392, 50065, 70520, 90410, 85256, 138369, 135543, 109390, 127377, 138865, 65670, 39495, 32595, 126923, 118682, 126870, 121632, 125847, 136919, 118595, 112257, 116415, 54270, 43156, 27751, 62512, 82775, 87688, 91172, 114019, 110239, 121593, 114071, 85271, 55314, 44355], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚の誕生日の装飾', 'keyword': 'mermaid birthday decorations'}, {'keywordCn': '下海派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 6724, 7126, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5225, 4597, 8209, 12392, 20005, 15718, 14273, 47462, 52391, 32049, 33522, 34717, 33736, 34980, 30509, 27039, 20261, 13099, 9443, 13442, 20803, 17496, 1234, 1704, 952, 3715, 4398, 4521, 4912, 4691, 5226, 14556, 14631, 16540, 23420, 29168, 30957, 33702, 25191, 22447, 19710, 12585, 8414, 19150, 22177, 29179, 28547, 38944, 42563, 36242, 36416, 25475, 21917, 12723, 9769, 28501, 30724, 25715, 30736, 39759, 41390, 34453, 48419, 34513, 8036, 16427, 12044, 37504, 37585, 48145, 56011, 62887, 62866, 58354, 49444, 44538, 37490, 16948, 12725, 34519, 38929, 45212, 48523, 58423, 59272, 58494, 47953, 42716, 35261, 17997], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '海のパーティーの装飾の下で', 'keyword': 'under the sea party decorations'}, {'keywordCn': '美人鱼派对', 'searches': [20099, 20011, 21192, 23812, 31600, 36037, 41025, 32199, 25598, 20724, 0, 0, 28998, 26155, 24694, 34547, 35335, 36939, 43613, 38190, 24318, 19520, 14525, 12124, 35327, 31264, 31102, 31129, 34897, 39833, 39008, 35001, 29544, 22581, 15520, 13118, 25011, 21225, 15546, 8560, 15287, 21966, 23598, 16283, 14842, 10526, 8923, 6559, 13833, 12832, 15021, 18305, 20866, 21522, 23320, 15603, 13019, 8656, 7423, 5946, 9384, 9980, 9863, 11383, 13220, 14764, 14701, 12840, 9401, 6512, 6280, 5157, 11668, 9615, 8795, 11389, 13152, 14354, 14597, 20287, 15227, 10721, 5852, 4555, 9302, 8240, 9895, 12736, 13452, 16514, 15708, 13496, 8993, 7042, 4590, 3323, 8880, 6345, 7731, 8597, 13701, 14621, 15226, 11433, 7670, 4209, 3036], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マーメイドパーティー', 'keyword': 'mermaid party'}, {'keywordCn': '美人鱼派对装饰品', 'searches': [0, 0, 15112, 0, 18664, 20997, 20211, 18848, 14913, 0, 0, 0, 20374, 16272, 16194, 21062, 22821, 25032, 27227, 25457, 20072, 16792, 12448, 11665, 24643, 19894, 18822, 19383, 23194, 32104, 33510, 35795, 34187, 25860, 17364, 13296, 37304, 37656, 21688, 13255, 30076, 43029, 53226, 86692, 113171, 76030, 43437, 17132, 77471, 95674, 123321, 142639, 160173, 153503, 140921, 27138, 31221, 21489, 18827, 15663, 20851, 20146, 22479, 22949, 31553, 38513, 38115, 34345, 20045, 21342, 16403, 16095, 36647, 26948, 16272, 19952, 25017, 38372, 36992, 56158, 34920, 35900, 45332, 20607, 30292, 24516, 29350, 36548, 41662, 44715, 49181, 44017, 29221, 23997, 15213, 11306, 28226, 20383, 18841, 20302, 27786, 30541, 30693, 25883, 20870, 13487, 8120], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚のパーティーの装飾', 'keyword': 'mermaid party decorations'}, {'keywordCn': '美人鱼装饰', 'searches': [65482, 85989, 123554, 115850, 116881, 98860, 100752, 97332, 73783, 50605, 48352, 45532, 71882, 116637, 152110, 164438, 152382, 130917, 124782, 80970, 57912, 45358, 48962, 44413, 63175, 66143, 51038, 71934, 50537, 97376, 43174, 47355, 39550, 23097, 24950, 25563, 27619, 29920, 26122, 19810, 29469, 34280, 37077, 31321, 29026, 25586, 25552, 38272, 59204, 40683, 46122, 43866, 35899, 24365, 27142, 22130, 17277, 13597, 16833, 16098, 17481, 19979, 21609, 19044, 19464, 16417, 17706, 17224, 15345, 11052, 13202, 15103, 14271, 15829, 14295, 13138, 13097, 15348, 15352, 19669, 16014, 11096, 12517, 12894, 11965, 14926, 16189, 16018, 16318, 16513, 18156, 15290, 12862, 8322, 8233, 9950, 10982, 11596, 12100, 12571, 14841, 16105, 15702, 13246, 9332, 6882, 6863], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マーメイドデコ', 'keyword': 'mermaid decor'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '爱丽丝梦游仙境装饰', 'searches': [0, 0, 0, 0, 7396, 0, 0, 0, 21338, 3146, 0, 2816, 3480, 0, 0, 0, 0, 0, 14350, 15568, 13116, 11754, 3633, 2797, 6871, 3306, 6656, 4597, 1901, 4816, 3722, 8536, 10752, 5459, 6488, 6931, 6212, 7349, 5516, 5527, 11596, 9020, 8604, 7324, 6387, 5103, 6363, 11053, 22931, 22481, 27662, 25451, 21746, 18948, 25899, 24424, 24792, 18869, 16556, 15371, 26666, 22598, 26789, 27787, 26891, 19637, 16820, 22365, 18958, 11986, 11413, 16547, 45944, 41519, 23685, 20596, 19723, 21963, 17726, 28176, 25873, 14640, 13777, 20705, 30820, 27242, 39567, 29230, 32042, 26416, 28899, 29736, 30181, 19377, 15037, 18494, 33207, 28392, 25355, 23308, 25826, 26832, 31958, 43868, 39551, 31878, 20084], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '不思議の国の装飾のアリス', 'keyword': 'alice in wonderland decor'}, {'keywordCn': '爱丽丝梦游仙境派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 2997, 2972, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3408, 0, 0, 3846, 0, 0, 0, 0, 0, 0, 1593, 1616, 1637, 1874, 0, 3854, 3705, 3097, 2243, 3683, 5519, 7797, 8033, 7866, 5884, 2304, 2324, 8154, 14170, 18058, 26439, 30585, 27783, 35372, 31502, 34417, 24175, 17423, 12985, 39766, 42527, 45844, 45004, 40279, 41158, 35275, 44460, 39932, 26356, 13459, 12316, 31592, 35916, 41261, 38334, 12530, 22403, 24686, 42676, 46591, 35161, 4376, 5251, 45783, 45768, 42835, 52077, 43436, 40804, 38474, 40685, 46933, 36199, 14248, 7015, 22322, 34936, 42747, 38703, 32699, 26728, 26234, 23895, 34176, 41146, 18520], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '不思議の国のパーティーの装飾のアリス', 'keyword': 'alice in wonderland party decorations'}, {'keywordCn': '爱丽丝在 onederland 一岁生日的女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2744, 2698, 1800, 853, 0, 1770, 1945, 0, 2131, 1340, 798, 966, 3080, 3364, 3799, 3386, 3402, 3656, 4450, 4298, 4138, 4021, 4222, 4354, 7787, 7210, 7553, 5555, 5181, 4817, 5399, 5273, 5134, 4573, 4464, 4484, 9688, 7329, 5433, 4652, 4409, 4213, 4157, 4670, 4493, 4035, 3803, 3960, 9158, 6319, 4613, 4080, 3682, 3578, 3964, 3706, 3656, 3210, 2797, 2677, 7123, 5023, 4637, 3053, 2911, 3028, 3447, 3533, 2336, 2213, 1698], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ワンダーランドのアリス1歳の誕生日の女の子', 'keyword': 'alice in onederland 1st birthday girl'}, {'keywordCn': '爱丽丝梦游仙境派对优惠', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2168, 1841, 0, 1201, 1364, 1827, 0, 0, 0, 0, 0, 0, 2420, 2170, 1384, 0, 0, 0, 0, 0, 0, 783, 0, 0, 969, 1330, 1814, 1772, 1718, 2018, 2788, 2360, 2909, 2460, 2341, 1130, 3599, 4275, 4938, 4780, 5554, 5828, 5374, 5321, 5383, 4534, 3074, 2841, 5616, 5378, 5527, 4976, 5174, 3990, 4131, 4385, 4556, 3882, 2772, 2113, 6506, 5092, 5236, 6867, 4434, 3457, 4213, 4521, 5346, 4479, 3030, 1690, 5514, 5933, 5773, 5257, 4821, 3340, 3490, 3826, 4460, 4296, 2187], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '不思議の国のアリスの好意', 'keyword': 'alice in wonderland party favors'}, {'keywordCn': '仙境茶具', 'searches': [4780, 4532, 3779, 0, 3408, 0, 0, 0, 2836, 3173, 3175, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2304, 2664, 2848, 4893, 1564, 3410, 3742, 2017, 3659, 3881, 2550, 2435, 2918, 3319, 3844, 3588, 3215, 3703, 3485, 2524, 2787, 2768, 3406, 3336, 3495, 3345, 3588, 4491, 4899, 5447, 4999, 5064, 4067, 4397, 4643, 4449, 4424, 5343, 5315, 5629, 5746, 6568, 5105, 4466, 4138, 3835, 4557, 4493, 4575, 5337, 5732, 8646, 5943, 4561, 4686, 3168, 3022, 2747, 3720, 3598, 3981, 4561, 4996, 4607, 7621, 6010, 4945, 3877, 3045, 2993, 3429, 3373, 3112, 3229, 4340, 3895, 3922, 2898, 2948, 3030, 2466, 2046, 2530, 3191, 2900, 2711], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'alice in wonderland ティーセット', 'keyword': 'alice in wonderland tea set'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': 'roblox 派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1726, 2004, 1757, 1669, 0, 1944, 2315, 2653, 1686, 0, 4993, 6521, 6587, 5609, 3864, 4166, 2686, 3669, 4899, 5418, 6026, 8168, 7944, 8707, 9043, 9851, 6207, 5064, 3902, 8076, 8288, 9478, 8385, 10060, 8318, 7893, 12497, 11710, 7463, 6405, 6053, 13723, 11373, 8593, 9491, 16282, 24342, 30368, 61035, 57176, 44385, 31263, 14579, 28498, 21289, 25334, 31344, 30038, 31278, 27411, 31013, 33816, 18301, 14448, 11736, 29161, 21564, 25633, 20531, 20004, 20608, 23140, 27006, 32154, 20132, 17342], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'robloxパーティーの装飾', 'keyword': 'roblox party decorations'}, {'keywordCn': 'Fortnite 生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1995, 2793, 3078, 2607, 2105, 0, 0, 2635, 3189, 2081, 1102, 0, 1375, 1670, 0, 0, 0, 1772, 1383, 773, 1906, 2158, 2937, 4608, 4538, 3409, 2719, 2220, 1419, 2689, 2738, 2900, 2690, 2932, 2590, 6896, 13463, 12416, 12555, 12756, 11829, 24795, 19522, 23567, 22193, 19437, 17222, 14841, 15899, 15036, 12378, 11552, 9341, 19501, 19284, 18011, 15555, 5106, 5113, 5576, 10846, 20082, 40877, 34049, 22982, 90716, 93715, 117253, 130625, 121760, 99380, 90877, 98469, 119496, 73354, 57252, 37485, 83201, 98234, 113519, 91409, 86690, 81619, 72967, 67743, 70264, 49298, 45075], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'Fortniteの誕生日の装飾', 'keyword': 'fortnite birthday decorations'}, {'keywordCn': '玩家生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 830, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6185, 6717, 7018, 12100, 15858, 12665, 8619, 6267, 21327, 17138, 17100, 20674, 19660, 15372, 16657, 17026, 22406, 14278, 8939, 6076, 16972, 16064, 18169, 14789, 13455, 11744, 13361, 14408, 16837, 11188, 9796], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ゲーマーの誕生日パーティーの装飾', 'keyword': 'gamer birthday party decorations'}, {'keywordCn': 'roblox 生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 911, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 610, 627, 0, 954, 660, 942, 2841, 4052, 3192, 3776, 4615, 4179, 4177, 4650, 14622, 19391, 15125, 11817, 8709, 7870, 6840, 6277, 5907, 5413, 5380, 4662, 7458, 6133, 4300, 3491, 2928, 5563, 5164, 3869, 3621, 4673, 4595, 5972, 10543, 13315, 19252, 16937, 15610, 62979, 59644, 61250, 68993, 62601, 64151, 61940, 66282, 66789, 47353, 34501, 20651, 44176, 57007, 61491, 52433, 52212, 52824, 60264, 62084, 66554, 53319, 42244], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'robloxの誕生日の飾り', 'keyword': 'roblox birthday decorations'}, {'keywordCn': '电子游戏生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2478, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2363, 1965, 1439, 0, 645, 966, 1128, 1175, 1646, 1391, 684, 657, 1680, 1424, 889, 867, 844, 611, 773, 595, 0, 650, 0, 0, 695, 1233, 1936, 1530, 1813, 1878, 1642, 1461, 1299, 933, 959, 699, 892, 547, 767, 1762, 3039, 3114, 3698, 4457, 4678, 4465, 4194, 4302, 15238, 14856, 15957, 18280, 19163, 20550, 16149, 18446, 20727, 13366, 8772, 5172, 14872, 16578, 17521, 15715, 17009, 14938, 13506, 14649, 14716, 9795, 7807], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ビデオゲームの誕生日の装飾', 'keyword': 'video game birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '派对用粉色盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 516, 453, 540, 778, 825, 517, 897, 1160, 3336, 4511, 9621, 8332, 8683, 14092, 5764, 844, 953, 0, 4395, 6035, 5591, 6270, 6172, 6406, 5860, 6389, 5082, 4142, 3318, 2840, 9082, 8870, 6737, 8502, 12227, 9676, 14411, 15202, 17273, 14876, 12036], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パーティー用ピンクプレート', 'keyword': 'pink plates for party'}, {'keywordCn': '派对的粉红色装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1216, 1469, 1299, 3984, 5345, 4891, 6332, 8777, 7989, 8167, 8451, 8307, 6313, 5208, 2327, 6041, 6756, 6629, 6450, 4457, 6534, 7147, 9723, 10804, 5145, 6676, 4325, 15069, 18826, 16826, 15885, 18271, 15010, 13256, 12304, 14874, 11312, 6157, 3396, 9457, 14040, 9519, 10949, 16646, 14648, 10013, 8731, 11726, 8963, 6334], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パーティーのためのピンクの装飾', 'keyword': 'pink decorations for party'}, {'keywordCn': '粉红色派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1635, 0, 0, 0, 0, 1954, 0, 2525, 922, 1436, 1310, 1578, 0, 0, 1565, 0, 0, 3622, 3502, 1940, 712, 891, 1419, 881, 1338, 822, 1352, 1077, 634, 2090, 2221, 1861, 2447, 2525, 2520, 2356, 2338, 2020, 1665, 1274, 1179, 2613, 3422, 2851, 2885, 3463, 3171, 3374, 3300, 3503, 2581, 2367, 1780, 4813, 4739, 4494, 4517, 5606, 5642, 7712, 9658, 9951, 7121, 3992, 3386, 7859, 8374, 5645, 6117, 6928, 6730, 6346, 6870, 7602, 5568, 3740, 2888, 7643, 8569, 6061, 6135, 8338, 6189, 6270, 6717, 7308, 5914, 4064], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのパーティーの装飾', 'keyword': 'pink party decor'}, {'keywordCn': '粉色派对盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4807, 0, 0, 7155, 6272, 5461, 2469, 2103, 5626, 4162, 6395, 6287, 6930, 6319, 7539, 6929, 9786, 9207, 6223, 3988, 8436, 8763, 6126, 2158, 6621, 5458, 5811, 15967, 7819, 8320, 5520, 3379, 6453, 7824, 7975, 9160, 10052, 8700, 8710, 9882, 9256, 5325, 4370, 3504, 6691, 7361, 7050, 8634, 8882, 7896, 7526, 7368, 7237, 5689, 4988, 3907, 8986, 8273, 7070, 7564, 7842, 7296, 7566, 12391, 11444, 7901, 5277, 4140, 11991, 11901, 12332, 15219, 15586, 12567, 11185, 12180, 12639, 9114, 6149, 4955, 15669, 15035, 15570, 15784, 16829, 12557, 11406, 12697, 12361, 8151, 6684], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのパーティープレート', 'keyword': 'pink party plates'}, {'keywordCn': '粉红色的派对装饰品', 'searches': [0, 14313, 13292, 0, 14343, 13714, 13871, 13245, 15540, 15362, 0, 0, 16818, 17653, 16138, 19212, 18211, 14799, 16258, 14950, 17045, 14978, 10956, 6689, 18675, 17841, 18685, 19216, 19703, 15934, 16722, 16760, 18876, 16263, 11949, 9142, 13020, 11542, 14373, 9309, 15182, 14610, 17462, 18457, 20806, 16721, 13436, 9087, 18271, 18658, 19561, 23249, 23592, 18238, 23439, 22098, 25768, 20028, 15211, 11861, 27727, 31166, 32664, 33426, 36771, 36683, 32431, 35218, 34637, 24007, 17054, 13568, 36363, 38567, 30511, 32673, 31025, 39095, 49477, 77748, 70296, 52121, 38279, 44790, 65818, 63374, 60448, 65323, 63076, 59602, 53572, 53513, 57865, 42679, 26469, 22707, 51765, 49569, 44526, 46653, 49984, 46177, 44875, 44710, 48162, 35372, 27781], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのパーティーの装飾', 'keyword': 'pink party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '怪物果酱生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 485, 0, 0, 0, 0, 0, 0, 0, 0, 608, 666, 0, 736, 1225, 1058, 0, 0, 0, 592, 739, 720, 0, 592, 666, 3742, 3173, 1427, 1467, 1077, 1382, 1625, 2483, 3577, 16546, 12659, 9607, 37840, 36814, 43507, 45178, 42005, 40230, 37642, 38488, 39808, 26788, 18127, 13194, 38407, 48551, 52107, 48759, 47269, 46029, 46474, 48821, 48370, 35207, 29770], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタージャムの誕生日の飾り', 'keyword': 'monster jam birthday decorations'}, {'keywordCn': '掘墓人生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1305, 1394, 718, 2881, 3838, 6140, 7120, 5919, 5842, 5728, 6181, 5867, 4381, 2804, 1765, 5660, 7306, 6693, 6450, 6761, 6751, 6187, 6072, 7135, 5063, 3821], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '墓掘り人の誕生日飾り', 'keyword': 'grave digger birthday decorations'}, {'keywordCn': '怪物果酱生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1066, 0, 0, 0, 1871, 0, 1778, 0, 1356, 0, 0, 0, 0, 0, 0, 0, 1358, 1309, 0, 941, 846, 0, 1282, 580, 0, 450, 0, 936, 0, 737, 0, 709, 0, 985, 1082, 1452, 816, 922, 921, 1701, 1738, 2712, 2260, 2292, 2025, 1904, 2050, 2031, 1829, 1333, 1603, 4131, 3794, 3804, 3681, 3247, 2901, 2966, 3607, 3370, 2928, 2416, 2395, 4582, 4702, 5485, 5810, 3704, 4081, 4508, 4214, 4467, 3220, 2827, 2780, 6628, 6611, 6460, 5704, 6241, 6114, 6609, 6065, 5770, 3928, 3100], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタージャムの誕生日', 'keyword': 'monster jam birthday'}, {'keywordCn': '怪物果酱派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 720, 0, 0, 680, 905, 0, 715, 660, 915, 0, 802, 939, 763, 847, 839, 727, 822, 798, 0, 1150, 1921, 1217, 1895, 1835, 1452, 1599, 1365, 1750, 1614, 1869, 1741, 1463, 1699, 2281, 5306, 4543, 3268, 2408, 2164, 2303, 2493, 3586, 2969, 3455, 2769, 2875, 3838, 3870, 2732, 5016, 4217, 3289, 3206, 3011, 2506, 4574, 5584, 5192, 14037, 9900, 9675, 8565, 7821, 7587, 8117, 8913, 7214, 5374, 4536], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタージャムパーティーデコレーション', 'keyword': 'monster jam party decorations'}, {'keywordCn': '怪物卡车生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2093, 0, 860, 729, 605, 2069, 0, 2828, 1522, 3544, 3776, 3063, 1873, 2252, 1716, 1578, 1357, 2852, 2349, 3085, 1326, 2805, 3060, 3068, 3190, 3275, 2467, 1831, 1699, 3337, 3065, 3566, 3910, 3543, 3876, 3831, 4043, 3923, 3479, 2727, 2320, 3692, 4674, 5077, 4494, 4831, 4579, 4013, 4578, 4624, 3865, 2925, 3343, 7010, 5574, 4598, 4754, 4413, 3976, 4181, 5022, 5990, 4058, 3872, 3625, 6254, 6671, 7767, 8534, 7122, 6470, 7044, 7208, 8053, 5889, 4790, 4307, 11966, 7726, 7856, 8017, 8872, 8526, 8920, 8712, 8106, 5875, 4858], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタートラックの誕生日', 'keyword': 'monster truck birthday'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '芝麻街派对优惠', 'searches': [0, 0, 5944, 5965, 0, 7329, 7329, 6811, 5359, 0, 0, 0, 5514, 6421, 5467, 6484, 5864, 6751, 5598, 7773, 9081, 7204, 1857, 2314, 5389, 4050, 5591, 5414, 5339, 5260, 6441, 8564, 7625, 5355, 4744, 3805, 6519, 6229, 4350, 826, 2048, 2967, 3584, 3224, 3991, 4379, 2724, 1289, 3727, 4062, 5590, 6400, 6119, 7644, 7905, 5667, 6604, 6570, 4733, 3457, 5537, 7868, 9924, 12004, 9666, 9148, 8235, 8607, 7783, 5826, 5272, 4389, 7624, 8141, 7358, 7609, 6944, 7633, 6764, 9541, 9861, 9083, 6948, 4509, 15163, 11785, 13618, 15011, 14960, 11758, 13150, 13574, 11179, 8001, 5106, 3389, 10124, 11843, 13494, 10921, 12354, 11538, 12752, 14779, 15318, 11191, 8659], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セサミストリートパーティーの好意', 'keyword': 'sesame street party favors'}, {'keywordCn': '埃尔莫生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 679, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 677, 1031, 521, 1172, 792, 724, 573, 971, 1147, 914, 1267, 579, 772, 0, 792, 686, 841, 841, 929, 717, 2507, 2169, 2400, 1550, 1626, 1385, 1657, 2164, 1973, 2025, 1946, 2224, 5271, 4435, 2680, 2425, 2901, 3530, 4140, 4468, 6180, 12539, 14531, 9307, 35342, 31433, 28603, 30755, 26387, 26781, 24629, 22689, 20723, 9197, 8028, 6387, 18880, 24624, 26443, 23800, 22727, 22616, 23772, 23691, 28493, 22476, 19579], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'エルモの誕生日の装飾', 'keyword': 'elmo birthday decorations'}, {'keywordCn': '芝麻街生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 989, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2258, 0, 1602, 1869, 1862, 1646, 1872, 1479, 1380, 1353, 674, 664, 1152, 1449, 1438, 1696, 2348, 1794, 1425, 1993, 2011, 1747, 1319, 1343, 2061, 2425, 2732, 2280, 2175, 2026, 1864, 2220, 1599, 1171, 821, 1806, 3571, 2607, 1821, 1527, 1820, 3374, 4192, 4148, 4218, 5056, 5499, 6949, 15575, 18830, 15849, 13710, 12730, 13103, 13005, 13221, 11771, 9651, 9050, 7485, 21643, 20255, 17868, 11383, 13162, 11482, 8326, 8896, 16599, 10056, 7208], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セサミストリートの誕生日の飾り', 'keyword': 'sesame street birthday decorations'}, {'keywordCn': '芝麻街盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 656, 916, 683, 0, 0, 442, 610, 0, 0, 0, 596, 649, 662, 0, 351, 0, 0, 801, 754, 0, 0, 1149, 0, 629, 744, 982, 0, 385, 649, 651, 747, 140, 0, 884, 1066, 984, 1292, 1404, 1337, 1210, 1248, 1386, 921, 656], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セサミストリートプレートとナプキン', 'keyword': 'sesame street plates and napkins'}, {'keywordCn': '芝麻街派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4035, 0, 0, 0, 0, 0, 832, 2394, 3317, 3096, 3084, 4260, 3204, 3207, 2641, 4524, 3301, 1622, 1373, 2222, 1995, 1892, 2421, 2099, 2288, 943, 648, 1256, 1705, 1999, 1906, 2337, 2531, 3283, 2814, 4025, 4472, 3565, 4296, 7099, 6128, 5995, 6556, 6806, 8057, 7581, 7100, 6291, 6715, 5047, 4221, 8985, 9676, 9216, 8495, 7730, 9587, 12826, 23588, 27390, 40154, 26988, 19011, 56943, 51525, 58718, 60153, 59294, 58454, 52856, 55347, 53356, 42703, 25921, 18364, 43479, 47952, 55372, 53286, 55469, 56144, 57767, 57701, 55041, 44579, 39379], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セサミストリートパーティーの装飾', 'keyword': 'sesame street party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '足球派对装饰品', 'searches': [15584, 0, 0, 0, 0, 0, 0, 14476, 0, 0, 0, 0, 20007, 0, 0, 0, 0, 0, 0, 24170, 22620, 14676, 6813, 0, 27586, 2328, 3227, 4100, 4564, 3019, 6000, 21535, 31664, 38323, 22700, 12292, 73340, 10446, 7331, 3825, 5954, 7080, 6952, 9762, 19547, 13938, 9619, 5110, 47622, 64451, 6905, 7204, 7854, 8091, 9647, 21199, 35742, 35876, 20497, 9380, 65910, 161106, 13039, 12326, 12861, 12647, 13060, 40980, 61286, 42424, 28405, 12822, 69534, 149472, 11912, 12091, 11981, 12153, 13743, 52376, 76233, 42110, 41663, 19486, 152996, 230667, 22143, 23835, 20697, 22349, 26663, 69203, 117834, 81320, 39565, 20263, 129532, 200728, 21097, 18509, 18310, 17520, 25958, 76985, 117277, 86764, 52773], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フットボール・パーティー・デコレーション', 'keyword': 'football party decorations'}, {'keywordCn': '足球派对', 'searches': [28223, 0, 0, 0, 0, 0, 0, 16087, 15661, 0, 0, 0, 25198, 0, 0, 0, 0, 0, 0, 14788, 14484, 9941, 2991, 1173, 29481, 2673, 2618, 1628, 3566, 3227, 4623, 12374, 13425, 9859, 6757, 3943, 32761, 5083, 3644, 1511, 2167, 2142, 1986, 3894, 6320, 4860, 3163, 1729, 8132, 8433, 2304, 2419, 2218, 2093, 3046, 8211, 9303, 6637, 5143, 2341, 12268, 17483, 3294, 3384, 3802, 3362, 4585, 11814, 12636, 9667, 5680, 4369, 16897, 29538, 3285, 3188, 2908, 3014, 4141, 16909, 21437, 16480, 6565, 4286, 22224, 26853, 3537, 4723, 4346, 3751, 5971, 20980, 24455, 16015, 7532, 4525, 28166, 24186, 3943, 3518, 4067, 3008, 6307, 22871, 21737, 14745, 7171], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フットボールパーティー', 'keyword': 'football party'}, {'keywordCn': '足球盘', 'searches': [14472, 3526, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 21707, 11554, 0, 0, 0, 0, 0, 6808, 8241, 6213, 2576, 651, 22595, 2729, 2488, 3296, 3427, 3834, 3799, 9120, 11603, 8389, 5567, 3245, 36242, 6007, 3683, 1833, 1822, 2459, 2309, 3561, 5895, 4961, 3799, 1976, 11924, 17649, 2438, 2427, 2390, 2193, 2609, 6165, 9412, 7896, 5557, 3169, 13289, 49151, 4599, 3741, 4026, 3353, 3199, 10267, 14356, 11205, 7264, 3962, 18521, 54159, 4009, 3224, 3211, 2939, 3750, 15889, 25024, 16780, 9656, 4469, 40361, 94978, 4296, 5645, 4015, 4028, 5718, 24816, 33933, 22295, 12772, 5136, 47766, 90845, 4463, 4942, 4264, 3540, 6242, 32269, 36548, 21272, 13654], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フットボールプレート', 'keyword': 'football plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 844, 1133, 1499, 3596, 3797, 4498, 7468, 11861, 15813, 12804, 7700, 6063, 15892, 9137, 7206, 6003, 6051, 7795, 12774, 17118, 18274, 13711, 9200], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'first year down birthday party decorations'}, {'keywordCn': '足球生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2238, 3998, 3966, 3425, 2573, 9027, 4855, 4997, 4564, 4396, 4138, 4591, 5389, 8537, 6966, 4572, 3205, 7767, 5588, 5442, 5124, 5029, 4631, 5097, 6183, 9967, 8802, 7817, 4952, 10811, 10545, 7991, 8237, 8490, 7633, 7217, 12673, 14238, 13036, 9769, 7514, 15116, 17455, 9237, 8564, 7638, 7391, 7843, 16920, 16244, 4895, 12524, 9097, 21186, 21249, 17566, 17885, 14113, 14546, 16540, 23615, 34060, 25261, 15886, 12208, 27220, 20497, 15609, 15643, 13053, 12343, 15295, 23014, 30802, 22248, 14495], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカーの誕生日パーティーの装飾', 'keyword': 'football birthday party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '美人鱼生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15196, 5434, 15378, 15350, 14557, 12138, 9997, 7176, 7115, 15807, 9382, 13541, 13237, 14535, 17459, 19379, 17929, 16237, 12312, 9730, 7573, 14424, 13323, 12311, 8664, 13877, 17740, 19777, 14304, 13587, 9931, 8304, 7124, 13854, 12952, 13546, 13960, 14822, 14183, 15531, 15450, 13036, 8555, 6792, 5310, 11155, 9475, 9382, 9877, 9849, 11352, 11437, 11120, 7826, 5649, 4630, 4491, 8834, 7068, 6297, 6993, 8275, 11857, 11867, 14625, 9869, 6638, 4393, 4153, 7298, 6612, 7448, 9119, 8966, 10056, 11794, 8975, 7613, 5149, 3697, 3284, 8395, 6141, 5782, 6385, 7741, 8906, 9722, 8475, 4807, 3153, 2607], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚の誕生日', 'keyword': 'mermaid birthday'}, {'keywordCn': '美人鱼生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1856, 5648, 6094, 1736, 0, 0, 1886, 4991, 5881, 5671, 5394, 7852, 8678, 6086, 7093, 8743, 6989, 15579, 11295, 6879, 8430, 23730, 82563, 59976, 49259, 28997, 13899, 12864, 14592, 21701, 21045, 24743, 22725, 29578, 31288, 83069, 119311, 92844, 41876, 31368, 21180, 88817, 96845, 119292, 121928, 139978, 131928, 97314, 124832, 111725, 48042, 49115, 24392, 50065, 70520, 90410, 85256, 138369, 135543, 109390, 127377, 138865, 65670, 39495, 32595, 126923, 118682, 126870, 121632, 125847, 136919, 118595, 112257, 116415, 54270, 43156, 27751, 62512, 82775, 87688, 91172, 114019, 110239, 121593, 114071, 85271, 55314, 44355], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚の誕生日の装飾', 'keyword': 'mermaid birthday decorations'}, {'keywordCn': '美人鱼盘子', 'searches': [0, 0, 0, 0, 2704, 4772, 5330, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4835, 0, 11846, 12492, 7972, 6058, 2543, 1361, 4041, 4151, 8006, 8168, 9873, 11653, 11343, 12201, 9380, 7966, 6208, 4421, 8222, 9181, 8251, 3753, 5672, 8106, 9158, 7829, 7163, 5031, 3792, 2862, 5248, 5820, 6895, 7729, 8950, 9086, 11968, 9564, 8037, 5744, 4231, 3429, 5610, 5758, 6168, 6601, 7782, 9079, 8970, 9394, 6516, 5212, 4252, 3434, 6394, 5714, 5418, 6308, 7605, 9330, 9369, 11938, 8614, 5072, 3889, 2994, 6606, 5814, 6466, 7188, 7465, 8398, 8465, 8158, 6101, 3836, 2629, 1719, 4719, 4631, 6026, 5972, 8172, 9758, 11126, 8789, 6319, 3514, 2788], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚のプレート', 'keyword': 'mermaid plates'}, {'keywordCn': '美人鱼装饰品', 'searches': [0, 0, 0, 14285, 15750, 16921, 19084, 16092, 15213, 15872, 12770, 0, 17587, 15771, 14787, 16868, 16694, 19166, 20686, 18622, 15161, 15762, 11715, 8036, 8120, 11865, 12261, 13116, 14489, 15524, 18007, 16483, 14615, 12856, 10580, 7628, 13674, 13641, 8215, 6006, 10041, 8627, 12311, 9747, 7584, 5831, 5297, 3853, 5868, 7137, 9121, 9351, 11684, 11844, 13785, 12408, 8972, 7852, 5447, 4066, 5950, 6737, 7991, 8780, 10103, 11522, 9851, 11179, 9110, 7436, 4281, 3758, 7152, 5803, 5729, 6239, 6957, 11013, 9997, 13856, 10029, 11294, 4330, 3929, 5178, 5682, 6256, 7519, 7616, 9793, 9978, 7793, 7231, 7562, 2811, 2807, 7014, 4985, 5184, 5530, 7435, 7896, 8630, 7084, 5275, 4590, 2489], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚の装飾', 'keyword': 'mermaid decorations'}, {'keywordCn': '美人鱼派对装饰品', 'searches': [0, 0, 15112, 0, 18664, 20997, 20211, 18848, 14913, 0, 0, 0, 20374, 16272, 16194, 21062, 22821, 25032, 27227, 25457, 20072, 16792, 12448, 11665, 24643, 19894, 18822, 19383, 23194, 32104, 33510, 35795, 34187, 25860, 17364, 13296, 37304, 37656, 21688, 13255, 30076, 43029, 53226, 86692, 113171, 76030, 43437, 17132, 77471, 95674, 123321, 142639, 160173, 153503, 140921, 27138, 31221, 21489, 18827, 15663, 20851, 20146, 22479, 22949, 31553, 38513, 38115, 34345, 20045, 21342, 16403, 16095, 36647, 26948, 16272, 19952, 25017, 38372, 36992, 56158, 34920, 35900, 45332, 20607, 30292, 24516, 29350, 36548, 41662, 44715, 49181, 44017, 29221, 23997, 15213, 11306, 28226, 20383, 18841, 20302, 27786, 30541, 30693, 25883, 20870, 13487, 8120], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '人魚のパーティーの装飾', 'keyword': 'mermaid party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '汽车餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 736, 0, 0, 0, 572, 0, 1090, 788, 537, 0, 750, 877, 1630, 1303, 1568, 1636, 1984, 1525, 1597, 1249, 1192, 754, 1506, 1323, 1349, 1749, 1967, 1804, 1648, 1959, 1887, 1669, 1139, 610, 1788, 1689, 1827, 2352, 1932, 1714, 1593, 2231, 2363, 1953, 1778, 1680, 2439, 2860, 2479, 2910, 2453, 2171, 2307, 2391, 2686, 1939, 1753, 1781, 2542, 2763, 3055, 3225, 3139, 2884, 2783, 2932, 2825, 2470, 2042], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '車のナプキン', 'keyword': 'car napkins'}, {'keywordCn': '格纹盘子和餐巾', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1523, 1213, 844, 1938, 1658, 1563, 1493, 1442, 1457, 1700, 1763, 1435, 1069, 799, 140, 1209, 1688, 1821, 1423, 1542, 1288, 1399, 1353, 911, 1097, 635], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '市松模様の皿とナプキン', 'keyword': 'checkered plates and napkins'}, {'keywordCn': '方格板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1273, 0, 0, 774, 611, 0, 0, 760, 982, 0, 0, 736, 833, 986, 1287, 1153, 1591, 1498, 1501, 1397, 815, 914, 1715, 1839, 2508, 1943, 2578, 2206, 2068, 2414, 2530, 2484, 1806, 1599, 3721, 3610, 3127, 3885, 3841, 3578, 3551, 4427, 4687, 4072, 3299, 2496, 4680, 4609, 4867, 6292, 5243, 5208, 6099, 5391, 6098, 4638, 3331, 2541, 6896, 5262, 4885, 5645, 6352, 5738, 6053, 6528, 5716, 4545, 3550], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '市松模様のプレート', 'keyword': 'checkered plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 835, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 140, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'race car birthday plates'}, {'keywordCn': '赛车车牌', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 649, 0, 0, 507, 670, 804, 1140, 747, 893, 683, 672, 606, 694, 820, 965, 1151, 1287, 1210, 889, 1244, 784, 554, 573, 467, 1694, 1693, 1510, 1714, 1321, 1514, 1352, 2071, 2196, 1918, 1572, 899, 2589, 2486, 1821, 1955, 1798, 1510, 1440, 1583, 1659, 1430, 1116, 502, 2053, 1806, 2068, 1906, 1898, 1772, 1674, 1908, 2163, 1488, 1281], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レースカープレート', 'keyword': 'race car plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '男孩的 13 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2789, 3601, 3256, 6294, 8848, 10076, 12153, 11821, 11123, 8920, 7139, 5481, 13677, 12969, 12684, 11845, 11703, 9461, 10847, 8813, 9977, 8344, 7492, 5496, 11851, 12075, 11378, 11710, 12036, 11465, 9296, 12539, 11292, 9485, 7657, 6074, 13195, 12342, 9965, 10105, 11587, 9699, 9758, 15354, 16889, 7293, 11730, 7048, 20005, 19369, 20386, 22908, 22209, 21756, 20644, 22541, 24356, 17677, 13234, 10582, 23751, 22974, 23843, 21977, 22671, 21833, 21585, 33617, 31163, 24418, 18579], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '男の子のための13歳の誕生日の装飾', 'keyword': '13th birthday decorations for boys'}, {'keywordCn': '13 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1711, 0, 962, 5966, 4060, 3817, 3344, 1861, 3603, 3728, 3950, 5633, 5052, 5426, 4438, 6354, 8357, 13419, 16108, 8245, 6034, 6244, 4564, 5250, 5209, 4474, 3017, 6282, 6050, 6494, 6020, 5763, 5544, 13131, 14784, 6118, 4626, 4245, 3109, 5554, 5559, 5476, 5305, 5424, 5150, 4682, 4989, 4672, 3897, 3505, 1942, 5499, 4516, 4916, 4354, 4684, 5019, 4716, 5986, 17042, 19858, 5594, 6887, 9819, 8188, 8635, 8893, 8370, 8223, 8828, 7605, 9390, 7093, 4988, 4013, 11057, 10289, 9302, 8110, 7695, 6934, 7986, 8338, 13436, 7782, 7290], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '13歳の誕生日の装飾', 'keyword': '13th birthday decorations'}, {'keywordCn': '13 岁生日', 'searches': [0, 3070, 0, 0, 0, 0, 3397, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8699, 7674, 7068, 7343, 1723, 5594, 4081, 5536, 5755, 6434, 3276, 5314, 5960, 7509, 5732, 5259, 3880, 7889, 11651, 6567, 9788, 7684, 6154, 6410, 5901, 7533, 6042, 4703, 4246, 8562, 8031, 8944, 7346, 6634, 5792, 7211, 6557, 6317, 4947, 4711, 3829, 7654, 7279, 6988, 6309, 7338, 6235, 6214, 6043, 6504, 5336, 4102, 3968, 8004, 6370, 6177, 6103, 5728, 5537, 5667, 7448, 9614, 5288, 4380, 3970, 8129, 7809, 8454, 9710, 8192, 8344, 8294, 8111, 9824, 7186, 4640, 3503, 9743, 9884, 9595, 7991, 7928, 7766, 7922, 8295, 9343, 6805, 5238], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '13歳の誕生日', 'keyword': '13th birthday'}, {'keywordCn': '13个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1756, 1908, 2319, 1407, 0, 0, 0, 1500, 1358, 1471, 0, 0, 1333, 862, 3185, 2591, 1860, 1144, 699, 2126, 1450, 1938, 1477, 3005, 3056, 3178, 2157, 2134, 2545, 1953, 2123, 1925, 952, 1348, 990, 2087, 2645, 1992, 1562, 1260, 1490, 2234, 1671, 1697, 1146, 887, 843, 2101, 2288, 2187, 1753, 3035, 2116, 2184, 2145, 1149, 1172, 775, 810, 1656, 1245, 1199, 663, 1135, 1324, 674, 1344, 1205, 1290, 1044, 380, 1414, 1246, 669, 624, 2885, 2890, 4035, 4483, 5709, 3250, 2799], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '13の誕生日の装飾', 'keyword': '13 birthday decorations'}, {'keywordCn': '13 个生日男孩的装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1184, 3479, 2863, 5593, 5435, 6205, 7855, 7168, 6996, 6990, 7489, 7906, 6018, 4699, 3205, 8276, 8540, 8959, 8029, 7771, 7600, 7592, 8262, 8427, 6216, 5143], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '13 誕生日の男の子のデコレーション', 'keyword': '13 birthday boy decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 438, 0, 671, 580, 485, 559, 517, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'striped plates'}, {'keywordCn': '嘉年华盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1649, 0, 912, 0, 0, 0, 1541, 0, 0, 1433, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 710, 603, 786, 605, 644, 0, 0, 0, 0, 0, 0, 902, 812, 1313, 911, 0, 576, 0, 0, 0, 0, 859, 824, 893, 1199, 698, 838, 810, 663, 0, 0, 0, 0, 917, 900, 1526, 1380, 1255, 1615, 1385, 1364, 0, 0, 1125, 1260, 601, 1302, 1477, 1129, 1286, 1266, 774, 885, 0, 0, 140, 0, 849, 620, 1550, 1353, 1261, 1142, 1412, 1197, 1], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'カーニバルプレート', 'keyword': 'carnival plates'}, {'keywordCn': '红白盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1355, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 553, 586, 0, 0, 0, 0, 0, 615, 0, 0, 516, 809, 0, 0, 0, 0, 0, 502, 0, 529, 0, 0, 0, 889, 553, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 667, 511, 443, 0, 827, 0, 863, 1097, 901, 0, 0, 507, 1449, 933, 548, 0, 755, 437, 140, 721, 677, 634, 864, 715, 1612, 1300, 937, 662, 677, 465, 657], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤と白のプレート', 'keyword': 'red and white plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 740, 560, 140, 535, 0, 549, 0, 0, 140, 0, 1203, 1158, 1444, 1443, 1229, 1085, 950, 595, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'striped paper plates'}, {'keywordCn': '红白纸盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 943, 0, 0, 0, 0, 0, 1523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 704, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 533, 618, 591, 1, 0, 827, 0, 0, 867, 0, 0, 0, 478, 808, 630, 0, 0, 297, 0, 0, 140, 140, 473, 0, 585, 1289, 680, 999, 626, 0, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '赤と白の紙皿', 'keyword': 'red and white paper plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日派对盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5998, 0, 0, 0, 3706, 6553, 6700, 3051, 1978, 5518, 4291, 3554, 2329, 1709, 967, 1366, 4091, 5536, 4107, 3053, 2065, 4883, 3900, 4879, 5228, 2638, 3776, 4101, 3835, 3566, 2944, 1799, 635, 2242, 2613, 3201, 4250, 4652, 4299, 4691, 4526, 5051, 4139, 3838, 2379, 3812, 4523, 5199, 5140, 5343, 4527, 5108, 4749, 4190, 3602, 2467, 1739, 4056, 3602, 3904, 3691, 3986, 4101, 4183, 4412, 4376, 4124, 2750, 2309, 4379, 4464, 3830, 4313, 4100, 3632, 3720, 3663, 3874, 3049, 2271, 1718, 4318, 4684, 4521, 4320, 4775, 5189, 4613, 5275, 5311, 3853, 3145], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日パーティープレート', 'keyword': 'birthday party plates'}, {'keywordCn': '男孩生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6555, 7287, 6368, 934, 0, 4324, 3024, 6016, 6890, 7269, 6806, 8012, 6889, 7575, 5716, 4932, 3644, 9087, 8875, 8102, 11115, 3651, 3116, 4508, 5388, 4894, 4078, 3056, 2525, 3538, 3779, 4045, 3662, 3489, 3264, 4470, 3838, 4362, 5388, 4143, 2783, 5257, 6072, 5553, 3099, 4162, 3037, 4506, 4880, 3481, 2692, 2198, 2658, 5275, 4632, 2274, 2467, 5393, 6833, 7201, 9117, 9816, 7597, 6964, 4941, 13340, 13069, 11752, 14413, 12708, 13073, 13684, 13784, 14547, 11996, 8342, 5949, 14093, 14404, 14493, 13651, 13805, 13702, 15452, 14220, 16912, 13074, 9876], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '男の子の誕生日の装飾', 'keyword': 'boy birthday decorations'}, {'keywordCn': '生日盘', 'searches': [15746, 15788, 15708, 14756, 15497, 15022, 15422, 15003, 14353, 14497, 2657, 0, 16336, 17016, 16340, 16699, 14531, 14545, 14531, 15317, 16667, 14011, 11089, 7295, 17194, 18091, 13024, 13797, 15037, 14224, 15347, 14635, 17601, 14596, 13803, 8982, 17489, 18868, 16160, 18274, 15744, 19999, 21592, 18344, 19396, 16054, 12051, 9060, 15605, 16148, 17871, 19278, 19340, 16429, 17546, 18076, 17976, 13495, 13116, 8779, 15574, 16001, 19041, 18384, 19423, 19786, 16475, 17869, 17598, 14864, 14756, 9275, 18141, 17449, 15155, 13617, 14984, 13522, 13404, 23440, 24044, 16871, 13841, 9846, 23879, 24857, 27303, 30198, 27749, 24615, 26137, 27363, 29417, 22675, 16908, 14306, 29366, 29509, 30302, 32619, 37036, 30561, 31619, 31130, 34912, 27667, 25837], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレート', 'keyword': 'birthday plates'}, {'keywordCn': '蓝色派对盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2832, 4252, 3421, 1056, 678, 3540, 2449, 3457, 2935, 1870, 4086, 1399, 3990, 4163, 3332, 2741, 1966, 4229, 4798, 3789, 1522, 3474, 4711, 3758, 3971, 3969, 3091, 2369, 1396, 3403, 4132, 4460, 4811, 5149, 4771, 5427, 4632, 4532, 3965, 3338, 2399, 4320, 4664, 5018, 6909, 8086, 6346, 5026, 5271, 5216, 3776, 2936, 2211, 4800, 4971, 4851, 5161, 5557, 5010, 4518, 4829, 4982, 3850, 2994, 2266, 4477, 4730, 5396, 7140, 7123, 6248, 5524, 5680, 5437, 3961, 2814, 2345, 6315, 5769, 7021, 7525, 8721, 7558, 6383, 6122, 5419, 3539, 2891], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いパーティープレート', 'keyword': 'blue party plates'}, {'keywordCn': '生日盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1845, 2139, 1814, 1361, 1264, 0, 0, 1623, 1524, 0, 0, 3299, 3584, 3633, 1700, 5537, 3908, 2500, 4156, 4172, 3855, 3984, 3745, 5797, 7041, 5953, 8700, 7937, 3194, 4492, 4487, 5176, 4278, 3990, 3364, 5453, 5500, 6528, 5760, 6372, 4925, 5150, 5355, 5649, 4985, 13926, 4336, 6324, 5702, 6745, 6340, 8661, 11459, 9915, 18218, 19769, 19451, 14162, 10098, 23302, 23781, 27229, 29463, 26078, 25380, 23785, 27374, 28809, 21323, 15454, 11429, 26276, 30732, 32205, 33151, 35028, 29434, 29107, 31939, 34632, 28174, 23291], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレートとナプキン', 'keyword': 'birthday plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '威廉姆斯："威廉姆斯："威廉姆斯：', 'searches': [82297, 109575, 131359, 118257, 108335, 89154, 93306, 94021, 130418, 82381, 52957, 17880, 85936, 116293, 112330, 96469, 83667, 74836, 68970, 76115, 91531, 67644, 45484, 15214, 66990, 83427, 55741, 63648, 58888, 94339, 35963, 35226, 52138, 49800, 34715, 16658, 38847, 53448, 46261, 24373, 17372, 22092, 22658, 29319, 33585, 23009, 24214, 13905, 38962, 35974, 46028, 65553, 76878, 74521, 80223, 70353, 73732, 42156, 29377, 15232, 27387, 25629, 21702, 21235, 21365, 16620, 14708, 21309, 18673, 15954, 14299, 11085, 20986, 18045, 13145, 14646, 12637, 11885, 12393, 23339, 19273, 9694, 9209, 5806, 12591, 10048, 11286, 12858, 15784, 13587, 12418, 14610, 16886, 11948, 10671, 7887, 18586, 13090, 15228, 25102, 26000, 21986, 19240, 18364, 15618, 7710, 5566], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフト・パーティー用品', 'keyword': 'minecraft party supplies'}, {'keywordCn': '威廉姆斯的生日', 'searches': [13557, 4973, 0, 5671, 5613, 0, 0, 5316, 6686, 0, 0, 0, 7219, 5201, 0, 0, 0, 0, 0, 7429, 8158, 5928, 2532, 1795, 6919, 3481, 7848, 6096, 5719, 6143, 6755, 9597, 10991, 8962, 6881, 5074, 9401, 7735, 7279, 6240, 10854, 13452, 12783, 14669, 13142, 11559, 9220, 8484, 13736, 13744, 13284, 14847, 13341, 10989, 14148, 11577, 11089, 8394, 7899, 6952, 12297, 12546, 11908, 11311, 11464, 8839, 8824, 11126, 11974, 7666, 7227, 5644, 13372, 12517, 7447, 9716, 13652, 6372, 7185, 12574, 13548, 9192, 7162, 5929, 13270, 13261, 13683, 16615, 14517, 14807, 20087, 19559, 18740, 12452, 10336, 8156, 19462, 17421, 21366, 35722, 35780, 30138, 28358, 27829, 23519, 14922, 11047], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフトバースデー', 'keyword': 'minecraft birthday'}, {'keywordCn': '我的世界生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1565, 907, 0, 2256, 2476, 2630, 2394, 1761, 3727, 2098, 2090, 3539, 4549, 4716, 4284, 5195, 5259, 4112, 4337, 4175, 7513, 8032, 9868, 7809, 6410, 5585, 7436, 8572, 9109, 8525, 8541, 7087, 10052, 9394, 8979, 9191, 8684, 7669, 7380, 11436, 8592, 7692, 7092, 6076, 13004, 12838, 7688, 6915, 6001, 5866, 6488, 12444, 25457, 65658, 50134, 30410, 100529, 88898, 97035, 118176, 119556, 114941, 120058, 119220, 116902, 78252, 54066, 37696, 85230, 99008, 121581, 180316, 219216, 190588, 152993, 158246, 151757, 117818, 88715], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'Minecraftの誕生日の装飾', 'keyword': 'minecraft birthday decorations'}, {'keywordCn': '威廉斯派对', 'searches': [19474, 16427, 17887, 18524, 16146, 14737, 15393, 15525, 17578, 7641, 9902, 0, 17514, 15279, 7255, 15087, 7190, 7272, 12157, 14115, 12661, 8791, 7818, 6871, 17884, 13111, 10740, 9025, 8367, 8198, 8398, 11286, 13466, 11082, 8470, 5464, 11312, 9466, 8131, 5552, 7364, 9024, 9341, 9839, 9670, 7829, 6994, 5174, 8722, 8938, 9911, 11298, 11258, 8875, 10693, 11051, 11593, 8332, 7840, 6254, 10824, 11831, 12446, 12856, 11171, 9517, 9457, 12798, 11327, 8723, 7104, 5574, 12246, 11771, 7233, 7761, 6617, 5696, 5978, 11748, 13574, 9342, 6236, 4751, 8696, 9694, 9358, 11881, 9917, 9878, 12597, 13205, 14026, 9790, 7352, 5312, 13591, 13022, 15886, 28684, 27220, 21631, 20398, 18518, 16484, 11606, 7959], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マインクラフト・パーティー', 'keyword': 'minecraft party'}, {'keywordCn': '我的世界派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2136, 0, 1919, 1367, 2116, 2923, 1575, 1795, 2545, 4394, 1151, 1443, 4829, 5692, 4453, 3812, 2359, 5344, 4550, 4264, 3694, 5852, 6816, 6687, 6540, 6566, 5137, 5100, 4231, 7227, 8282, 9726, 8898, 8006, 7295, 9468, 9441, 11595, 9862, 9662, 6577, 11025, 10963, 11943, 12458, 11124, 9685, 9316, 11567, 11700, 8565, 7493, 6189, 14121, 14545, 5849, 7333, 8783, 7848, 7443, 13155, 20450, 23972, 16013, 14939, 20807, 20590, 19912, 23673, 21683, 25410, 26588, 29631, 31915, 25828, 22399, 16370, 33405, 23069, 29759, 57589, 51483, 45812, 43575, 41886, 36530, 24264, 19359], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'Minecraftのパーティーの装飾', 'keyword': 'minecraft party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '婴儿淋浴装饰男孩', 'searches': [0, 3966, 0, 7429, 8987, 8027, 8172, 8296, 8235, 8133, 0, 0, 11764, 8552, 8721, 9711, 9463, 11406, 9698, 14425, 13316, 12876, 4527, 3992, 10615, 7070, 6393, 5387, 5870, 4825, 4738, 7700, 9572, 6456, 4538, 3411, 6663, 5758, 5241, 2334, 4292, 5010, 3951, 4716, 3761, 3651, 1929, 781, 2266, 2285, 3070, 3203, 3777, 2892, 2516, 2241, 2479, 1950, 2466, 1103, 2484, 2530, 4014, 2898, 2912, 2795, 3406, 3446, 3429, 4937, 3750, 3217, 7259, 6561, 7279, 6304, 4724, 5540, 5406, 7462, 12497, 37264, 34383, 29534, 75335, 62845, 59444, 64906, 56168, 53323, 45847, 49630, 53081, 42569, 27692, 19880, 47979, 45664, 45466, 45518, 43076, 37516, 38924, 34891, 35194, 29294, 22842], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーの装飾の男の子', 'keyword': 'baby shower decorations boy'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'baby gender party supplies'}, {'keywordCn': '林地婴儿淋浴板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 922, 2242, 2034, 1709, 2129, 2292, 1595, 0, 0, 3594, 3797, 2994, 0, 0, 999, 1584, 0, 2024, 1677, 805, 763, 1875, 2292, 2823, 3188, 3158, 2688, 2831, 2355, 3154, 3435, 2300, 1572, 3752, 4566, 4639, 3676, 3789, 3645, 3435, 3830, 3044, 2662, 1967, 855, 2911, 2825, 2726, 2441, 1582, 1766, 1751, 2878, 2993, 2543, 2043, 955, 3777, 3315, 2529, 2047, 1762, 1584, 1658, 1841, 1911, 2336, 1344, 925, 3524, 2688, 2379, 1937, 1793, 1516, 1563, 1335, 1680, 1433, 551], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のベビーシャワープレート', 'keyword': 'woodland baby shower plates'}, {'keywordCn': '林地婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 7523, 5762, 0, 0, 0, 0, 17004, 15331, 18184, 19319, 16878, 17250, 19261, 22665, 23057, 24874, 12591, 7264, 34000, 43244, 32437, 32284, 47995, 44965, 48863, 54870, 63181, 55203, 34479, 24068, 34180, 37844, 45506, 4711, 10006, 5604, 8834, 9410, 12182, 12352, 5948, 4525, 11865, 22476, 40176, 44231, 13691, 27724, 42124, 39886, 39039, 33221, 25456, 18250, 52878, 51408, 46696, 43390, 40672, 37236, 33903, 41373, 38307, 33075, 22490, 20314, 64817, 51948, 40601, 34037, 31265, 26074, 24391, 45758, 46162, 41511, 27057, 23262, 68977, 58063, 53590, 52516, 45560, 43552, 45172, 47413, 48820, 41085, 24461, 19035, 52504, 45566, 42072, 35229, 32525, 29891, 27863, 30684, 31585, 27748, 19759], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のベビーシャワーの装飾', 'keyword': 'woodland baby shower decorations'}, {'keywordCn': '林地盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 610, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 463, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 528, 0, 0, 0, 0, 0, 0, 0, 0, 947, 0, 1216, 1193, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 551, 0, 471, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のプレートとナプキン', 'keyword': 'woodland plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '1岁生日装饰品女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 697, 952, 0, 2712, 2535, 6153, 4860, 4928, 4753, 3725, 5784, 6476, 5340, 4084, 3180, 6473, 5430, 4468, 8914, 22908, 3305, 1814, 1756, 897, 0, 0, 0, 0, 871, 0, 0, 1228, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 435, 0, 0, 0, 0, 613, 0, 0, 0, 613, 797, 846, 1880, 1895, 4381, 13440, 16945, 43897, 38069, 37206, 39475, 35659, 35616, 38804, 36847, 35035, 27562, 20563, 21478, 44260, 36119, 31753, 28645, 29939, 28980, 31131, 28770, 26936, 22819, 19404], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1歳の誕生日の装飾の女の子', 'keyword': '1st birthday decorations girl'}, {'keywordCn': '生日装饰品', 'searches': [172906, 173696, 176403, 160782, 157213, 170157, 185858, 203833, 224930, 204461, 142612, 89163, 246234, 239314, 217272, 249612, 211489, 198932, 210521, 229602, 275851, 231425, 167288, 91540, 269916, 295000, 249775, 241525, 203725, 205618, 198277, 228163, 270236, 220331, 157956, 86296, 185499, 197544, 50914, 111193, 388005, 219576, 158270, 316672, 348549, 255406, 179917, 143675, 331213, 314721, 334256, 344536, 280052, 252745, 306096, 302420, 316801, 265266, 196756, 133406, 270241, 287124, 300449, 289390, 272854, 258921, 221508, 279798, 305565, 262959, 194584, 168781, 366500, 366718, 212450, 322089, 457793, 200743, 181847, 213068, 247553, 193385, 181482, 147995, 223175, 217885, 253357, 274588, 248644, 244436, 242020, 283812, 304451, 211477, 146471, 130985, 239926, 251591, 245657, 248241, 229460, 240201, 250025, 291889, 323284, 254296, 213689], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデーデコレーション', 'keyword': 'birthday decorations'}, {'keywordCn': 'cocomelon 生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1286, 2301, 0, 719, 626, 718, 904, 2015, 2316, 2742, 2820, 3517, 4000, 6201, 9691, 12646, 9969, 12119, 12473, 13523, 11499, 9683, 9835, 9896, 9325, 9342, 9498, 9152, 6813, 6376, 7665, 15113, 11949, 5131, 5499, 66116, 81129, 66439, 98084, 98344, 80354, 54705, 35968, 119377, 89772, 91079, 96839, 89038, 79729, 74021, 71157, 71909, 47586, 31028, 22304, 46444, 49007, 47038, 40129, 39479, 40543, 35882, 36884, 36219, 24245, 18233], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ココメロンの誕生日の飾り', 'keyword': 'cocomelon birthday decorations'}, {'keywordCn': '可可瓜', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8461, 6590, 5404, 6649, 2848, 6953, 10048, 11414, 11862, 14608, 16358, 12864, 9603, 9835, 9461, 22949, 45345, 93976, 78242, 74264, 47422, 49530, 27257, 25845, 31614, 21822, 22924, 25299, 49135, 44506, 41678, 43725, 60802, 74967, 23480, 24850, 25217, 27136, 25409, 19179, 21384, 24636, 31510, 31567, 44506, 51432, 11128, 11211, 15825, 14624, 11555, 12265, 21344, 26218, 41169, 41563, 21465, 19622, 7431, 7771, 9197, 7907, 6787, 8188, 9232, 11847, 13739, 12294, 17869, 18377, 6478, 7566, 7455, 6114, 5532, 5477, 4982, 4514, 5978, 5419, 9429], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ココメロン', 'keyword': 'coco melon'}, {'keywordCn': 'Cocomelon 蛋糕装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1239, 1384, 1070, 813, 0, 559, 2442, 4660, 6692, 8603, 7975, 7887, 16965, 17838, 22412, 21695, 25151, 24719, 32600, 33280, 32078, 23907, 18680, 14420, 23970, 23352, 23253, 20163, 20108, 19416, 16439, 19066, 17313, 15880, 13248, 9333, 14807, 15238, 15110, 14084, 12341, 13847, 13710, 22922, 22776, 15160, 12856, 7396, 18213, 16721, 17955, 20696, 16950, 16063, 13881, 14159, 15307, 11622, 6152, 3526, 7752, 8296, 8663, 7207, 6952, 5745, 5605, 5790, 6020, 4288, 3089], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ココメロンケーキトッパー', 'keyword': 'cocomelon cake topper'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '女孩过夜派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 654, 2379, 4112, 5459, 13517, 13764, 13245, 12737, 12496, 10630, 11570, 11307, 11932, 9243, 9371, 6642, 13993, 15971, 16098, 14991, 14669, 13646, 13153, 15718, 15448, 13551, 12702, 8973, 18474, 17781, 13960, 14019, 7574, 12151, 12036, 18613, 19002, 2819, 13153, 12038, 34457, 28595, 29455, 32220, 26649, 26837, 28287, 32882, 37918, 26497, 21650, 15521, 35469, 34110, 31012, 29220, 31043, 27058, 30403, 31159, 30444, 25370, 22788], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための寝坊パーティー用品', 'keyword': 'sleepover party supplies for girls'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pajama party plates'}, {'keywordCn': '煎饼和睡衣派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 371, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 668, 0, 0, 0, 140, 859, 0, 0, 0, 0, 0, 0, 0, 0, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パンケーキとパジャマのパーティーデコレーション', 'keyword': 'pancake and pajamas party decorations'}, {'keywordCn': '女孩夜间装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1190, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1524, 2242, 2965, 2400, 1484, 2390, 2510, 1181, 596, 1414, 1653, 1699, 1635, 1905, 1349, 2249, 913, 1928, 2356, 2771, 3043, 2341, 1752, 2048, 1617, 2219, 1716, 1692, 0, 2141, 3277, 2361, 2059, 1448, 767, 1784, 1624, 1175, 899, 741, 459, 1145, 1922, 1418, 1319, 1318, 1544, 1821, 3031, 4052, 6070, 4546, 3104, 9654, 11450, 8989, 7634, 5856, 6750, 8598, 9498, 9902, 6930, 5962, 4496, 8325, 13509, 10096, 6395, 6132, 8718, 9237, 9712, 9876, 6644, 7903], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子の夜の装飾', 'keyword': 'girls night decorations'}, {'keywordCn': '女孩睡衣派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 729, 0, 0, 0, 0, 0, 0, 0, 0, 140, 452, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のスリーパーパーティー', 'keyword': 'girls slumber party'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '海底婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1829, 1566, 1893, 0, 1269, 1637, 0, 0, 0, 1447, 1305, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1297, 1437, 1482, 1532, 2034, 1744, 1854, 1749, 1500, 1157, 906, 768, 2791, 2947, 2484, 2845, 2774, 2670, 1916, 1973, 1596, 1411, 1216, 739, 3290, 2983, 3276, 3354, 3113, 3370, 3065, 3466, 2277, 1129, 1824, 1901, 4836, 4537, 4418, 5158, 5187, 4042, 3796, 3418, 3096, 2416, 1845, 1569, 5349, 6069, 6743, 5676, 6380, 6115, 5219, 4049, 3434, 2459, 1618], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '海の下でベビーシャワーの装飾', 'keyword': 'under the sea baby shower decorations'}, {'keywordCn': '下海派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 6724, 7126, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5225, 4597, 8209, 12392, 20005, 15718, 14273, 47462, 52391, 32049, 33522, 34717, 33736, 34980, 30509, 27039, 20261, 13099, 9443, 13442, 20803, 17496, 1234, 1704, 952, 3715, 4398, 4521, 4912, 4691, 5226, 14556, 14631, 16540, 23420, 29168, 30957, 33702, 25191, 22447, 19710, 12585, 8414, 19150, 22177, 29179, 28547, 38944, 42563, 36242, 36416, 25475, 21917, 12723, 9769, 28501, 30724, 25715, 30736, 39759, 41390, 34453, 48419, 34513, 8036, 16427, 12044, 37504, 37585, 48145, 56011, 62887, 62866, 58354, 49444, 44538, 37490, 16948, 12725, 34519, 38929, 45212, 48523, 58423, 59272, 58494, 47953, 42716, 35261, 17997], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '海のパーティーの装飾の下で', 'keyword': 'under the sea party decorations'}, {'keywordCn': '海洋主题生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 523, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 590, 0, 0, 0, 0, 1574, 692, 802, 505, 140, 506, 140, 1399, 699, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '海のテーマの誕生日の装飾', 'keyword': 'ocean theme birthday decorations'}, {'keywordCn': '海底派对用品', 'searches': [35406, 35408, 35745, 36918, 45190, 49387, 48171, 36658, 29564, 22368, 0, 0, 33348, 34857, 38072, 38636, 39706, 40858, 42606, 37429, 33113, 14352, 1481, 895, 8081, 4604, 4319, 3834, 4568, 922, 1464, 4087, 3645, 2348, 1424, 0, 3398, 2329, 1657, 0, 0, 1311, 1367, 791, 1523, 680, 0, 0, 674, 0, 1095, 1129, 1374, 2249, 2000, 1239, 795, 877, 482, 0, 929, 818, 1430, 1427, 1874, 1399, 2447, 1915, 993, 650, 576, 550, 825, 610, 441, 1280, 1249, 1243, 989, 1591, 3000, 4920, 795, 0, 0, 896, 140, 438, 605, 681, 419, 0, 0, 0, 0, 0, 937, 0, 0, 140, 587, 0, 700, 724, 545, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'under the sea パーティー用品', 'keyword': 'under the sea party supplies'}, {'keywordCn': '在海党板块下', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 778, 775, 496, 496, 0, 0, 0, 455, 0, 611, 0, 671, 558, 561, 0, 0, 0, 0, 0, 0, 0, 559, 884, 836, 1159, 1418, 1278, 0, 0, 0, 0, 875, 0, 398, 558, 1242, 626, 1203, 864, 558, 0, 0, 0, 965, 528, 652, 581, 785, 916, 1169, 140, 545, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '海のパーティープレートの下', 'keyword': 'under the sea party plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '婴儿沐浴盘', 'searches': [19049, 17552, 16568, 15863, 16234, 13796, 15622, 15000, 15664, 13822, 0, 0, 18075, 22046, 16418, 19605, 17379, 15744, 16544, 16049, 18004, 14933, 12220, 7101, 23633, 23940, 15348, 15342, 15564, 18493, 17093, 17188, 19205, 18852, 14908, 8840, 21303, 23994, 17583, 2920, 6195, 12089, 12412, 13436, 12215, 9843, 6131, 4712, 10860, 13387, 13650, 15767, 15002, 13803, 14925, 14015, 14523, 11459, 8256, 6027, 13210, 14193, 15818, 13886, 13576, 12590, 12695, 13853, 12589, 11695, 8166, 5854, 15663, 15356, 12644, 11334, 10129, 9909, 9614, 16753, 18178, 14867, 9083, 6067, 21792, 20981, 20580, 21846, 17148, 16276, 15692, 14887, 17146, 14139, 9354, 6689, 20773, 19681, 19598, 18703, 18388, 15667, 14752, 15300, 16017, 13572, 8206], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワープレート', 'keyword': 'baby shower plates'}, {'keywordCn': '林地婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 7523, 5762, 0, 0, 0, 0, 17004, 15331, 18184, 19319, 16878, 17250, 19261, 22665, 23057, 24874, 12591, 7264, 34000, 43244, 32437, 32284, 47995, 44965, 48863, 54870, 63181, 55203, 34479, 24068, 34180, 37844, 45506, 4711, 10006, 5604, 8834, 9410, 12182, 12352, 5948, 4525, 11865, 22476, 40176, 44231, 13691, 27724, 42124, 39886, 39039, 33221, 25456, 18250, 52878, 51408, 46696, 43390, 40672, 37236, 33903, 41373, 38307, 33075, 22490, 20314, 64817, 51948, 40601, 34037, 31265, 26074, 24391, 45758, 46162, 41511, 27057, 23262, 68977, 58063, 53590, 52516, 45560, 43552, 45172, 47413, 48820, 41085, 24461, 19035, 52504, 45566, 42072, 35229, 32525, 29891, 27863, 30684, 31585, 27748, 19759], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '森のベビーシャワーの装飾', 'keyword': 'woodland baby shower decorations'}, {'keywordCn': '婴儿洗礼的装饰品', 'searches': [352892, 345883, 353865, 329323, 320571, 317080, 353913, 350701, 366395, 322607, 166674, 120992, 387587, 382065, 331500, 369465, 342759, 287724, 307412, 332865, 279901, 190795, 72945, 35361, 149085, 156832, 136098, 114299, 100235, 356814, 107443, 134134, 153294, 120107, 82837, 42444, 93764, 63885, 39611, 13436, 32411, 52393, 57225, 57170, 76973, 114030, 117146, 26870, 65244, 92222, 121643, 140167, 149321, 118931, 117431, 90112, 95654, 78433, 62887, 45980, 119991, 149381, 148534, 125968, 124856, 128965, 91090, 107840, 130484, 219725, 152465, 113386, 340001, 344114, 250834, 239464, 139470, 204753, 181960, 206779, 224853, 197496, 161916, 130544, 229037, 236159, 260721, 278368, 228546, 220659, 196252, 203474, 212857, 167487, 117482, 96978, 200178, 190356, 198900, 184577, 175459, 169106, 150005, 162018, 178580, 136792, 122047], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーデコレーション', 'keyword': 'baby shower decorations'}, {'keywordCn': '婴儿洗礼派对', 'searches': [158267, 149963, 140031, 126823, 133075, 124423, 129423, 125697, 136415, 116275, 62504, 37875, 141230, 139609, 135696, 147707, 116984, 127381, 133367, 134981, 131481, 109468, 65261, 41538, 164740, 167393, 152886, 164938, 148482, 132314, 126059, 134271, 135957, 115662, 77323, 51151, 166104, 164862, 112955, 27869, 60175, 78026, 75536, 76655, 86248, 67276, 38579, 29750, 72071, 83113, 97659, 124521, 115186, 107617, 123695, 106648, 98707, 80351, 57987, 40573, 94022, 118419, 130861, 113712, 95961, 93152, 88108, 95303, 95291, 74937, 50842, 36360, 118261, 96296, 54511, 49913, 58147, 49590, 48303, 75394, 79320, 67498, 45863, 36352, 80883, 78567, 78355, 82956, 76182, 72495, 71873, 70847, 72388, 61203, 44189, 33487, 70678, 66992, 63626, 61797, 59272, 56381, 57341, 58286, 61398, 52406, 43843], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワー', 'keyword': 'baby shower'}, {'keywordCn': '野生动物园婴儿淋浴装饰品', 'searches': [0, 16325, 17149, 15613, 19039, 21476, 18776, 18250, 20377, 0, 0, 0, 16235, 20131, 19550, 20581, 18611, 16303, 15487, 15713, 18023, 14353, 8311, 1172, 30263, 32496, 16256, 15733, 16345, 16870, 17576, 20973, 21511, 17548, 14270, 11733, 19578, 16242, 11552, 3910, 4420, 3136, 2621, 5219, 5658, 5156, 3618, 2779, 6466, 7955, 9799, 10791, 11027, 9793, 9985, 9199, 8963, 7790, 5819, 4463, 8559, 10476, 11650, 11524, 9915, 9460, 7570, 8273, 7892, 6060, 4695, 3641, 8556, 9152, 8953, 7510, 5686, 7062, 9361, 34389, 35096, 28119, 19554, 14343, 47211, 44537, 41112, 45201, 38405, 37557, 34408, 31193, 27222, 18383, 13174, 8196, 26395, 30916, 29618, 26756, 24852, 23771, 22311, 21268, 18518, 14345, 9228], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サファリのベビーシャワーの装飾', 'keyword': 'safari baby shower decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 12692, 41460, 38643, 31597], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'demon hunters birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4983, 19445, 14959, 9109, 6396], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters party supplies'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4167, 66370, 128807, 122755, 91381], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'k pop demon hunters party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 11805, 29614, 31379, 28937], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters cake topper'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 23911, 149373, 335139, 279847, 218405], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'kpop demon hunters birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '营地单身女郎装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 719, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2703, 3835, 4482, 5407, 3402, 2823, 2035, 1687, 6431, 7641, 13543, 15186, 16603, 19159, 20600, 14798, 9309, 4039, 2453, 2352, 9248, 9479, 13179, 13482, 16046, 18747, 19929, 13836, 7140, 4340, 2141], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'キャンプの独身最後の装飾', 'keyword': 'camp bachelorette decorations'}, {'keywordCn': '婴儿洗礼的装饰品', 'searches': [352892, 345883, 353865, 329323, 320571, 317080, 353913, 350701, 366395, 322607, 166674, 120992, 387587, 382065, 331500, 369465, 342759, 287724, 307412, 332865, 279901, 190795, 72945, 35361, 149085, 156832, 136098, 114299, 100235, 356814, 107443, 134134, 153294, 120107, 82837, 42444, 93764, 63885, 39611, 13436, 32411, 52393, 57225, 57170, 76973, 114030, 117146, 26870, 65244, 92222, 121643, 140167, 149321, 118931, 117431, 90112, 95654, 78433, 62887, 45980, 119991, 149381, 148534, 125968, 124856, 128965, 91090, 107840, 130484, 219725, 152465, 113386, 340001, 344114, 250834, 239464, 139470, 204753, 181960, 206779, 224853, 197496, 161916, 130544, 229037, 236159, 260721, 278368, 228546, 220659, 196252, 203474, 212857, 167487, 117482, 96978, 200178, 190356, 198900, 184577, 175459, 169106, 150005, 162018, 178580, 136792, 122047], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーデコレーション', 'keyword': 'baby shower decorations'}, {'keywordCn': '方格派对用品', 'searches': [0, 0, 0, 0, 0, 5757, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3777, 2422, 0, 0, 0, 0, 0, 0, 841, 3276, 2772, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 967, 677, 0, 0, 0, 0, 0, 0, 0, 0, 838, 1283, 2600, 2876, 1139, 0, 0, 0, 0, 465, 0, 658, 854, 1250, 1159, 881, 696, 0, 0, 0, 0, 0, 676, 351, 1323, 1656, 1652, 1344, 1569, 1371, 0, 0, 0, 1230, 993, 656, 1115, 1803, 1934, 2593, 2411, 2229, 1223, 850, 140, 2959, 4348, 4487, 6283, 7331, 7071, 6846, 5005, 3050, 2106, 933], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ギンガムパーティー用品', 'keyword': 'gingham party supplies'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'camp bachelorette party'}, {'keywordCn': '单身派对的装饰品', 'searches': [124198, 248463, 343450, 367636, 106183, 124704, 458743, 491393, 321243, 236541, 96241, 70078, 302461, 370953, 447282, 555721, 555780, 527177, 571969, 508159, 379851, 222330, 96455, 70383, 316498, 360332, 334935, 429664, 437325, 488762, 341748, 348576, 267373, 37911, 51604, 61538, 171323, 237040, 59231, 15226, 43248, 35668, 54494, 56885, 113099, 81157, 51003, 38959, 145916, 198718, 263233, 299435, 312953, 214298, 160962, 228788, 209866, 124990, 67405, 57307, 173230, 223588, 300080, 286630, 299324, 282040, 252231, 278044, 191979, 109760, 56914, 43299, 183336, 197136, 151040, 166191, 134462, 147477, 135432, 168031, 151868, 94496, 58027, 52389, 140223, 156526, 144241, 160247, 145246, 154560, 152212, 130930, 134613, 82432, 47987, 38955, 95058, 96606, 124134, 127281, 127753, 118611, 126036, 124134, 109349, 68607, 45366], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バチェロレッテ・パーティー・デコレーション', 'keyword': 'bachelorette party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '草莓派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2627, 2365, 3257, 2850, 1884, 1593, 0, 0, 0, 3377, 3748, 4009, 1609, 4464, 5842, 4888, 4451, 3197, 1922, 1385, 1378, 4126, 5384, 7167, 9087, 9956, 8663, 8462, 5049, 3476, 2200, 1725, 942, 4979, 7852, 9830, 14115, 14493, 13034, 11671, 9303, 5710, 3276, 2659, 2715, 8653, 11143, 13183, 15737, 24282, 19629, 17817, 20835, 13991, 7173, 4984, 3950, 16413, 17964, 30253, 39196, 38272, 39796, 27414, 18485, 9380, 5179, 3138, 2781, 12149, 11274, 12980, 15044, 19710, 17599, 13073, 9641, 6257, 3300, 2139], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごのパーティーの装飾', 'keyword': 'strawberry party decorations'}, {'keywordCn': '草莓生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3103, 2087, 2696, 1946, 1448, 0, 0, 0, 0, 2601, 3104, 3181, 1302, 3885, 4919, 4654, 4030, 2332, 1360, 881, 803, 3356, 3742, 5021, 6198, 6471, 6124, 6056, 4371, 3293, 1740, 1213, 1342, 4201, 4908, 7767, 7191, 7643, 8094, 7938, 7515, 4881, 3016, 2162, 2130, 6657, 7338, 6916, 7762, 7995, 8939, 7882, 11331, 8186, 5594, 5009, 5436, 21934, 20028, 22526, 25220, 22061, 23296, 23983, 22735, 19361, 11526, 7346, 6553, 22101, 20058, 21152, 24139, 26953, 28083, 30062, 23768, 21355, 12327, 8495], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごの誕生日の飾り', 'keyword': 'strawberry birthday decorations'}, {'keywordCn': '草莓盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1552, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1546, 0, 0, 1958, 1658, 0, 934, 556, 573, 0, 894, 1696, 2519, 3472, 3742, 3546, 3498, 2627, 1650, 1064, 931, 818, 1955, 3225, 4337, 5091, 5753, 5843, 4415, 4445, 2639, 1267, 1198, 1802, 4034, 5136, 5219, 6691, 7792, 7962, 6762, 6891, 4681, 3325, 2391, 2221, 6846, 11250, 13996, 17235, 15712, 14059, 12360, 8510, 5422, 2727, 2119, 1996, 6941, 8517, 11336, 12030, 13729, 13822, 11463, 7696, 5151, 2650, 2070], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごプレート', 'keyword': 'strawberry plates'}, {'keywordCn': '草莓酥饼生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 588, 0, 0, 0, 0, 0, 523, 0, 0, 0, 637, 614, 585, 679, 811, 0, 812, 615, 602, 780, 732, 853, 592, 548, 630, 525, 1112, 1174, 1598, 1205, 1360, 3972, 3848, 1868, 2039, 1309, 1750, 2139, 2862, 3166, 3763, 4771, 4014, 30559, 29030, 22070, 12389, 14638, 15984, 11165, 9146, 7910, 9452, 11677, 7962, 30267, 51342, 60849, 46096, 42356, 44600, 40779, 37924, 43031, 32863, 30941], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごのショートケーキの誕生日の飾り', 'keyword': 'strawberry shortcake birthday decorations'}, {'keywordCn': '浆果一岁生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 3168, 4618, 11335, 52136, 55781, 63635, 77075, 71131, 69996, 66017, 55970, 45602, 26930, 18343, 18933, 56626, 66662, 69048, 64490, 69657, 67918, 63086, 49865, 33449, 21502, 16577], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベリー・ファースト・バースデー・デコレーション', 'keyword': 'berry first birthday decor'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '怪物高生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 544, 0, 0, 955, 0, 561, 0, 872, 843, 624, 1957, 1696, 1135, 775, 1169, 1497, 1467, 3567, 4218, 4752, 4387, 2443, 3040, 3135, 3719, 6517, 6182, 7326, 8205, 11797, 12559, 7156, 4181, 3334, 13259, 14893, 14475, 7063, 8003, 8638, 10461, 8988, 10507, 6495, 3961], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスターハイバースデーデコレーション', 'keyword': 'monster high birthday decorations'}, {'keywordCn': '怪物公司的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 702, 712, 0, 0, 0, 532, 0, 0, 622, 488, 0, 724, 881, 420, 453, 831, 540, 636, 1384, 907, 956, 691, 1661, 2715, 4451, 6521, 4531, 18515, 17959, 20208, 21183, 21611, 22425, 20660, 24635, 22359, 8740, 2693, 1902, 4205, 3620, 3367, 2485, 2665, 2402, 2991, 2831, 4517, 3198, 1794], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスターズインクの誕生日の飾り', 'keyword': 'monsters inc birthday decorations'}, {'keywordCn': '埃尔莫板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2461, 0, 1558, 702, 1440, 2608, 2613, 2682, 2090, 2047, 1784, 2445, 1686, 2517, 1964, 2091, 1538, 2315, 2547, 2756, 2127, 1667, 1733, 977, 1584, 1421, 1028, 905, 818, 1238, 1157, 1346, 1209, 838, 1034, 1436, 1460, 1063, 969, 678, 642, 1843, 2214, 3016, 2650, 2741, 2955, 2083, 2165, 2031, 2007, 1504, 1270, 2106, 1971, 2002, 1851, 2064, 1628, 1849, 2457, 2690, 2423, 2015, 1699, 3125, 3043, 2175, 2116, 1871, 2006, 2010, 2055, 1772, 1398, 1092, 1091, 2536, 2188, 2562, 2334, 1795, 1975, 1566, 1615, 1727, 1372, 1436], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'エルモプレート', 'keyword': 'elmo plates'}, {'keywordCn': '怪物公司派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1386, 0, 0, 0, 0, 0, 0, 0, 0, 736, 713, 0, 1411, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 675, 507, 0, 0, 0, 0, 0, 0, 713, 1, 0, 506, 945, 860, 618, 1993, 2724, 3578, 2953, 2074, 3190, 3167, 3762, 3655, 4377, 4057, 3958, 9559, 8792, 11820, 11563, 12151, 11211, 11644, 14016, 14942, 11635, 4989, 3120, 9145, 8225, 8640, 6958, 6536, 6880, 7390, 8265, 8921, 7457, 3202], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスターズインクパーティーデコレーション', 'keyword': 'monster inc party decorations'}, {'keywordCn': 'Monsters Inc 派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4137, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2096, 0, 0, 0, 0, 713, 958, 828, 1154, 1257, 0, 0, 752, 1173, 1400, 1247, 946, 733, 1316, 1334, 1507, 1603, 1225, 645, 1369, 678, 1383, 1451, 2184, 1672, 2024, 2287, 2637, 3286, 1440, 651, 2038, 1933, 2355, 1462, 1482, 2104, 2620, 3818, 3941, 5683, 2018, 2218, 3009, 1994, 591, 751, 986, 1284, 1544, 2667, 3608, 7200, 8508, 5885, 16384, 16005, 17457, 14078, 15064, 14627, 14823, 15772, 18503, 19934, 6834], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスターズインクパーティーデコレーション', 'keyword': 'monsters inc party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'cartoon sponge party'}, {'keywordCn': '海绵宝宝派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1589, 1793, 3777, 2852, 1980, 5316, 7605, 8175, 6592, 7814, 10055, 9479, 7844, 6442, 5268, 3224], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポンジボブパーティーデコレーション', 'keyword': 'sponge bob party decoration'}, {'keywordCn': '卢卡生日派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2600, 3085, 4443, 5951, 11805, 5579, 12243, 11454, 9993, 8463, 7840, 8284, 6779, 5286, 4205, 3117, 2646, 2294, 3601, 3291, 3534, 3444, 3529, 3351, 3464, 3874, 2388, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ルカの誕生日パーティー用品', 'keyword': 'luca birthday party supplies'}, {'keywordCn': '海绵宝宝的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1784, 1545, 0, 1660, 2090, 0, 2207, 2892, 2563, 3881, 7566, 7254, 9682, 10100, 12727, 14894, 12610, 11645, 10554, 6502, 6900, 6129, 9607, 9500, 16469, 15249, 17232, 15627, 15193, 21117, 31422, 21866, 16890, 10140, 18320, 20953, 13049, 12770, 14049, 18288, 15753, 27977, 18625, 14550, 11833, 12927, 67078, 66130, 71211, 75870, 72568, 77406, 71750, 77492, 75329, 52142, 33641, 21323, 45862, 61125, 67329, 65665, 66154, 69109, 67269, 61139, 63564, 46909, 41110], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポンジボブの誕生日の飾り', 'keyword': 'spongebob birthday decorations'}, {'keywordCn': '海绵宝宝派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1421, 1928, 2642, 3657, 4429, 3570, 2393, 2386, 4424, 4380, 3785, 1618, 4858, 5915, 5824, 5378, 5713, 4175, 3441, 2714, 5076, 5633, 8404, 8067, 9595, 6709, 7822, 8305, 7077, 6454, 5470, 5279, 9816, 11394, 10674, 11496, 12978, 12204, 9508, 12497, 12921, 11972, 9815, 9224, 17928, 21126, 38675, 40581, 45082, 46811, 39084, 65095, 65731, 44708, 35394, 19305, 35704, 26447, 35554, 36429, 38368, 34055, 25653, 31849, 23719, 19097, 16295, 14249, 28317, 17990, 19300, 20071, 23255, 20327, 20531, 22765, 20208, 16938, 11941], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポンジボブのパーティーの装飾', 'keyword': 'spongebob party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '玩具总动员派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2430, 0, 3127, 4546, 5164, 7685, 9653, 9534, 11463, 8373, 6807, 4994, 12136, 9097, 8384, 3143, 6301, 7414, 6165, 6454, 5961, 4729, 4013, 3762, 5069, 5388, 5367, 5668, 5098, 5046, 5629, 5368, 6231, 7767, 6237, 5018, 7719, 7200, 8640, 6691, 7243, 7971, 8673, 9893, 13682, 16656, 12913, 9007, 19802, 20057, 16311, 15153, 50916, 55812, 48370, 82829, 84494, 67179, 21510, 15325, 29604, 26140, 27551, 31443, 33458, 28411, 22679, 21959, 19495, 20707, 17931, 9155, 24592, 21651, 17379, 17596, 15990, 13427, 17268, 21590, 19221, 17860, 11898], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トイストーリーパーティーの装飾', 'keyword': 'toy story party decorations'}, {'keywordCn': '玩具总动员派对优惠', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2938, 3824, 2222, 1636, 1189, 5889, 3872, 5797, 5341, 7994, 14692, 15596, 15956, 15732, 14387, 11235, 8115, 17206, 17657, 12753, 2040, 4655, 6639, 6471, 7016, 7653, 6668, 5029, 3883, 7932, 8833, 10629, 11268, 11633, 12640, 13372, 13499, 12793, 11701, 8874, 7551, 12701, 13079, 14644, 14040, 13932, 15169, 14513, 18080, 17820, 14425, 13235, 8835, 19410, 17908, 17101, 16461, 20717, 19577, 17007, 25248, 28235, 24521, 16165, 9325, 34797, 34679, 35491, 38347, 37061, 35032, 33011, 33010, 36437, 26864, 17839, 11603, 33030, 33118, 30495, 28875, 29645, 28585, 27965, 30291, 32860, 26993, 18355], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トイストーリーパーティーの好意', 'keyword': 'toy story party favors'}, {'keywordCn': '玩具故事派对用品', 'searches': [40621, 43802, 44746, 40138, 38495, 35105, 36401, 34945, 29777, 27753, 15774, 0, 38365, 44124, 40099, 38477, 43592, 43809, 45339, 42851, 41083, 34922, 22497, 13850, 64169, 74666, 53620, 73520, 92212, 35056, 119817, 107843, 121941, 86382, 42735, 25694, 110227, 127303, 87094, 31307, 46650, 65810, 38963, 23520, 23213, 20433, 15324, 13411, 21794, 20299, 20864, 20754, 22868, 20571, 20992, 18316, 15603, 16259, 14305, 12133, 21619, 24721, 23367, 20994, 21842, 21718, 17587, 16228, 14450, 10521, 6515, 5622, 12606, 11111, 8052, 6457, 6592, 6061, 5632, 8387, 6045, 4959, 3932, 2968, 5666, 5728, 5978, 6007, 4739, 4241, 4195, 3972, 4173, 3904, 2737, 2386, 5978, 4780, 4638, 3346, 3969, 3874, 3744, 4713, 5023, 3863, 2868], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トイ・ストーリー・パーティー用品', 'keyword': 'toy story party supplies'}, {'keywordCn': '玩具总动员派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5438, 7452, 7749, 7599, 0, 0, 0, 6950, 7659, 1884, 1681, 989, 4200, 3471, 9481, 9617, 12808, 15774, 16464, 14798, 15506, 14109, 9951, 8337, 15411, 13720, 11869, 4060, 5731, 6548, 6322, 6199, 6673, 5059, 3627, 2772, 5097, 5006, 6149, 5833, 5738, 5978, 6504, 5697, 5428, 5613, 4692, 4057, 6100, 6365, 5591, 5756, 6210, 6716, 7349, 6726, 6926, 5974, 3987, 3893, 8548, 6651, 6734, 6228, 6044, 5561, 5705, 7420, 8233, 8062, 4558, 3972, 7673, 7887, 8642, 9465, 8711, 7743, 8614, 7457, 7288, 7496, 4638, 3701, 9846, 7601, 7051, 6481, 6685, 6758, 7808, 8363, 7340, 6396, 4583], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トイストーリーパーティー', 'keyword': 'toy story party'}, {'keywordCn': '玩具总动员盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1928, 2752, 3907, 1957, 5246, 5777, 5005, 4514, 4207, 3931, 3205, 5683, 5365, 5073, 2456, 3365, 3649, 3365, 3483, 3430, 2907, 2676, 1974, 3506, 3626, 3963, 3620, 3730, 3730, 3909, 4127, 4013, 3999, 3254, 2804, 4436, 4287, 4985, 4410, 4531, 4790, 4547, 4819, 4977, 4148, 3645, 2760, 4793, 4765, 4584, 4228, 4107, 4122, 3917, 5063, 4872, 4387, 3621, 2966, 5498, 6441, 7018, 7083, 6728, 6188, 6375, 6849, 7012, 5910, 3943, 2964, 7166, 6733, 8933, 8768, 7592, 7752, 7536, 7505, 7795, 5117, 3812], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トイストーリープレート', 'keyword': 'toy story plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1391, 1887, 2328, 2114, 1328, 1273, 984, 3434, 4510, 5055, 5297, 6489, 7971, 7499, 8613, 6698, 3529, 2686], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cherry themed party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 268, 550, 140, 140, 0, 1985, 2006, 2147, 2367, 3131, 3816, 4013, 4001, 3839, 2294, 1755], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cherry party favors'}, {'keywordCn': '樱桃生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 634, 398, 673, 0, 0, 0, 0, 626, 563, 488, 585, 510, 601, 100, 943, 905, 0, 752, 0, 2104, 1947, 1278, 1700, 1863, 3006, 4219, 5791, 7046, 4431, 3928, 2855, 12378, 13202, 14000, 16093, 16145, 17770, 20872, 22494, 28715, 21554, 20184], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '桜の誕生日の飾り', 'keyword': 'cherry birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 726, 1508, 2080, 2132, 1899, 1473, 1168, 445, 2688, 5145, 4606, 4112, 5150, 5842, 5623, 5218, 3875, 1973, 1540], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cherry decorations party'}, {'keywordCn': '樱桃派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 579, 780, 513, 536, 0, 401, 0, 0, 731, 693, 609, 945, 660, 666, 372, 1329, 964, 0, 0, 0, 1977, 867, 1134, 1204, 1702, 2849, 3275, 3984, 3663, 2343, 1883, 2199, 10773, 11387, 9828, 10689, 13309, 15397, 16297, 15657, 11373, 4873, 2995], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '桜のパーティーの装飾', 'keyword': 'cherry party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'racing car plates'}, {'keywordCn': '汽车主题生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1896, 3359, 2333, 1399, 2106, 2466, 2210, 1567, 2180, 1548, 1656, 0, 2149, 1955, 3895, 1382, 2119, 2117, 2686, 3311, 3180, 2786, 1979, 1301, 3430, 3533, 3958, 4068, 4090, 3959, 4629, 4461, 4789, 4258, 3468, 2213, 4491, 4260, 4360, 4793, 4529, 4780, 4728, 4936, 4790, 3623, 2848, 2698, 5421, 4620, 4427, 4860, 4431, 4446, 4123, 4489, 4002, 875, 1344, 374, 2246, 2110, 2386, 6262, 5878, 6521, 6257, 6636, 6782, 5078, 3658, 2745, 6431, 6204, 6949, 6043, 6060, 6262, 6670, 6692, 6053, 4578, 3809], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '車をテーマにした誕生日パーティーの装飾', 'keyword': 'car themed birthday party decorations'}, {'keywordCn': '赛车派对盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 100, 391, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1087, 0, 140, 0, 0, 0, 538, 0, 140, 0, 0, 661, 0, 0, 585, 0, 320, 140, 140, 493, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レースカーのパーティープレート', 'keyword': 'race car party plates'}, {'keywordCn': '赛车宝贝淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 613, 0, 0, 0, 0, 0, 0, 0, 0, 940, 1195, 564, 684, 708, 668, 482, 684, 0, 312, 140, 1, 1279, 1430, 566, 942, 759, 475, 634, 1141, 767, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レースカー ベビーシャワー デコレーション', 'keyword': 'race car baby shower decorations'}, {'keywordCn': '赛车车牌', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 649, 0, 0, 507, 670, 804, 1140, 747, 893, 683, 672, 606, 694, 820, 965, 1151, 1287, 1210, 889, 1244, 784, 554, 573, 467, 1694, 1693, 1510, 1714, 1321, 1514, 1352, 2071, 2196, 1918, 1572, 899, 2589, 2486, 1821, 1955, 1798, 1510, 1440, 1583, 1659, 1430, 1116, 502, 2053, 1806, 2068, 1906, 1898, 1772, 1674, 1908, 2163, 1488, 1281], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'レースカープレート', 'keyword': 'race car plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '浅蓝色盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1078, 0, 0, 1571, 1863, 0, 1803, 1967, 0, 0, 0, 0, 0, 0, 0, 1164, 0, 753, 0, 620, 897, 887, 822, 704, 674, 430, 0, 0, 866, 1122, 1307, 1585, 1601, 1774, 2060, 1811, 1429, 1286, 809, 1834, 1634, 2452, 2295, 2805, 2336, 1899, 1559, 1595, 1530, 1344, 743, 1551, 2130, 2086, 2190, 2389, 2070, 1597, 2332, 2340, 2267, 1657, 1368, 2846, 2888, 2927, 3498, 3086, 2859, 2694, 2064, 2720, 1890, 1475, 1433, 3215, 3275, 3958, 5039, 5405, 4597, 4291, 4096, 3904, 2271, 1832], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '水色のプレート', 'keyword': 'light blue plates'}, {'keywordCn': '蓝色格子板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 482, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 725, 0, 0, 0, 0, 0, 0, 0, 644, 445, 303, 332, 100, 0, 0, 0, 0, 0, 0, 998, 660, 577, 676, 766, 684, 1504, 841, 140, 140, 0, 1470, 2272, 2687, 2794, 2990, 2883, 2739, 2219, 2024, 1333, 587], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ブルーギンガムプレート', 'keyword': 'blue gingham plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 226, 0, 0, 0, 271, 140, 324, 140, 970, 377, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'blue gingham plates and napkins'}, {'keywordCn': '格子板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1975, 1488, 0, 0, 0, 0, 0, 0, 0, 0, 993, 0, 0, 0, 516, 0, 631, 0, 0, 0, 0, 0, 0, 536, 933, 736, 682, 0, 0, 0, 0, 0, 0, 0, 584, 979, 806, 760, 844, 768, 672, 0, 548, 0, 0, 0, 1109, 619, 1219, 989, 957, 1326, 1303, 912, 729, 0, 887, 1500, 1497, 1716, 1813, 2029, 2546, 2369, 2902, 2158, 1324, 1128, 4132, 4622, 5459, 7347, 7018, 6919, 6659, 6329, 5136, 3437, 2388], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ギンガムプレート', 'keyword': 'gingham plates'}, {'keywordCn': '蓝色婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1681, 0, 2684, 0, 0, 1950, 0, 3964, 4255, 3236, 995, 1328, 3179, 3488, 4212, 2681, 2441, 1851, 1446, 946, 0, 0, 715, 552, 1261, 1149, 1679, 702, 933, 3258, 4118, 4216, 4741, 5002, 5296, 7117, 5405, 5396, 4015, 3222, 2226, 4616, 5255, 4924, 4778, 4589, 4121, 3827, 3948, 3935, 3228, 2194, 1599, 5022, 4459, 4658, 4476, 4319, 4117, 3963, 4415, 4299, 3803, 2951, 2735, 6652, 6253, 6294, 6221, 5972, 5449, 5973, 5530, 5431, 4159, 2684, 2450, 7968, 7440, 7597, 7171, 6817, 6261, 6180, 6238, 5878, 4549, 3043], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青いベビーシャワーの装飾', 'keyword': 'blue baby shower decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '娇娘生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 488, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4163, 7322, 8232, 9112, 8112, 12627, 14689, 22994, 36056, 30185, 28307, 22709, 54696, 51230, 44413, 38487, 31895, 26521, 24792, 24949, 30362, 19426, 17382], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'コケットバースデーデコレーション', 'keyword': 'coquette birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 466, 1369, 1694, 2430, 1881, 3000, 15302, 13780, 14867, 13765, 14185, 15333, 16200, 15601, 13990, 12848, 8658], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'girls just wanna be one birthday'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1750, 2189, 1320, 1456, 1332, 2398, 3575, 6086, 8816, 7514, 8288, 10974, 30011, 26470, 24237, 21168, 18162, 19151, 20321, 23606, 24211, 16489, 16554], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1136, 1033, 469, 577, 676, 551, 659, 2159, 3001, 3082, 3195, 3433, 9326, 7548, 5565, 4655, 5129, 4324, 4679, 4086, 4767, 3822, 3682], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 855, 140, 685, 0, 650, 1576, 2095, 2287, 2891, 5534, 6589, 23566, 29567, 30588, 22300, 24326, 26171, 27790, 26407, 31696, 24172, 21893], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'pink bow birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '钓鱼生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1297, 2557, 2372, 2708, 1770, 0, 0, 0, 0, 0, 0, 678, 805, 0, 1275, 1883, 0, 805, 656, 664, 0, 720, 1302, 729, 1205, 906, 1654, 1361, 1264, 727, 871, 531, 0, 703, 850, 1705, 1227, 1220, 848, 853, 780, 696, 456, 0, 0, 631, 0, 671, 1232, 1187, 1346, 1881, 2315, 1879, 1280, 749, 0, 844, 0, 755, 1454, 1396, 1461, 2022, 1760, 1399, 662, 450, 0, 1175, 1239, 1383, 1179, 1792, 1921, 2156, 1991, 1828, 977, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '釣りの誕生日', 'keyword': 'fishing birthday'}, {'keywordCn': '鱼盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1592, 1335, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1604, 0, 1147, 0, 844, 840, 862, 705, 854, 934, 665, 1486, 2037, 2501, 1988, 1473, 1360, 1174, 758, 949, 0, 542, 821, 880, 1260, 1988, 1179, 1659, 1217, 790, 686, 892, 872, 969, 1197, 1482, 2277, 1520, 1270, 1325, 805, 1535, 696, 1184, 1338, 0, 1369, 1555, 1970, 2114, 1552, 1551, 1321, 1126, 1239, 1087, 1430, 936, 599, 1355, 1604, 1542, 844, 1539, 1170, 592, 791, 1476, 1244, 566, 934], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フィッシュプレート', 'keyword': 'fish plate'}, {'keywordCn': '去钓鱼派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 340, 833, 934, 1920, 1170, 2417, 1413, 351, 2385, 2398, 2085, 2452, 3313, 4092, 3956, 3271, 2640, 1708, 794, 1, 589, 1714, 2569, 2268, 3222, 3392, 3685, 2856, 2069, 1422, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ゴーフィッシングパーティーの飾り付け', 'keyword': 'gone fishing party decorations'}, {'keywordCn': '一个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3842, 845, 6506, 7560, 8276, 7454, 5837, 3563, 2942, 3508, 8053, 7282, 8325, 3104, 5695, 6059, 5550, 5192, 4905, 3383, 2687, 2737, 5731, 5677, 6630, 7103, 8220, 8849, 9758, 7839, 5634, 4260, 3796, 3094, 7326, 7509, 8692, 8551, 9264, 11981, 9025, 8513, 5867, 4632, 3997, 3750, 8973, 9149, 8704, 8399, 8546, 9190, 8529, 9083, 6598, 4403, 3641, 3425, 8299, 8223, 8902, 11413, 11074, 13074, 13014, 10501, 7099, 4623, 2777, 2930, 13103, 9781, 11155, 9733, 12593, 13099, 11933, 9097, 6464, 3622, 2650], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ofishally1つの誕生日の装飾', 'keyword': 'ofishally one birthday decorations'}, {'keywordCn': '钓鱼生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 724, 0, 0, 0, 0, 0, 511, 0, 0, 0, 0, 465, 603, 0, 0, 0, 542, 0, 807, 0, 0, 0, 0, 0, 0, 0, 1258, 100, 0, 474, 1449, 881, 2132, 1856, 0, 2568, 3975, 7485, 10835, 11465, 14046, 15345, 16731, 16463, 7782, 4528, 2764, 8483, 9103, 12667, 12658, 15334, 16672, 19266, 19397, 17129, 9682, 6230], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '釣りの誕生日パーティーの装飾', 'keyword': 'fishing birthday party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '泰迪熊生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 580, 0, 0, 0, 954, 0, 698, 878, 917, 1155, 1467, 1517, 1089, 1262, 1243, 2601, 2979, 2812, 2696, 2509, 2431, 2081, 2055, 2111, 1928, 1593, 1456, 3619, 3344, 2540, 2440, 2340, 2061, 1830, 2557, 2371, 2377, 1827, 1407, 3568, 3102, 1924, 1983, 1675, 1677, 1393, 1661, 1656, 1582, 1330, 965, 2677, 2187, 2073, 1981, 1725, 1458, 1283, 1645, 1851, 1743, 1771], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'テディベアの誕生日の飾り', 'keyword': 'teddy bear birthday decorations'}, {'keywordCn': '贝利的第一个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1231, 2008, 2175, 2102, 2068, 2903, 2406, 1916, 2259, 1790, 4804, 3983, 3082, 3077, 2284, 2660, 2935, 3348, 3840, 3475, 2734, 3100, 8108, 7200, 6149, 5751, 5187, 5368, 6107, 6251, 6858, 6160, 5684], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ビアリー・ファースト・バースデー・デコレーション', 'keyword': 'beary first birthday decorations'}, {'keywordCn': '泰迪熊婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7683, 5836, 0, 0, 0, 0, 0, 4197, 3835, 2745, 4780, 5159, 5578, 5452, 3590, 1621, 1339, 3412, 5955, 4312, 666, 926, 883, 0, 585, 1052, 897, 763, 0, 1337, 1438, 1464, 1424, 3999, 3272, 4204, 4567, 3922, 3744, 2978, 2245, 5501, 6688, 6826, 5073, 4783, 5765, 4208, 5056, 4389, 3146, 4205, 2454, 5277, 4934, 4732, 3632, 3517, 3748, 4270, 4587, 13194, 27141, 17771, 13479, 42203, 33097, 35165, 38716, 29566, 28672, 29713, 30025, 28827, 21897, 13255, 8063, 24795, 26539, 28747, 21958, 21197, 19968, 20873, 21664, 23710, 22098, 17297], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'テディベアのベビーシャワーの装飾', 'keyword': 'teddy bear baby shower decorations'}, {'keywordCn': '贝利的第一个生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 1685, 1499, 1342, 1029, 1178, 1212, 1457, 2254, 2856, 3130, 2099, 2388, 3537, 2604, 1780, 1743, 1511, 1606, 1774, 1700, 1958, 2108, 2114, 1950, 4520, 3254, 2797, 2359, 2170, 2054, 2391, 2459, 2347, 2420, 2356], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '初誕生', 'keyword': 'beary first birthday'}, {'keywordCn': '熊生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 727, 609, 1729, 1306, 1414, 1223, 1541, 1109, 1866, 1951, 2152, 1883, 1733, 1663, 3178, 3550, 3233, 3027, 3030, 2801, 2768, 3046, 2338, 1943, 1585, 1584, 3338, 3063, 2707, 2696, 2321, 2693, 2714, 2891, 2996, 2689, 2404, 2241, 4163, 3530, 2351, 2605, 2252, 2251, 2366, 2447, 2514, 2192, 1484, 1427, 3533, 2975, 2595, 2008, 1976, 1997, 2053, 2448, 2522, 2079, 1889], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'クマの誕生日の飾り', 'keyword': 'bear birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '我的第一个牛仔竞技表演', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2599, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 627, 583, 0, 0, 0, 0, 868, 998, 1169, 919, 915, 842, 1532, 2139, 1496, 1364, 967, 841, 3235, 2860, 3794, 3287, 3736, 4111, 4579, 4843, 4911, 3406, 2809, 2535, 4329, 4447, 4765, 3525, 3078, 3119, 3524, 3826, 3887, 2920, 2655, 2423, 6427, 5735, 4975, 4589, 3148, 2871, 3695, 3794, 4078, 2807, 2299], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '私の最初のロデオ', 'keyword': 'my first rodeo'}, {'keywordCn': '牛仔竞技会装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1465, 0, 0, 0, 0, 1248, 929, 0, 0, 660, 839, 0, 1736, 966, 762, 0, 1210, 1191, 1582, 1834, 2764, 2700, 2963, 2576, 2874, 2146, 1552, 608, 2428, 4677, 5360, 5383, 5576, 5813, 6436, 6701, 6547, 5150, 4272, 2859, 6494, 8241, 7590, 7421, 7603, 7475, 7583, 9672, 9797, 9360, 4698, 3253, 8026, 11412, 13229, 16200, 14676, 13316, 13028, 14614, 12628, 8724, 5423, 3338, 11660, 13654, 16294, 16911, 18377, 16403, 15441, 12644, 14100, 8579, 5189], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ロデオパーティーの装飾', 'keyword': 'rodeo party decorations'}, {'keywordCn': '我第一次参加牛仔竞技表演 装饰男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1711, 11872, 8711, 8369, 22006, 18781, 18997, 20929, 20099, 19343, 20923, 21224, 19492, 14354, 11202, 9151, 25872, 24922, 22766, 18847, 19522, 18886, 20691, 19198, 18072, 12978, 9764], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '私の最初のロデオ装飾少年', 'keyword': 'my first rodeo decorations boy'}, {'keywordCn': '第一次牛仔竞技生日装饰 男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2180, 4463, 12335, 9923, 11506, 12178, 9447, 10765, 11181, 11528, 9600, 7389, 5006, 5029, 15520, 13545, 13377, 10979, 9597, 10763, 11984, 10796, 8333, 6364, 4974], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '初めてのロデオ誕生日デコレーション（男孩）', 'keyword': 'first rodeo birthday decorations boy'}, {'keywordCn': '1岁生日装饰男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1571, 0, 0, 0, 1258, 4368, 3588, 3273, 4171, 1933, 1107, 1423, 4203, 3823, 2308, 2004, 1920, 3274, 3187, 1696, 2496, 15734, 1141, 0, 1344, 2062, 0, 0, 0, 0, 0, 0, 0, 0, 660, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1750, 1386, 1620, 2162, 2566, 3502, 10050, 15915, 36026, 32451, 32255, 34958, 31401, 33943, 33793, 33916, 32680, 25624, 20412, 19241, 39974, 34615, 31753, 28289, 29504, 26637, 30024, 28262, 26425, 21097, 18747], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1歳の誕生日の装飾の男の子', 'keyword': '1st birthday decorations boy'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2305, 9804, 19980, 74891, 82748, 88611, 72834, 70827, 49077, 39951, 28194, 26087, 40462, 52437], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'wicked party decorations'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pink and green witch party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 570, 5635, 14156, 47019, 30809, 27562, 22950, 21849, 17857, 16986, 26410, 37486, 37993, 53673], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'wicked birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3205, 2999, 3002, 3022, 2151, 1812, 1547, 1469, 1882, 2544, 4795], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'wicked plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 647, 3324, 6975, 11586, 28225, 16289, 13529, 15773, 8204, 5963, 5978, 6684, 11925, 23230, 18934], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'wicked decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '蝾螈生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 696, 588, 986, 880, 989, 814, 1253, 829, 669, 0, 100, 715, 1249, 949, 1515, 1266, 1168, 682, 1376, 2018, 1847, 1267, 1156, 895, 2439, 2334, 1927, 1986, 1449, 1941, 1821, 2268, 1933, 1977, 1769, 1615, 3960, 2933, 2890, 3022, 3019, 2964, 2901, 2953, 2522, 1847, 1847], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルの誕生日', 'keyword': 'axolotl birthday'}, {'keywordCn': '动物城生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 905, 0, 0, 815, 510, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 550, 0, 0, 0, 0, 0, 0, 586, 1402, 1873, 2082, 2017, 1985, 2052, 2205, 2397, 1882, 770, 0, 0, 2055, 1930, 1532, 1534, 1415, 1531, 1336, 1541, 1441, 140, 140, 0, 0, 0, 0, 0, 0, 524, 391, 333, 140, 0, 1502], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ズートピアの誕生日パーティーの装飾', 'keyword': 'zootopia birthday party decorations'}, {'keywordCn': '蝾螈生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 590, 1549, 1768, 2477, 2983, 3315, 3288, 2828, 2663, 2610, 1699, 1898, 1661, 3898, 3609, 4303, 4569, 4497, 4569, 3945, 4368, 4354, 3607, 3555, 3100, 13080, 9966, 11171, 13888, 14307, 14922, 14854, 14882, 14100, 8446, 8253, 5775, 19800, 23759, 30606, 27154, 29766, 30414, 29995, 28638, 26392, 17470, 17137], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルの誕生日の装飾', 'keyword': 'axolotl birthday decorations'}, {'keywordCn': '蝾螈派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 466, 0, 880, 1327, 1327, 1778, 1605, 1068, 996, 410, 0, 0, 876, 875, 1528, 1580, 1306, 1935, 1957, 2326, 2342, 1697, 1162, 1672, 3287, 2371, 1825, 1691, 2075, 1890, 1741, 2171, 2546, 2365, 1903, 1696, 4323, 2901, 2511, 2641, 2403, 2470, 2452, 2370, 2290, 2164, 1882], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートルパーティデコレーション', 'keyword': 'axolotl party decorations'}, {'keywordCn': '蝾螈党的恩惠', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 638, 601, 427, 649, 676, 676, 100, 545, 1706, 1751, 1646, 2032, 2171, 1947, 1529, 2470, 3163, 2507, 2199, 2173, 7268, 5052, 4343, 4781, 5092, 3431, 3083, 4241, 5980, 4956, 4155, 2722, 9274, 12093, 9654, 8792, 13803, 9553, 8802, 8740, 13810, 11856, 10567], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アホロートル党の好意', 'keyword': 'axolotl party favors'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '运动生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 706, 0, 661, 0, 0, 0, 767, 1841, 2425, 5507, 6447, 6298, 7259, 6970, 6045, 5684, 7688, 6728, 1052, 3535, 3347, 9166, 9697, 11829, 15104, 12614, 13072, 12147, 11381, 13042, 8265, 6174, 3461, 9412, 9323, 11477, 12883, 13612, 11829, 11986, 8927, 11157, 8576, 7213], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スポーツの誕生日パーティーの装飾', 'keyword': 'sports birthday party decorations'}, {'keywordCn': '男孩生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1329, 0, 1284, 2501, 4300, 6423, 7015, 7701, 7615, 5517, 5745, 4970, 11168, 9791, 9552, 9865, 9984, 9455, 12497, 9143, 9298, 7933, 7658, 6261, 11407, 11605, 8882, 8622, 9297, 9042, 8383, 8732, 9105, 6844, 5797, 4719, 9548, 9454, 7969, 7098, 5035, 6704, 6975, 8933, 9713, 8161, 6852, 4791, 12496, 12573, 11533, 12444, 10009, 11057, 11123, 11612, 13429, 8012, 6250, 4738, 13904, 12258, 12607, 10774, 11731, 9454, 12367, 12284, 11667, 8191, 7482], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '男の子の誕生日パーティーの装飾', 'keyword': 'boys birthday party decorations'}, {'keywordCn': '男孩的生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13268, 13827, 13073, 13488, 11397, 0, 14919, 11703, 9753, 11920, 11159, 7718, 15934, 15032, 13031, 13539, 14697, 13242, 14781, 15725, 18449, 13930, 12532, 8347, 17989, 17228, 14802, 45896, 25295, 19698, 31492, 24141, 25903, 26542, 19407, 14843, 20775, 26859, 33317, 26840, 29647, 27509, 29686, 25658, 33866, 24584, 19075, 15555, 30142, 29528, 27100, 20940, 25572, 24852, 23183, 23050, 20275, 16913, 15074, 12402, 18450, 17411, 15088, 14426, 11600, 12644, 13076, 22311, 19430, 13800, 18196, 13794, 23961, 23140, 25632, 25035, 24008, 25153, 24590, 25321, 28502, 20111, 17399, 12433, 22872, 23346, 22477, 20547, 19243, 20465, 20490, 23011, 23876, 19498, 17622], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '男の子のための誕生日の装飾', 'keyword': 'birthday decorations for boys'}, {'keywordCn': '篮球生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 491, 0, 0, 1091, 658, 0, 753, 0, 0, 0, 0, 667, 977, 961, 941, 658, 788, 525, 457, 1316, 2506, 3243, 1741, 2635, 15896, 14002, 16570, 18752, 16895, 19202, 14708, 14126, 14375, 9903, 8304, 5524, 14422, 14159, 16363, 17170, 15849, 14636, 13582, 12067, 13200, 9205, 8678], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バスケットボールの誕生日パーティーの装飾', 'keyword': 'basketball birthday party decorations'}, {'keywordCn': '派对装饰品', 'searches': [149915, 159561, 149362, 149109, 147053, 127793, 122190, 138729, 152600, 160108, 100131, 52801, 157206, 191705, 187672, 222258, 224371, 181935, 205852, 212536, 189386, 121947, 88583, 46742, 151802, 200936, 175740, 239344, 259974, 135465, 149321, 188685, 166589, 133383, 93922, 52485, 82084, 46930, 85781, 87494, 191153, 196361, 205903, 185325, 190262, 128867, 84204, 62115, 142616, 144499, 195709, 235975, 285432, 267345, 220034, 170563, 160878, 115504, 81867, 50488, 118006, 140899, 158575, 150262, 187118, 140502, 119751, 147400, 123902, 89159, 64315, 51740, 116792, 142024, 78218, 84517, 87535, 86144, 76644, 110492, 120215, 97712, 67549, 50622, 99166, 101397, 110641, 123989, 136609, 118122, 119968, 118883, 105272, 83539, 56406, 45657, 72702, 84215, 89061, 93291, 95819, 91068, 90755, 93752, 95364, 76372, 67127], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パーティーデコレーション', 'keyword': 'party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '女孩过夜派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 654, 2379, 4112, 5459, 13517, 13764, 13245, 12737, 12496, 10630, 11570, 11307, 11932, 9243, 9371, 6642, 13993, 15971, 16098, 14991, 14669, 13646, 13153, 15718, 15448, 13551, 12702, 8973, 18474, 17781, 13960, 14019, 7574, 12151, 12036, 18613, 19002, 2819, 13153, 12038, 34457, 28595, 29455, 32220, 26649, 26837, 28287, 32882, 37918, 26497, 21650, 15521, 35469, 34110, 31012, 29220, 31043, 27058, 30403, 31159, 30444, 25370, 22788], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための寝坊パーティー用品', 'keyword': 'sleepover party supplies for girls'}, {'keywordCn': '睡衣派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 811, 0, 0, 0, 494, 0, 1145, 813, 744, 0, 723, 954, 1112, 723, 1075, 682, 846, 1303, 1481, 1886, 1539, 824, 2241, 2381, 1590, 2154, 1929, 1517, 1787, 1991, 1964, 2258, 2372, 2328, 3722, 2920, 2768, 2558, 2363, 2097, 1827, 3209, 4167, 5001, 4024, 2484, 4340, 4219, 3448, 3264, 2468, 2688, 2716, 3267, 4197, 3382, 2449, 1794, 4183, 3763, 3032, 3131, 3066, 2966, 2966, 3706, 4251, 2873, 2567], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '眠りのパーティーの装飾', 'keyword': 'slumber party decorations'}, {'keywordCn': '女生睡衣派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13937, 14384, 9425, 8021, 8106, 6502, 7302, 8440, 12511, 11333, 8607, 5447, 8748, 5602, 8739, 2900, 5202, 6424, 7438, 7595, 9170, 7559, 6751, 4966, 9697, 10024, 8971, 8578, 7148, 5781, 7329, 7452, 7893, 7101, 6647, 4746, 9609, 9283, 8561, 8367, 8262, 7088, 7364, 8466, 9222, 8361, 8808, 5348, 12604, 10852, 8932, 7677, 6987, 6039, 6513, 10552, 11039, 2122, 6889, 6107, 18112, 14023, 13946, 15726, 12629, 12199, 13245, 15418, 19850, 14805, 11302, 7235, 19677, 17480, 16631, 14000, 14291, 12631, 12387, 14194, 16220, 12958, 12008], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のためのまどろみパーティー用品', 'keyword': 'slumber party supplies for girls'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1760, 1938, 2451, 2526, 3496, 3459, 2585, 2955, 3916, 4642, 4536], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'sleep over party supplies for girls'}, {'keywordCn': '睡衣派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1827, 0, 0, 0, 0, 0, 0, 0, 1064, 0, 0, 2061, 2399, 3253, 3790, 3458, 3024, 2183, 1550, 1377, 1607, 3047, 2746, 3218, 2983, 2192, 977, 1489, 1245, 1099, 1776, 1253, 1152, 1365, 1294, 1574, 1128, 1681, 2042, 3149, 2948, 2064, 2799, 2303, 2455, 2393, 3360, 3846, 3886, 4213, 4130, 5207, 4512, 3671, 3811, 3439, 2029, 2704, 4115, 4718, 4691, 5153, 4709, 6876, 5144, 4226, 4966, 3113, 3082, 3488, 4730, 5764, 5046, 4810, 5338, 6741, 4912, 4302, 3347, 3056, 2571, 2925, 3219, 4577, 4169, 4807], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'パジャマパーティーの装飾', 'keyword': 'pajama party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '怪物卡车派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1417, 0, 0, 0, 0, 0, 0, 0, 2247, 1960, 1125, 1749, 0, 1070, 1480, 0, 1524, 1302, 1458, 773, 1181, 1800, 1748, 2105, 1795, 2049, 2820, 2892, 2404, 3142, 2479, 2379, 3304, 4148, 4865, 3756, 3769, 4108, 3720, 3952, 4272, 3831, 3585, 3557, 6986, 6310, 4671, 5009, 4455, 5401, 5740, 8739, 18738, 38982, 17425, 7017, 8157, 6706, 9385, 10938, 11976, 14135, 10596, 8791, 12791, 9088, 8233, 7916, 17931, 10687, 10035, 10556, 10030, 9865, 9875, 11022, 9608, 6869, 4731], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタートラックのパーティーの装飾', 'keyword': 'monster truck party decorations'}, {'keywordCn': '掘墓人生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1305, 1394, 718, 2881, 3838, 6140, 7120, 5919, 5842, 5728, 6181, 5867, 4381, 2804, 1765, 5660, 7306, 6693, 6450, 6761, 6751, 6187, 6072, 7135, 5063, 3821], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '墓掘り人の誕生日飾り', 'keyword': 'grave digger birthday decorations'}, {'keywordCn': '怪物卡车派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2728, 0, 0, 1260, 811, 0, 2433, 3018, 1887, 1846, 884, 4131, 2116, 2036, 1965, 1752, 0, 3098, 3321, 2601, 798, 1483, 1948, 1789, 2335, 2314, 1529, 1141, 959, 2152, 1993, 2288, 2859, 0, 2592, 3452, 3160, 2903, 2491, 2563, 1502, 3138, 4159, 4931, 4250, 4050, 3906, 3962, 4169, 4356, 3493, 2818, 2805, 5814, 5479, 3990, 3654, 3746, 3902, 3814, 4469, 4640, 3894, 3231, 2628, 4309, 4420, 4277, 4684, 4888, 4355, 4456, 4281, 5146, 3882, 3030, 2602, 6139, 5000, 5241, 4628, 5545, 4787, 4717, 4592, 4200, 3037, 2481], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタートラックパーティー', 'keyword': 'monster truck party'}, {'keywordCn': '怪物卡车生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 689, 1567, 0, 1471, 1464, 0, 1842, 1405, 996, 1278, 2045, 1888, 2161, 1791, 2689, 2256, 2773, 2429, 2448, 2302, 2558, 2825, 3585, 3957, 4617, 3476, 3446, 3572, 3208, 3727, 4552, 3392, 2788, 3493, 6771, 5323, 3359, 3301, 2470, 3935, 4556, 4648, 6851, 13463, 19841, 18521, 67924, 64490, 66263, 73222, 65500, 66279, 64138, 71145, 69417, 51678, 35906, 23880, 60195, 68846, 71921, 63361, 69427, 67344, 68592, 70067, 74935, 58625, 48421], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタートラックの誕生日の装飾', 'keyword': 'monster truck birthday decorations'}, {'keywordCn': '怪物卡车生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2093, 0, 860, 729, 605, 2069, 0, 2828, 1522, 3544, 3776, 3063, 1873, 2252, 1716, 1578, 1357, 2852, 2349, 3085, 1326, 2805, 3060, 3068, 3190, 3275, 2467, 1831, 1699, 3337, 3065, 3566, 3910, 3543, 3876, 3831, 4043, 3923, 3479, 2727, 2320, 3692, 4674, 5077, 4494, 4831, 4579, 4013, 4578, 4624, 3865, 2925, 3343, 7010, 5574, 4598, 4754, 4413, 3976, 4181, 5022, 5990, 4058, 3872, 3625, 6254, 6671, 7767, 8534, 7122, 6470, 7044, 7208, 8053, 5889, 4790, 4307, 11966, 7726, 7856, 8017, 8872, 8526, 8920, 8712, 8106, 5875, 4858], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'モンスタートラックの誕生日', 'keyword': 'monster truck birthday'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '蜘蛛侠生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3377, 4067, 2031, 923, 5593, 4972, 5178, 5031, 4029, 3348, 6591, 5675, 5075, 5433, 6966, 12217, 11411, 8572, 10596, 9602, 8173, 6077, 13895, 13091, 12307, 11333, 12718, 12490, 12623, 12885, 14571, 14771, 21928, 22001, 72166, 84246, 72665, 65018, 81487, 77206, 55894, 66208, 69174, 43653, 35401, 21140, 43462, 54888, 76628, 68464, 43077, 53359, 43506, 74252, 77133, 70142, 52265, 39647, 138731, 133363, 125335, 137865, 123349, 117748, 118243, 121705, 125738, 77811, 63740, 43811, 94683, 124306, 130546, 119112, 126752, 125730, 110999, 103459, 127760, 80174, 71717], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スパイダーマンの誕生日の飾り', 'keyword': 'spiderman birthday decorations'}, {'keywordCn': '蜘蛛侠和朋友们的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 870, 797, 640, 1275, 0, 1295, 752, 0, 0, 0, 0, 468, 0, 0, 508, 634, 485, 914, 1133, 3271, 5309, 7078, 4462, 22391, 23634, 21645, 26455, 24604, 23201, 24351, 24778, 28127, 18191, 10019, 8389, 23827, 34425, 35861, 27918, 41122, 63514, 63490, 65606, 58174, 44199, 39004], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スパイディと友達の誕生日の飾り', 'keyword': 'spidey and friends birthday decorations'}, {'keywordCn': '蜘蛛板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 594, 754, 886, 558, 678, 878, 632, 587, 504, 1262, 838, 816, 908, 650, 686, 706, 1717, 1623, 976, 1141, 882, 1860, 1888, 978, 1352, 1542, 1415, 1639, 1355, 1871, 1390, 1436, 1167, 1559, 1861, 1898, 1967, 1824, 1897, 1844, 1981, 2053, 1635, 1573], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スパイディプレート', 'keyword': 'spidey plates'}, {'keywordCn': '蜘蛛侠蛋糕盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 509, 511, 0, 608, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 196, 0, 100, 0, 0, 0, 778, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 140, 448, 361, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スパイダーマンケーキプレート', 'keyword': 'spiderman cake plates'}, {'keywordCn': '蜘蛛侠板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2139, 0, 2216, 1229, 765, 2837, 2200, 3177, 3377, 1989, 3737, 1401, 4414, 5101, 4710, 5272, 4182, 6090, 5545, 4851, 3978, 3620, 4118, 4202, 3975, 3873, 3380, 3550, 2374, 3600, 3550, 3406, 3482, 3165, 3580, 3635, 3848, 4505, 4785, 4251, 3663, 6286, 6175, 6853, 5976, 5770, 5414, 4791, 5261, 5344, 4709, 4124, 3189, 4772, 4619, 3819, 3864, 3744, 4272, 4043, 4606, 4494, 4117, 3917, 3032, 4571, 4450, 4519, 4912, 4466, 4077, 4285, 4889, 5431, 4132, 3613, 2652, 5629, 5596, 5572, 5090, 5854, 5129, 4379, 4798, 5460, 4034, 3716], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スパイダーマンプレート', 'keyword': 'spiderman plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '独角兽生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5894, 10859, 12308, 9278, 8281, 7559, 13550, 14308, 14192, 13845, 15083, 15810, 14714, 16367, 15735, 15686, 14986, 12359, 33753, 15551, 6711, 6978, 14321, 16773, 19263, 16107, 17692, 15867, 14255, 13271, 20241, 20395, 21744, 23814, 25270, 16296, 18210, 31393, 26796, 14558, 11565, 7957, 14755, 14164, 14724, 14291, 14023, 12748, 12497, 14437, 12585, 9629, 7891, 5503, 11518, 9439, 6833, 9209, 7459, 9581, 9405, 13871, 19599, 33294, 50391, 34083, 132485, 127350, 114913, 122221, 130719, 114025, 117648, 124672, 124815, 81529, 58151, 36407, 78402, 93922, 98012, 92637, 93739, 90315, 89023, 86725, 88102, 69886, 59231], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンの誕生日の装飾', 'keyword': 'unicorn birthday decorations'}, {'keywordCn': '独角兽派对', 'searches': [32785, 32214, 34878, 39129, 41699, 41693, 50142, 52636, 55636, 45904, 32505, 21480, 67075, 57999, 57890, 75886, 60868, 60200, 72021, 65360, 62911, 48724, 34025, 21945, 73661, 68981, 74149, 73928, 56432, 64040, 54110, 52199, 55359, 42991, 30076, 17251, 40634, 32934, 24373, 12779, 15005, 18643, 19041, 19247, 19254, 14570, 12674, 9979, 15333, 16911, 19867, 20863, 23222, 17530, 20449, 16762, 14760, 12940, 10924, 8016, 12352, 13086, 14205, 13295, 13065, 12502, 12393, 11827, 10893, 8469, 6836, 6428, 14988, 13923, 8457, 7908, 6924, 6969, 6640, 9714, 9639, 6238, 4604, 4208, 7366, 6526, 8219, 9209, 7478, 6914, 7288, 7258, 6937, 5642, 4415, 3200, 8962, 6069, 5524, 5693, 6518, 5203, 5233, 4807, 4855, 3364, 2635], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーン・パーティー', 'keyword': 'unicorn party'}, {'keywordCn': '独角兽生日', 'searches': [14345, 13460, 15293, 15110, 15660, 16126, 19800, 21675, 19410, 19360, 14092, 13703, 32590, 25823, 23467, 27507, 26773, 23649, 28304, 30450, 25682, 20699, 16979, 13499, 36288, 33859, 33517, 30350, 30134, 26417, 25006, 27372, 23551, 16721, 14920, 12398, 23267, 23070, 15503, 11601, 15858, 18127, 16121, 18766, 16294, 14926, 11491, 11504, 18056, 17040, 18050, 20873, 19675, 14540, 15584, 13981, 12201, 8776, 7710, 6932, 11275, 11169, 11665, 10131, 9305, 9644, 9283, 12227, 9931, 8341, 6996, 6992, 14154, 12810, 7584, 7326, 7765, 7489, 7751, 9545, 8718, 6151, 4996, 4382, 9111, 8650, 11557, 13301, 9247, 8667, 9583, 9110, 8947, 6907, 5456, 3980, 10119, 8118, 8552, 7856, 8563, 7548, 7619, 8098, 7363, 5343, 4120], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーン・バースデー', 'keyword': 'unicorn birthday'}, {'keywordCn': '独角兽派对礼品', 'searches': [19782, 19796, 24154, 26071, 33691, 31819, 36693, 44032, 65016, 56811, 45172, 27345, 115250, 157362, 161301, 214312, 187873, 148331, 151629, 172842, 218560, 150113, 95989, 52925, 249661, 212975, 175955, 167870, 155671, 44531, 118073, 129855, 142676, 121789, 76244, 33148, 31959, 34208, 24490, 8729, 12740, 16583, 32016, 32922, 42055, 36971, 22023, 14570, 33177, 32717, 44036, 55331, 53388, 42757, 49124, 41606, 46558, 36533, 31125, 18281, 43305, 48728, 49781, 56142, 56572, 47158, 34293, 43002, 45647, 34314, 27332, 15980, 43077, 40082, 39578, 37954, 27184, 26201, 20287, 40738, 48158, 37342, 28196, 17547, 52074, 46579, 48529, 54374, 49799, 41141, 36110, 43177, 55185, 37668, 29189, 18015, 43274, 44241, 47561, 42483, 45850, 37540, 35549, 37080, 43827, 33982, 27223], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーン・パーティー・フェイバー', 'keyword': 'unicorn party favors'}, {'keywordCn': '独角兽派对装饰品', 'searches': [0, 0, 0, 0, 14847, 15803, 19886, 21809, 23509, 23178, 16562, 14313, 36053, 31301, 32266, 36584, 35306, 37318, 44017, 47748, 48101, 39822, 26022, 18705, 54645, 48119, 51226, 47977, 54049, 47705, 44059, 54199, 60706, 46059, 35713, 15064, 57128, 51793, 25742, 22328, 21911, 11659, 12200, 15502, 25145, 24581, 17460, 18475, 45089, 38445, 40508, 38037, 40534, 31798, 93972, 130975, 138040, 80813, 63232, 29630, 41087, 36558, 28918, 28576, 32141, 29223, 24812, 30301, 25404, 20728, 16717, 15017, 41812, 35374, 23743, 19957, 10004, 14477, 14946, 33590, 45573, 64987, 19884, 15816, 25604, 20822, 27766, 29398, 23783, 21986, 21972, 22351, 21367, 20949, 17540, 14808, 29129, 18178, 17421, 16450, 18333, 16159, 15658, 18145, 14318, 10584, 7480], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ユニコーンパーティーの装飾', 'keyword': 'unicorn party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '足球板块', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3016, 1879, 0, 0, 0, 2366, 3303, 2629, 1176, 2665, 2709, 3861, 4484, 3951, 1721, 3279, 3492, 3252, 1545, 724, 876, 683, 0, 1222, 1360, 1448, 0, 511, 770, 1085, 2087, 4038, 3170, 2676, 2114, 2972, 4350, 4536, 1546, 2185, 2752, 3744, 3691, 5422, 3922, 2119, 2342, 4027, 4411, 4537, 2212, 3523, 3807, 3569, 4392, 6173, 4584, 3460, 3881, 4598, 5172, 4341, 2142, 3772, 3884, 3357, 5939, 8035, 4705, 3945, 3793, 5655, 6876, 5062, 1629, 3680, 3618, 4162, 5721, 9046, 5459, 3697, 4474, 6439, 6696, 5195], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカープレート', 'keyword': 'soccer plates'}, {'keywordCn': '足球生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 871, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1465, 0, 0, 0, 653, 959, 720, 0, 100, 602, 1585, 2173, 2188, 1875, 3529, 8391, 11439, 20791, 19924, 2131, 1632, 986, 5775, 6078, 7613, 18159, 27701, 26896, 24819, 27893, 30791, 21855, 15752, 11767, 24060, 23674, 27076, 27018, 27865, 26640, 26231, 25956, 28879, 21126, 16728], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカーの誕生日パーティーの装飾', 'keyword': 'soccer birthday party decorations'}, {'keywordCn': '足球生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2231, 1363, 1976, 0, 1753, 1698, 1734, 0, 0, 2897, 3208, 1293, 1584, 0, 834, 0, 0, 764, 778, 1117, 787, 1760, 2534, 2264, 2104, 3201, 3256, 3943, 4099, 4651, 3416, 3524, 2210, 3478, 3273, 3391, 3940, 4896, 4860, 4305, 4870, 4872, 3918, 4345, 3874, 8209, 7510, 7235, 7327, 12810, 8096, 4110, 4148, 7055, 3351, 7544, 8061, 19979, 16242, 19030, 15928, 3863, 4463, 4552, 4550, 3707, 3357, 2914, 2067, 4115, 4205, 3687, 3897, 4841, 4747, 4678, 3776, 5475, 3383, 2884], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカーの誕生日の飾り', 'keyword': 'soccer birthday decorations'}, {'keywordCn': '足球派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2855, 6895, 8640, 1597, 0, 2324, 0, 4222, 4270, 5081, 5071, 1480, 4585, 5901, 5371, 5052, 2830, 5452, 5759, 5851, 3221, 4042, 4667, 4713, 4782, 5186, 5014, 3659, 1642, 3836, 4749, 5337, 4712, 6421, 5993, 6032, 5717, 8878, 9001, 7155, 2916, 5271, 7072, 8606, 11842, 15763, 12073, 9380, 11864, 13034, 13827, 13910, 8413, 16591, 15170, 13584, 15247, 22327, 15783, 14210, 22095, 18172, 13336, 18694, 8123, 18131, 17936, 20600, 27484, 30744, 25625, 23347, 20175, 24767, 22828, 18328, 7219, 16221, 16178, 19396, 20191, 28015, 23401, 19170, 18420, 22961, 20036, 16414], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカーパーティーの装飾', 'keyword': 'soccer party decorations'}, {'keywordCn': '足球纸盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 727, 0, 0, 0, 0, 719, 744, 0, 0, 0, 642, 0, 886, 0, 0, 0, 735, 677, 664, 0, 571, 742, 497, 646, 924, 572, 0, 911, 893, 1544, 934, 0, 808, 0, 0, 957, 1106, 394, 0, 608, 942, 1194, 942, 0, 473, 376, 634, 470, 1545, 766, 140, 507, 1218, 1506, 353], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サッカー紙皿', 'keyword': 'soccer paper plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '米妮老鼠派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 6759, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3042, 4133, 2664, 2255, 855, 7317, 4161, 5563, 5353, 4939, 6024, 5996, 7767, 7694, 6165, 7840, 6038, 14111, 13622, 7692, 3479, 11027, 8785, 5883, 5470, 6883, 5780, 4761, 4670, 5736, 6392, 6999, 5382, 6242, 7237, 9869, 12017, 10969, 14075, 13794, 12357, 15500, 13885, 11867, 12475, 11513, 12154, 11821, 13638, 13466, 13514, 9559, 10831, 26119, 20586, 11344, 10790, 12064, 10576, 12075, 22043, 32530, 53957, 13766, 13669, 16671, 14389, 15016, 17112, 13158, 13373, 11925, 12058, 12943, 16577, 12653, 9156, 21202, 9470, 8813, 8295, 9225, 9763, 9745, 13978, 13270, 9595, 7167], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスのパーティーの装飾', 'keyword': 'minnie mouse party decorations'}, {'keywordCn': '米妮老鼠生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2588, 0, 0, 0, 0, 0, 0, 3377, 5167, 3315, 2339, 2240, 5037, 3184, 3041, 1174, 3786, 932, 4111, 4492, 5054, 4319, 5496, 4355, 12117, 6975, 5028, 4209, 7181, 6657, 7230, 6820, 6388, 6876, 6126, 4671, 8372, 9392, 10021, 9890, 11284, 9648, 9991, 10427, 12262, 10028, 9185, 8536, 14658, 13400, 11947, 11318, 9594, 8673, 7933, 8295, 8379, 7501, 5428, 5712, 13551, 10047, 6851, 6480, 5034, 5824, 5570, 8205, 14838, 26242, 54581, 37497, 139597, 126365, 104539, 113221, 98372, 96796, 95377, 98683, 118265, 67519, 54869, 44078, 90338, 97240, 96211, 87225, 87789, 87963, 84724, 86863, 87005, 67836, 60540], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスの誕生日の飾り', 'keyword': 'minnie mouse birthday decorations'}, {'keywordCn': 'oh twodles 生日派对用品女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1243, 4056, 4013, 3670, 4180, 4930, 4732, 5562, 7205, 8859, 9038, 8014, 6949, 13196, 12787, 11401, 11878, 10366, 11371, 9257, 10674, 9868, 8902, 7581, 7837, 15673, 14306, 13877, 11797, 11745, 11208, 11215, 16964, 14090, 3364, 4854, 6077, 26194, 23869, 20293, 21877, 19037, 21073, 22185, 24078, 22913, 21209, 15293, 13337, 32090, 24702, 22602, 21079, 21613, 22176, 21559, 23462, 17895, 15188, 13998], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ああ二人の誕生日パーティー用品の女の子', 'keyword': 'oh twodles birthday party supplies girl'}, {'keywordCn': '米妮老鼠盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4673, 0, 0, 5485, 5546, 5517, 2087, 2039, 4901, 3105, 5193, 4944, 4225, 4594, 2461, 4870, 5599, 4538, 4312, 3954, 6435, 5740, 3747, 3021, 3182, 3966, 4058, 3933, 4197, 3623, 3466, 2759, 4341, 4292, 4492, 4197, 4338, 4441, 4855, 4664, 4617, 4640, 3914, 3531, 5217, 5401, 5197, 5234, 5335, 5286, 4520, 4801, 4726, 4449, 3838, 2788, 5364, 4990, 4721, 4457, 3907, 3998, 3851, 4473, 4300, 3937, 3923, 3138, 5780, 5565, 5394, 5704, 5082, 4455, 4853, 4892, 5308, 4898, 3856, 2775, 6096, 5448, 6252, 5747, 6669, 6803, 6955, 6862, 7203, 4896, 4148], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニーマウスプレート', 'keyword': 'minnie mouse plates'}, {'keywordCn': '迷你老鼠生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 986, 6497, 7529, 10101, 7952, 4854, 6434, 4701, 15083, 14854, 13659, 12297, 9269, 9519, 11622, 10985, 13362, 8411, 6751, 4126, 11790, 12780, 13513, 9878, 11974, 12779, 11519, 11796, 8702, 6354, 4721], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミニマウスバースデーデコレーションアイテム', 'keyword': 'mini mouse birthday decoration items'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1779, 1491, 913, 1481, 1337, 1609, 2633, 5106, 6709, 6270, 5260, 7899, 25879, 21402, 18535, 18006, 18303, 17958, 15324, 18059, 18535, 13704, 9958], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow party decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1750, 2189, 1320, 1456, 1332, 2398, 3575, 6086, 8816, 7514, 8288, 10974, 30011, 26470, 24237, 21168, 18162, 19151, 20321, 23606, 24211, 16489, 16554], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1457, 2168, 1674, 2177, 1968, 2650, 3625, 5195, 6296, 5186, 5439, 6530, 19492, 19394, 16341, 12409, 12616, 9176, 8850, 9212, 10110, 6653, 5965], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow decorations for party'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1136, 1033, 469, 577, 676, 551, 659, 2159, 3001, 3082, 3195, 3433, 9326, 7548, 5565, 4655, 5129, 4324, 4679, 4086, 4767, 3822, 3682], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 740, 993, 1157, 1182, 3386, 3601, 3043, 2206, 2100, 1778, 1700, 2107, 1967, 1825, 1772], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'bow plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '飞机板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1426, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 586, 0, 0, 0, 0, 0, 0, 0, 0, 618, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 525, 0, 436, 0, 0, 0, 0, 0, 0, 0, 0, 400, 451, 100, 1357, 986, 788, 0, 0, 1061, 1109, 0, 140, 526, 0, 140, 603, 580, 140, 0, 0, 934, 627, 0, 0, 0, 140, 426, 690, 567, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '飛行機のプレート', 'keyword': 'airplane plates'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'one year flew by birthday decor'}, {'keywordCn': '飞机生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3234, 3623, 2746, 5245, 4621, 4411, 5694, 4962, 5090, 6173, 5946, 5846, 4565, 3238, 2123, 5915, 5091, 5494, 4880, 5291, 5342, 5622, 5843, 5377, 3710, 2999], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '飛行機の誕生日パーティーの飾り付け', 'keyword': 'airplane birthday party decorations'}, {'keywordCn': '飞机婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1322, 0, 0, 0, 0, 0, 1615, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1550, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 438, 448, 366, 751, 535, 842, 1189, 0, 0, 0, 1074, 1728, 1295, 1370, 678, 1232, 1280, 1578, 1136, 1195, 641, 140, 1506, 1755, 1623, 1291, 1191, 1289, 1428, 1052, 1262, 762, 459], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '飛行機のベビーシャワーの装飾', 'keyword': 'airplane baby shower decorations'}, {'keywordCn': '时光飞逝 一岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 411, 676, 649, 1185, 1213, 1768, 1465, 1245, 840, 928, 2280, 2169, 1522, 1516, 1389, 1335, 1471, 1558, 1794, 1218, 1351, 965, 2268, 2165, 1809, 1574, 1917, 1877, 1761, 1683, 1261, 1090, 722], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'time flies 1歳の誕生日の飾り付け', 'keyword': 'time flies 1st birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '小猪佩奇生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1722, 2426, 0, 1743, 2222, 1465, 1284, 1998, 1806, 2295, 1995, 1353, 1780, 5228, 4250, 2501, 1448, 3287, 3340, 3660, 3882, 4339, 3472, 3207, 3224, 5849, 5840, 5851, 5740, 5316, 5015, 5090, 5682, 6943, 6778, 6709, 5971, 7940, 7659, 6121, 5701, 4909, 5530, 5597, 6596, 7614, 5589, 5291, 5619, 9056, 8833, 5338, 4689, 4499, 4670, 4577, 6647, 11868, 24252, 19056, 12652, 47586, 40478, 41963, 41234, 38595, 34473, 34499, 35078, 38403, 23537, 16515, 9579, 29305, 37180, 41161, 35051, 37566, 38355, 38746, 39677, 40855, 29561, 26498], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペッパピッグの誕生日の装飾', 'keyword': 'peppa pig birthday decorations'}, {'keywordCn': '小猪佩奇蛋糕装饰', 'searches': [4381, 3512, 0, 0, 3809, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7537, 7872, 7812, 3705, 1789, 5146, 4102, 7000, 5596, 5924, 5190, 7071, 7846, 9061, 8950, 6800, 4892, 8805, 9097, 7681, 5697, 6738, 7716, 8198, 7328, 7804, 5713, 5360, 4665, 8467, 7803, 8755, 8463, 8345, 8807, 11320, 11646, 11083, 8360, 7451, 5490, 10023, 9406, 8586, 8272, 7317, 7622, 5634, 7270, 7574, 5975, 4786, 4312, 6678, 6521, 5796, 5495, 5020, 4829, 4583, 4996, 5498, 4285, 3900, 3432, 6203, 6530, 6905, 7522, 6273, 6337, 6093, 6658, 7091, 5016, 3863, 2847, 7005, 7007, 7921, 6681, 6860, 6102, 6024, 6389, 6746, 4727, 3452], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'peppa pig ケーキトッパー', 'keyword': 'peppa pig cake topper'}, {'keywordCn': '小猪佩奇派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 943, 847, 1116, 0, 0, 2859, 2247, 2712, 2045, 2306, 2535, 2980, 2673, 1608, 2036, 4210, 3296, 2917, 2509, 3338, 3246, 3599, 3006, 2549, 1921, 3195, 3354, 4828, 3547, 4556, 3494, 2913, 2574, 3229, 3742, 4332, 4795, 4186, 3875, 4702, 4024, 4252, 4230, 4980, 4957, 4309, 4564, 4187, 4749, 3624, 4387, 6173, 5694, 3254, 2177, 2281, 2535, 2913, 3200, 4485, 4669, 4571, 4407, 4478, 5180, 4442, 4817, 3596, 2791, 3851, 5291, 4166, 3248, 2745, 3612, 8850, 3955, 3514, 3857, 4333, 4633, 4441, 5855, 5582, 2949, 2438], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペッパピッグパーティーの装飾', 'keyword': 'peppa pig party decorations'}, {'keywordCn': '佩帕猪的生日', 'searches': [13394, 4823, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7452, 7174, 5968, 2497, 2305, 2955, 3160, 7012, 5648, 5213, 4565, 5265, 6164, 6641, 5383, 5279, 4762, 7468, 7465, 4534, 4747, 4985, 4547, 4801, 5601, 5343, 4311, 3547, 3050, 4554, 5277, 5578, 5723, 4130, 4493, 5547, 5525, 5848, 4395, 4515, 3459, 5361, 5235, 5029, 5132, 4861, 4951, 5125, 5487, 4140, 4225, 3481, 2771, 5405, 5060, 4737, 4154, 3984, 3536, 3298, 4158, 4368, 3588, 2950, 2740, 4564, 4944, 3933, 3916, 3294, 3305, 4106, 3639, 2994, 2604, 2020, 2121, 4504, 3076, 3178, 2972, 3179, 3356, 3291, 3773, 3178, 2296, 2347], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペッパピッグバースデー', 'keyword': 'peppa pig birthday'}, {'keywordCn': '小猪佩奇派对礼品', 'searches': [9430, 8906, 7349, 7263, 6296, 0, 0, 0, 0, 5798, 0, 0, 7383, 0, 0, 0, 4790, 6404, 0, 7619, 9592, 7740, 2659, 1747, 6147, 4307, 6061, 5337, 5293, 1088, 5228, 7145, 8280, 5451, 5524, 4089, 7790, 8093, 5743, 2005, 2281, 2662, 3024, 2821, 3332, 2943, 2105, 1380, 3245, 3915, 4022, 4306, 4572, 4783, 5151, 4955, 5253, 4959, 4387, 3289, 5479, 6142, 8218, 8537, 9251, 7062, 5074, 6715, 7160, 5776, 4730, 3990, 7240, 7162, 5661, 5564, 5467, 5079, 5446, 4609, 4933, 4107, 3937, 2853, 6898, 6474, 5964, 6534, 6982, 4910, 4116, 4340, 5742, 3772, 2982, 2344, 5784, 5656, 6370, 5327, 5088, 4439, 4927, 5022, 6128, 4532, 3155], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'peppa pig パーティーファイヤー', 'keyword': 'peppa pig party favors'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'ice party supplies plates'}, {'keywordCn': '滑冰派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 574, 581, 0, 441, 912, 1704, 959, 1268, 0, 1237, 1170, 404, 649, 0, 0, 140, 140, 971, 523, 140, 0, 855, 501, 613, 584, 0, 140, 140, 694, 693, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スケート・パーティーの装飾', 'keyword': 'skating party decorations'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'ice skating party decoration'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'ice skating plates'}, {'keywordCn': '滑冰派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 662, 0, 0, 0, 0, 0, 0, 0, 0, 0, 451, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 888, 0, 1512, 1136, 0, 0, 0, 0, 0, 0, 0, 0, 140, 140, 1418, 659, 0, 0, 0, 0, 0, 0, 0, 0, 562], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アイススケートパーティーの装飾', 'keyword': 'ice skating party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '冬季 onederland 派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3417, 4756, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6666, 6722, 0, 8548, 0, 0, 0, 0, 0, 1532, 2663, 3335, 5513, 5733, 3616, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 808, 4038, 4062, 4383, 1518, 0, 0, 0, 0, 0, 0, 0, 0, 671, 576, 582, 0, 0, 0, 0, 0, 289, 1582, 2143, 4071, 5961, 6988, 6318, 959, 0, 0, 0, 0, 0, 949, 1154, 834, 3114, 2223, 1037, 0, 0, 0, 0, 0, 0, 476, 4668, 5505, 14809], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランドパーティーの装飾', 'keyword': 'winter onederland party decorations'}, {'keywordCn': '冬天 onederland 一岁生日男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8189, 9491, 0, 0, 0, 0, 0, 0, 0, 0, 2029, 4161, 8307, 9084, 7658, 1734, 0, 0, 552, 0, 661, 921, 1985, 3888, 4599, 4812, 4647, 1408, 0, 0, 610, 813, 871, 1419, 2444, 4585, 7022, 6562, 5702, 1192, 0, 0, 0, 878, 913, 986, 0, 668, 654, 561, 433, 0, 0, 0, 100, 528, 993, 3300, 4271, 6622, 16587, 16419, 8942, 1842, 0, 500, 0, 866, 1294, 2307, 3117, 5715, 12747, 13505, 7273, 921, 0, 0, 0, 0, 1230, 1871, 1947, 3977, 8505], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のワンダーランド1歳の誕生日の男の子', 'keyword': 'winter onederland 1st birthday boy'}, {'keywordCn': 'onederland 1岁生日女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1773, 2444, 5334, 5047, 6149, 2617, 1318, 756, 0, 1527, 2244, 0, 2946, 2767, 2586, 627, 0, 579, 990, 1376, 2090, 2504, 3236, 2562, 2703, 3312, 5384, 4885, 5312, 3186, 3672, 4016, 4385, 4561, 4643, 4989, 5387, 5555, 6622, 6468, 9848, 6551, 5224, 4906, 4878, 4709, 4666, 5314, 4989, 4531, 5668, 6101, 9815, 6180, 5841, 5540, 5234, 5649, 5942, 6207, 5107, 4210, 4073, 5301, 9978, 5972, 5273, 4439, 4151, 4044, 5309, 5179, 3823, 3699, 4176], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ワンダーランド1歳の誕生日の女の子', 'keyword': 'onederland 1st birthday girl'}, {'keywordCn': '冬日里的德国', 'searches': [15727, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2995, 3121, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3301, 12843, 10005, 4580, 0, 0, 0, 0, 0, 0, 2943, 3868, 5869, 11616, 12500, 8375, 3669, 801, 670, 0, 568, 0, 723, 2886, 4637, 8794, 8708, 7437, 1372, 0, 0, 0, 0, 674, 1267, 1997, 4634, 12224, 9831, 9153, 1733, 0, 0, 686, 0, 1647, 2286, 2999, 5024, 12841, 9834, 8361, 848, 408, 0, 0, 569, 1238, 2371, 3568, 4777, 9491, 8713, 5846, 979, 0, 0, 0, 0, 632, 1253, 1707, 3333, 8011, 8880, 5616, 668, 0, 0, 0, 0, 140, 675, 2191, 2649, 7133], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '冬のオンダランド', 'keyword': 'winter onederland'}, {'keywordCn': '冬日里的德国人的派对礼物', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 764, 607, 967, 0, 0, 0, 0, 0, 0, 0, 0, 1280, 2367, 2481, 2993, 1121, 0, 0, 0, 0, 0, 0, 375, 891, 2167, 2461, 2248, 0, 0, 0, 0, 0, 0, 0, 0, 140, 2442], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウィンター・オネダランド・パーティー', 'keyword': 'winter onederland party favors'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '动漫生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 881, 0, 1402, 1388, 0, 0, 0, 1249, 1219, 1473, 1388, 0, 2698, 3495, 4922, 5628, 4991, 4898, 4145, 9555, 10543, 11910, 12290, 12505, 11301, 13070, 11757, 12104, 9292, 8502, 5974, 11685, 11500, 11228, 11664, 9789, 9139, 7335, 8811, 8786, 6564, 5085, 4035, 8929, 7429, 7123, 6388, 6082, 5347, 5680, 7769, 7777, 5625, 4752, 3645, 7579, 6724, 8533, 8697, 7617, 7865, 8418, 8975, 10076, 7096, 5470, 3112, 8327, 8013, 8656, 8558, 8171, 7602, 8699, 8669, 9846, 6024, 5259], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アニメの誕生日の飾り', 'keyword': 'anime birthday decorations'}, {'keywordCn': '小精灵生日', 'searches': [19848, 18081, 17647, 15363, 15473, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8669, 9375, 6443, 2421, 1975, 4979, 3212, 9614, 8771, 11392, 11372, 9840, 11667, 11659, 8791, 7865, 5340, 11734, 9722, 9113, 7855, 7308, 6825, 7553, 8789, 9570, 7068, 6375, 5443, 10828, 11427, 14242, 14279, 13645, 13218, 13198, 12244, 12460, 11536, 8577, 6905, 12949, 13542, 15370, 14877, 14884, 14754, 14289, 13459, 15401, 12168, 9672, 8476, 17161, 15367, 12360, 13958, 12780, 11344, 12051, 16696, 17891, 15723, 11554, 7469, 18932, 15564, 19331, 19877, 17162, 16785, 16373, 16629, 15852, 9794, 8634, 5624, 15412, 18287, 18300, 16663, 16527, 13078, 12869, 14569, 14833, 9115, 7590], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ポケモンの誕生日', 'keyword': 'pokemon birthday'}, {'keywordCn': '口袋妖怪生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1988, 3324, 1230, 1422, 4037, 4045, 2882, 2594, 2361, 4768, 3821, 2729, 3460, 3711, 3532, 3682, 4781, 4663, 4091, 4601, 3368, 8060, 8379, 11588, 10599, 12364, 9552, 11766, 10739, 13054, 12452, 9323, 8071, 14724, 16116, 15384, 15000, 15305, 15758, 12275, 15237, 14875, 14541, 12795, 11798, 24993, 20665, 16774, 18155, 14918, 15315, 15674, 33918, 43744, 57993, 46155, 33293, 74951, 65783, 70434, 73482, 66216, 63013, 58586, 60625, 59222, 41390, 33165, 23510, 48082, 59408, 63900, 58427, 55881, 51371, 51916, 54331, 62508, 43861, 42209], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ポケモンの誕生日の飾り', 'keyword': 'pokemon birthday decorations'}, {'keywordCn': '口袋妖怪派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1742, 0, 1843, 1819, 0, 3152, 1573, 2319, 3590, 2050, 3191, 4799, 3276, 4674, 4073, 3118, 2190, 4315, 4544, 3962, 3151, 3918, 3303, 4186, 5431, 8608, 4058, 3768, 3260, 6102, 6656, 9692, 8896, 8662, 7467, 8550, 9274, 9898, 9337, 7660, 6184, 12166, 12529, 13233, 13390, 15141, 15033, 13957, 13267, 15809, 15052, 13161, 9856, 19843, 15767, 17231, 17079, 16199, 16135, 15879, 34351, 35417, 34832, 25826, 16109, 36800, 31364, 34901, 40286, 38141, 34112, 29869, 29724, 29312, 23061, 16787, 10109, 26860, 29536, 33818, 32140, 32103, 27790, 25863, 26757, 25111, 20072, 16431], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ポケモンパーティーデコレーション', 'keyword': 'pokemon party decorations'}, {'keywordCn': '小精灵装饰品', 'searches': [13057, 5778, 5389, 0, 4734, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5655, 6487, 5636, 2181, 1276, 4405, 2817, 2881, 3957, 1944, 4831, 6084, 7321, 7568, 7992, 6548, 3992, 6989, 7331, 7060, 6393, 5774, 4800, 5826, 6671, 6498, 5285, 4234, 2757, 3699, 4908, 5916, 5304, 6993, 6490, 8614, 8117, 9187, 9971, 6180, 3807, 6450, 8158, 8279, 7428, 6144, 6725, 8210, 9839, 11771, 12497, 8092, 5115, 12143, 11099, 9283, 9227, 7843, 7615, 8081, 12914, 14503, 18259, 7116, 4519, 9497, 11589, 9963, 10803, 11076, 12504, 9840, 11924, 12703, 15891, 5620, 3319, 7999, 12585, 15667, 12018, 12668, 8679, 8242, 8246, 9791, 11796, 5530], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ポケモンのデコレーション', 'keyword': 'pokemon decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日快乐盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7123, 8279, 6508, 3528, 2889, 6328, 4231, 4423, 3965, 3261, 1374, 1422, 5274, 5651, 4911, 4548, 3207, 5307, 5528, 5514, 6186, 5149, 6372, 5721, 5570, 6554, 4882, 3375, 2595, 4696, 4677, 5620, 6488, 5756, 5511, 6194, 6147, 6362, 5601, 4737, 3388, 5919, 6145, 7911, 7291, 7746, 7703, 6306, 6722, 6604, 5574, 4581, 3290, 6994, 6308, 6615, 5745, 6538, 6002, 5396, 7966, 8265, 6636, 5147, 3948, 9157, 9473, 10115, 11938, 10413, 12127, 9864, 10610, 11453, 8667, 6101, 4878, 12681, 12191, 11791, 13789, 13964, 12958, 13655, 13654, 15082, 12514, 9095], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'お誕生日おめでとうプレート', 'keyword': 'happy birthday plates'}, {'keywordCn': '90岁女性生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 910, 0, 714, 1370, 1974, 2574, 2820, 2076, 1086, 2706, 3512, 4317, 4016, 3822, 3872, 3619, 3402, 3538, 2926, 1789, 1482, 4119, 3980, 3690, 3525, 1986, 3160, 3015, 3807, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 295, 1726, 1986, 2373, 2068, 1993, 1565], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女性のための90の誕生日の装飾', 'keyword': '90 birthday decorations for women'}, {'keywordCn': '玫瑰金盘子和餐巾纸派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1330, 9220, 15377, 16337, 16774, 16987, 12188, 7231, 6198, 12747, 11971, 12993, 7130, 14260, 16482, 24538, 28870, 31040, 22807, 16523, 9400, 24238, 35910, 38137, 37698, 44996, 30816, 21665, 24912, 22761, 14082, 14497, 7619, 13960, 14548, 34270, 197208, 16541, 209051, 8462, 229330, 18662, 3081, 5179, 4324, 12181, 11859, 13354, 16631, 16571, 12355, 11400, 9542, 11933, 7826, 4668, 3094, 8576, 9183, 9027, 9538, 8589, 5715, 5326, 5028, 4002, 3350, 2675], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ローズゴールドプレートとナプキンパーティー用品', 'keyword': 'rose gold plates and napkins party supplies'}, {'keywordCn': '陌生的东西盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1761, 2225, 2651, 2752, 2146, 0, 0, 1210, 1448, 1783, 0, 0, 792, 1199, 0, 768, 672, 0, 0, 0, 0, 0, 0, 0, 0, 0, 660, 0, 0, 0, 0, 0, 0, 0, 0, 3012, 5971, 6332, 8741, 6336, 4724, 2991, 1381, 3062, 2006, 697, 552, 634, 428, 627, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2724], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '見知らぬものプレート', 'keyword': 'stranger things plates'}, {'keywordCn': '90 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4021, 0, 2179, 1618, 0, 2304, 3631, 2295, 2073, 2354, 3308, 2204, 2184, 2956, 3753, 1895, 0, 3580, 3602, 2826, 897, 2139, 5570, 8757, 10749, 10526, 8434, 6182, 4180, 8175, 9363, 11811, 13342, 14719, 14310, 14482, 13702, 13520, 13469, 8806, 5547, 6955, 7062, 6419, 6166, 5490, 5797, 5986, 5920, 5800, 4888, 3707, 2259, 5318, 6637, 5260, 5123, 4616, 6238, 6859, 7568, 14140, 25861, 15589, 8706, 13394, 7445, 9377, 8678, 8796, 9707, 8914, 8857, 9534, 7406, 4414, 3435, 9507, 7719, 8306, 7020, 7722, 8006, 7711, 7045, 10751, 8045, 5790], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '90歳の誕生日の装飾', 'keyword': '90th birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '公主生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1181, 1505, 907, 611, 0, 1191, 871, 0, 2264, 2168, 1662, 1206, 3458, 3269, 4104, 3286, 1936, 1735, 1663, 1872, 1532, 2507, 2556, 1670, 3005, 1892, 2195, 1222, 2116, 2288, 2078, 2321, 2662, 1552, 1857, 1623, 2114, 1235, 1866, 2255, 6809, 9608, 12739, 35978, 39100, 33784, 27535, 23085, 80497, 66116, 65435, 71855, 65806, 72266, 69703, 73016, 72752, 43277, 35375, 25957, 56745, 65798, 70904, 62817, 64494, 62084, 60037, 60931, 39857, 33558, 28507], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '王女の誕生日パーティーの装飾', 'keyword': 'princess birthday party decorations'}, {'keywordCn': '生日派对的公主装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5027, 7384, 1266, 0, 0, 0, 4812, 5485, 5407, 5936, 7757, 6357, 6887, 5835, 5901, 4196, 9243, 8346, 6898, 3279, 5206, 6612, 7101, 8755, 8753, 7272, 5915, 4104, 6303, 7409, 6933, 6049, 6424, 5011, 5076, 5861, 8422, 7210, 6060, 4421, 6381, 6814, 6760, 5888, 5980, 6703, 5491, 7762, 8828, 7483, 5579, 4623, 8988, 6745, 5210, 5754, 6014, 5018, 4269, 6773, 6687, 1583, 1357, 1351, 3807, 5777, 6773, 6996, 6198, 5361, 4834, 6391, 9339, 7491, 4426, 3086, 7657, 5474, 6308, 6508, 4914, 4317, 3745, 5512, 4224, 4027, 3438], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日パーティーのプリンセスデコレーション', 'keyword': 'princess decorations for birthday party'}, {'keywordCn': '公主生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6641, 6668, 5705, 0, 611, 0, 0, 4861, 6448, 5550, 5245, 6396, 6424, 7051, 5902, 4619, 3826, 7502, 5978, 5988, 4091, 7228, 7334, 8157, 8816, 9086, 8124, 5982, 5171, 9157, 9452, 10744, 13319, 15071, 12756, 15224, 14723, 18076, 13859, 10382, 12555, 23077, 17866, 17039, 16092, 15956, 16457, 14253, 18372, 20845, 17732, 14109, 12051, 25703, 21140, 16026, 15324, 4698, 4572, 4065, 4678, 6807, 5812, 4478, 3630, 6136, 7513, 7691, 7969, 7178, 5638, 6446, 8081, 9546, 7520, 5789, 4599, 11705, 7616, 6979, 6495, 6793, 6960, 7593, 7738, 14817, 8339, 6834], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '王女の誕生日の装飾', 'keyword': 'princess birthday decorations'}, {'keywordCn': '公主派对', 'searches': [15569, 14806, 15964, 0, 5608, 5485, 6054, 0, 5610, 0, 0, 0, 14272, 0, 0, 5768, 5696, 0, 12402, 11195, 9766, 9129, 7153, 2313, 5167, 3496, 9358, 10057, 9863, 9201, 9654, 9409, 11482, 8267, 7765, 5851, 11455, 11122, 7560, 4478, 5339, 6480, 6202, 5878, 6923, 6259, 4488, 3750, 5882, 5798, 6621, 6884, 6764, 6407, 7491, 7387, 7940, 6107, 5364, 4501, 7854, 7734, 8449, 7196, 7740, 8476, 8311, 8315, 8230, 6556, 5390, 4824, 11275, 8672, 6789, 6418, 6414, 6646, 6595, 8747, 12512, 7679, 5453, 4310, 8751, 9187, 9123, 11973, 9337, 8835, 9264, 9150, 9687, 7653, 5236, 4117, 12133, 8989, 9009, 8375, 8075, 7811, 7822, 7779, 8854, 6467, 5012], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'プリンセスパーティー', 'keyword': 'princess party'}, {'keywordCn': '迪士尼公主派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2383, 0, 0, 0, 0, 2481, 2454, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1690, 2702, 3122, 2217, 9565, 15472, 16009, 20209, 19096, 15344, 8951, 5474, 17424, 19956, 22044, 23874, 26716, 22639, 28383, 27852, 21484, 14933, 9075, 6276, 9647, 8619, 8514, 8656, 12639, 12752, 15112, 13398, 11788, 8950, 6660, 6737, 13686, 12197, 8459, 7451, 5734, 6567, 6773, 11271, 9317, 12405, 8214, 6242, 9317, 8617, 10046, 12378, 8244, 7169, 8958, 11901, 12100, 10645, 11740, 8439, 32102, 50215, 55184, 48728, 51288, 50926, 47855, 44027, 45279, 35459, 30835], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ディズニープリンセスパーティーデコレーション', 'keyword': 'disney princess party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '恐龙派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5337, 0, 0, 5506, 6431, 5509, 14084, 15278, 16479, 11701, 3628, 7727, 18064, 16072, 15788, 14360, 18841, 22237, 21180, 24026, 28508, 24359, 17211, 18419, 110005, 125549, 107623, 36107, 19085, 14145, 14721, 13734, 17790, 18076, 25100, 15434, 46905, 36767, 55642, 45940, 48292, 51312, 59950, 46834, 45908, 42089, 30806, 21647, 40635, 53878, 55682, 41879, 53803, 51811, 44452, 45475, 42287, 34551, 39957, 23040, 59736, 60690, 26729, 26662, 31517, 31736, 25615, 35328, 49217, 65455, 23928, 21553, 35826, 30388, 32381, 53992, 44530, 50371, 80257, 29469, 28427, 26866, 18748, 14703, 32005, 23247, 22325, 24828, 25778, 26803, 26556, 25559, 25405, 21920, 15086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のパーティーの装飾', 'keyword': 'dinosaur party decorations'}, {'keywordCn': '恐龙派对用品', 'searches': [101110, 124306, 135369, 134230, 139806, 125169, 144324, 142994, 134708, 95975, 67065, 27143, 136715, 163883, 176452, 185733, 193381, 197631, 227881, 228665, 259592, 188113, 124351, 50692, 230798, 225160, 189707, 197056, 187874, 139243, 167490, 177221, 160865, 84753, 65327, 28674, 44696, 39427, 20571, 12640, 16360, 25930, 27210, 31627, 31010, 21728, 13487, 11534, 15471, 15173, 24587, 24278, 28167, 23678, 24447, 26543, 26525, 18749, 15315, 11468, 18937, 21536, 86320, 15630, 18588, 16559, 15363, 17390, 16585, 12400, 9131, 6998, 14875, 13203, 7120, 6633, 6655, 6661, 6323, 7617, 8254, 5593, 4287, 3960, 5642, 4733, 5354, 26570, 16997, 5281, 5260, 4145, 4844, 4121, 2828, 2104, 5298, 4504, 4282, 4631, 4811, 4901, 6921, 4418, 4043, 3189, 2050], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜パーティー用品', 'keyword': 'dinosaur party supplies'}, {'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6673, 4132, 3109, 2036, 962, 3221, 1942, 6239, 5233, 5204, 7043, 7236, 9243, 11536, 11144, 9060, 7996, 4790, 5675, 5428, 4671, 9713, 4415, 6838, 9294, 9213, 9188, 7331, 7289, 12661, 15217, 21132, 16450, 16963, 16125, 16535, 19602, 22551, 19603, 16024, 13446, 20621, 21794, 18660, 16367, 17468, 18800, 18312, 22658, 20285, 16519, 13805, 13878, 28764, 22529, 11406, 11418, 8343, 9460, 9636, 16226, 20098, 32493, 54205, 32455, 135507, 113821, 121687, 148897, 143752, 125806, 121146, 121964, 112608, 69536, 51728, 33319, 74675, 90330, 96322, 89237, 92308, 92944, 97892, 99951, 117830, 81273, 69839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dinosaur birthday decorations'}, {'keywordCn': '恐龙生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5774, 0, 5603, 15010, 13924, 13407, 11923, 8953, 8735, 18933, 16731, 14404, 12325, 14462, 14001, 13087, 13399, 14921, 14684, 12666, 9850, 17539, 17153, 11479, 7446, 13711, 14732, 16073, 13658, 14250, 11065, 9082, 7884, 12034, 14224, 18189, 16896, 17856, 15216, 16021, 18293, 17922, 13202, 9869, 8235, 14172, 16098, 15933, 11068, 14007, 12839, 12423, 14640, 11948, 8155, 5341, 5801, 13707, 11850, 6275, 6015, 5748, 5585, 6020, 8616, 7408, 5344, 4557, 4040, 7395, 7904, 8319, 9470, 8313, 8214, 8668, 8071, 7230, 5172, 4036, 3887, 8621, 7066, 7176, 7021, 7081, 7045, 7867, 7591, 6951, 5046, 4122], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日', 'keyword': 'dinosaur birthday'}, {'keywordCn': '恐龙板', 'searches': [4827, 4654, 5474, 0, 5177, 0, 0, 5235, 0, 0, 0, 0, 0, 5175, 5173, 0, 5759, 0, 10907, 8275, 8728, 7980, 6093, 2722, 6363, 3953, 9273, 9102, 9616, 9019, 9028, 8583, 9674, 7815, 7035, 5398, 9936, 9057, 7089, 3165, 5029, 4850, 6579, 6468, 6891, 5278, 4691, 3709, 6099, 7139, 10118, 8252, 8849, 8257, 9366, 8980, 11535, 9053, 7737, 6086, 12401, 12607, 12792, 7663, 10622, 10564, 9281, 12532, 8956, 6607, 4880, 4595, 10075, 9813, 6335, 5754, 5720, 5381, 5276, 6276, 5822, 4591, 4060, 3110, 5623, 6236, 6098, 7487, 6728, 6523, 6064, 5736, 5857, 4670, 3127, 2524, 5619, 6313, 6283, 6104, 6833, 6345, 6231, 6438, 6833, 4975, 4385], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のプレート', 'keyword': 'dinosaur plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '艺术派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2035, 3875, 2165, 0, 0, 1486, 2101, 2786, 3360, 1686, 3251, 2682, 3113, 3922, 2980, 1905, 0, 3948, 4688, 2877, 856, 2381, 3160, 3532, 4215, 4228, 3593, 2740, 1954, 3458, 4084, 3970, 3691, 4157, 3797, 4676, 4850, 4287, 3974, 3924, 2471, 5373, 4631, 5389, 5551, 7112, 6293, 5016, 5074, 3926, 3239, 3020, 2440, 4953, 4520, 4588, 4651, 4516, 3785, 3450, 3665, 3855, 3296, 2701, 2100, 4251, 3599, 3472, 4532, 3359, 2679, 2573, 2978, 2796, 2324, 1741, 1149, 2981, 2871, 3550, 3602, 3832, 3015, 2495, 2318, 2357, 1815, 1434], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'アートパーティーの装飾', 'keyword': 'art party decorations'}, {'keywordCn': '油漆飞溅派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1347, 0, 1205, 557, 635, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 777, 969, 0, 998, 924, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 835, 1540, 1473, 1692, 1611, 1615, 1149, 622, 467, 469], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペイントスプラッタパーティーの装飾', 'keyword': 'paint splatter party decorations'}, {'keywordCn': '油漆派对用品', 'searches': [0, 0, 0, 3200, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3242, 3636, 0, 0, 3589, 4172, 7285, 8310, 7711, 5832, 1702, 5193, 3779, 5749, 4731, 6052, 5076, 5769, 6399, 7426, 6247, 5316, 3876, 8545, 6967, 5694, 4730, 4142, 4128, 4385, 4493, 5010, 4475, 3937, 2563, 2730, 3945, 4105, 4093, 5111, 3819, 3393, 4757, 5747, 4862, 4867, 3143, 4316, 3941, 4970, 5127, 5448, 4917, 4879, 4957, 5036, 4535, 4156, 3177, 4281, 4150, 3424, 4180, 4219, 3330, 2641, 3545, 4409, 4509, 3400, 2385, 4639, 4908, 6351, 7063, 7335, 4904, 2629, 2429, 3142, 4578, 3187, 2209, 3040, 2623, 4316, 4401, 3122, 2607, 2102, 2950, 4952, 3570, 2957], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペイントパーティー用品', 'keyword': 'paint party supplies'}, {'keywordCn': '油漆派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2100, 5853, 794, 0, 0, 0, 1878, 0, 1627, 2342, 3231, 3086, 3047, 4232, 4130, 3455, 2575, 6014, 6431, 4318, 2290, 2919, 3163, 3717, 4113, 5561, 4573, 3991, 2791, 5124, 5257, 5322, 5302, 5120, 4497, 5578, 5153, 5430, 4877, 4060, 2955, 5975, 5370, 6059, 5744, 5421, 5521, 4848, 4474, 4569, 3876, 3640, 2896, 5327, 4934, 4685, 4162, 3974, 3220, 3324, 4005, 4045, 2306, 3474, 2425, 4661, 4815, 4575, 5595, 4738, 3690, 3748, 3722, 4327, 2942, 2343, 1431, 3633, 3956, 5268, 4400, 4551, 3314, 3174, 3114, 3394, 2864, 2403], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ペイントパーティーの装飾', 'keyword': 'paint party decorations'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'yingoto'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': 'bunco 派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3857, 0, 0, 0, 0, 0, 3860, 868, 3831, 3010, 2944, 2826, 3627, 2501, 1398, 0, 1855, 2156, 1418, 0, 0, 0, 0, 0, 0, 0, 0, 0, 674, 599, 0, 1444, 1327, 1409, 1770, 1806, 1536, 1127, 825, 0, 1220, 2614, 3402, 3016, 3239, 2609, 2656, 3633, 3680, 2227, 1724, 636, 2765, 3216, 3052, 3075, 2102, 2166, 2879, 3891, 3685, 1978, 1835, 583, 2274, 3900, 3369, 4546, 2998, 2759, 2820, 3583, 3205, 1606, 536, 1, 1416, 3473, 3650, 2866, 3084, 2781, 2778, 3563, 3616, 2495, 1961], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ブンコパーティー用品', 'keyword': 'bunco party supplies'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'mahjong party plates'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': '60 pcs dice game'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'dice party decorations'}, {'keywordCn': '赌场板块', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 634, 800, 401, 411, 0, 0, 0, 0, 815, 0, 928, 0, 869, 934, 382, 425, 463, 0, 515, 0, 491, 0, 140, 0, 872, 0, 525, 574, 431, 140, 140, 617, 751, 140, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'カジノプレート', 'keyword': 'casino plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 985, 0, 1866, 2218, 0, 2648, 2035, 1383, 1617, 3243, 2970, 4508, 4008, 3086, 2853, 1583, 899, 1711, 736, 0, 740, 1242, 2480, 2516, 1951, 1915, 2094, 2326, 3185, 4745, 3937, 3716, 3587, 5632, 4781, 4240, 4510, 3633, 3438, 3354, 4015, 3817, 4126, 3715, 3502, 4940, 5123, 5555, 5758, 4801, 4994, 5351, 4823, 5332, 3917, 2792, 2567, 5765, 5168, 5796, 5555, 5593, 6080, 7134, 5666, 5577, 3816, 3141], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dino birthday decorations'}, {'keywordCn': '恐龙派对用品', 'searches': [101110, 124306, 135369, 134230, 139806, 125169, 144324, 142994, 134708, 95975, 67065, 27143, 136715, 163883, 176452, 185733, 193381, 197631, 227881, 228665, 259592, 188113, 124351, 50692, 230798, 225160, 189707, 197056, 187874, 139243, 167490, 177221, 160865, 84753, 65327, 28674, 44696, 39427, 20571, 12640, 16360, 25930, 27210, 31627, 31010, 21728, 13487, 11534, 15471, 15173, 24587, 24278, 28167, 23678, 24447, 26543, 26525, 18749, 15315, 11468, 18937, 21536, 86320, 15630, 18588, 16559, 15363, 17390, 16585, 12400, 9131, 6998, 14875, 13203, 7120, 6633, 6655, 6661, 6323, 7617, 8254, 5593, 4287, 3960, 5642, 4733, 5354, 26570, 16997, 5281, 5260, 4145, 4844, 4121, 2828, 2104, 5298, 4504, 4282, 4631, 4811, 4901, 6921, 4418, 4043, 3189, 2050], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜パーティー用品', 'keyword': 'dinosaur party supplies'}, {'keywordCn': '恐龙派对', 'searches': [19427, 17342, 17883, 19199, 20553, 19242, 17910, 16886, 15992, 14649, 0, 0, 19949, 17058, 17005, 20210, 19394, 20099, 27808, 26052, 23666, 18741, 14234, 12590, 33315, 31622, 30243, 26030, 25858, 23924, 22835, 25410, 30503, 22472, 16417, 15018, 34453, 30536, 18776, 8326, 12500, 19029, 18148, 14544, 14892, 13324, 9466, 7773, 12286, 15084, 20995, 20287, 24744, 22297, 21662, 24825, 21298, 15934, 12757, 11092, 17038, 19403, 21257, 16457, 18957, 16818, 16330, 18562, 15933, 13544, 9490, 8060, 16759, 15084, 8711, 8554, 8071, 8223, 7800, 11033, 12025, 8716, 5605, 4445, 8865, 8481, 9830, 13055, 11090, 10932, 9732, 8598, 8615, 7082, 4692, 3744, 9094, 7344, 7610, 7566, 8323, 7807, 8772, 7763, 7302, 5839, 4320], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ダイナソー・パーティー', 'keyword': 'dinosaur party'}, {'keywordCn': '恐龙生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5774, 0, 5603, 15010, 13924, 13407, 11923, 8953, 8735, 18933, 16731, 14404, 12325, 14462, 14001, 13087, 13399, 14921, 14684, 12666, 9850, 17539, 17153, 11479, 7446, 13711, 14732, 16073, 13658, 14250, 11065, 9082, 7884, 12034, 14224, 18189, 16896, 17856, 15216, 16021, 18293, 17922, 13202, 9869, 8235, 14172, 16098, 15933, 11068, 14007, 12839, 12423, 14640, 11948, 8155, 5341, 5801, 13707, 11850, 6275, 6015, 5748, 5585, 6020, 8616, 7408, 5344, 4557, 4040, 7395, 7904, 8319, 9470, 8313, 8214, 8668, 8071, 7230, 5172, 4036, 3887, 8621, 7066, 7176, 7021, 7081, 7045, 7867, 7591, 6951, 5046, 4122], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日', 'keyword': 'dinosaur birthday'}, {'keywordCn': '恐龙板', 'searches': [4827, 4654, 5474, 0, 5177, 0, 0, 5235, 0, 0, 0, 0, 0, 5175, 5173, 0, 5759, 0, 10907, 8275, 8728, 7980, 6093, 2722, 6363, 3953, 9273, 9102, 9616, 9019, 9028, 8583, 9674, 7815, 7035, 5398, 9936, 9057, 7089, 3165, 5029, 4850, 6579, 6468, 6891, 5278, 4691, 3709, 6099, 7139, 10118, 8252, 8849, 8257, 9366, 8980, 11535, 9053, 7737, 6086, 12401, 12607, 12792, 7663, 10622, 10564, 9281, 12532, 8956, 6607, 4880, 4595, 10075, 9813, 6335, 5754, 5720, 5381, 5276, 6276, 5822, 4591, 4060, 3110, 5623, 6236, 6098, 7487, 6728, 6523, 6064, 5736, 5857, 4670, 3127, 2524, 5619, 6313, 6283, 6104, 6833, 6345, 6231, 6438, 6833, 4975, 4385], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のプレート', 'keyword': 'dinosaur plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '野花婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1170, 885, 1259, 1587, 1448, 1736, 753, 658, 0, 530, 2684, 2793, 3855, 4024, 2837, 3841, 3926, 4301, 3798, 3339, 2771, 3282, 15533, 16124, 20404, 19481, 16789, 18434, 18713, 15394, 12424, 5847, 3443, 3548, 18316, 24281, 24066, 19117, 16425, 15247, 13992, 12521, 6935, 5040, 3152], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '野花のベビーシャワーの装飾', 'keyword': 'wildflower baby shower decorations'}, {'keywordCn': '鲜花生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3650, 4333, 2261, 926, 3782, 2936, 2288, 1982, 1419, 0, 2529, 2518, 3315, 2020, 3256, 3348, 3658, 4336, 3725, 2580, 2120, 1405, 3975, 4665, 6286, 6383, 5421, 5375, 5289, 4819, 4389, 3197, 2531, 2146, 5159, 5366, 6356, 6389, 5564, 5182, 4639, 5118, 4308, 2785, 961, 603, 2736, 3209, 3285, 3532, 3460, 3039, 3827, 4056, 4563, 3492, 3772, 3310, 7562, 8506, 12845, 15291, 11824, 11754, 9703, 9170, 9541, 4930, 3450, 2441, 8129, 10099, 14665, 14756, 13809, 11283, 12061, 12826, 12228, 6303, 4138], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花の誕生日の装飾', 'keyword': 'flower birthday decorations'}, {'keywordCn': '花卉生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1835, 0, 0, 0, 0, 2624, 2232, 4720, 4863, 2817, 1105, 4917, 2695, 2289, 2075, 0, 0, 3045, 4073, 3583, 1697, 2697, 3123, 3024, 3433, 3069, 1875, 1314, 1430, 3440, 4120, 5419, 2252, 3900, 4250, 4325, 3805, 4008, 2328, 1803, 1219, 3613, 3920, 4190, 4966, 3989, 3312, 3380, 3483, 2760, 1986, 1277, 784, 2798, 2889, 3226, 3820, 4006, 3143, 2765, 3428, 3141, 2293, 2077, 1840, 4333, 4721, 6901, 7779, 6268, 5476, 5016, 5919, 4904, 3122, 2083, 1901, 6288, 6921, 11213, 12404, 9362, 8098, 7096, 6955, 6818, 3414, 2552], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花の誕生日の装飾', 'keyword': 'floral birthday decorations'}, {'keywordCn': '野花派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 502, 481, 916, 742, 763, 0, 0, 0, 0, 712, 1329, 3110, 3056, 3666, 3230, 2863, 2993, 2587, 1127, 677, 471, 3778, 4290, 4861, 5744, 4135, 5381, 6198, 6748, 3941, 2985, 1985, 1816, 6143, 5165, 7971, 15521, 18194, 19320, 19515, 17557, 13486, 4354, 1398, 1573, 5066, 5269, 8935, 20221, 28941, 23444, 22453, 20707, 13975, 7697, 4662], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '野花パーティーの装飾', 'keyword': 'wildflower party decorations'}, {'keywordCn': '春季装饰品', 'searches': [18577, 44134, 90963, 42314, 0, 0, 0, 0, 0, 0, 0, 0, 22052, 77457, 163239, 63597, 0, 0, 0, 0, 0, 3051, 1803, 5878, 21308, 54222, 65451, 27144, 5613, 0, 0, 0, 0, 0, 0, 4935, 13217, 16102, 15417, 16092, 1233, 0, 0, 0, 749, 822, 1216, 2760, 8869, 26257, 55741, 16344, 3323, 0, 0, 0, 0, 714, 734, 2590, 7497, 32128, 94107, 45515, 5760, 0, 0, 0, 450, 0, 544, 1858, 7769, 27997, 37140, 20762, 3706, 0, 0, 931, 1186, 976, 1093, 2699, 8511, 39275, 71912, 43050, 3273, 0, 0, 0, 818, 140, 644, 3167, 15704, 32849, 62988, 36975, 5694, 0, 0, 0, 418, 1456, 849], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '春のデコレーション', 'keyword': 'spring decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '马里奥生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 666, 1251, 0, 1339, 1375, 0, 2533, 1895, 1805, 1665, 3964, 3618, 3608, 4249, 4439, 5338, 5898, 4550, 4640, 3166, 2768, 3676, 5802, 5646, 6545, 5896, 5433, 5158, 5124, 4213, 3506, 4346, 3738, 3644, 8689, 7324, 8308, 13053, 40136, 71463, 54277, 75886, 61861, 42843, 29804, 24766, 82469, 65997, 74422, 74078, 68408, 63424, 52965, 47402, 47639, 24807, 19625, 13153, 30089, 27588, 28737, 26851, 26683, 24678, 25472, 25969, 27673, 17642, 14721], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオの誕生日の装飾', 'keyword': 'mario birthday decorations'}, {'keywordCn': '超级马里奥生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 899, 0, 0, 589, 0, 0, 852, 808, 891, 629, 2081, 2604, 2960, 2821, 0, 2825, 3130, 3217, 3513, 2797, 1957, 2149, 4211, 3544, 4093, 4006, 3251, 2704, 2185, 2462, 1682, 1984, 1857, 1532, 4243, 3597, 4082, 5703, 6108, 6244, 6293, 7275, 9751, 9618, 5909, 5312, 8942, 7551, 5920, 7044, 4400, 4527, 4020, 5488, 4262, 3080, 4881, 4250, 9919, 7089, 6114, 5817, 4586, 6005, 5935, 5478, 6517, 3752, 3153], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーマリオの誕生日の装飾', 'keyword': 'super mario birthday decorations'}, {'keywordCn': '马里奥生日派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 14655, 13012, 12609, 14039, 0, 0, 11959, 10089, 9585, 8856, 6391, 5823, 15086, 12879, 9302, 9159, 8161, 8644, 9056, 9341, 9067, 7173, 7294, 5455, 12639, 12902, 11744, 8362, 9625, 11625, 11736, 12260, 14328, 11499, 9190, 7226, 15302, 16163, 17695, 17708, 15668, 16104, 17816, 15832, 15848, 12245, 11564, 8064, 17054, 15741, 18139, 16975, 16289, 16283, 14857, 14872, 14467, 12239, 9707, 8942, 22452, 22411, 33475, 62288, 20606, 15080, 14902, 25596, 20546, 4386, 11306, 9466, 19586, 18902, 17642, 18908, 13091, 9312, 10106, 9874, 9887, 6926, 4750, 3746, 9330, 8341, 7530, 6288, 5260, 5306, 5951, 5584, 5718, 4495, 2693], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオの誕生日パーティー用品', 'keyword': 'mario birthday party supplies'}, {'keywordCn': '马里奥派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2100, 0, 0, 0, 0, 4789, 3930, 3503, 926, 1810, 1958, 2370, 1966, 0, 0, 2593, 2289, 2091, 1592, 2131, 2344, 2824, 3554, 3682, 3842, 3576, 2364, 4703, 3255, 4149, 4001, 5147, 5606, 6140, 5335, 6447, 6818, 4062, 2665, 3948, 5252, 5346, 5265, 5895, 5684, 5471, 5684, 6352, 7700, 5474, 3503, 8927, 9129, 9941, 19620, 21409, 21401, 20000, 34013, 38291, 38070, 20757, 12940, 28322, 27631, 27948, 27262, 22788, 19828, 20850, 23820, 21665, 25169, 13700, 7352, 15954, 17642, 18330, 15327, 14234, 15435, 15446, 13883, 15139, 13881, 6117], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'マリオパーティの装飾', 'keyword': 'mario party decorations'}, {'keywordCn': '超级马里奥派对优惠', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3322, 8099, 2796, 2733, 1595, 4777, 3920, 3780, 3963, 1808, 1400, 3726, 3563, 4916, 4327, 4230, 2756, 5554, 5980, 3901, 550, 1335, 1514, 1772, 2583, 3177, 3235, 2088, 1447, 3460, 4070, 5031, 5780, 5837, 5655, 6074, 6429, 7313, 5834, 5335, 3854, 8153, 9066, 9240, 8084, 7550, 5660, 4802, 5639, 5822, 5610, 4695, 3619, 11453, 12657, 15278, 26354, 23787, 20598, 16381, 34882, 40203, 30410, 16304, 9122, 31392, 28684, 27087, 25484, 23079, 16665, 11680, 11795, 15109, 11333, 7811, 4228, 14367, 14215, 14207, 10534, 12802, 8345, 8259, 8849, 9937, 6812, 4314], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スーパーマリオパーティの好意', 'keyword': 'super mario party favors'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '婴儿淋浴装饰男孩', 'searches': [0, 3966, 0, 7429, 8987, 8027, 8172, 8296, 8235, 8133, 0, 0, 11764, 8552, 8721, 9711, 9463, 11406, 9698, 14425, 13316, 12876, 4527, 3992, 10615, 7070, 6393, 5387, 5870, 4825, 4738, 7700, 9572, 6456, 4538, 3411, 6663, 5758, 5241, 2334, 4292, 5010, 3951, 4716, 3761, 3651, 1929, 781, 2266, 2285, 3070, 3203, 3777, 2892, 2516, 2241, 2479, 1950, 2466, 1103, 2484, 2530, 4014, 2898, 2912, 2795, 3406, 3446, 3429, 4937, 3750, 3217, 7259, 6561, 7279, 6304, 4724, 5540, 5406, 7462, 12497, 37264, 34383, 29534, 75335, 62845, 59444, 64906, 56168, 53323, 45847, 49630, 53081, 42569, 27692, 19880, 47979, 45664, 45466, 45518, 43076, 37516, 38924, 34891, 35194, 29294, 22842], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーの装飾の男の子', 'keyword': 'baby shower decorations boy'}, {'keywordCn': '鼠尾草绿色婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 616, 1306, 2086, 1759, 0, 3627, 4144, 3924, 4723, 5222, 4064, 3373, 8338, 9073, 9921, 9324, 9538, 9212, 8346, 9836, 8870, 8448, 6136, 5410, 13519, 13310, 11460, 9710, 6968, 8150, 7488, 9821, 7065, 4585, 6026, 5669, 20092, 18325, 18306, 17850, 14639, 12745, 12918, 12006, 12359, 8889, 5883, 4724, 17270, 14775, 13593, 12700, 11045, 11116, 9566, 8902, 8069, 6060, 4137], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'セージグリーンのベビーシャワーの装飾', 'keyword': 'sage green baby shower decorations'}, {'keywordCn': '婴儿洗礼的装饰品', 'searches': [352892, 345883, 353865, 329323, 320571, 317080, 353913, 350701, 366395, 322607, 166674, 120992, 387587, 382065, 331500, 369465, 342759, 287724, 307412, 332865, 279901, 190795, 72945, 35361, 149085, 156832, 136098, 114299, 100235, 356814, 107443, 134134, 153294, 120107, 82837, 42444, 93764, 63885, 39611, 13436, 32411, 52393, 57225, 57170, 76973, 114030, 117146, 26870, 65244, 92222, 121643, 140167, 149321, 118931, 117431, 90112, 95654, 78433, 62887, 45980, 119991, 149381, 148534, 125968, 124856, 128965, 91090, 107840, 130484, 219725, 152465, 113386, 340001, 344114, 250834, 239464, 139470, 204753, 181960, 206779, 224853, 197496, 161916, 130544, 229037, 236159, 260721, 278368, 228546, 220659, 196252, 203474, 212857, 167487, 117482, 96978, 200178, 190356, 198900, 184577, 175459, 169106, 150005, 162018, 178580, 136792, 122047], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワーデコレーション', 'keyword': 'baby shower decorations'}, {'keywordCn': '婴儿淋浴盘和餐巾', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 3165, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2094, 1310, 0, 1391, 0, 2149, 1108, 2170, 2096, 0, 1455, 0, 1562, 0, 0, 2365, 3428, 2390, 0, 805, 1393, 1275, 1671, 2011, 1797, 2120, 899, 1870, 2612, 2815, 3090, 3006, 2262, 2351, 1997, 2609, 2389, 2470, 1653, 3937, 3305, 4013, 3460, 3430, 2599, 2957, 3334, 2766, 1442, 900, 647, 1645, 2481, 3367, 3176, 2956, 2522, 2499, 3201, 3373, 2639, 2189, 1603, 4442, 4141, 3371, 3730, 3384, 3119, 3047, 2987, 3283, 2976, 2133, 1750, 5798, 4248, 4970, 4061, 5107, 5255, 4147, 4246, 6871, 7215, 5403], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベビーシャワープレートとナプキン', 'keyword': 'baby shower plates and napkins'}, {'keywordCn': '中性婴儿淋浴装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8263, 11313, 8470, 2304, 0, 5280, 3385, 6412, 6734, 5673, 6594, 6941, 7310, 7862, 6813, 5671, 3406, 8220, 6720, 5214, 0, 1850, 1612, 1432, 4028, 4667, 4188, 2436, 2042, 4843, 6836, 7987, 7200, 7064, 6837, 6775, 6400, 6594, 5357, 5078, 3764, 7806, 8948, 8778, 8897, 8502, 8710, 7125, 7916, 7691, 6849, 5651, 4112, 9361, 9031, 7935, 7044, 4599, 5719, 5318, 7096, 7392, 5491, 4179, 3374, 11305, 9687, 9620, 12291, 9886, 7967, 7653, 8442, 8059, 5989, 4119, 2850, 9612, 9603, 8642, 8634, 8067, 6865, 6856, 6740, 7410, 5317, 4008], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジェンダーニュートラルなベビーシャワーの装飾', 'keyword': 'gender neutral baby shower decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日装饰品', 'searches': [172906, 173696, 176403, 160782, 157213, 170157, 185858, 203833, 224930, 204461, 142612, 89163, 246234, 239314, 217272, 249612, 211489, 198932, 210521, 229602, 275851, 231425, 167288, 91540, 269916, 295000, 249775, 241525, 203725, 205618, 198277, 228163, 270236, 220331, 157956, 86296, 185499, 197544, 50914, 111193, 388005, 219576, 158270, 316672, 348549, 255406, 179917, 143675, 331213, 314721, 334256, 344536, 280052, 252745, 306096, 302420, 316801, 265266, 196756, 133406, 270241, 287124, 300449, 289390, 272854, 258921, 221508, 279798, 305565, 262959, 194584, 168781, 366500, 366718, 212450, 322089, 457793, 200743, 181847, 213068, 247553, 193385, 181482, 147995, 223175, 217885, 253357, 274588, 248644, 244436, 242020, 283812, 304451, 211477, 146471, 130985, 239926, 251591, 245657, 248241, 229460, 240201, 250025, 291889, 323284, 254296, 213689], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデーデコレーション', 'keyword': 'birthday decorations'}, {'keywordCn': '恐龙派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5337, 0, 0, 5506, 6431, 5509, 14084, 15278, 16479, 11701, 3628, 7727, 18064, 16072, 15788, 14360, 18841, 22237, 21180, 24026, 28508, 24359, 17211, 18419, 110005, 125549, 107623, 36107, 19085, 14145, 14721, 13734, 17790, 18076, 25100, 15434, 46905, 36767, 55642, 45940, 48292, 51312, 59950, 46834, 45908, 42089, 30806, 21647, 40635, 53878, 55682, 41879, 53803, 51811, 44452, 45475, 42287, 34551, 39957, 23040, 59736, 60690, 26729, 26662, 31517, 31736, 25615, 35328, 49217, 65455, 23928, 21553, 35826, 30388, 32381, 53992, 44530, 50371, 80257, 29469, 28427, 26866, 18748, 14703, 32005, 23247, 22325, 24828, 25778, 26803, 26556, 25559, 25405, 21920, 15086], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜のパーティーの装飾', 'keyword': 'dinosaur party decorations'}, {'keywordCn': '恐龙生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 6673, 4132, 3109, 2036, 962, 3221, 1942, 6239, 5233, 5204, 7043, 7236, 9243, 11536, 11144, 9060, 7996, 4790, 5675, 5428, 4671, 9713, 4415, 6838, 9294, 9213, 9188, 7331, 7289, 12661, 15217, 21132, 16450, 16963, 16125, 16535, 19602, 22551, 19603, 16024, 13446, 20621, 21794, 18660, 16367, 17468, 18800, 18312, 22658, 20285, 16519, 13805, 13878, 28764, 22529, 11406, 11418, 8343, 9460, 9636, 16226, 20098, 32493, 54205, 32455, 135507, 113821, 121687, 148897, 143752, 125806, 121146, 121964, 112608, 69536, 51728, 33319, 74675, 90330, 96322, 89237, 92308, 92944, 97892, 99951, 117830, 81273, 69839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '恐竜の誕生日の装飾', 'keyword': 'dinosaur birthday decorations'}, {'keywordCn': '女孩恐龙派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1249, 1670, 680, 0, 598, 0, 0, 0, 0, 687, 0, 684, 921, 686, 939, 1084, 1188, 1229, 727, 0, 0, 0, 0, 800, 853, 736, 635, 841, 515, 1455, 727, 1199, 585, 386, 480, 696, 0, 0, 300, 890, 580, 100, 998, 2024, 5775, 4636, 4094, 11242, 11511, 8810, 9956, 8852, 9601, 10354, 9076, 8440, 5088, 3824, 2742, 7355, 8087, 7635, 6544, 6945, 5506, 6022, 6500, 5776, 4153, 2902], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子の恐竜のパーティーの装飾', 'keyword': 'girl dinosaur party decorations'}, {'keywordCn': '三个雷克斯女孩的生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1198, 3568, 3765, 11024, 11483, 9508, 12234, 9547, 10085, 10130, 9747, 8815, 6577, 4958, 4319, 9991, 8023, 7443, 6716, 7739, 7811, 7991, 7886, 5361, 5450, 4248], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'スリーレックス・バースデー・デコレーション・ガール', 'keyword': 'three rex birthday decorations girl'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pink birthday paper plate and napkins'}, {'keywordCn': '花卉生日盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 901, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 354, 0, 0, 0, 0, 0, 0, 0, 549, 1195, 140, 0, 140, 571, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '花のバースデープレート', 'keyword': 'floral birthday plates'}, {'keywordCn': '质朴的生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1054, 0, 0, 0, 2739, 0, 1114, 1336, 1289, 1791, 2131, 2233, 1392, 0, 0, 1621, 1990, 1254, 0, 917, 1672, 1917, 2428, 2348, 1869, 1263, 667, 1840, 2077, 2362, 2049, 2344, 1880, 2131, 2331, 2216, 1727, 1367, 579, 1377, 1963, 1770, 1738, 1426, 1503, 1294, 1501, 1326, 951, 663, 0, 643, 691, 978, 795, 903, 867, 442, 1720, 953, 942, 951, 0, 1498, 900, 683, 709, 666, 959, 0, 666, 915, 389, 140, 0, 441, 379, 442, 501, 0, 0, 1, 140, 492, 464, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '素朴な誕生日の装飾', 'keyword': 'rustic birthday decorations'}, {'keywordCn': '质朴的纸盘', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2634, 1346, 1863, 0, 0, 0, 1937, 1584, 4071, 3747, 3927, 2637, 2867, 1952, 1552, 0, 1291, 2070, 2286, 0, 919, 1703, 1703, 1669, 1519, 958, 662, 0, 721, 0, 1705, 2323, 2450, 2591, 2798, 2676, 2193, 2053, 1247, 663, 1632, 1974, 2127, 2161, 2055, 1640, 1320, 1297, 1572, 908, 570, 414, 910, 875, 634, 1414, 883, 780, 572, 1440, 1237, 0, 985, 0, 1053, 877, 0, 609, 322, 0, 587, 140, 388, 0, 0, 0, 140, 0, 507, 382, 540, 140, 140, 140, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '素朴な紙皿', 'keyword': 'rustic paper plates'}, {'keywordCn': '乡村生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 533, 658, 519, 634, 0, 1, 0, 714, 767, 0, 416, 687, 871, 1187, 971, 738, 618, 671, 1364, 0, 988, 732, 0, 1298, 0, 140, 0, 369, 0, 408, 884, 679, 883, 140, 140, 1436, 1432, 1184, 956, 840, 1376, 1243, 1443, 1413, 654, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '国の誕生日の装飾', 'keyword': 'country birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '野生动物所在的地方派对用品', 'searches': [16101, 21309, 23440, 20375, 22650, 22912, 23512, 25006, 28024, 22507, 16737, 0, 34527, 34534, 36360, 36188, 32053, 27944, 30789, 33150, 30191, 24945, 15564, 13788, 43300, 35475, 17844, 15192, 14297, 14141, 15001, 16476, 15876, 14750, 9709, 8519, 18476, 16018, 12796, 3678, 6406, 8231, 7696, 8446, 9482, 8044, 5886, 6214, 13017, 10140, 11711, 11083, 10069, 11242, 12004, 11123, 10690, 8775, 6929, 5842, 11765, 12630, 11513, 9872, 9708, 8707, 8213, 8817, 7953, 7262, 5748, 5286, 11441, 9604, 7337, 5966, 5627, 5342, 5416, 6660, 4500, 1537, 2715, 1735, 4964, 5204, 5596, 6750, 4998, 4580, 5170, 5479, 5183, 3429, 2635, 2235, 5932, 5374, 4925, 3750, 3570, 3324, 3927, 3794, 3162, 2846, 1848], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'WHERE THE WILD THINGS ARE パーティーグッズ', 'keyword': 'where the wild things are party supplies'}, {'keywordCn': '动物园好朋友盘子', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 830, 553, 0, 0, 0, 847, 1538, 0, 0, 0, 1360, 0, 2234, 0, 0, 0, 0, 1829, 1430, 0, 933, 0, 2212, 854, 1813, 1655, 4677, 7540, 3725, 3320, 3138, 3255, 2659, 2889, 1844, 3025, 3085, 3253, 3809, 4590, 5448, 6263, 4890, 6982, 4030, 3205, 3723, 4375, 3050, 2358, 4395, 4810, 4632, 5666, 6567, 5426, 6202, 142703, 37041, 31880, 32991, 18768, 17799, 38977, 28711, 35349, 21486, 21073, 17799, 34072, 14336, 8326, 8879, 6616, 9857, 16072, 9273, 11575, 11612, 9555, 9563, 10083, 7631, 6077, 7664], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '動物園の仲間のプレート', 'keyword': 'zoo pals plates'}, {'keywordCn': '丛林派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8388, 7549, 7156, 3059, 1563, 8205, 15018, 8813, 12205, 16821, 14026, 9941, 10851, 12885, 11988, 7913, 5990, 11541, 14170, 13007, 5156, 8602, 9956, 11779, 12545, 13231, 12404, 5388, 4839, 8688, 7260, 9877, 12211, 13643, 12021, 8682, 8769, 8006, 8090, 7747, 4653, 9728, 15188, 26994, 28000, 30548, 30285, 23268, 26679, 24024, 16451, 9511, 4938, 12368, 16959, 16732, 16278, 18776, 16634, 15150, 24194, 21333, 17721, 7008, 3416, 19597, 20179, 21084, 29246, 23387, 13871, 17822, 12564, 7892, 5397, 3342, 3650, 9476, 17086, 16882, 16491, 12613, 12174, 9656, 8270, 15954, 15114, 6711], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ジャングルパーティーの装飾', 'keyword': 'jungle party decorations'}, {'keywordCn': '两个狂野的生日装饰男孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 736, 805, 0, 1485, 1799, 1722, 1721, 3723, 4516, 4544, 4560, 5172, 5138, 6031, 5437, 5614, 5042, 4608, 3675, 6177, 6442, 5161, 5550, 6357, 6294, 5743, 5954, 5175, 4451, 3541, 2480, 5221, 5479, 5082, 4991, 4485, 4544, 4297, 4563, 3394, 0, 0, 0, 0, 1268, 1720, 1950, 2666, 3326, 3671, 3943, 3243, 2910, 2109, 1475, 3839, 3513, 3867, 3539, 3165, 3753, 3483, 3576, 2946, 2320, 2080], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '2つの野生の誕生日の装飾の男の子', 'keyword': 'two wild birthday decorations boy'}, {'keywordCn': '野生动物园生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 799, 1526, 2648, 1999, 1960, 2084, 1884, 3068, 3584, 12648, 14565, 6621, 4683, 15285, 20244, 24368, 27027, 26638, 19495, 15279, 10651, 27448, 24703, 28781, 40343, 42184, 47911, 57220, 48851, 40101, 22672, 15163, 11931, 26009, 27545, 30840, 30282, 29278, 24977, 23441, 22545, 15924, 12733, 11742, 7378, 17336, 19269, 17295, 17525, 16199, 14809, 14436, 22460, 23517, 14957, 9912, 6812, 23089, 21311, 21648, 23883, 21170, 19650, 17091, 18849, 18138, 9257, 5579, 5251, 13147, 15274, 17368, 17641, 17693, 16351, 16732, 17219, 14688, 8646, 7274], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'サファリの誕生日の飾り', 'keyword': 'safari birthday decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pink bow birthday decorations 18'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': 'pink bow plates for 10'}, {'keywordCn': '粉红色生日盘和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 543, 555, 100, 0, 100, 0, 916, 1097, 781, 764, 0, 1534, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1290, 504, 0, 533, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ピンクのバースデープレートとナプキン', 'keyword': 'pink birthday plates and napkins'}, {'keywordCn': '', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '', 'keyword': '18th birthday girls plates'}, {'keywordCn': '女孩的 18 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4352, 961, 1709, 931, 0, 3442, 3864, 4618, 4336, 2837, 6814, 5807, 4463, 7923, 9878, 15252, 18026, 23753, 29735, 23395, 16492, 13515, 33605, 32825, 30798, 13683, 9539, 16543, 19605, 19869, 27053, 22252, 20908, 14627, 32079, 33651, 31907, 25607, 21264, 18959, 17525, 22113, 27677, 26681, 18748, 15234, 40012, 38689, 27032, 23366, 8543, 11563, 14667, 35332, 40301, 14504, 27141, 28874, 65740, 61080, 60157, 59501, 43507, 37592, 45536, 52547, 68697, 55743, 41887, 34800, 68756, 66566, 63640, 55358, 46301, 45218, 46761, 56036, 71652, 51672, 43235], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための18歳の誕生日の装飾', 'keyword': '18th birthday decorations for girls'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '生日装饰品', 'searches': [172906, 173696, 176403, 160782, 157213, 170157, 185858, 203833, 224930, 204461, 142612, 89163, 246234, 239314, 217272, 249612, 211489, 198932, 210521, 229602, 275851, 231425, 167288, 91540, 269916, 295000, 249775, 241525, 203725, 205618, 198277, 228163, 270236, 220331, 157956, 86296, 185499, 197544, 50914, 111193, 388005, 219576, 158270, 316672, 348549, 255406, 179917, 143675, 331213, 314721, 334256, 344536, 280052, 252745, 306096, 302420, 316801, 265266, 196756, 133406, 270241, 287124, 300449, 289390, 272854, 258921, 221508, 279798, 305565, 262959, 194584, 168781, 366500, 366718, 212450, 322089, 457793, 200743, 181847, 213068, 247553, 193385, 181482, 147995, 223175, 217885, 253357, 274588, 248644, 244436, 242020, 283812, 304451, 211477, 146471, 130985, 239926, 251591, 245657, 248241, 229460, 240201, 250025, 291889, 323284, 254296, 213689], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデーデコレーション', 'keyword': 'birthday decorations'}, {'keywordCn': '生日派对用品', 'searches': [52462, 41584, 42197, 35507, 32602, 29140, 27933, 27278, 27550, 23107, 19900, 0, 26785, 24768, 24615, 25962, 20675, 23180, 22939, 22861, 20459, 16679, 11858, 8005, 25677, 18861, 31531, 28323, 22303, 17471, 17123, 18435, 18290, 14131, 13075, 9035, 24699, 18744, 16328, 17784, 12228, 16598, 11662, 14842, 15052, 13538, 9513, 7792, 13877, 14617, 16691, 22010, 21668, 20623, 20228, 20251, 20029, 15423, 11961, 8724, 18112, 20495, 18522, 15840, 17753, 16196, 18019, 17991, 15056, 11997, 8886, 7247, 16814, 15639, 9588, 9024, 8067, 9841, 8009, 14987, 12251, 7269, 8498, 4833, 12578, 13064, 13536, 15140, 14272, 14777, 14864, 14482, 13390, 14635, 10786, 6861, 14225, 14839, 15803, 14835, 25407, 17710, 18486, 19554, 17337, 12143, 8959], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日パーティー用品', 'keyword': 'birthday party supplies'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 625, 2830, 4920, 4840, 4699, 4383, 13185, 13320, 13800, 12631, 11698, 9850, 9624, 9720, 8518, 8064, 6230], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'happy birthday plates and napkins set'}, {'keywordCn': '蓝色和银色生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1204, 0, 0, 912, 709, 0, 685, 0, 0, 913, 2296, 985, 1152, 746, 824, 610, 0, 825, 0, 658, 1367, 1318, 1632, 1235, 1463, 572, 691, 0, 653, 675, 709, 618, 765, 1650, 3000, 2823, 2297, 1156, 964, 620, 975, 1855, 2463, 2300, 2385, 2311, 3863, 1936, 1509, 1442, 2056, 1752, 1433, 1524, 1714, 1661, 1856, 1946, 4090, 4432, 5058, 4235, 2620, 2828, 3894, 4615, 5965, 4432, 4100], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '青と銀の誕生日の装飾', 'keyword': 'blue and silver birthday decorations'}, {'keywordCn': '生日盘子和餐巾纸', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1845, 2139, 1814, 1361, 1264, 0, 0, 1623, 1524, 0, 0, 3299, 3584, 3633, 1700, 5537, 3908, 2500, 4156, 4172, 3855, 3984, 3745, 5797, 7041, 5953, 8700, 7937, 3194, 4492, 4487, 5176, 4278, 3990, 3364, 5453, 5500, 6528, 5760, 6372, 4925, 5150, 5355, 5649, 4985, 13926, 4336, 6324, 5702, 6745, 6340, 8661, 11459, 9915, 18218, 19769, 19451, 14162, 10098, 23302, 23781, 27229, 29463, 26078, 25380, 23785, 27374, 28809, 21323, 15454, 11429, 26276, 30732, 32205, 33151, 35028, 29434, 29107, 31939, 34632, 28174, 23291], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'バースデープレートとナプキン', 'keyword': 'birthday plates and napkins'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '草莓脆饼装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 639, 0, 0, 0, 541, 0, 0, 668, 0, 602, 663, 800, 0, 0, 0, 0, 594, 717, 979, 840, 765, 796, 869, 900, 497, 957, 746, 791, 1750, 2624, 2206, 2792, 2863, 2892, 2646, 3054, 2854, 3594, 5278, 4808, 12630, 16061, 33611, 45834, 41452, 39903, 44447, 47450, 49481, 20546, 15472, 14770, 33337, 28358, 25042, 22716, 20122, 18261, 17793, 19474, 13987, 11252, 7488], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'イチゴのショートケーキの装飾', 'keyword': 'strawberry shortcake decorations'}, {'keywordCn': '草莓生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3103, 2087, 2696, 1946, 1448, 0, 0, 0, 0, 2601, 3104, 3181, 1302, 3885, 4919, 4654, 4030, 2332, 1360, 881, 803, 3356, 3742, 5021, 6198, 6471, 6124, 6056, 4371, 3293, 1740, 1213, 1342, 4201, 4908, 7767, 7191, 7643, 8094, 7938, 7515, 4881, 3016, 2162, 2130, 6657, 7338, 6916, 7762, 7995, 8939, 7882, 11331, 8186, 5594, 5009, 5436, 21934, 20028, 22526, 25220, 22061, 23296, 23983, 22735, 19361, 11526, 7346, 6553, 22101, 20058, 21152, 24139, 26953, 28083, 30062, 23768, 21355, 12327, 8495], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごの誕生日の飾り', 'keyword': 'strawberry birthday decorations'}, {'keywordCn': '草莓装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1762, 0, 1621, 0, 0, 2502, 1784, 3909, 2786, 0, 1539, 1732, 0, 0, 0, 1706, 2194, 1754, 2254, 6390, 4841, 5581, 4869, 4112, 3421, 5023, 6156, 9699, 15056, 14873, 18928, 17344, 21237, 18263, 15397, 8890, 6540, 8603, 8546, 14942, 20852, 26171, 33931, 35771, 30292, 46317, 51371, 31246, 14086, 19975, 27114, 46153, 59025, 44352, 49267, 44567, 46586, 37836, 45388, 28666, 15422, 21269, 27462, 44280, 39121, 42519, 59182, 53572, 57233, 53347, 39186, 23038, 11368, 12499, 16622, 26959, 32981, 38732, 46111, 60096, 57415, 46515, 36771, 20802, 13118, 15108], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'イチゴの装飾', 'keyword': 'strawberry decor'}, {'keywordCn': '草莓酥饼生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 588, 0, 0, 0, 0, 0, 523, 0, 0, 0, 637, 614, 585, 679, 811, 0, 812, 615, 602, 780, 732, 853, 592, 548, 630, 525, 1112, 1174, 1598, 1205, 1360, 3972, 3848, 1868, 2039, 1309, 1750, 2139, 2862, 3166, 3763, 4771, 4014, 30559, 29030, 22070, 12389, 14638, 15984, 11165, 9146, 7910, 9452, 11677, 7962, 30267, 51342, 60849, 46096, 42356, 44600, 40779, 37924, 43031, 32863, 30941], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'いちごのショートケーキの誕生日の飾り', 'keyword': 'strawberry shortcake birthday decorations'}, {'keywordCn': '浆果一岁生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 3168, 4618, 11335, 52136, 55781, 63635, 77075, 71131, 69996, 66017, 55970, 45602, 26930, 18343, 18933, 56626, 66662, 69048, 64490, 69657, 67918, 63086, 49865, 33449, 21502, 16577], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベリー・ファースト・バースデー・デコレーション', 'keyword': 'berry first birthday decor'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '嘉年华派对装饰品', 'searches': [0, 0, 0, 15489, 24034, 18986, 21787, 21991, 22380, 3639, 0, 0, 16501, 22383, 25942, 53374, 38465, 28030, 35437, 34496, 25899, 18769, 11095, 8197, 23765, 26895, 22878, 45084, 36727, 33125, 32868, 34099, 30414, 18220, 23017, 22729, 84493, 83490, 69894, 20346, 46773, 69630, 69403, 61327, 55207, 30825, 15456, 11039, 28160, 40823, 61329, 121126, 99337, 79522, 86287, 68465, 63641, 35952, 25814, 13887, 43076, 59646, 98103, 136605, 119635, 74326, 61798, 71492, 57360, 31697, 19944, 14149, 35341, 39872, 46070, 97338, 36950, 36506, 34282, 60025, 55669, 32689, 20216, 11373, 38161, 43047, 70207, 137827, 80300, 58897, 56542, 54528, 49749, 27573, 16080, 8734, 25244, 33136, 45078, 81425, 58432, 41383, 41681, 39531, 37947, 21060, 14341], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フィエスタパーティーの装飾', 'keyword': 'fiesta party decorations'}, {'keywordCn': '墨西哥主题派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4332, 0, 0, 0, 0, 0, 0, 2743, 2489, 2901, 2533, 2080, 2082, 0, 0, 0, 2089, 3003, 3136, 0, 1515, 0, 0, 3076, 4334, 3104, 2178, 1299, 2659, 2945, 4440, 5710, 6321, 5310, 6026, 15427, 15707, 9702, 3456, 1498, 3223, 3121, 3902, 5001, 4975, 4360, 4206, 4041, 4350, 1716, 784, 558, 1625, 1621, 2316, 3509, 7880, 9878, 9556, 15814, 18261, 7516, 4930, 3596, 8587, 9323, 13171, 22063, 18651, 17316, 15719, 18614, 20020, 6611, 3740, 2597, 6965, 7187, 8474, 12414, 10976, 10027, 9094, 9420, 10963, 4217, 2758], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メキシコのテーマパーティーの装飾', 'keyword': 'mexican theme party decorations'}, {'keywordCn': '炸玉米饼派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 13120, 0, 0, 13714, 13707, 11736, 7292, 0, 896, 3342, 3181, 9652, 14365, 14029, 12859, 15053, 18578, 16572, 12840, 8733, 6285, 14504, 16849, 14075, 4912, 3075, 3792, 3979, 5911, 6890, 5723, 4920, 3991, 8655, 8867, 11313, 15529, 14532, 11905, 13274, 12458, 9808, 6445, 5804, 4318, 7956, 12148, 12866, 14853, 16806, 13527, 12437, 13266, 11725, 7372, 5453, 4275, 8657, 9139, 8649, 13780, 9355, 8093, 8350, 13826, 11631, 7371, 4753, 3681, 7691, 9727, 11822, 23172, 16817, 14827, 14946, 12937, 12599, 6945, 3926, 2765, 6933, 7280, 9474, 15810, 15501, 11213, 10044, 12290, 9327, 5576, 3383], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'タコスパーティーデコレーション', 'keyword': 'taco party decorations'}, {'keywordCn': '墨西哥派对装饰品', 'searches': [0, 0, 0, 18456, 17915, 16294, 17358, 22190, 25527, 7484, 0, 0, 39795, 69555, 81040, 165325, 156711, 109630, 93911, 122903, 146765, 66199, 37320, 17288, 74364, 92892, 62592, 140126, 146652, 22162, 76729, 94812, 119028, 59172, 32773, 15270, 40349, 60504, 50656, 11089, 23937, 18737, 17677, 26022, 45337, 18339, 12647, 6800, 16553, 15397, 27976, 64857, 66135, 50531, 35810, 19772, 28530, 15605, 12273, 8999, 19493, 35871, 50494, 72834, 66385, 51050, 43956, 59038, 71404, 27284, 17067, 8985, 18011, 23904, 30107, 55134, 63891, 33584, 28711, 58562, 83123, 26668, 16488, 9564, 28290, 31564, 51099, 86694, 65738, 50479, 49851, 58714, 73554, 26614, 11682, 8096, 20672, 20619, 37116, 55392, 53403, 35609, 38594, 44219, 63472, 28223, 18116], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'メキシコのパーティーの装飾', 'keyword': 'mexican party decorations'}, {'keywordCn': '宗教节日装饰品', 'searches': [15707, 20295, 29595, 48516, 42289, 31453, 37336, 33861, 31921, 20721, 13756, 0, 28543, 32219, 40038, 101047, 65555, 49929, 51398, 50642, 39110, 25306, 15673, 12133, 34716, 44465, 33412, 82238, 61346, 49089, 44500, 48050, 42586, 26568, 13448, 7977, 14341, 15651, 15213, 7794, 13638, 14532, 13436, 13636, 12535, 7883, 8662, 3907, 7048, 7234, 11969, 23424, 20066, 15585, 14721, 14792, 10050, 5321, 4617, 3738, 6142, 8473, 21292, 24591, 20573, 14227, 12605, 12081, 11852, 5940, 4179, 3632, 8705, 8493, 9817, 23531, 9711, 7270, 8861, 13361, 11839, 5524, 3740, 3216, 5017, 6746, 14074, 50264, 16838, 10004, 10513, 8925, 8605, 5703, 2870, 2122, 5513, 5700, 11159, 35626, 14558, 7855, 8213, 8019, 7554, 3650, 2246], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フィエスタデコレーション', 'keyword': 'fiesta decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '缝制生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1354, 2385, 0, 3198, 2589, 2134, 1938, 5313, 5257, 6512, 6437, 5947, 5885, 9978, 7436, 7054, 6010, 6002, 4948, 10041, 14770, 20878, 23372, 24261, 27144, 22562, 22043, 17972, 14551, 13308, 11047, 25818, 27737, 42352, 43456, 47148, 49992, 39767, 68439, 88429, 54011, 51064, 36890, 121364, 121038, 129060, 144708, 125968, 125946, 121019, 123566, 136559, 80853, 55605, 42852, 99541, 112750, 119582, 125136, 136014, 164095, 142943, 126041, 127978, 82107, 69359], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '誕生日の飾りをステッチ', 'keyword': 'stitch birthday decorations'}, {'keywordCn': 'lilo 和针脚派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1040, 2687, 1703, 1803, 1647, 0, 0, 2263, 2264, 2008, 0, 0, 1833, 2385, 0, 1529, 850, 790, 608, 2702, 2218, 2553, 2541, 3553, 3037, 3253, 3262, 2567, 1872, 1673, 1814, 3371, 3822, 4374, 3726, 4410, 5347, 4043, 4048, 3125, 2073, 1647, 1601, 4406, 3352, 2866, 2888, 3703, 3890, 3083, 3832, 4129, 5151, 4049, 2711, 3145, 4009, 5869, 11145, 17850, 18831, 17091, 20489, 14947, 7797, 4182, 3522, 13337, 12083, 16895, 18003, 30961, 42008, 30157, 20591, 28374, 18694, 9525], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'リロとステッチパーティーの装飾', 'keyword': 'lilo and stitch party decorations'}, {'keywordCn': '针板', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 630, 625, 625, 0, 467, 0, 766, 1254, 985, 521, 840, 1244, 1387, 1899, 1919, 1424, 1505, 547, 2284, 1947, 2169, 2702, 2234, 2701, 2391, 3262, 3234, 2363, 2491, 1802, 3554, 3776, 3432, 3832, 3818, 3664, 3860, 3451, 3938, 2505, 2618, 1905, 4643, 5462, 5072, 5178, 8936, 13112, 10004, 7063, 7107, 3935, 2839], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ステッチプレート', 'keyword': 'stitch plates'}, {'keywordCn': 'lilo 和 stitch 生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2571, 1354, 1313, 1629, 0, 1162, 1068, 0, 1271, 831, 676, 1154, 3481, 3490, 2973, 2105, 2405, 2398, 1886, 1759, 0, 1712, 1862, 2753, 4983, 4985, 5574, 6529, 8278, 8880, 8619, 7507, 5218, 4184, 4431, 5050, 12677, 16276, 26786, 29763, 31692, 33534, 29847, 46644, 45487, 31000, 22861, 15220, 49796, 49262, 56174, 61317, 60220, 63213, 60544, 55506, 53786, 30297, 24635, 15667, 35964, 46073, 55699, 57953, 97892, 141163, 122597, 97438, 65149, 39587, 27234], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'リロとステッチの誕生日パーティーの装飾', 'keyword': 'lilo and stitch birthday party decorations'}, {'keywordCn': '缝制派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2114, 1861, 996, 0, 0, 0, 971, 0, 1286, 838, 1451, 1246, 4111, 5355, 5838, 6850, 6661, 6875, 7316, 6341, 7457, 7264, 6418, 4782, 11163, 12114, 10869, 12466, 12126, 11295, 11764, 14389, 13821, 11545, 9587, 7666, 16911, 16407, 12854, 12791, 13394, 13638, 13204, 24126, 24206, 24516, 22060, 17301, 27684, 27481, 30764, 33152, 41588, 40843, 42832, 45477, 28562, 29962, 26974, 24971, 48024, 31260, 32805, 34028, 49868, 58131, 51729, 40278, 35116, 21245, 17619], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ステッチパーティーの装飾', 'keyword': 'stitch party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '建筑主题派对用品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2321, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1265, 1446, 0, 0, 0, 0, 0, 496, 2779, 5144, 4655, 4593, 4514, 5534, 3989, 2730, 1622, 3121, 3069, 3809, 3290, 3995, 4325, 4635, 4708, 3734, 2706, 1931], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '建設をテーマにしたパーティー用品', 'keyword': 'construction themed party supplies'}, {'keywordCn': '施工方', 'searches': [17485, 17615, 15729, 0, 16011, 15886, 5600, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5558, 0, 11445, 8990, 8186, 2201, 1997, 4977, 3718, 8617, 7920, 7335, 6304, 6653, 8005, 8075, 6049, 5842, 4772, 7623, 7165, 6915, 2743, 4639, 5152, 4690, 5389, 5641, 5241, 3272, 2832, 4517, 4761, 5408, 5619, 5873, 7055, 8207, 6693, 6398, 5033, 4632, 3999, 5349, 5871, 6175, 6403, 6068, 5613, 6473, 6428, 5611, 4572, 2787, 2897, 6908, 5738, 4877, 4678, 4780, 4536, 4848, 6555, 7382, 6981, 3794, 3097, 4659, 4723, 5006, 6136, 5504, 4925, 5477, 5276, 5091, 4346, 2719, 2301, 5264, 3825, 4192, 4124, 4631, 4273, 3822, 3652, 3648, 2972, 2222], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'コンストラクション・パーティ', 'keyword': 'construction party'}, {'keywordCn': '建筑聚会用品', 'searches': [72252, 62933, 52506, 51681, 52160, 46976, 40503, 27274, 27177, 20044, 14845, 0, 23908, 22822, 23729, 23699, 20633, 24293, 22255, 23882, 16085, 14823, 11815, 8590, 21308, 21023, 15689, 14597, 15531, 14785, 14920, 16076, 16321, 20597, 20208, 9819, 17527, 21711, 36751, 14027, 7857, 8134, 7417, 8886, 8675, 7170, 5615, 4863, 11325, 8037, 11366, 12882, 12614, 11323, 9527, 9453, 8930, 7885, 6209, 4661, 7124, 7015, 5490, 7430, 5559, 4744, 6024, 6615, 4962, 3908, 2816, 2824, 7555, 5535, 3998, 3544, 3767, 3711, 3880, 4404, 4528, 4243, 2865, 2156, 3530, 2929, 2810, 2906, 2711, 2556, 2854, 2846, 2943, 2568, 1642, 1378, 2808, 2354, 2419, 2359, 2939, 2735, 2738, 2698, 2576, 1863, 1297], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '建設パーティー用品', 'keyword': 'construction party supplies'}, {'keywordCn': '建筑生日派对用品', 'searches': [16287, 24501, 39749, 33418, 38936, 41422, 52431, 63735, 70477, 51045, 32353, 18288, 72422, 65488, 62032, 70402, 61909, 66940, 71992, 80408, 74339, 57982, 35845, 19431, 77462, 69004, 45700, 44917, 48622, 41739, 41839, 38136, 40455, 30324, 18435, 17006, 56967, 44604, 11346, 6052, 15318, 11053, 8190, 13750, 15179, 12987, 12907, 12029, 34225, 35732, 37340, 38654, 44973, 42468, 50675, 44661, 43831, 35150, 25686, 16714, 48128, 44304, 49304, 46732, 50073, 48707, 39369, 48126, 48807, 33103, 25561, 16093, 40379, 43011, 36769, 37886, 36836, 38376, 35132, 49162, 38287, 11534, 14305, 13237, 52776, 46120, 46335, 56693, 51988, 53638, 52923, 51054, 51993, 30866, 19981, 13082, 30324, 36550, 39406, 37645, 45227, 43143, 42893, 39978, 40015, 34189, 26777], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '建設業の誕生日パーティー用品', 'keyword': 'construction birthday party supplies'}, {'keywordCn': '建筑板材', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1866, 0, 0, 0, 0, 1791, 1691, 0, 906, 1737, 1269, 1710, 1728, 1572, 1429, 1689, 0, 1275, 0, 0, 582, 756, 732, 590, 851, 1207, 1491, 840, 614, 854, 1111, 1478, 1531, 2112, 2288, 2947, 2350, 2249, 2034, 1790, 875, 1774, 2038, 2632, 2568, 2347, 2418, 2489, 2332, 1917, 1723, 1632, 853, 1166, 996, 916, 1319, 1591, 1865, 1865, 2527, 2443, 2109, 1837, 1375, 2415, 1927, 1494, 1763, 1964, 1506, 1653, 1711, 1848, 1485, 1441, 687, 1727, 1442, 2244, 1795, 2021, 1578, 1813, 1777, 2062, 1390, 1563], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '建設プレート', 'keyword': 'construction plates'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '爬行动物生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 914, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '爬虫類バースデーデコレーション', 'keyword': 'reptile birthday decorations'}, {'keywordCn': '爬行动物生日派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 508, 0, 0, 0, 603, 461, 836, 795, 489, 0, 0, 0, 0, 926, 575, 371, 532, 1283, 2152, 2603, 2765, 2232, 1566, 3128, 3252, 2619, 2917, 2562, 2833, 2950, 2815, 3398, 2090, 1598, 457, 1852, 2596, 2466, 2579, 2762, 2680, 2842, 3000, 2753, 2291, 1963], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '爬虫類の誕生日パーティーの装飾', 'keyword': 'reptile birthday party decorations'}, {'keywordCn': '爬行动物派对', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 721, 0, 0, 421, 0, 0, 0, 739, 0, 0, 611, 616, 585, 550, 922, 610, 0, 0, 445, 516, 563, 820, 750, 573, 615, 1429, 1541, 1132, 761, 0, 1353, 1158, 666, 684, 562, 684, 620, 610, 718, 140, 140, 0, 0, 503, 443, 268, 140, 0, 436, 482, 0, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '爬虫類パーティー', 'keyword': 'reptile party'}, {'keywordCn': '蜥蜴派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 590, 0, 0, 0, 0, 0, 0, 0, 0, 0, 582, 0, 678, 0, 0, 0, 0, 0, 0, 0, 0, 0, 871, 0, 575, 797, 765, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'トカゲのパーティーの装飾', 'keyword': 'lizard party decorations'}, {'keywordCn': '爬行动物派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 791, 863, 0, 1309, 686, 0, 0, 794, 899, 0, 1333, 1504, 915, 1712, 1202, 1122, 982, 733, 0, 933, 1433, 1757, 1928, 1637, 1964, 1259, 1967, 2524, 1501, 1356, 660, 1170, 740, 1716, 1880, 1876, 1973, 1866, 2524, 2372, 1778, 1634, 691, 2043, 2008, 1402, 2227, 1919, 1842, 1818, 1642, 2024, 1405, 1240, 140, 1880, 1289, 1782, 1552, 1782, 1386, 1288, 1882, 2058, 1516, 1148], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '爬虫類のパーティーの装飾', 'keyword': 'reptile party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '猫头鹰气球', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1549, 0, 1299, 0, 0, 0, 2521, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1072, 0, 1562, 0, 763, 720, 902, 919, 931, 822, 484, 0, 0, 829, 721, 957, 1089, 750, 747, 831, 801, 799, 705, 0, 784, 494, 975, 996, 1236, 563, 881, 1232, 876, 757, 100, 498, 757, 732, 524, 699, 653, 575, 174, 914, 1366, 1201, 744, 0, 812, 0, 0, 0, 481, 0, 0, 0, 564, 140, 0, 0, 0, 0, 0, 0, 888, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フクロウの風船', 'keyword': 'owl balloons'}, {'keywordCn': '猫头鹰生日派对装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 690, 872, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フクロウの誕生日パーティーのデコレーション', 'keyword': 'owl birthday party decorations'}, {'keywordCn': '猫头鹰餐巾', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 536, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 821, 781, 431, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 0, 0, 0, 0, 0, 0, 0, 0, 0, 551, 140, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フクロウナプキン', 'keyword': 'owl napkins'}, {'keywordCn': '猫头鹰生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 658, 0, 0, 0, 0, 0, 0, 0, 793, 0, 0, 778, 1361, 1354, 1185, 1248, 931, 1244, 1106, 779, 1204, 1150, 538, 1623, 1789, 1114, 959, 1454, 489, 0, 828, 1598, 1301, 1504, 853, 1861, 1801, 1465, 1119, 746, 713, 691, 1384, 1336, 899, 995, 0, 1318, 835, 1244, 475, 760, 771, 1227, 827, 955, 663, 140], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フクロウの誕生日の飾り', 'keyword': 'owl birthday decorations'}, {'keywordCn': '猫头鹰派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2233, 2106, 1129, 2313, 2768, 2585, 2549, 2960, 3182, 2397, 1332, 2956, 2735, 2123, 1081, 1301, 1299, 1482, 1464, 2089, 1433, 696, 738, 2051, 1804, 1856, 2022, 2497, 1994, 2251, 1727, 2097, 1791, 1614, 1094, 2021, 2534, 2096, 2223, 2156, 1827, 1585, 1378, 1528, 1422, 1126, 479, 1828, 2136, 1319, 699, 775, 644, 558, 1504, 1771, 1380, 902, 0, 1846, 1243, 0, 905, 481, 651, 140, 779, 589, 500, 140, 0, 698, 438, 988, 140, 673, 477, 588, 511, 642, 616, 0], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'フクロウのパーティーの装飾', 'keyword': 'owl party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '1岁生日装饰品女孩', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 697, 952, 0, 2712, 2535, 6153, 4860, 4928, 4753, 3725, 5784, 6476, 5340, 4084, 3180, 6473, 5430, 4468, 8914, 22908, 3305, 1814, 1756, 897, 0, 0, 0, 0, 871, 0, 0, 1228, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 435, 0, 0, 0, 0, 613, 0, 0, 0, 613, 797, 846, 1880, 1895, 4381, 13440, 16945, 43897, 38069, 37206, 39475, 35659, 35616, 38804, 36847, 35035, 27562, 20563, 21478, 44260, 36119, 31753, 28645, 29939, 28980, 31131, 28770, 26936, 22819, 19404], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '1歳の誕生日の装飾の女の子', 'keyword': '1st birthday decorations girl'}, {'keywordCn': '女孩的第一个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3509, 4434, 4756, 6404, 7690, 8157, 8231, 15347, 18541, 22170, 21620, 24183, 22940, 26233, 23647, 23949, 19759, 15095, 14396, 35834, 30294, 30317, 25033, 25368, 26333, 24643, 24354, 23949, 20793, 15419, 14684, 38933, 29674, 22736, 22512, 18606, 19742, 19605, 33382, 22938, 1665, 6183, 12602, 26637, 23979, 29392, 39984, 37281, 36946, 38645, 38275, 35922, 28042, 22124, 20447, 42791, 37772, 34673, 29566, 30434, 30326, 28406, 29479, 24793, 20530, 18216], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '女の子のための最初の誕生日の装飾', 'keyword': 'first birthday decorations for girl'}, {'keywordCn': '浆果第一个生日', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 898, 989, 0, 0, 0, 0, 552, 1345, 1814, 2664, 2796, 2708, 2391, 1842, 1390, 0, 444, 0, 0, 2716, 3523, 5197, 6343, 6226, 5922, 5766, 5245, 3393, 1460, 1169, 1925, 6617, 7154, 8918, 9809, 10918, 11815, 12100, 14203, 13671, 13877, 9589, 6600, 13873, 15560, 19003, 22727, 19755, 20267, 18070, 15069, 8791, 6058, 4971, 5929, 19820, 19435, 19028, 15824, 21378, 19463, 19161, 16609, 11581, 5102, 4023], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベリーの1歳の誕生日', 'keyword': 'berry first birthday'}, {'keywordCn': '浆果第一个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 707, 532, 574, 773, 721, 580, 583, 0, 532, 985, 910, 1997, 2379, 3841, 5493, 4939, 4581, 3075, 834, 0, 0, 1911, 4127, 4539, 2798, 2010, 3333, 3732, 2741, 2217, 2160, 2006, 1586, 4647, 4756, 6856, 5157, 4992, 5554, 4716, 4550, 7209, 4246, 2753], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベリーの最初の誕生日の装飾', 'keyword': 'berry first birthday decorations'}, {'keywordCn': '浆果一岁生日装饰', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 100, 0, 0, 3168, 4618, 11335, 52136, 55781, 63635, 77075, 71131, 69996, 66017, 55970, 45602, 26930, 18343, 18933, 56626, 66662, 69048, 64490, 69657, 67918, 63086, 49865, 33449, 21502, 16577], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ベリー・ファースト・バースデー・デコレーション', 'keyword': 'berry first birthday decor'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '餐具', 'searches': [16502, 18573, 13289, 12204, 11969, 11793, 12833, 15188, 15638, 14475, 12344, 13993, 12178, 14049, 14041, 12958, 9734, 8958, 11570, 12565, 12837, 12417, 14491, 12028, 13614, 8435, 13666, 13642, 14607, 13140, 15139, 14216, 11723, 6256, 6355, 5572, 6248, 5858, 6285, 5951, 9156, 9255, 8296, 10002, 8690, 7100, 6818, 6604, 6099, 5128, 7391, 7756, 7148, 6301, 6492, 6590, 6617, 5158, 5681, 5436, 6399, 5849, 5850, 5382, 5325, 5143, 5944, 5295, 5407, 4576, 4751, 3188, 4618, 4623, 3639, 3208, 3441, 2875, 3539, 4421, 4267, 3938, 4720, 4328, 4450, 4230, 4046, 4114, 4757, 3833, 4572, 4670, 4765, 3732, 3978, 3003, 3689, 2971, 3027, 2931, 3039, 3129, 4171, 3774, 3411, 2977, 3252], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'テーブルウェア', 'keyword': 'tableware'}, {'keywordCn': '婚礼淋浴装饰品', 'searches': [15570, 18493, 26491, 25783, 28829, 25909, 31027, 24256, 19330, 15480, 0, 0, 22721, 28813, 33472, 38631, 26267, 29480, 36695, 35617, 26587, 15324, 8751, 2343, 27786, 35706, 22412, 21747, 21865, 19477, 21207, 21405, 20193, 15517, 9280, 5852, 8608, 6568, 5186, 2533, 4652, 7468, 8118, 13823, 14558, 8802, 4656, 3770, 10322, 14232, 17736, 19387, 19084, 17637, 22675, 21513, 19222, 12068, 7633, 4877, 15214, 21420, 20069, 18880, 21869, 19613, 19128, 24379, 18106, 13033, 5987, 4767, 16039, 17048, 14026, 15105, 11795, 12441, 13454, 22895, 18679, 11264, 5259, 3834, 17733, 22332, 26672, 29622, 23720, 21626, 24356, 23876, 20657, 11533, 5432, 3267, 15917, 19636, 23416, 21701, 20450, 17493, 19482, 20471, 19037, 10969, 4778], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ウェディング・シャワー・デコレーション', 'keyword': 'wedding shower decorations'}, {'keywordCn': '新娘淋浴盘', 'searches': [0, 0, 3416, 3073, 5061, 0, 0, 0, 0, 0, 0, 0, 0, 5787, 6849, 17196, 14776, 14308, 16093, 15228, 12329, 6378, 3502, 2301, 8753, 5004, 11816, 11298, 11716, 11028, 12043, 10492, 9681, 8242, 4834, 3883, 9074, 9964, 11101, 2000, 4112, 5477, 6234, 6438, 6292, 3495, 2342, 1185, 4167, 5259, 6897, 9076, 9390, 9093, 10111, 8904, 7221, 4480, 2998, 2433, 6124, 8327, 11468, 11216, 9095, 7810, 8180, 7071, 5934, 4325, 2301, 2536, 6136, 7089, 7494, 7691, 7748, 7350, 7976, 9880, 9032, 4594, 2553, 1863, 7871, 10751, 14780, 16064, 12632, 10846, 11515, 8309, 7601, 3546, 2010, 1616, 7104, 7729, 10014, 10036, 8661, 8068, 8247, 7675, 7140, 3681, 1978], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ブライダルシャワープレート', 'keyword': 'bridal shower plates'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 899, 1218, 1498, 1904, 1908, 2234, 2840, 2645, 2562, 1517, 1440, 1726, 9057, 5795, 6144, 6337, 7906, 8849, 9600, 7498, 9900, 7070, 4611], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'something blue before i do'}, {'keywordCn': '新娘派对装饰品', 'searches': [158412, 190513, 247409, 242699, 247473, 254423, 274847, 237908, 188580, 133703, 69322, 46666, 222029, 293643, 317113, 378196, 318773, 309425, 337537, 283931, 235287, 144905, 69839, 51157, 254278, 305649, 225248, 325505, 315139, 239360, 204359, 207966, 171282, 118946, 65829, 43934, 192599, 183373, 34205, 9901, 32367, 55819, 68456, 114578, 112144, 65090, 35308, 24530, 69352, 44306, 149358, 185648, 177870, 175513, 210701, 168795, 137553, 87548, 53586, 39440, 147491, 184037, 238009, 209160, 193044, 181486, 161477, 172887, 131327, 76014, 39298, 30929, 142753, 149611, 128343, 138574, 95288, 98974, 92017, 122304, 109374, 71021, 41157, 31286, 109699, 137718, 136709, 143991, 137057, 122206, 121674, 113772, 117188, 68217, 37813, 31382, 86171, 94986, 110736, 117387, 98573, 92008, 90378, 90102, 87399, 57243, 40684], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ブライダルシャワーのデコレーション', 'keyword': 'bridal shower decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2734, 5405, 5271, 6686, 6015, 3754, 2993], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'shes the cherry on top decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 140, 915, 806, 565, 1095, 140, 2949, 4944, 5781, 7653, 7723, 8216, 8006, 7770, 6573, 4048, 2979], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cherry on top baby shower decorations'}, {'keywordCn': '樱桃生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 634, 398, 673, 0, 0, 0, 0, 626, 563, 488, 585, 510, 601, 100, 943, 905, 0, 752, 0, 2104, 1947, 1278, 1700, 1863, 3006, 4219, 5791, 7046, 4431, 3928, 2855, 12378, 13202, 14000, 16093, 16145, 17770, 20872, 22494, 28715, 21554, 20184], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '桜の誕生日の飾り', 'keyword': 'cherry birthday decorations'}, {'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 737, 0, 0, 0, 1316, 2327, 2769, 2601, 3063, 3637, 4421, 3922, 4062, 2229, 2014], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keyword': 'cherry on top party decorations'}, {'keywordCn': '樱桃派对装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 579, 780, 513, 536, 0, 401, 0, 0, 731, 693, 609, 945, 660, 666, 372, 1329, 964, 0, 0, 0, 1977, 867, 1134, 1204, 1702, 2849, 3275, 3984, 3663, 2343, 1883, 2199, 10773, 11387, 9828, 10689, 13309, 15397, 16297, 15657, 11373, 4873, 2995], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': '桜のパーティーの装飾', 'keyword': 'cherry party decorations'}], 'success': True}</t>
+  </si>
+  <si>
+    <t>{'code': 'OK', 'message': None, 'data': [{'keywordCn': '米奇老鼠的生日', 'searches': [23267, 13873, 14381, 0, 0, 0, 0, 0, 0, 0, 0, 0, 16759, 0, 0, 0, 0, 0, 0, 8551, 8053, 6398, 6828, 2114, 5037, 3395, 8099, 6774, 5500, 6523, 6068, 5704, 5983, 4890, 6396, 5482, 12207, 7984, 7183, 5531, 7048, 6506, 5974, 6315, 7871, 5527, 4830, 4520, 7394, 6401, 6695, 5958, 5680, 5306, 5534, 6025, 5579, 4615, 4741, 4194, 6120, 6791, 5154, 5137, 4913, 4619, 5299, 4618, 3982, 3780, 2326, 3153, 5897, 4769, 3745, 3721, 3843, 4054, 4040, 4469, 4518, 4496, 3681, 3604, 4722, 4471, 4363, 4724, 3662, 3297, 4226, 4127, 4277, 3319, 3047, 2805, 6503, 4287, 4637, 3890, 3436, 3466, 3606, 4204, 4154, 2929, 2581], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミッキーマウスの誕生日', 'keyword': 'mickey mouse birthday'}, {'keywordCn': '米老鼠 1 岁生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2324, 2069, 768, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 536, 778, 0, 0, 0, 614, 0, 0, 866, 613, 719, 960, 842, 643, 538, 555, 923, 1408, 912, 718, 581, 805, 757, 1970, 1357, 704, 934, 603, 931, 643, 1532, 2732, 4006, 3778, 3564, 6999, 5352, 5798, 5622, 5334, 5506, 5103, 5440, 5275, 4100, 3086, 3374, 8681, 5200, 5054, 5412, 5748, 6374, 6968, 6534, 5091, 3282, 2893], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミッキーマウス1歳の誕生日デコレーション', 'keyword': 'mickey mouse 1st birthday decorations'}, {'keywordCn': '米老鼠生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2776, 0, 0, 0, 0, 0, 0, 2735, 2978, 7183, 6175, 9612, 3942, 3639, 6503, 1290, 4004, 2536, 2430, 2299, 3901, 4894, 8024, 5525, 5115, 3685, 9713, 5918, 3683, 4447, 4887, 4873, 4953, 5219, 7928, 5338, 5220, 3224, 2274, 2635, 2761, 3215, 4200, 5012, 6860, 7391, 9759, 9019, 9715, 9028, 6724, 5742, 4976, 5521, 5077, 5092, 5302, 7456, 14874, 12207, 5087, 4478, 3469, 4367, 4794, 6310, 14181, 50360, 39820, 22259, 92958, 82884, 79093, 82578, 77000, 76625, 75445, 80504, 79212, 54066, 45085, 25780, 59033, 79564, 83107, 74004, 78269, 72540, 70295, 71773, 72947, 56661, 51577], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミッキーマウスの誕生日の飾り', 'keyword': 'mickey mouse birthday decorations'}, {'keywordCn': '米老鼠盘子', 'searches': [0, 5690, 6005, 3537, 0, 0, 4782, 0, 0, 0, 0, 3003, 4979, 4597, 5717, 5172, 5341, 0, 0, 5771, 5276, 6064, 5377, 2958, 6340, 3727, 5315, 5347, 5074, 5326, 5100, 5060, 4947, 4401, 4889, 4040, 5843, 6066, 5114, 4685, 5158, 5622, 5255, 4826, 5416, 4740, 4548, 4743, 5799, 5182, 5564, 5379, 4930, 4794, 5144, 5064, 4907, 4669, 4586, 4276, 4863, 4962, 4736, 4855, 4905, 4378, 3894, 4013, 3741, 3659, 3268, 2833, 5076, 4763, 3974, 4010, 3891, 3831, 3674, 4546, 4251, 3404, 3286, 2977, 4591, 4009, 4120, 4478, 3620, 3661, 3416, 3724, 3736, 4479, 3055, 2631, 5298, 5826, 5270, 5263, 4808, 4331, 5598, 5662, 4732, 3063, 3029], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミッキーマウスプレート', 'keyword': 'mickey mouse plates'}, {'keywordCn': '米老鼠的第一个生日装饰品', 'searches': [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2112, 3131, 2190, 793, 0, 1426, 2041, 0, 1280, 868, 791, 891, 2219, 1780, 2300, 1242, 1254, 0, 924, 0, 0, 441, 638, 656, 755, 652, 949, 1379, 1325, 1596, 2150, 2548, 2048, 2376, 1933, 2489, 4541, 3331, 2398, 2493, 1370, 1894, 1629, 2242, 1843, 1194, 2017, 2097, 3373, 3117, 2443, 2264, 2173, 2399, 2396, 2526, 2299, 2050, 1572, 1535, 3044, 2552, 2361, 2053, 2028, 2431, 2638, 2266, 1964, 1463, 1128], 'months': ['2017-01', '2017-02', '2017-03', '2017-04', '2017-05', '2017-06', '2017-07', '2017-08', '2017-09', '2017-10', '2017-11', '2017-12', '2018-01', '2018-02', '2018-03', '2018-04', '2018-05', '2018-06', '2018-07', '2018-08', '2018-09', '2018-10', '2018-11', '2018-12', '2019-01', '2019-02', '2019-03', '2019-04', '2019-05', '2019-06', '2019-07', '2019-08', '2019-09', '2019-10', '2019-11', '2019-12', '2020-01', '2020-02', '2020-03', '2020-04', '2020-05', '2020-06', '2020-07', '2020-08', '2020-09', '2020-10', '2020-11', '2020-12', '2021-01', '2021-02', '2021-03', '2021-04', '2021-05', '2021-06', '2021-07', '2021-08', '2021-09', '2021-10', '2021-11', '2021-12', '2022-01', '2022-02', '2022-03', '2022-04', '2022-05', '2022-06', '2022-07', '2022-08', '2022-09', '2022-10', '2022-11', '2022-12', '2023-01', '2023-02', '2023-03', '2023-04', '2023-05', '2023-06', '2023-07', '2023-08', '2023-09', '2023-10', '2023-11', '2023-12', '2024-01', '2024-02', '2024-03', '2024-04', '2024-05', '2024-06', '2024-07', '2024-08', '2024-09', '2024-10', '2024-11', '2024-12', '2025-01', '2025-02', '2025-03', '2025-04', '2025-05', '2025-06', '2025-07', '2025-08', '2025-09', '2025-10', '2025-11'], 'keywordJp': 'ミッキーマウスの1歳の誕生日の飾り', 'keyword': 'mickey mouse first birthday decorations'}], 'success': True}</t>
   </si>
 </sst>
 </file>
@@ -2158,13 +2317,13 @@
         <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="I2" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2184,13 +2343,13 @@
         <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2210,13 +2369,13 @@
         <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2233,16 +2392,16 @@
         <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H5" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="I5" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2259,16 +2418,16 @@
         <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H6" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="I6" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2285,16 +2444,16 @@
         <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2311,16 +2470,16 @@
         <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="I8" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2337,16 +2496,16 @@
         <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="I9" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2363,16 +2522,16 @@
         <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="I10" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2389,16 +2548,16 @@
         <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="I11" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2415,16 +2574,16 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="I12" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2444,13 +2603,13 @@
         <v>314</v>
       </c>
       <c r="G13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H13" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="I13" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2470,13 +2629,13 @@
         <v>315</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I14" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2493,16 +2652,16 @@
         <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H15" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="I15" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2519,16 +2678,16 @@
         <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H16" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2545,16 +2704,16 @@
         <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H17" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="I17" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2571,16 +2730,16 @@
         <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="I18" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2597,16 +2756,16 @@
         <v>224</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H19" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="I19" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2623,16 +2782,16 @@
         <v>225</v>
       </c>
       <c r="F20" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H20" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="I20" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2649,16 +2808,16 @@
         <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H21" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="I21" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2675,16 +2834,16 @@
         <v>227</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H22" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="I22" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2701,16 +2860,16 @@
         <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H23" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="I23" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2727,16 +2886,16 @@
         <v>229</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H24" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="I24" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2753,16 +2912,16 @@
         <v>230</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H25" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="I25" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2779,16 +2938,16 @@
         <v>231</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="I26" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2805,16 +2964,16 @@
         <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H27" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I27" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2831,16 +2990,16 @@
         <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H28" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="I28" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2857,16 +3016,16 @@
         <v>234</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G29" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="H29" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="I29" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2883,16 +3042,16 @@
         <v>235</v>
       </c>
       <c r="F30" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H30" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="I30" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2909,16 +3068,16 @@
         <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H31" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="I31" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2935,16 +3094,16 @@
         <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H32" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="I32" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2961,16 +3120,16 @@
         <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H33" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2987,16 +3146,16 @@
         <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="I34" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3016,13 +3175,13 @@
         <v>323</v>
       </c>
       <c r="G35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H35" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="I35" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3039,16 +3198,16 @@
         <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H36" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="I36" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3065,16 +3224,16 @@
         <v>242</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H37" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="I37" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3091,16 +3250,16 @@
         <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H38" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="I38" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3117,16 +3276,16 @@
         <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H39" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="I39" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3143,16 +3302,16 @@
         <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H40" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="I40" t="s">
-        <v>513</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3169,16 +3328,16 @@
         <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H41" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="I41" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3195,16 +3354,16 @@
         <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="H42" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="I42" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3221,16 +3380,16 @@
         <v>248</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
         <v>378</v>
       </c>
       <c r="H43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I43" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3247,16 +3406,16 @@
         <v>249</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
         <v>379</v>
       </c>
       <c r="H44" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="I44" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3273,16 +3432,16 @@
         <v>250</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G45" t="s">
         <v>380</v>
       </c>
       <c r="H45" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="I45" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3299,16 +3458,16 @@
         <v>251</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
         <v>381</v>
       </c>
       <c r="H46" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="I46" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3325,16 +3484,16 @@
         <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H47" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="I47" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3351,16 +3510,16 @@
         <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H48" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="I48" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3377,16 +3536,16 @@
         <v>254</v>
       </c>
       <c r="F49" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H49" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="I49" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3403,16 +3562,16 @@
         <v>255</v>
       </c>
       <c r="F50" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H50" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="I50" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3429,16 +3588,16 @@
         <v>256</v>
       </c>
       <c r="F51" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H51" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="I51" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3455,16 +3614,16 @@
         <v>257</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G52" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="H52" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="I52" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3481,16 +3640,16 @@
         <v>258</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G53" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H53" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="I53" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3507,16 +3666,16 @@
         <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G54" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="H54" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="I54" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3533,16 +3692,16 @@
         <v>260</v>
       </c>
       <c r="F55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G55" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H55" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="I55" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3559,13 +3718,16 @@
         <v>261</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="G56" t="s">
-        <v>388</v>
+        <v>391</v>
+      </c>
+      <c r="H56" t="s">
+        <v>487</v>
       </c>
       <c r="I56" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3582,16 +3744,16 @@
         <v>262</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="G57" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H57" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="I57" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3608,16 +3770,16 @@
         <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G58" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H58" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="I58" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3634,16 +3796,16 @@
         <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G59" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H59" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="I59" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3660,16 +3822,16 @@
         <v>265</v>
       </c>
       <c r="F60" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G60" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="H60" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="I60" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3686,16 +3848,16 @@
         <v>266</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G61" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H61" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="I61" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3712,16 +3874,16 @@
         <v>267</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H62" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="I62" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3738,16 +3900,16 @@
         <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G63" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H63" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="I63" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3764,16 +3926,16 @@
         <v>269</v>
       </c>
       <c r="F64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G64" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H64" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="I64" t="s">
-        <v>537</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3790,16 +3952,16 @@
         <v>270</v>
       </c>
       <c r="F65" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G65" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H65" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="I65" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3816,16 +3978,16 @@
         <v>271</v>
       </c>
       <c r="F66" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G66" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H66" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="I66" t="s">
-        <v>539</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3842,16 +4004,16 @@
         <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G67" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H67" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="I67" t="s">
-        <v>540</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3868,16 +4030,16 @@
         <v>273</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G68" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H68" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3894,16 +4056,16 @@
         <v>274</v>
       </c>
       <c r="F69" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G69" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H69" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="I69" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3920,16 +4082,16 @@
         <v>275</v>
       </c>
       <c r="F70" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G70" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H70" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="I70" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3946,16 +4108,16 @@
         <v>276</v>
       </c>
       <c r="F71" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G71" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H71" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="I71" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3972,16 +4134,16 @@
         <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G72" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="H72" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="I72" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3998,16 +4160,16 @@
         <v>278</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G73" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="H73" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="I73" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4024,16 +4186,16 @@
         <v>279</v>
       </c>
       <c r="F74" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G74" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H74" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="I74" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4050,16 +4212,16 @@
         <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="G75" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H75" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="I75" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4076,16 +4238,16 @@
         <v>281</v>
       </c>
       <c r="F76" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G76" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H76" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="I76" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4102,16 +4264,16 @@
         <v>282</v>
       </c>
       <c r="F77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G77" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H77" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="I77" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4128,16 +4290,16 @@
         <v>283</v>
       </c>
       <c r="F78" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H78" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="I78" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4154,16 +4316,16 @@
         <v>284</v>
       </c>
       <c r="F79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G79" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H79" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
       <c r="I79" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4180,16 +4342,16 @@
         <v>285</v>
       </c>
       <c r="F80" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G80" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H80" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="I80" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4206,16 +4368,16 @@
         <v>286</v>
       </c>
       <c r="F81" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G81" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="H81" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="I81" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4232,16 +4394,16 @@
         <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="G82" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H82" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="I82" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4258,16 +4420,16 @@
         <v>288</v>
       </c>
       <c r="F83" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G83" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H83" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="I83" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4284,16 +4446,16 @@
         <v>289</v>
       </c>
       <c r="F84" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G84" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H84" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="I84" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4310,16 +4472,16 @@
         <v>290</v>
       </c>
       <c r="F85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G85" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H85" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="I85" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4336,16 +4498,16 @@
         <v>291</v>
       </c>
       <c r="F86" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G86" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="H86" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
-        <v>559</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4362,16 +4524,16 @@
         <v>292</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G87" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="H87" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="I87" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4388,16 +4550,16 @@
         <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G88" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H88" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="I88" t="s">
-        <v>561</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4414,16 +4576,16 @@
         <v>294</v>
       </c>
       <c r="F89" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G89" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H89" t="s">
-        <v>421</v>
+        <v>518</v>
       </c>
       <c r="I89" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4440,16 +4602,16 @@
         <v>295</v>
       </c>
       <c r="F90" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G90" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H90" t="s">
-        <v>448</v>
+        <v>519</v>
       </c>
       <c r="I90" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4466,16 +4628,16 @@
         <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="G91" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="H91" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="I91" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4492,16 +4654,16 @@
         <v>297</v>
       </c>
       <c r="F92" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G92" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="H92" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="I92" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4518,16 +4680,16 @@
         <v>298</v>
       </c>
       <c r="F93" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G93" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H93" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="I93" t="s">
-        <v>566</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4544,16 +4706,16 @@
         <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G94" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="H94" t="s">
-        <v>432</v>
+        <v>522</v>
       </c>
       <c r="I94" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4570,16 +4732,16 @@
         <v>300</v>
       </c>
       <c r="F95" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G95" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="H95" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="I95" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4596,16 +4758,16 @@
         <v>301</v>
       </c>
       <c r="F96" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G96" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H96" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="I96" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4622,16 +4784,16 @@
         <v>302</v>
       </c>
       <c r="F97" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="G97" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="H97" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="I97" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4647,17 +4809,14 @@
       <c r="E98" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F98" t="s">
-        <v>306</v>
-      </c>
       <c r="G98" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="I98" t="s">
-        <v>571</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4674,16 +4833,16 @@
         <v>304</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="H99" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="I99" t="s">
-        <v>572</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4700,13 +4859,16 @@
         <v>305</v>
       </c>
       <c r="F100" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G100" t="s">
-        <v>420</v>
+        <v>435</v>
+      </c>
+      <c r="H100" t="s">
+        <v>527</v>
       </c>
       <c r="I100" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
